--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CK\Hubito\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -303,16 +303,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:H65"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="24"/>
+      <c r="G1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -656,25 +656,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -710,21 +710,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24">
         <v>70000</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
@@ -743,13 +743,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -771,13 +771,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -799,13 +799,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -826,13 +826,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -847,13 +847,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -868,13 +868,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -889,13 +889,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -910,13 +910,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -931,11 +931,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -950,11 +950,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -969,13 +969,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -990,13 +990,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1011,20 +1011,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1036,13 +1036,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1057,13 +1057,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1099,11 +1099,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1118,13 +1118,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1139,13 +1139,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1160,13 +1160,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1181,13 +1181,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1202,11 +1202,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1218,13 +1218,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1240,13 +1240,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1262,13 +1262,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1284,13 +1284,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1306,13 +1306,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1328,11 +1328,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1348,13 +1348,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1370,13 +1370,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1392,13 +1392,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1414,13 +1414,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1436,13 +1436,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1458,13 +1458,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1480,13 +1480,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1502,13 +1502,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1524,13 +1524,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1546,13 +1546,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1568,11 +1568,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1588,13 +1588,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1610,13 +1610,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1632,11 +1632,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1652,13 +1652,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1674,13 +1674,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1696,13 +1696,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1718,13 +1718,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1740,13 +1740,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1759,13 +1759,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1781,20 +1781,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="24"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1804,13 +1804,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1823,13 +1823,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1845,13 +1845,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1867,13 +1867,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1889,13 +1889,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1911,13 +1911,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1933,13 +1933,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1955,13 +1955,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -1977,11 +1977,11 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
@@ -1994,11 +1994,11 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
@@ -2011,11 +2011,11 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
@@ -2028,11 +2028,11 @@
       <c r="C68" s="5">
         <v>1.3</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
@@ -2045,11 +2045,11 @@
       <c r="C69" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
@@ -2062,11 +2062,11 @@
       <c r="C70" s="21">
         <v>3.3</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
@@ -2079,11 +2079,11 @@
       <c r="C71" s="21">
         <v>4.3</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
@@ -2096,11 +2096,11 @@
       <c r="C72" s="21">
         <v>5.3</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
@@ -2113,11 +2113,11 @@
       <c r="C73" s="21">
         <v>6.3</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
@@ -2130,11 +2130,11 @@
       <c r="C74" s="21">
         <v>7.3</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
@@ -2147,11 +2147,11 @@
       <c r="C75" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
@@ -2164,11 +2164,11 @@
       <c r="C76" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
@@ -2181,11 +2181,11 @@
       <c r="C77" s="21">
         <v>10.3</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
@@ -2198,11 +2198,11 @@
       <c r="C78" s="21">
         <v>11.3</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
@@ -2215,11 +2215,11 @@
       <c r="C79" s="21">
         <v>12.3</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
@@ -2232,11 +2232,11 @@
       <c r="C80" s="21">
         <v>13.3</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
@@ -2249,11 +2249,11 @@
       <c r="C81" s="21">
         <v>14.3</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
@@ -2266,11 +2266,11 @@
       <c r="C82" s="21">
         <v>15.3</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
@@ -2283,11 +2283,11 @@
       <c r="C83" s="21">
         <v>16.3</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
@@ -2300,11 +2300,11 @@
       <c r="C84" s="21">
         <v>17.3</v>
       </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
@@ -2317,11 +2317,11 @@
       <c r="C85" s="21">
         <v>18.3</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
@@ -2334,11 +2334,11 @@
       <c r="C86" s="21">
         <v>19.3</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -2351,11 +2351,11 @@
       <c r="C87" s="21">
         <v>20.3</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -2368,11 +2368,11 @@
       <c r="C88" s="21">
         <v>21.3</v>
       </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
@@ -2385,11 +2385,11 @@
       <c r="C89" s="21">
         <v>22.3</v>
       </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
@@ -2402,11 +2402,11 @@
       <c r="C90" s="21">
         <v>23.3</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
@@ -2419,11 +2419,11 @@
       <c r="C91" s="21">
         <v>24.3</v>
       </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
@@ -2436,11 +2436,11 @@
       <c r="C92" s="21">
         <v>25.3</v>
       </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
@@ -2453,11 +2453,11 @@
       <c r="C93" s="21">
         <v>26.3</v>
       </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
@@ -2470,11 +2470,11 @@
       <c r="C94" s="21">
         <v>27.3</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
@@ -2487,11 +2487,11 @@
       <c r="C95" s="21">
         <v>28.3</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
@@ -2504,11 +2504,11 @@
       <c r="C96" s="21">
         <v>29.3</v>
       </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2518,11 +2518,14 @@
       <c r="B97" s="21">
         <v>26.4</v>
       </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="C97" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2532,11 +2535,11 @@
       <c r="B98" s="21">
         <v>27.4</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2546,11 +2549,11 @@
       <c r="B99" s="21">
         <v>28.4</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2560,11 +2563,11 @@
       <c r="B100" s="21">
         <v>29.4</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2574,669 +2577,826 @@
       <c r="B101" s="21">
         <v>30.4</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="23"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="24"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="24"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="23"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="23"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="23"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="24"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="23"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="23"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="23"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="23"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="23"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="24"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D176:H176"/>
@@ -3261,163 +3421,6 @@
     <mergeCell ref="D159:H159"/>
     <mergeCell ref="D160:H160"/>
     <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4538,7 +4541,7 @@
       </c>
       <c r="C77">
         <f>Sheet1!C97</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,7 +6288,7 @@
       </c>
       <c r="C91">
         <f>Sheet1!C97</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,7 +7878,7 @@
       </c>
       <c r="C91">
         <f>Sheet1!C97</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -303,16 +303,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,7 +602,7 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97:H97"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -656,25 +656,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -710,21 +710,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26">
         <v>70000</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
@@ -743,13 +743,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -771,13 +771,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -799,13 +799,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -826,13 +826,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -847,13 +847,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -868,13 +868,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -889,13 +889,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -910,13 +910,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -931,11 +931,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -950,11 +950,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -969,13 +969,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -990,13 +990,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1011,20 +1011,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1036,13 +1036,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1057,13 +1057,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1099,11 +1099,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1118,13 +1118,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1139,13 +1139,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1160,13 +1160,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1181,13 +1181,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1202,11 +1202,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1218,13 +1218,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1240,13 +1240,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1262,13 +1262,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1284,13 +1284,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1306,13 +1306,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1328,11 +1328,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1348,13 +1348,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1370,13 +1370,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1392,13 +1392,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1414,13 +1414,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1436,13 +1436,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1458,13 +1458,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1480,13 +1480,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1502,13 +1502,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1524,13 +1524,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1546,13 +1546,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1568,11 +1568,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1588,13 +1588,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1610,13 +1610,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1632,11 +1632,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1652,13 +1652,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1674,13 +1674,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1696,13 +1696,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1718,13 +1718,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1740,13 +1740,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1759,13 +1759,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1781,20 +1781,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="23" t="s">
+      <c r="K56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="23"/>
+      <c r="L56" s="24"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1804,13 +1804,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1823,13 +1823,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1845,13 +1845,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1867,13 +1867,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1889,13 +1889,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1911,13 +1911,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1933,13 +1933,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1955,13 +1955,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -1977,11 +1977,11 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
@@ -1994,11 +1994,11 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
@@ -2011,11 +2011,11 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
@@ -2028,11 +2028,11 @@
       <c r="C68" s="5">
         <v>1.3</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
@@ -2045,11 +2045,11 @@
       <c r="C69" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
@@ -2062,11 +2062,11 @@
       <c r="C70" s="21">
         <v>3.3</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
@@ -2079,11 +2079,11 @@
       <c r="C71" s="21">
         <v>4.3</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
@@ -2096,11 +2096,11 @@
       <c r="C72" s="21">
         <v>5.3</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
@@ -2113,11 +2113,11 @@
       <c r="C73" s="21">
         <v>6.3</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
@@ -2130,11 +2130,11 @@
       <c r="C74" s="21">
         <v>7.3</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
@@ -2147,11 +2147,11 @@
       <c r="C75" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
@@ -2164,11 +2164,11 @@
       <c r="C76" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
@@ -2181,11 +2181,11 @@
       <c r="C77" s="21">
         <v>10.3</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
@@ -2198,11 +2198,11 @@
       <c r="C78" s="21">
         <v>11.3</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
@@ -2215,11 +2215,11 @@
       <c r="C79" s="21">
         <v>12.3</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
@@ -2232,11 +2232,11 @@
       <c r="C80" s="21">
         <v>13.3</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
@@ -2249,11 +2249,11 @@
       <c r="C81" s="21">
         <v>14.3</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
@@ -2266,11 +2266,11 @@
       <c r="C82" s="21">
         <v>15.3</v>
       </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
@@ -2283,11 +2283,11 @@
       <c r="C83" s="21">
         <v>16.3</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
@@ -2300,11 +2300,11 @@
       <c r="C84" s="21">
         <v>17.3</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
@@ -2317,11 +2317,11 @@
       <c r="C85" s="21">
         <v>18.3</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
@@ -2334,11 +2334,11 @@
       <c r="C86" s="21">
         <v>19.3</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -2351,11 +2351,11 @@
       <c r="C87" s="21">
         <v>20.3</v>
       </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -2368,11 +2368,11 @@
       <c r="C88" s="21">
         <v>21.3</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
@@ -2385,11 +2385,11 @@
       <c r="C89" s="21">
         <v>22.3</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
@@ -2402,11 +2402,11 @@
       <c r="C90" s="21">
         <v>23.3</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
@@ -2419,11 +2419,11 @@
       <c r="C91" s="21">
         <v>24.3</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
@@ -2436,11 +2436,11 @@
       <c r="C92" s="21">
         <v>25.3</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
@@ -2453,11 +2453,11 @@
       <c r="C93" s="21">
         <v>26.3</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
@@ -2470,11 +2470,11 @@
       <c r="C94" s="21">
         <v>27.3</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
@@ -2487,11 +2487,11 @@
       <c r="C95" s="21">
         <v>28.3</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
@@ -2504,11 +2504,11 @@
       <c r="C96" s="21">
         <v>29.3</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2521,11 +2521,11 @@
       <c r="C97" s="5">
         <v>1.4</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2535,11 +2535,14 @@
       <c r="B98" s="21">
         <v>27.4</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="C98" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2549,11 +2552,11 @@
       <c r="B99" s="21">
         <v>28.4</v>
       </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2563,11 +2566,11 @@
       <c r="B100" s="21">
         <v>29.4</v>
       </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2577,826 +2580,669 @@
       <c r="B101" s="21">
         <v>30.4</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
-      <c r="H143" s="23"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="23"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="23"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="23"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="23"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="23"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="23"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="23"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D176:H176"/>
@@ -3421,6 +3267,163 @@
     <mergeCell ref="D159:H159"/>
     <mergeCell ref="D160:H160"/>
     <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4554,7 +4557,7 @@
       </c>
       <c r="C78">
         <f>Sheet1!C98</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,7 +6304,7 @@
       </c>
       <c r="C92">
         <f>Sheet1!C98</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,7 +7894,7 @@
       </c>
       <c r="C92">
         <f>Sheet1!C98</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Son" sheetId="2" r:id="rId2"/>
     <sheet name="Lang" sheetId="3" r:id="rId3"/>
     <sheet name="Thuy" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="57">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -187,6 +188,18 @@
   <si>
     <t>Von Goc</t>
   </si>
+  <si>
+    <t>10000(27/3)</t>
+  </si>
+  <si>
+    <t>(117.000+31.300)</t>
+  </si>
+  <si>
+    <t>Thu (Thúy)</t>
+  </si>
+  <si>
+    <t>Khach Trang</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,7 +316,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,7 +331,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -599,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +651,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="24"/>
+      <c r="G1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -656,25 +687,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -698,39 +729,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>37480</v>
+        <v>45820</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>36300</v>
+        <v>44300</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1180</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30">
         <v>70000</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10003)-SUM(J8:J10003)</f>
-        <v>13120</v>
+        <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
+        <v>3460</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -743,13 +774,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -758,7 +789,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>28749.999999999993</v>
+        <v>35416.666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -771,13 +802,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -786,7 +817,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>7030.0000000000036</v>
+        <v>9103.3333333333358</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -799,13 +830,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -813,7 +844,8 @@
         <v>52</v>
       </c>
       <c r="N10" s="1">
-        <v>107000</v>
+        <f>117000+31300</f>
+        <v>148300</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -826,13 +858,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -847,13 +879,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -868,13 +900,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -889,13 +921,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -910,13 +942,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -931,11 +963,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -950,11 +982,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -969,13 +1001,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -990,13 +1022,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1011,20 +1043,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1036,13 +1068,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1057,13 +1089,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1078,13 +1110,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1099,11 +1131,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1118,13 +1150,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1139,13 +1171,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1160,13 +1192,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1181,13 +1213,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1202,11 +1234,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1218,13 +1250,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1240,20 +1272,20 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <f t="shared" ref="A32:A98" si="0">A31+1</f>
+        <f t="shared" ref="A32:A101" si="0">A31+1</f>
         <v>25</v>
       </c>
       <c r="B32" s="6">
@@ -1262,13 +1294,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1284,13 +1316,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1306,13 +1338,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1328,11 +1360,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1348,13 +1380,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1370,13 +1402,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1392,13 +1424,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1414,13 +1446,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1436,13 +1468,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1458,13 +1490,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1480,13 +1512,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1502,13 +1534,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1524,13 +1556,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1546,13 +1578,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1568,11 +1600,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1588,13 +1620,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1610,13 +1642,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1632,11 +1664,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1652,13 +1684,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1674,13 +1706,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1696,13 +1728,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1718,13 +1750,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1740,13 +1772,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1759,13 +1791,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1781,20 +1813,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="24"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1804,13 +1836,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1823,13 +1855,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1845,13 +1877,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1867,13 +1899,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1889,13 +1921,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1911,13 +1943,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1933,13 +1965,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1955,18 +1987,18 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1977,13 +2009,18 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1994,15 +2031,20 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <f t="shared" si="0"/>
+        <f>A66+1</f>
         <v>57</v>
       </c>
       <c r="B67" s="14">
@@ -2011,1399 +2053,1339 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <f t="shared" si="0"/>
+      <c r="D67" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24">
+        <v>27.3</v>
+      </c>
+      <c r="C68" s="24">
+        <v>30.2</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="J68" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <f>A67+1</f>
         <v>58</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B69" s="14">
         <v>28.3</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="D69" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B70" s="14">
         <v>29.3</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+      <c r="D70" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="1">
+        <f>420+770</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B71" s="14">
         <v>30.3</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C71" s="21">
         <v>3.3</v>
       </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="D71" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B72" s="14">
         <v>31.3</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C72" s="21">
         <v>4.3</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <f t="shared" si="0"/>
+      <c r="D72" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27">
+        <v>31.3</v>
+      </c>
+      <c r="C73" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="J73" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="27">
+        <v>31.3</v>
+      </c>
+      <c r="C74" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="1">
+        <v>41300</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <f>A72+1</f>
         <v>62</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B75" s="5">
         <v>1.4</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C75" s="21">
         <v>5.3</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
+      <c r="D75" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B76" s="5">
         <v>2.4</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C76" s="21">
         <v>6.3</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+      <c r="D76" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B77" s="21">
         <v>3.4</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C77" s="21">
         <v>7.3</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
+      <c r="D77" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B78" s="21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C78" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B79" s="21">
         <v>5.4</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C79" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B80" s="21">
         <v>6.4</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C80" s="21">
         <v>10.3</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B78" s="21">
-        <v>7.4</v>
-      </c>
-      <c r="C78" s="21">
-        <v>11.3</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B79" s="21">
-        <v>8.4</v>
-      </c>
-      <c r="C79" s="21">
-        <v>12.3</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B80" s="21">
-        <v>9.4</v>
-      </c>
-      <c r="C80" s="21">
-        <v>13.3</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B81" s="21">
-        <v>10.4</v>
+        <v>7.4</v>
       </c>
       <c r="C81" s="21">
-        <v>14.3</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+        <v>11.3</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B82" s="21">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="C82" s="21">
-        <v>15.3</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
+        <v>12.3</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B83" s="21">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="C83" s="21">
-        <v>16.3</v>
-      </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
+        <v>13.3</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B84" s="21">
-        <v>13.4</v>
+        <v>10.4</v>
       </c>
       <c r="C84" s="21">
-        <v>17.3</v>
-      </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
+        <v>14.3</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B85" s="21">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
       <c r="C85" s="21">
-        <v>18.3</v>
-      </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
+        <v>15.3</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B86" s="21">
-        <v>15.4</v>
+        <v>12.4</v>
       </c>
       <c r="C86" s="21">
-        <v>19.3</v>
-      </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+        <v>16.3</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B87" s="21">
-        <v>16.399999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="C87" s="21">
-        <v>20.3</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
+        <v>17.3</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B88" s="21">
-        <v>17.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="C88" s="21">
-        <v>21.3</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+        <v>18.3</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B89" s="21">
-        <v>18.399999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="C89" s="21">
-        <v>22.3</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+        <v>19.3</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B90" s="21">
-        <v>19.399999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C90" s="21">
-        <v>23.3</v>
-      </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
+        <v>20.3</v>
+      </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B91" s="21">
-        <v>20.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C91" s="21">
-        <v>24.3</v>
-      </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
+        <v>21.3</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B92" s="21">
-        <v>21.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C92" s="21">
-        <v>25.3</v>
-      </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
+        <v>22.3</v>
+      </c>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B93" s="21">
-        <v>22.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C93" s="21">
-        <v>26.3</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
+        <v>23.3</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94" s="21">
-        <v>23.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C94" s="21">
-        <v>27.3</v>
-      </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
+        <v>24.3</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B95" s="21">
-        <v>24.4</v>
+        <v>21.4</v>
       </c>
       <c r="C95" s="21">
-        <v>28.3</v>
-      </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
+        <v>25.3</v>
+      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B96" s="21">
-        <v>25.4</v>
+        <v>22.4</v>
       </c>
       <c r="C96" s="21">
-        <v>29.3</v>
-      </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
+        <v>26.3</v>
+      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B97" s="21">
-        <v>26.4</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+        <v>23.4</v>
+      </c>
+      <c r="C97" s="21">
+        <v>27.3</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B98" s="21">
-        <v>27.4</v>
-      </c>
-      <c r="C98" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
+        <v>24.4</v>
+      </c>
+      <c r="C98" s="21">
+        <v>28.3</v>
+      </c>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
-        <f t="shared" ref="A99:A130" si="1">A98+1</f>
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="B99" s="21">
-        <v>28.4</v>
-      </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
+        <v>25.4</v>
+      </c>
+      <c r="C99" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="B100" s="21">
-        <v>29.4</v>
-      </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
+        <v>26.4</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="B101" s="21">
-        <v>30.4</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
+        <v>27.4</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
+        <f t="shared" ref="A102:A133" si="1">A101+1</f>
+        <v>89</v>
+      </c>
+      <c r="B102" s="21">
+        <v>28.4</v>
+      </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="B103" s="21">
+        <v>29.4</v>
+      </c>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="B104" s="21">
+        <v>30.4</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
+        <v>109</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
+        <v>115</v>
+      </c>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="24"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="24"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="24"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="24"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="24"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="24"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="24"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="24"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+    </row>
+    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="29"/>
+    </row>
+    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
+    </row>
+    <row r="181" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
+  <mergeCells count="184">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -3424,6 +3406,170 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3435,7 +3581,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E44"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,10 +3628,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
@@ -3526,19 +3672,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>280</v>
+        <v>680</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>16249.999999999998</v>
+        <v>20416.666666666664</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>3530.0000000000018</v>
+        <v>4763.3333333333358</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -4132,6 +4278,12 @@
         <f>Sheet1!C65</f>
         <v>28.2</v>
       </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -4144,6 +4296,12 @@
         <f>Sheet1!C66</f>
         <v>29.2</v>
       </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -4156,225 +4314,273 @@
         <f>Sheet1!C67</f>
         <v>30.2</v>
       </c>
+      <c r="D47">
+        <v>500</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
       <c r="B48">
-        <f>Sheet1!B68</f>
+        <f>Sheet1!B69</f>
         <v>28.3</v>
       </c>
       <c r="C48">
-        <f>Sheet1!C68</f>
+        <f>Sheet1!C69</f>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49">
-        <f>Sheet1!B69</f>
+        <f>Sheet1!B70</f>
         <v>29.3</v>
       </c>
       <c r="C49">
-        <f>Sheet1!C69</f>
+        <f>Sheet1!C70</f>
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50">
-        <f>Sheet1!B70</f>
+        <f>Sheet1!B71</f>
         <v>30.3</v>
       </c>
       <c r="C50">
-        <f>Sheet1!C70</f>
+        <f>Sheet1!C71</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51">
-        <f>Sheet1!B71</f>
+        <f>Sheet1!B72</f>
         <v>31.3</v>
       </c>
       <c r="C51">
-        <f>Sheet1!C71</f>
+        <f>Sheet1!C72</f>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>500</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52">
-        <f>Sheet1!B72</f>
+        <f>Sheet1!B75</f>
         <v>1.4</v>
       </c>
       <c r="C52">
-        <f>Sheet1!C72</f>
+        <f>Sheet1!C75</f>
         <v>5.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53">
-        <f>Sheet1!B73</f>
+        <f>Sheet1!B76</f>
         <v>2.4</v>
       </c>
       <c r="C53">
-        <f>Sheet1!C73</f>
+        <f>Sheet1!C76</f>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1000</v>
+      </c>
+      <c r="E53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
       <c r="B54">
-        <f>Sheet1!B74</f>
+        <f>Sheet1!B77</f>
         <v>3.4</v>
       </c>
       <c r="C54">
-        <f>Sheet1!C74</f>
+        <f>Sheet1!C77</f>
         <v>7.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
       <c r="B55">
-        <f>Sheet1!B75</f>
+        <f>Sheet1!B78</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="C55">
-        <f>Sheet1!C75</f>
+        <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
       <c r="B56">
-        <f>Sheet1!B76</f>
+        <f>Sheet1!B79</f>
         <v>5.4</v>
       </c>
       <c r="C56">
-        <f>Sheet1!C76</f>
+        <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
       <c r="B57">
-        <f>Sheet1!B77</f>
+        <f>Sheet1!B80</f>
         <v>6.4</v>
       </c>
       <c r="C57">
-        <f>Sheet1!C77</f>
+        <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
       <c r="B58">
-        <f>Sheet1!B78</f>
+        <f>Sheet1!B81</f>
         <v>7.4</v>
       </c>
       <c r="C58">
-        <f>Sheet1!C78</f>
+        <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59">
-        <f>Sheet1!B79</f>
+        <f>Sheet1!B82</f>
         <v>8.4</v>
       </c>
       <c r="C59">
-        <f>Sheet1!C79</f>
+        <f>Sheet1!C82</f>
         <v>12.3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
       <c r="B60">
-        <f>Sheet1!B80</f>
+        <f>Sheet1!B83</f>
         <v>9.4</v>
       </c>
       <c r="C60">
-        <f>Sheet1!C80</f>
+        <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
       <c r="B61">
-        <f>Sheet1!B81</f>
+        <f>Sheet1!B84</f>
         <v>10.4</v>
       </c>
       <c r="C61">
-        <f>Sheet1!C81</f>
+        <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B82</f>
+        <f>Sheet1!B85</f>
         <v>11.4</v>
       </c>
       <c r="C62">
-        <f>Sheet1!C82</f>
+        <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B83</f>
+        <f>Sheet1!B86</f>
         <v>12.4</v>
       </c>
       <c r="C63">
-        <f>Sheet1!C83</f>
+        <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B84</f>
+        <f>Sheet1!B87</f>
         <v>13.4</v>
       </c>
       <c r="C64">
-        <f>Sheet1!C84</f>
+        <f>Sheet1!C87</f>
         <v>17.3</v>
       </c>
     </row>
@@ -4383,11 +4589,11 @@
         <v>30</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B85</f>
+        <f>Sheet1!B88</f>
         <v>14.4</v>
       </c>
       <c r="C65">
-        <f>Sheet1!C85</f>
+        <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
     </row>
@@ -4396,11 +4602,11 @@
         <v>31</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B86</f>
+        <f>Sheet1!B89</f>
         <v>15.4</v>
       </c>
       <c r="C66">
-        <f>Sheet1!C86</f>
+        <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
     </row>
@@ -4409,11 +4615,11 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B87</f>
+        <f>Sheet1!B90</f>
         <v>16.399999999999999</v>
       </c>
       <c r="C67">
-        <f>Sheet1!C87</f>
+        <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
     </row>
@@ -4422,11 +4628,11 @@
         <v>26</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B88</f>
+        <f>Sheet1!B91</f>
         <v>17.399999999999999</v>
       </c>
       <c r="C68">
-        <f>Sheet1!C88</f>
+        <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
     </row>
@@ -4435,11 +4641,11 @@
         <v>27</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B89</f>
+        <f>Sheet1!B92</f>
         <v>18.399999999999999</v>
       </c>
       <c r="C69">
-        <f>Sheet1!C89</f>
+        <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
     </row>
@@ -4448,11 +4654,11 @@
         <v>28</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B90</f>
+        <f>Sheet1!B93</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C70">
-        <f>Sheet1!C90</f>
+        <f>Sheet1!C93</f>
         <v>23.3</v>
       </c>
     </row>
@@ -4461,11 +4667,11 @@
         <v>29</v>
       </c>
       <c r="B71">
-        <f>Sheet1!B91</f>
+        <f>Sheet1!B94</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C71">
-        <f>Sheet1!C91</f>
+        <f>Sheet1!C94</f>
         <v>24.3</v>
       </c>
     </row>
@@ -4474,11 +4680,11 @@
         <v>30</v>
       </c>
       <c r="B72">
-        <f>Sheet1!B92</f>
+        <f>Sheet1!B95</f>
         <v>21.4</v>
       </c>
       <c r="C72">
-        <f>Sheet1!C92</f>
+        <f>Sheet1!C95</f>
         <v>25.3</v>
       </c>
     </row>
@@ -4487,11 +4693,11 @@
         <v>31</v>
       </c>
       <c r="B73">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B96</f>
         <v>22.4</v>
       </c>
       <c r="C73">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C96</f>
         <v>26.3</v>
       </c>
     </row>
@@ -4500,11 +4706,11 @@
         <v>32</v>
       </c>
       <c r="B74">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B97</f>
         <v>23.4</v>
       </c>
       <c r="C74">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C97</f>
         <v>27.3</v>
       </c>
     </row>
@@ -4513,11 +4719,11 @@
         <v>26</v>
       </c>
       <c r="B75">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B98</f>
         <v>24.4</v>
       </c>
       <c r="C75">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C98</f>
         <v>28.3</v>
       </c>
     </row>
@@ -4526,11 +4732,11 @@
         <v>27</v>
       </c>
       <c r="B76">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B99</f>
         <v>25.4</v>
       </c>
       <c r="C76">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C99</f>
         <v>29.3</v>
       </c>
     </row>
@@ -4539,11 +4745,11 @@
         <v>28</v>
       </c>
       <c r="B77">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B100</f>
         <v>26.4</v>
       </c>
       <c r="C77">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C100</f>
         <v>1.4</v>
       </c>
     </row>
@@ -4552,11 +4758,11 @@
         <v>29</v>
       </c>
       <c r="B78">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B101</f>
         <v>27.4</v>
       </c>
       <c r="C78">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C101</f>
         <v>2.4</v>
       </c>
     </row>
@@ -4565,11 +4771,11 @@
         <v>30</v>
       </c>
       <c r="B79">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B102</f>
         <v>28.4</v>
       </c>
       <c r="C79">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C102</f>
         <v>0</v>
       </c>
     </row>
@@ -4578,11 +4784,11 @@
         <v>31</v>
       </c>
       <c r="B80">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B103</f>
         <v>29.4</v>
       </c>
       <c r="C80">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C103</f>
         <v>0</v>
       </c>
     </row>
@@ -4591,11 +4797,11 @@
         <v>32</v>
       </c>
       <c r="B81">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B104</f>
         <v>30.4</v>
       </c>
       <c r="C81">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C104</f>
         <v>0</v>
       </c>
     </row>
@@ -4604,11 +4810,11 @@
         <v>26</v>
       </c>
       <c r="B82">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B105</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f>Sheet1!C102</f>
+        <f>Sheet1!C105</f>
         <v>0</v>
       </c>
     </row>
@@ -4617,11 +4823,11 @@
         <v>27</v>
       </c>
       <c r="B83">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B106</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f>Sheet1!C103</f>
+        <f>Sheet1!C106</f>
         <v>0</v>
       </c>
     </row>
@@ -4630,11 +4836,11 @@
         <v>28</v>
       </c>
       <c r="B84">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B107</f>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>Sheet1!C104</f>
+        <f>Sheet1!C107</f>
         <v>0</v>
       </c>
     </row>
@@ -4643,11 +4849,11 @@
         <v>29</v>
       </c>
       <c r="B85">
-        <f>Sheet1!B105</f>
+        <f>Sheet1!B108</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f>Sheet1!C105</f>
+        <f>Sheet1!C108</f>
         <v>0</v>
       </c>
     </row>
@@ -4656,11 +4862,11 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <f>Sheet1!B106</f>
+        <f>Sheet1!B109</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f>Sheet1!C106</f>
+        <f>Sheet1!C109</f>
         <v>0</v>
       </c>
     </row>
@@ -4669,11 +4875,11 @@
         <v>31</v>
       </c>
       <c r="B87">
-        <f>Sheet1!B107</f>
+        <f>Sheet1!B110</f>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>Sheet1!C107</f>
+        <f>Sheet1!C110</f>
         <v>0</v>
       </c>
     </row>
@@ -4682,11 +4888,11 @@
         <v>32</v>
       </c>
       <c r="B88">
-        <f>Sheet1!B108</f>
+        <f>Sheet1!B111</f>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>Sheet1!C108</f>
+        <f>Sheet1!C111</f>
         <v>0</v>
       </c>
     </row>
@@ -4695,11 +4901,11 @@
         <v>26</v>
       </c>
       <c r="B89">
-        <f>Sheet1!B109</f>
+        <f>Sheet1!B112</f>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>Sheet1!C109</f>
+        <f>Sheet1!C112</f>
         <v>0</v>
       </c>
     </row>
@@ -4708,11 +4914,11 @@
         <v>27</v>
       </c>
       <c r="B90">
-        <f>Sheet1!B110</f>
+        <f>Sheet1!B113</f>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>Sheet1!C110</f>
+        <f>Sheet1!C113</f>
         <v>0</v>
       </c>
     </row>
@@ -4721,11 +4927,11 @@
         <v>28</v>
       </c>
       <c r="B91">
-        <f>Sheet1!B111</f>
+        <f>Sheet1!B114</f>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>Sheet1!C111</f>
+        <f>Sheet1!C114</f>
         <v>0</v>
       </c>
     </row>
@@ -4734,11 +4940,11 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <f>Sheet1!B112</f>
+        <f>Sheet1!B115</f>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>Sheet1!C112</f>
+        <f>Sheet1!C115</f>
         <v>0</v>
       </c>
     </row>
@@ -4747,11 +4953,11 @@
         <v>30</v>
       </c>
       <c r="B93">
-        <f>Sheet1!B113</f>
+        <f>Sheet1!B116</f>
         <v>0</v>
       </c>
       <c r="C93">
-        <f>Sheet1!C113</f>
+        <f>Sheet1!C116</f>
         <v>0</v>
       </c>
     </row>
@@ -4760,11 +4966,11 @@
         <v>31</v>
       </c>
       <c r="B94">
-        <f>Sheet1!B114</f>
+        <f>Sheet1!B117</f>
         <v>0</v>
       </c>
       <c r="C94">
-        <f>Sheet1!C114</f>
+        <f>Sheet1!C117</f>
         <v>0</v>
       </c>
     </row>
@@ -4773,11 +4979,11 @@
         <v>32</v>
       </c>
       <c r="B95">
-        <f>Sheet1!B115</f>
+        <f>Sheet1!B118</f>
         <v>0</v>
       </c>
       <c r="C95">
-        <f>Sheet1!C115</f>
+        <f>Sheet1!C118</f>
         <v>0</v>
       </c>
     </row>
@@ -4786,11 +4992,11 @@
         <v>26</v>
       </c>
       <c r="B96">
-        <f>Sheet1!B116</f>
+        <f>Sheet1!B119</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>Sheet1!C116</f>
+        <f>Sheet1!C119</f>
         <v>0</v>
       </c>
     </row>
@@ -4799,11 +5005,11 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <f>Sheet1!B117</f>
+        <f>Sheet1!B120</f>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>Sheet1!C117</f>
+        <f>Sheet1!C120</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,11 +5018,11 @@
         <v>28</v>
       </c>
       <c r="B98">
-        <f>Sheet1!B118</f>
+        <f>Sheet1!B121</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>Sheet1!C118</f>
+        <f>Sheet1!C121</f>
         <v>0</v>
       </c>
     </row>
@@ -4825,11 +5031,11 @@
         <v>29</v>
       </c>
       <c r="B99">
-        <f>Sheet1!B119</f>
+        <f>Sheet1!B122</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>Sheet1!C119</f>
+        <f>Sheet1!C122</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,11 +5044,11 @@
         <v>30</v>
       </c>
       <c r="B100">
-        <f>Sheet1!B120</f>
+        <f>Sheet1!B123</f>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>Sheet1!C120</f>
+        <f>Sheet1!C123</f>
         <v>0</v>
       </c>
     </row>
@@ -4851,11 +5057,11 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <f>Sheet1!B121</f>
+        <f>Sheet1!B124</f>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>Sheet1!C121</f>
+        <f>Sheet1!C124</f>
         <v>0</v>
       </c>
     </row>
@@ -4864,11 +5070,11 @@
         <v>32</v>
       </c>
       <c r="B102">
-        <f>Sheet1!B122</f>
+        <f>Sheet1!B125</f>
         <v>0</v>
       </c>
       <c r="C102">
-        <f>Sheet1!C122</f>
+        <f>Sheet1!C125</f>
         <v>0</v>
       </c>
     </row>
@@ -4885,12 +5091,13 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:E58"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4931,17 +5138,19 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -4971,23 +5180,25 @@
       <c r="E4" s="19">
         <v>5000</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>8333.3333333333321</v>
+        <v>10000</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>2166.6666666666679</v>
+        <v>2740</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5879,6 +6090,12 @@
         <f>Sheet1!C65</f>
         <v>28.2</v>
       </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -5891,6 +6108,12 @@
         <f>Sheet1!C66</f>
         <v>29.2</v>
       </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -5903,18 +6126,30 @@
         <f>Sheet1!C67</f>
         <v>30.2</v>
       </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B68</f>
+        <f>Sheet1!B69</f>
         <v>28.3</v>
       </c>
       <c r="C62">
-        <f>Sheet1!C68</f>
+        <f>Sheet1!C69</f>
         <v>1.3</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,12 +6157,18 @@
         <v>28</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B69</f>
+        <f>Sheet1!B70</f>
         <v>29.3</v>
       </c>
       <c r="C63">
-        <f>Sheet1!C69</f>
+        <f>Sheet1!C70</f>
         <v>2.2999999999999998</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5935,219 +6176,249 @@
         <v>29</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B70</f>
+        <f>Sheet1!B71</f>
         <v>30.3</v>
       </c>
       <c r="C64">
-        <f>Sheet1!C70</f>
+        <f>Sheet1!C71</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B71</f>
+        <f>Sheet1!B72</f>
         <v>31.3</v>
       </c>
       <c r="C65">
-        <f>Sheet1!C71</f>
+        <f>Sheet1!C72</f>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>400</v>
+      </c>
+      <c r="E65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B72</f>
+        <f>Sheet1!B75</f>
         <v>1.4</v>
       </c>
       <c r="C66">
-        <f>Sheet1!C72</f>
+        <f>Sheet1!C75</f>
         <v>5.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B73</f>
+        <f>Sheet1!B76</f>
         <v>2.4</v>
       </c>
       <c r="C67">
-        <f>Sheet1!C73</f>
+        <f>Sheet1!C76</f>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>400</v>
+      </c>
+      <c r="E67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B74</f>
+        <f>Sheet1!B77</f>
         <v>3.4</v>
       </c>
       <c r="C68">
-        <f>Sheet1!C74</f>
+        <f>Sheet1!C77</f>
         <v>7.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>200</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B75</f>
+        <f>Sheet1!B78</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="C69">
-        <f>Sheet1!C75</f>
+        <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B76</f>
+        <f>Sheet1!B79</f>
         <v>5.4</v>
       </c>
       <c r="C70">
-        <f>Sheet1!C76</f>
+        <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>29</v>
       </c>
       <c r="B71">
-        <f>Sheet1!B77</f>
+        <f>Sheet1!B80</f>
         <v>6.4</v>
       </c>
       <c r="C71">
-        <f>Sheet1!C77</f>
+        <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
       <c r="B72">
-        <f>Sheet1!B78</f>
+        <f>Sheet1!B81</f>
         <v>7.4</v>
       </c>
       <c r="C72">
-        <f>Sheet1!C78</f>
+        <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>31</v>
       </c>
       <c r="B73">
-        <f>Sheet1!B79</f>
+        <f>Sheet1!B82</f>
         <v>8.4</v>
       </c>
       <c r="C73">
-        <f>Sheet1!C79</f>
+        <f>Sheet1!C82</f>
         <v>12.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
       <c r="B74">
-        <f>Sheet1!B80</f>
+        <f>Sheet1!B83</f>
         <v>9.4</v>
       </c>
       <c r="C74">
-        <f>Sheet1!C80</f>
+        <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
       <c r="B75">
-        <f>Sheet1!B81</f>
+        <f>Sheet1!B84</f>
         <v>10.4</v>
       </c>
       <c r="C75">
-        <f>Sheet1!C81</f>
+        <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
       <c r="B76">
-        <f>Sheet1!B82</f>
+        <f>Sheet1!B85</f>
         <v>11.4</v>
       </c>
       <c r="C76">
-        <f>Sheet1!C82</f>
+        <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77">
-        <f>Sheet1!B83</f>
+        <f>Sheet1!B86</f>
         <v>12.4</v>
       </c>
       <c r="C77">
-        <f>Sheet1!C83</f>
+        <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
       <c r="B78">
-        <f>Sheet1!B84</f>
+        <f>Sheet1!B87</f>
         <v>13.4</v>
       </c>
       <c r="C78">
-        <f>Sheet1!C84</f>
+        <f>Sheet1!C87</f>
         <v>17.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79">
-        <f>Sheet1!B85</f>
+        <f>Sheet1!B88</f>
         <v>14.4</v>
       </c>
       <c r="C79">
-        <f>Sheet1!C85</f>
+        <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="B80">
-        <f>Sheet1!B86</f>
+        <f>Sheet1!B89</f>
         <v>15.4</v>
       </c>
       <c r="C80">
-        <f>Sheet1!C86</f>
+        <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
     </row>
@@ -6156,11 +6427,11 @@
         <v>32</v>
       </c>
       <c r="B81">
-        <f>Sheet1!B87</f>
+        <f>Sheet1!B90</f>
         <v>16.399999999999999</v>
       </c>
       <c r="C81">
-        <f>Sheet1!C87</f>
+        <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
     </row>
@@ -6169,11 +6440,11 @@
         <v>26</v>
       </c>
       <c r="B82">
-        <f>Sheet1!B88</f>
+        <f>Sheet1!B91</f>
         <v>17.399999999999999</v>
       </c>
       <c r="C82">
-        <f>Sheet1!C88</f>
+        <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
     </row>
@@ -6182,11 +6453,11 @@
         <v>27</v>
       </c>
       <c r="B83">
-        <f>Sheet1!B89</f>
+        <f>Sheet1!B92</f>
         <v>18.399999999999999</v>
       </c>
       <c r="C83">
-        <f>Sheet1!C89</f>
+        <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
     </row>
@@ -6195,11 +6466,11 @@
         <v>28</v>
       </c>
       <c r="B84">
-        <f>Sheet1!B90</f>
+        <f>Sheet1!B93</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C84">
-        <f>Sheet1!C90</f>
+        <f>Sheet1!C93</f>
         <v>23.3</v>
       </c>
     </row>
@@ -6208,11 +6479,11 @@
         <v>29</v>
       </c>
       <c r="B85">
-        <f>Sheet1!B91</f>
+        <f>Sheet1!B94</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C85">
-        <f>Sheet1!C91</f>
+        <f>Sheet1!C94</f>
         <v>24.3</v>
       </c>
     </row>
@@ -6221,11 +6492,11 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <f>Sheet1!B92</f>
+        <f>Sheet1!B95</f>
         <v>21.4</v>
       </c>
       <c r="C86">
-        <f>Sheet1!C92</f>
+        <f>Sheet1!C95</f>
         <v>25.3</v>
       </c>
     </row>
@@ -6234,11 +6505,11 @@
         <v>31</v>
       </c>
       <c r="B87">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B96</f>
         <v>22.4</v>
       </c>
       <c r="C87">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C96</f>
         <v>26.3</v>
       </c>
     </row>
@@ -6247,11 +6518,11 @@
         <v>32</v>
       </c>
       <c r="B88">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B97</f>
         <v>23.4</v>
       </c>
       <c r="C88">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C97</f>
         <v>27.3</v>
       </c>
     </row>
@@ -6260,11 +6531,11 @@
         <v>26</v>
       </c>
       <c r="B89">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B98</f>
         <v>24.4</v>
       </c>
       <c r="C89">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C98</f>
         <v>28.3</v>
       </c>
     </row>
@@ -6273,11 +6544,11 @@
         <v>27</v>
       </c>
       <c r="B90">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B99</f>
         <v>25.4</v>
       </c>
       <c r="C90">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C99</f>
         <v>29.3</v>
       </c>
     </row>
@@ -6286,11 +6557,11 @@
         <v>28</v>
       </c>
       <c r="B91">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B100</f>
         <v>26.4</v>
       </c>
       <c r="C91">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C100</f>
         <v>1.4</v>
       </c>
     </row>
@@ -6299,11 +6570,11 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B101</f>
         <v>27.4</v>
       </c>
       <c r="C92">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C101</f>
         <v>2.4</v>
       </c>
     </row>
@@ -6312,11 +6583,11 @@
         <v>30</v>
       </c>
       <c r="B93">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B102</f>
         <v>28.4</v>
       </c>
       <c r="C93">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C102</f>
         <v>0</v>
       </c>
     </row>
@@ -6325,11 +6596,11 @@
         <v>31</v>
       </c>
       <c r="B94">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B103</f>
         <v>29.4</v>
       </c>
       <c r="C94">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C103</f>
         <v>0</v>
       </c>
     </row>
@@ -6338,11 +6609,11 @@
         <v>32</v>
       </c>
       <c r="B95">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B104</f>
         <v>30.4</v>
       </c>
       <c r="C95">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C104</f>
         <v>0</v>
       </c>
     </row>
@@ -6351,11 +6622,11 @@
         <v>26</v>
       </c>
       <c r="B96">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B105</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>Sheet1!C102</f>
+        <f>Sheet1!C105</f>
         <v>0</v>
       </c>
     </row>
@@ -6364,11 +6635,11 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B106</f>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>Sheet1!C103</f>
+        <f>Sheet1!C106</f>
         <v>0</v>
       </c>
     </row>
@@ -6377,11 +6648,11 @@
         <v>28</v>
       </c>
       <c r="B98">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B107</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>Sheet1!C104</f>
+        <f>Sheet1!C107</f>
         <v>0</v>
       </c>
     </row>
@@ -6390,11 +6661,11 @@
         <v>29</v>
       </c>
       <c r="B99">
-        <f>Sheet1!B105</f>
+        <f>Sheet1!B108</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>Sheet1!C105</f>
+        <f>Sheet1!C108</f>
         <v>0</v>
       </c>
     </row>
@@ -6403,11 +6674,11 @@
         <v>30</v>
       </c>
       <c r="B100">
-        <f>Sheet1!B106</f>
+        <f>Sheet1!B109</f>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>Sheet1!C106</f>
+        <f>Sheet1!C109</f>
         <v>0</v>
       </c>
     </row>
@@ -6416,11 +6687,11 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <f>Sheet1!B107</f>
+        <f>Sheet1!B110</f>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>Sheet1!C107</f>
+        <f>Sheet1!C110</f>
         <v>0</v>
       </c>
     </row>
@@ -6429,11 +6700,11 @@
         <v>32</v>
       </c>
       <c r="B102">
-        <f>Sheet1!B108</f>
+        <f>Sheet1!B111</f>
         <v>0</v>
       </c>
       <c r="C102">
-        <f>Sheet1!C108</f>
+        <f>Sheet1!C111</f>
         <v>0</v>
       </c>
     </row>
@@ -6450,7 +6721,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6498,10 +6769,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
@@ -6546,19 +6817,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>4166.6666666666661</v>
+        <v>5000</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1333.3333333333339</v>
+        <v>1600</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -7469,6 +7740,15 @@
         <f>Sheet1!C65</f>
         <v>28.2</v>
       </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -7481,6 +7761,15 @@
         <f>Sheet1!C66</f>
         <v>29.2</v>
       </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -7493,18 +7782,36 @@
         <f>Sheet1!C67</f>
         <v>30.2</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B68</f>
+        <f>Sheet1!B69</f>
         <v>28.3</v>
       </c>
       <c r="C62">
-        <f>Sheet1!C68</f>
+        <f>Sheet1!C69</f>
         <v>1.3</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7512,12 +7819,21 @@
         <v>28</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B69</f>
+        <f>Sheet1!B70</f>
         <v>29.3</v>
       </c>
       <c r="C63">
-        <f>Sheet1!C69</f>
+        <f>Sheet1!C70</f>
         <v>2.2999999999999998</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -7525,219 +7841,264 @@
         <v>29</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B70</f>
+        <f>Sheet1!B71</f>
         <v>30.3</v>
       </c>
       <c r="C64">
-        <f>Sheet1!C70</f>
+        <f>Sheet1!C71</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B71</f>
+        <f>Sheet1!B72</f>
         <v>31.3</v>
       </c>
       <c r="C65">
-        <f>Sheet1!C71</f>
+        <f>Sheet1!C72</f>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B72</f>
+        <f>Sheet1!B75</f>
         <v>1.4</v>
       </c>
       <c r="C66">
-        <f>Sheet1!C72</f>
+        <f>Sheet1!C75</f>
         <v>5.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B73</f>
+        <f>Sheet1!B76</f>
         <v>2.4</v>
       </c>
       <c r="C67">
-        <f>Sheet1!C73</f>
+        <f>Sheet1!C76</f>
         <v>6.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B74</f>
+        <f>Sheet1!B77</f>
         <v>3.4</v>
       </c>
       <c r="C68">
-        <f>Sheet1!C74</f>
+        <f>Sheet1!C77</f>
         <v>7.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>27</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B75</f>
+        <f>Sheet1!B78</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="C69">
-        <f>Sheet1!C75</f>
+        <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>28</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B76</f>
+        <f>Sheet1!B79</f>
         <v>5.4</v>
       </c>
       <c r="C70">
-        <f>Sheet1!C76</f>
+        <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>29</v>
       </c>
       <c r="B71">
-        <f>Sheet1!B77</f>
+        <f>Sheet1!B80</f>
         <v>6.4</v>
       </c>
       <c r="C71">
-        <f>Sheet1!C77</f>
+        <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
       <c r="B72">
-        <f>Sheet1!B78</f>
+        <f>Sheet1!B81</f>
         <v>7.4</v>
       </c>
       <c r="C72">
-        <f>Sheet1!C78</f>
+        <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>31</v>
       </c>
       <c r="B73">
-        <f>Sheet1!B79</f>
+        <f>Sheet1!B82</f>
         <v>8.4</v>
       </c>
       <c r="C73">
-        <f>Sheet1!C79</f>
+        <f>Sheet1!C82</f>
         <v>12.3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
       <c r="B74">
-        <f>Sheet1!B80</f>
+        <f>Sheet1!B83</f>
         <v>9.4</v>
       </c>
       <c r="C74">
-        <f>Sheet1!C80</f>
+        <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
       <c r="B75">
-        <f>Sheet1!B81</f>
+        <f>Sheet1!B84</f>
         <v>10.4</v>
       </c>
       <c r="C75">
-        <f>Sheet1!C81</f>
+        <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
       <c r="B76">
-        <f>Sheet1!B82</f>
+        <f>Sheet1!B85</f>
         <v>11.4</v>
       </c>
       <c r="C76">
-        <f>Sheet1!C82</f>
+        <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77">
-        <f>Sheet1!B83</f>
+        <f>Sheet1!B86</f>
         <v>12.4</v>
       </c>
       <c r="C77">
-        <f>Sheet1!C83</f>
+        <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
       <c r="B78">
-        <f>Sheet1!B84</f>
+        <f>Sheet1!B87</f>
         <v>13.4</v>
       </c>
       <c r="C78">
-        <f>Sheet1!C84</f>
+        <f>Sheet1!C87</f>
         <v>17.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79">
-        <f>Sheet1!B85</f>
+        <f>Sheet1!B88</f>
         <v>14.4</v>
       </c>
       <c r="C79">
-        <f>Sheet1!C85</f>
+        <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="B80">
-        <f>Sheet1!B86</f>
+        <f>Sheet1!B89</f>
         <v>15.4</v>
       </c>
       <c r="C80">
-        <f>Sheet1!C86</f>
+        <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
     </row>
@@ -7746,11 +8107,11 @@
         <v>32</v>
       </c>
       <c r="B81">
-        <f>Sheet1!B87</f>
+        <f>Sheet1!B90</f>
         <v>16.399999999999999</v>
       </c>
       <c r="C81">
-        <f>Sheet1!C87</f>
+        <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
     </row>
@@ -7759,11 +8120,11 @@
         <v>26</v>
       </c>
       <c r="B82">
-        <f>Sheet1!B88</f>
+        <f>Sheet1!B91</f>
         <v>17.399999999999999</v>
       </c>
       <c r="C82">
-        <f>Sheet1!C88</f>
+        <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
     </row>
@@ -7772,11 +8133,11 @@
         <v>27</v>
       </c>
       <c r="B83">
-        <f>Sheet1!B89</f>
+        <f>Sheet1!B92</f>
         <v>18.399999999999999</v>
       </c>
       <c r="C83">
-        <f>Sheet1!C89</f>
+        <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
     </row>
@@ -7785,11 +8146,11 @@
         <v>28</v>
       </c>
       <c r="B84">
-        <f>Sheet1!B90</f>
+        <f>Sheet1!B93</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C84">
-        <f>Sheet1!C90</f>
+        <f>Sheet1!C93</f>
         <v>23.3</v>
       </c>
     </row>
@@ -7798,11 +8159,11 @@
         <v>29</v>
       </c>
       <c r="B85">
-        <f>Sheet1!B91</f>
+        <f>Sheet1!B94</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C85">
-        <f>Sheet1!C91</f>
+        <f>Sheet1!C94</f>
         <v>24.3</v>
       </c>
     </row>
@@ -7811,11 +8172,11 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <f>Sheet1!B92</f>
+        <f>Sheet1!B95</f>
         <v>21.4</v>
       </c>
       <c r="C86">
-        <f>Sheet1!C92</f>
+        <f>Sheet1!C95</f>
         <v>25.3</v>
       </c>
     </row>
@@ -7824,11 +8185,11 @@
         <v>31</v>
       </c>
       <c r="B87">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B96</f>
         <v>22.4</v>
       </c>
       <c r="C87">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C96</f>
         <v>26.3</v>
       </c>
     </row>
@@ -7837,11 +8198,11 @@
         <v>32</v>
       </c>
       <c r="B88">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B97</f>
         <v>23.4</v>
       </c>
       <c r="C88">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C97</f>
         <v>27.3</v>
       </c>
     </row>
@@ -7850,11 +8211,11 @@
         <v>26</v>
       </c>
       <c r="B89">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B98</f>
         <v>24.4</v>
       </c>
       <c r="C89">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C98</f>
         <v>28.3</v>
       </c>
     </row>
@@ -7863,11 +8224,11 @@
         <v>27</v>
       </c>
       <c r="B90">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B99</f>
         <v>25.4</v>
       </c>
       <c r="C90">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C99</f>
         <v>29.3</v>
       </c>
     </row>
@@ -7876,11 +8237,11 @@
         <v>28</v>
       </c>
       <c r="B91">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B100</f>
         <v>26.4</v>
       </c>
       <c r="C91">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C100</f>
         <v>1.4</v>
       </c>
     </row>
@@ -7889,11 +8250,11 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B101</f>
         <v>27.4</v>
       </c>
       <c r="C92">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C101</f>
         <v>2.4</v>
       </c>
     </row>
@@ -7902,11 +8263,11 @@
         <v>30</v>
       </c>
       <c r="B93">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B102</f>
         <v>28.4</v>
       </c>
       <c r="C93">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C102</f>
         <v>0</v>
       </c>
     </row>
@@ -7915,11 +8276,11 @@
         <v>31</v>
       </c>
       <c r="B94">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B103</f>
         <v>29.4</v>
       </c>
       <c r="C94">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C103</f>
         <v>0</v>
       </c>
     </row>
@@ -7928,11 +8289,11 @@
         <v>32</v>
       </c>
       <c r="B95">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B104</f>
         <v>30.4</v>
       </c>
       <c r="C95">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C104</f>
         <v>0</v>
       </c>
     </row>
@@ -7941,11 +8302,11 @@
         <v>26</v>
       </c>
       <c r="B96">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B105</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>Sheet1!C102</f>
+        <f>Sheet1!C105</f>
         <v>0</v>
       </c>
     </row>
@@ -7954,11 +8315,11 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B106</f>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>Sheet1!C103</f>
+        <f>Sheet1!C106</f>
         <v>0</v>
       </c>
     </row>
@@ -7967,11 +8328,11 @@
         <v>28</v>
       </c>
       <c r="B98">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B107</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>Sheet1!C104</f>
+        <f>Sheet1!C107</f>
         <v>0</v>
       </c>
     </row>
@@ -7980,11 +8341,11 @@
         <v>29</v>
       </c>
       <c r="B99">
-        <f>Sheet1!B105</f>
+        <f>Sheet1!B108</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>Sheet1!C105</f>
+        <f>Sheet1!C108</f>
         <v>0</v>
       </c>
     </row>
@@ -7993,11 +8354,11 @@
         <v>30</v>
       </c>
       <c r="B100">
-        <f>Sheet1!B106</f>
+        <f>Sheet1!B109</f>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>Sheet1!C106</f>
+        <f>Sheet1!C109</f>
         <v>0</v>
       </c>
     </row>
@@ -8006,11 +8367,11 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <f>Sheet1!B107</f>
+        <f>Sheet1!B110</f>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>Sheet1!C107</f>
+        <f>Sheet1!C110</f>
         <v>0</v>
       </c>
     </row>
@@ -8019,11 +8380,1016 @@
         <v>32</v>
       </c>
       <c r="B102">
+        <f>Sheet1!B111</f>
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f>Sheet1!C111</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="28">
+        <v>31.3</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="28">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!B76</f>
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!C76</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f>Sheet1!B77</f>
+        <v>3.4</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!C77</f>
+        <v>7.3</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f>Sheet1!B78</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!C78</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f>Sheet1!B79</f>
+        <v>5.4</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!C79</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f>Sheet1!B80</f>
+        <v>6.4</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!C80</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f>Sheet1!B81</f>
+        <v>7.4</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!C81</f>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <f>Sheet1!B82</f>
+        <v>8.4</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!C82</f>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f>Sheet1!B83</f>
+        <v>9.4</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!C83</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <f>Sheet1!B84</f>
+        <v>10.4</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!C84</f>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!B85</f>
+        <v>11.4</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!C85</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <f>Sheet1!B86</f>
+        <v>12.4</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!C86</f>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <f>Sheet1!B87</f>
+        <v>13.4</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!C87</f>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <f>Sheet1!B88</f>
+        <v>14.4</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!C88</f>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <f>Sheet1!B89</f>
+        <v>15.4</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!C89</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <f>Sheet1!B90</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C20">
+        <f>Sheet1!C90</f>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <f>Sheet1!B91</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C21">
+        <f>Sheet1!C91</f>
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <f>Sheet1!B92</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C22">
+        <f>Sheet1!C92</f>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <f>Sheet1!B93</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C23">
+        <f>Sheet1!C93</f>
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>Sheet1!B94</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C24">
+        <f>Sheet1!C94</f>
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <f>Sheet1!B95</f>
+        <v>21.4</v>
+      </c>
+      <c r="C25">
+        <f>Sheet1!C95</f>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <f>Sheet1!B96</f>
+        <v>22.4</v>
+      </c>
+      <c r="C26">
+        <f>Sheet1!C96</f>
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <f>Sheet1!B97</f>
+        <v>23.4</v>
+      </c>
+      <c r="C27">
+        <f>Sheet1!C97</f>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f>Sheet1!B98</f>
+        <v>24.4</v>
+      </c>
+      <c r="C28">
+        <f>Sheet1!C98</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f>Sheet1!B99</f>
+        <v>25.4</v>
+      </c>
+      <c r="C29">
+        <f>Sheet1!C99</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f>Sheet1!B100</f>
+        <v>26.4</v>
+      </c>
+      <c r="C30">
+        <f>Sheet1!C100</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f>Sheet1!B101</f>
+        <v>27.4</v>
+      </c>
+      <c r="C31">
+        <f>Sheet1!C101</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f>Sheet1!B102</f>
+        <v>28.4</v>
+      </c>
+      <c r="C32">
+        <f>Sheet1!C102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>Sheet1!B103</f>
+        <v>29.4</v>
+      </c>
+      <c r="C33">
+        <f>Sheet1!C103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f>Sheet1!B104</f>
+        <v>30.4</v>
+      </c>
+      <c r="C34">
+        <f>Sheet1!C104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <f>Sheet1!B105</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>Sheet1!C105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <f>Sheet1!B106</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>Sheet1!C106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <f>Sheet1!B107</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>Sheet1!C107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
         <f>Sheet1!B108</f>
         <v>0</v>
       </c>
-      <c r="C102">
+      <c r="C38">
         <f>Sheet1!C108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <f>Sheet1!B109</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>Sheet1!C109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <f>Sheet1!B110</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>Sheet1!C110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <f>Sheet1!B111</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>Sheet1!C111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <f>Sheet1!B112</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>Sheet1!C112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <f>Sheet1!B113</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>Sheet1!C113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <f>Sheet1!B114</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>Sheet1!C114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <f>Sheet1!B115</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>Sheet1!C115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <f>Sheet1!B116</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>Sheet1!C116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <f>Sheet1!B117</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>Sheet1!C117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <f>Sheet1!B118</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>Sheet1!C118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <f>Sheet1!B119</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>Sheet1!C119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <f>Sheet1!B120</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>Sheet1!C120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <f>Sheet1!B121</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>Sheet1!C121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <f>Sheet1!B122</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>Sheet1!C122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <f>Sheet1!B123</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>Sheet1!C123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54">
+        <f>Sheet1!B124</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>Sheet1!C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <f>Sheet1!B125</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>Sheet1!C125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <f>Sheet1!B126</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>Sheet1!C126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <f>Sheet1!B127</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>Sheet1!C127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <f>Sheet1!B128</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>Sheet1!C128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <f>Sheet1!B129</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>Sheet1!C129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <f>Sheet1!B130</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>Sheet1!C130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <f>Sheet1!B131</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>Sheet1!C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <f>Sheet1!B132</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>Sheet1!C132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <f>Sheet1!B133</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>Sheet1!C133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <f>Sheet1!B134</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>Sheet1!C134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <f>Sheet1!B135</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>Sheet1!C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <f>Sheet1!B136</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>Sheet1!C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <f>Sheet1!B137</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>Sheet1!C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <f>Sheet1!B138</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>Sheet1!C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <f>Sheet1!B139</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>Sheet1!C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70">
+        <f>Sheet1!B140</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>Sheet1!C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <f>Sheet1!B141</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>Sheet1!C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <f>Sheet1!B142</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>Sheet1!C142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <f>Sheet1!B143</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>Sheet1!C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74">
+        <f>Sheet1!B144</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>Sheet1!C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75">
+        <f>Sheet1!B145</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>Sheet1!C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76">
+        <f>Sheet1!B146</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>Sheet1!C146</f>
         <v>0</v>
       </c>
     </row>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Son" sheetId="2" r:id="rId2"/>
     <sheet name="Lang" sheetId="3" r:id="rId3"/>
     <sheet name="Thuy" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="KT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="60">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Khach Trang</t>
+  </si>
+  <si>
+    <t>So ngay</t>
+  </si>
+  <si>
+    <t>so nagy</t>
+  </si>
+  <si>
+    <t>Thu (Láng+Thúy+Sơn+KT)</t>
   </si>
 </sst>
 </file>
@@ -632,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,15 +738,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>45820</v>
+        <v>47270</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1520</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -761,7 +770,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>3460</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -789,7 +798,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>35416.666666666664</v>
+        <v>36583.333333333328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -817,7 +826,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>9103.3333333333358</v>
+        <v>9466.6666666666679</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2269,14 +2278,14 @@
         <v>7.3</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="1">
-        <v>910</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -2290,11 +2299,16 @@
       <c r="C78" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="29"/>
+      <c r="D78" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
+      <c r="I78" s="1">
+        <v>910</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
@@ -2307,11 +2321,16 @@
       <c r="C79" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="29"/>
+      <c r="D79" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
+      <c r="I79" s="1">
+        <v>680</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
@@ -3580,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,19 +3691,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>20416.666666666664</v>
+        <v>21250</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>4763.3333333333358</v>
+        <v>5010</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3696,6 +3715,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <f>H4/500</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4466,6 +4492,12 @@
         <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="E55">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4478,6 +4510,12 @@
       <c r="C56">
         <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5090,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,19 +5224,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>10000</v>
+        <v>10166.666666666666</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>2740</v>
+        <v>2803.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5210,6 +5248,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <f>H4/200</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6278,6 +6323,12 @@
         <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -6290,6 +6341,12 @@
       <c r="C70">
         <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -6721,7 +6778,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D69" sqref="D69:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,19 +6874,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5000</v>
+        <v>5166.6666666666661</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1600</v>
+        <v>1653.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6841,6 +6898,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <f>H4/100</f>
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7958,6 +8022,15 @@
         <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -7970,6 +8043,15 @@
       <c r="C70">
         <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8401,7 +8483,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="60">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -343,16 +343,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -696,25 +696,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -738,39 +738,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>47270</v>
+        <v>49180</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>45700</v>
+        <v>47500</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1570</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="32">
         <v>70000</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>8050</v>
+        <v>14110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -783,13 +783,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>36583.333333333328</v>
+        <v>38083.333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -811,13 +811,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>9466.6666666666679</v>
+        <v>9956.6666666666679</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -867,13 +867,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -888,13 +888,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -909,13 +909,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -930,13 +930,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -951,13 +951,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -972,11 +972,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -991,11 +991,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1010,13 +1010,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1031,13 +1031,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1052,20 +1052,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1077,13 +1077,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1098,13 +1098,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1119,13 +1119,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1159,13 +1159,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1180,13 +1180,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1201,13 +1201,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1222,13 +1222,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1243,11 +1243,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1259,13 +1259,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1281,13 +1281,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1303,13 +1303,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1325,13 +1325,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1347,13 +1347,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1369,11 +1369,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1389,13 +1389,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1411,13 +1411,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1455,13 +1455,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1477,13 +1477,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1499,13 +1499,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1521,13 +1521,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1543,13 +1543,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1565,13 +1565,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1587,13 +1587,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1609,11 +1609,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1629,13 +1629,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1651,13 +1651,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1693,13 +1693,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1715,13 +1715,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1737,13 +1737,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1759,13 +1759,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1781,13 +1781,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1800,13 +1800,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1822,20 +1822,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="29" t="s">
+      <c r="K56" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="29"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1845,13 +1845,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1864,13 +1864,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1886,13 +1886,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1908,13 +1908,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1930,13 +1930,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1952,13 +1952,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1974,13 +1974,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1996,13 +1996,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2018,13 +2018,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2040,13 +2040,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2062,13 +2062,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2081,13 +2081,13 @@
       <c r="C68" s="24">
         <v>30.2</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2103,13 +2103,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2125,13 +2125,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2148,13 +2148,13 @@
       <c r="C71" s="21">
         <v>3.3</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2170,13 +2170,13 @@
       <c r="C72" s="21">
         <v>4.3</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2189,13 +2189,13 @@
       <c r="C73" s="27">
         <v>4.3</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2208,13 +2208,13 @@
       <c r="C74" s="27">
         <v>4.3</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2233,13 +2233,13 @@
       <c r="C75" s="21">
         <v>5.3</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2255,13 +2255,13 @@
       <c r="C76" s="21">
         <v>6.3</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2277,13 +2277,13 @@
       <c r="C77" s="21">
         <v>7.3</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2299,13 +2299,13 @@
       <c r="C78" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2321,13 +2321,13 @@
       <c r="C79" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2343,13 +2343,18 @@
       <c r="C80" s="21">
         <v>10.3</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2360,13 +2365,18 @@
       <c r="C81" s="21">
         <v>11.3</v>
       </c>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D81" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2377,13 +2387,13 @@
       <c r="C82" s="21">
         <v>12.3</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2394,13 +2404,13 @@
       <c r="C83" s="21">
         <v>13.3</v>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2411,13 +2421,13 @@
       <c r="C84" s="21">
         <v>14.3</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2428,13 +2438,13 @@
       <c r="C85" s="21">
         <v>15.3</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2445,13 +2455,13 @@
       <c r="C86" s="21">
         <v>16.3</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2462,13 +2472,13 @@
       <c r="C87" s="21">
         <v>17.3</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2479,13 +2489,13 @@
       <c r="C88" s="21">
         <v>18.3</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2496,13 +2506,13 @@
       <c r="C89" s="21">
         <v>19.3</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -2513,13 +2523,13 @@
       <c r="C90" s="21">
         <v>20.3</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2530,13 +2540,13 @@
       <c r="C91" s="21">
         <v>21.3</v>
       </c>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -2547,13 +2557,13 @@
       <c r="C92" s="21">
         <v>22.3</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2564,13 +2574,13 @@
       <c r="C93" s="21">
         <v>23.3</v>
       </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -2581,13 +2591,13 @@
       <c r="C94" s="21">
         <v>24.3</v>
       </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -2598,13 +2608,13 @@
       <c r="C95" s="21">
         <v>25.3</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -2615,11 +2625,11 @@
       <c r="C96" s="21">
         <v>26.3</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2632,11 +2642,11 @@
       <c r="C97" s="21">
         <v>27.3</v>
       </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2649,11 +2659,11 @@
       <c r="C98" s="21">
         <v>28.3</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2666,11 +2676,11 @@
       <c r="C99" s="21">
         <v>29.3</v>
       </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2683,11 +2693,11 @@
       <c r="C100" s="5">
         <v>1.4</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2700,11 +2710,11 @@
       <c r="C101" s="5">
         <v>2.4</v>
       </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
@@ -2714,11 +2724,11 @@
       <c r="B102" s="21">
         <v>28.4</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
@@ -2728,11 +2738,11 @@
       <c r="B103" s="21">
         <v>29.4</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
@@ -2742,829 +2752,669 @@
       <c r="B104" s="21">
         <v>30.4</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="29"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="29"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="29"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="29"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D179:H179"/>
@@ -3589,6 +3439,166 @@
     <mergeCell ref="D162:H162"/>
     <mergeCell ref="D163:H163"/>
     <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3599,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:E56"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,19 +3701,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>21250</v>
+        <v>22083.333333333332</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>5010</v>
+        <v>5256.6666666666679</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3720,7 +3730,7 @@
       </c>
       <c r="H5">
         <f>H4/500</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4530,6 +4540,12 @@
         <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
+      <c r="D57">
+        <v>500</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -4542,6 +4558,12 @@
       <c r="C58">
         <f>Sheet1!C81</f>
         <v>11.3</v>
+      </c>
+      <c r="D58">
+        <v>500</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,7 +5151,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,19 +5246,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>10166.666666666666</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>2803.3333333333339</v>
+        <v>2993.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5253,7 +5275,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6361,6 +6383,12 @@
         <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -6373,6 +6401,12 @@
       <c r="C72">
         <f>Sheet1!C81</f>
         <v>11.3</v>
+      </c>
+      <c r="D72">
+        <v>400</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -6777,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:F70"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,19 +6908,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5166.6666666666661</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1653.3333333333339</v>
+        <v>1706.666666666667</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6903,7 +6937,7 @@
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8066,6 +8100,15 @@
         <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8078,6 +8121,15 @@
       <c r="C72">
         <f>Sheet1!C81</f>
         <v>11.3</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -8483,7 +8535,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8629,6 +8681,9 @@
         <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="60">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -343,16 +343,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -696,25 +696,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -738,39 +738,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>49180</v>
+        <v>50020</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1680</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="32">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30">
         <v>70000</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>14110</v>
+        <v>15020</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -783,13 +783,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>38083.333333333336</v>
+        <v>38749.999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -811,13 +811,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>9956.6666666666679</v>
+        <v>10170.000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -867,13 +867,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -888,13 +888,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -909,13 +909,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -930,13 +930,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -951,13 +951,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -972,11 +972,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -991,11 +991,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1010,13 +1010,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1031,13 +1031,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1052,20 +1052,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1077,13 +1077,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1098,13 +1098,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1119,13 +1119,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1159,13 +1159,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1180,13 +1180,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1201,13 +1201,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1222,13 +1222,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1243,11 +1243,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1259,13 +1259,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1281,13 +1281,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1303,13 +1303,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1325,13 +1325,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1347,13 +1347,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1369,11 +1369,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1389,13 +1389,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1411,13 +1411,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1455,13 +1455,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1477,13 +1477,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1499,13 +1499,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1521,13 +1521,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1543,13 +1543,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1565,13 +1565,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1587,13 +1587,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1609,11 +1609,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1629,13 +1629,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1651,13 +1651,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1693,13 +1693,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1715,13 +1715,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1737,13 +1737,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1759,13 +1759,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1781,13 +1781,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1800,13 +1800,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1822,20 +1822,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="30"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1845,13 +1845,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1864,13 +1864,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1886,13 +1886,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1908,13 +1908,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1930,13 +1930,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1952,13 +1952,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1974,13 +1974,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1996,13 +1996,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2018,13 +2018,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2040,13 +2040,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2062,13 +2062,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2081,13 +2081,13 @@
       <c r="C68" s="24">
         <v>30.2</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2103,13 +2103,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2125,13 +2125,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2148,13 +2148,13 @@
       <c r="C71" s="21">
         <v>3.3</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2170,13 +2170,13 @@
       <c r="C72" s="21">
         <v>4.3</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2189,13 +2189,13 @@
       <c r="C73" s="27">
         <v>4.3</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2208,13 +2208,13 @@
       <c r="C74" s="27">
         <v>4.3</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2233,13 +2233,13 @@
       <c r="C75" s="21">
         <v>5.3</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2255,13 +2255,13 @@
       <c r="C76" s="21">
         <v>6.3</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2277,13 +2277,13 @@
       <c r="C77" s="21">
         <v>7.3</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2299,13 +2299,13 @@
       <c r="C78" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2321,13 +2321,13 @@
       <c r="C79" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2343,13 +2343,13 @@
       <c r="C80" s="21">
         <v>10.3</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2365,13 +2365,13 @@
       <c r="C81" s="21">
         <v>11.3</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2387,11 +2387,16 @@
       <c r="C82" s="21">
         <v>12.3</v>
       </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="D82" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="1">
+        <v>910</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
@@ -2404,11 +2409,11 @@
       <c r="C83" s="21">
         <v>13.3</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
@@ -2421,11 +2426,11 @@
       <c r="C84" s="21">
         <v>14.3</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
@@ -2438,11 +2443,11 @@
       <c r="C85" s="21">
         <v>15.3</v>
       </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
@@ -2455,11 +2460,11 @@
       <c r="C86" s="21">
         <v>16.3</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -2472,11 +2477,11 @@
       <c r="C87" s="21">
         <v>17.3</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -2489,11 +2494,11 @@
       <c r="C88" s="21">
         <v>18.3</v>
       </c>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
@@ -2506,11 +2511,11 @@
       <c r="C89" s="21">
         <v>19.3</v>
       </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
@@ -2523,11 +2528,11 @@
       <c r="C90" s="21">
         <v>20.3</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
@@ -2540,11 +2545,11 @@
       <c r="C91" s="21">
         <v>21.3</v>
       </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
@@ -2557,11 +2562,11 @@
       <c r="C92" s="21">
         <v>22.3</v>
       </c>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
@@ -2574,11 +2579,11 @@
       <c r="C93" s="21">
         <v>23.3</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
@@ -2591,11 +2596,11 @@
       <c r="C94" s="21">
         <v>24.3</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
@@ -2608,11 +2613,11 @@
       <c r="C95" s="21">
         <v>25.3</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
@@ -2625,11 +2630,11 @@
       <c r="C96" s="21">
         <v>26.3</v>
       </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2642,11 +2647,11 @@
       <c r="C97" s="21">
         <v>27.3</v>
       </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2659,11 +2664,11 @@
       <c r="C98" s="21">
         <v>28.3</v>
       </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2676,11 +2681,11 @@
       <c r="C99" s="21">
         <v>29.3</v>
       </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2693,11 +2698,11 @@
       <c r="C100" s="5">
         <v>1.4</v>
       </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2710,11 +2715,11 @@
       <c r="C101" s="5">
         <v>2.4</v>
       </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
@@ -2724,11 +2729,11 @@
       <c r="B102" s="21">
         <v>28.4</v>
       </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
@@ -2738,11 +2743,11 @@
       <c r="B103" s="21">
         <v>29.4</v>
       </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
@@ -2752,669 +2757,829 @@
       <c r="B104" s="21">
         <v>30.4</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="30"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="30"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="30"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="30"/>
-      <c r="H179" s="30"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="29"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
-      <c r="F180" s="30"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="30"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
+      <c r="F180" s="29"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="29"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D179:H179"/>
@@ -3439,166 +3604,6 @@
     <mergeCell ref="D162:H162"/>
     <mergeCell ref="D163:H163"/>
     <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3609,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,19 +3706,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>22083.333333333332</v>
+        <v>22500</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>5256.6666666666679</v>
+        <v>5380</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3730,7 +3735,7 @@
       </c>
       <c r="H5">
         <f>H4/500</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4577,6 +4582,12 @@
       <c r="C59">
         <f>Sheet1!C82</f>
         <v>12.3</v>
+      </c>
+      <c r="D59">
+        <v>500</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,7 +5162,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,19 +5257,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>10666.666666666666</v>
+        <v>10833.333333333332</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>2993.3333333333339</v>
+        <v>3056.6666666666679</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5275,7 +5286,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6420,6 +6431,12 @@
       <c r="C73">
         <f>Sheet1!C82</f>
         <v>12.3</v>
+      </c>
+      <c r="D73">
+        <v>200</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -6811,8 +6828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6908,19 +6925,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5333.333333333333</v>
+        <v>5416.6666666666661</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1706.666666666667</v>
+        <v>1733.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6937,7 +6954,7 @@
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8143,6 +8160,15 @@
       <c r="C73">
         <f>Sheet1!C82</f>
         <v>12.3</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="60">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -343,16 +343,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:H83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -696,25 +696,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -738,39 +738,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>50020</v>
+        <v>52430</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>48300</v>
+        <v>50600</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1720</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="32">
         <v>70000</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>15020</v>
+        <v>17610</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -783,13 +783,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>38749.999999999993</v>
+        <v>40666.666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -811,13 +811,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>10170.000000000002</v>
+        <v>10783.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -867,13 +867,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -888,13 +888,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -909,13 +909,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -930,13 +930,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -951,13 +951,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -972,11 +972,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -991,11 +991,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1010,13 +1010,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1031,13 +1031,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1052,20 +1052,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1077,13 +1077,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1098,13 +1098,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1119,13 +1119,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1159,13 +1159,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1180,13 +1180,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1201,13 +1201,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1222,13 +1222,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1243,11 +1243,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1259,13 +1259,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1281,13 +1281,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1303,13 +1303,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1325,13 +1325,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1347,13 +1347,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1369,11 +1369,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1389,13 +1389,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1411,13 +1411,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1455,13 +1455,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1477,13 +1477,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1499,13 +1499,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1521,13 +1521,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1543,13 +1543,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1565,13 +1565,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1587,13 +1587,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1609,11 +1609,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1629,13 +1629,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1651,13 +1651,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1693,13 +1693,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1715,13 +1715,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1737,13 +1737,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1759,13 +1759,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1781,13 +1781,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1800,13 +1800,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1822,20 +1822,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="29" t="s">
+      <c r="K56" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="29"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1845,13 +1845,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1864,13 +1864,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1886,13 +1886,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1908,13 +1908,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1930,13 +1930,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1952,13 +1952,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1974,13 +1974,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1996,13 +1996,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2018,13 +2018,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2040,13 +2040,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2062,13 +2062,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2081,13 +2081,13 @@
       <c r="C68" s="24">
         <v>30.2</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2103,13 +2103,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2125,13 +2125,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2148,13 +2148,13 @@
       <c r="C71" s="21">
         <v>3.3</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2170,13 +2170,13 @@
       <c r="C72" s="21">
         <v>4.3</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2189,13 +2189,13 @@
       <c r="C73" s="27">
         <v>4.3</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2208,13 +2208,13 @@
       <c r="C74" s="27">
         <v>4.3</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2233,13 +2233,13 @@
       <c r="C75" s="21">
         <v>5.3</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2255,13 +2255,13 @@
       <c r="C76" s="21">
         <v>6.3</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2277,13 +2277,13 @@
       <c r="C77" s="21">
         <v>7.3</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2299,13 +2299,13 @@
       <c r="C78" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2321,13 +2321,13 @@
       <c r="C79" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2343,13 +2343,13 @@
       <c r="C80" s="21">
         <v>10.3</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2365,13 +2365,13 @@
       <c r="C81" s="21">
         <v>11.3</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2387,13 +2387,13 @@
       <c r="C82" s="21">
         <v>12.3</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2409,11 +2409,16 @@
       <c r="C83" s="21">
         <v>13.3</v>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="D83" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="1">
+        <v>910</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
@@ -2426,11 +2431,16 @@
       <c r="C84" s="21">
         <v>14.3</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="D84" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="1">
+        <v>680</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
@@ -2443,11 +2453,16 @@
       <c r="C85" s="21">
         <v>15.3</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+      <c r="D85" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
@@ -2460,11 +2475,11 @@
       <c r="C86" s="21">
         <v>16.3</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -2477,11 +2492,11 @@
       <c r="C87" s="21">
         <v>17.3</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -2494,11 +2509,11 @@
       <c r="C88" s="21">
         <v>18.3</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
@@ -2511,11 +2526,11 @@
       <c r="C89" s="21">
         <v>19.3</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
@@ -2528,11 +2543,11 @@
       <c r="C90" s="21">
         <v>20.3</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
@@ -2545,11 +2560,11 @@
       <c r="C91" s="21">
         <v>21.3</v>
       </c>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
@@ -2562,11 +2577,11 @@
       <c r="C92" s="21">
         <v>22.3</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
@@ -2579,11 +2594,11 @@
       <c r="C93" s="21">
         <v>23.3</v>
       </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
@@ -2596,11 +2611,11 @@
       <c r="C94" s="21">
         <v>24.3</v>
       </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
@@ -2613,11 +2628,11 @@
       <c r="C95" s="21">
         <v>25.3</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
@@ -2630,11 +2645,11 @@
       <c r="C96" s="21">
         <v>26.3</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2647,11 +2662,11 @@
       <c r="C97" s="21">
         <v>27.3</v>
       </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2664,11 +2679,11 @@
       <c r="C98" s="21">
         <v>28.3</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2681,11 +2696,11 @@
       <c r="C99" s="21">
         <v>29.3</v>
       </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2698,11 +2713,11 @@
       <c r="C100" s="5">
         <v>1.4</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2715,11 +2730,11 @@
       <c r="C101" s="5">
         <v>2.4</v>
       </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
@@ -2729,11 +2744,11 @@
       <c r="B102" s="21">
         <v>28.4</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
@@ -2743,11 +2758,11 @@
       <c r="B103" s="21">
         <v>29.4</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
@@ -2757,829 +2772,669 @@
       <c r="B104" s="21">
         <v>30.4</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="29"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="29"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="29"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="29"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D179:H179"/>
@@ -3604,6 +3459,166 @@
     <mergeCell ref="D162:H162"/>
     <mergeCell ref="D163:H163"/>
     <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3614,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,19 +3721,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>22500</v>
+        <v>23750</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>5380</v>
+        <v>5750</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3735,7 +3750,7 @@
       </c>
       <c r="H5">
         <f>H4/500</f>
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4602,6 +4617,12 @@
         <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4615,6 +4636,12 @@
         <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
+      <c r="D61">
+        <v>500</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -4627,6 +4654,12 @@
       <c r="C62">
         <f>Sheet1!C85</f>
         <v>15.3</v>
+      </c>
+      <c r="D62">
+        <v>500</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,19 +5290,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>890</v>
+        <v>980</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>10833.333333333332</v>
+        <v>11333.333333333332</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>3056.6666666666679</v>
+        <v>3246.6666666666679</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5286,7 +5319,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6451,6 +6484,12 @@
         <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
+      <c r="D74">
+        <v>200</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -6464,6 +6503,12 @@
         <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -6476,6 +6521,12 @@
       <c r="C76">
         <f>Sheet1!C85</f>
         <v>15.3</v>
+      </c>
+      <c r="D76">
+        <v>400</v>
+      </c>
+      <c r="E76">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,7 +6880,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6925,19 +6976,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5416.6666666666661</v>
+        <v>5583.333333333333</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1733.3333333333339</v>
+        <v>1786.666666666667</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6954,7 +7005,7 @@
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8183,6 +8234,15 @@
         <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -8196,6 +8256,15 @@
         <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -8208,6 +8277,15 @@
       <c r="C76">
         <f>Sheet1!C85</f>
         <v>15.3</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -8561,7 +8639,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="61">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Thu (Láng+Thúy+Sơn+KT)</t>
+  </si>
+  <si>
+    <t>Thu (Láng+Sơn+KT)</t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88:H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,15 +741,15 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>52430</v>
+        <v>54220</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>50600</v>
+        <v>52300</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1830</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -770,7 +773,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>17610</v>
+        <v>23570</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
       </c>
       <c r="N8" s="22">
         <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>40666.666666666664</v>
+        <v>42083.333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -826,7 +829,7 @@
       </c>
       <c r="N9" s="22">
         <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>10783.333333333336</v>
+        <v>11236.666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,14 +2457,14 @@
         <v>15.3</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
       <c r="I85" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,11 +2478,17 @@
       <c r="C86" s="21">
         <v>16.3</v>
       </c>
-      <c r="D86" s="30"/>
+      <c r="D86" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
+      <c r="I86" s="1">
+        <f>540+230+280</f>
+        <v>1050</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
@@ -2492,11 +2501,16 @@
       <c r="C87" s="21">
         <v>17.3</v>
       </c>
-      <c r="D87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
+      <c r="I87" s="1">
+        <v>910</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
@@ -3629,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,19 +3735,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>28500</v>
+        <v>29500</v>
       </c>
       <c r="I4">
         <f>SUM(E6:E10000)</f>
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>23750</v>
+        <v>24583.333333333332</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>5750</v>
+        <v>5996.6666666666679</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3750,7 +3764,7 @@
       </c>
       <c r="H5">
         <f>H4/500</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4674,6 +4688,12 @@
         <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
+      <c r="D63">
+        <v>500</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4686,6 +4706,12 @@
       <c r="C64">
         <f>Sheet1!C87</f>
         <v>17.3</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,7 +5221,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D77" sqref="D77:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,19 +5316,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>980</v>
+        <v>1040</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>11333.333333333332</v>
+        <v>11666.666666666666</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>3246.6666666666679</v>
+        <v>3373.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5319,7 +5345,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6541,6 +6567,12 @@
         <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -6553,6 +6585,12 @@
       <c r="C78">
         <f>Sheet1!C87</f>
         <v>17.3</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6879,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6976,19 +7014,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5583.333333333333</v>
+        <v>5833.333333333333</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1786.666666666667</v>
+        <v>1866.666666666667</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -7005,7 +7043,7 @@
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8300,6 +8338,15 @@
         <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>60</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -8312,6 +8359,15 @@
       <c r="C78">
         <f>Sheet1!C87</f>
         <v>17.3</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,7 +8695,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8840,6 +8896,9 @@
         <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
+      <c r="D15">
+        <v>4000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="65">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -212,6 +212,18 @@
   <si>
     <t>Thu (Láng+Sơn+KT)</t>
   </si>
+  <si>
+    <t>Thu (Láng+Thúy+KT)</t>
+  </si>
+  <si>
+    <t>10000 (19/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ky 1: </t>
+  </si>
+  <si>
+    <t>Ky 2:</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -267,12 +279,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,9 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,7 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,12 +462,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -642,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88:H88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D134" sqref="D134:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,10 +833,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="G1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -699,25 +869,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -741,39 +911,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>54220</v>
+        <v>56760</v>
       </c>
       <c r="N6" s="1">
-        <f>Son!H4+Lang!H4+Thuy!H4+1800</f>
-        <v>52300</v>
+        <f>Son!O5+Lang!H4+Thuy!H4+1800</f>
+        <v>54600</v>
       </c>
       <c r="O6" s="1">
         <f>Lang!I4+Thuy!I4+180</f>
-        <v>1920</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="32">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34">
         <v>70000</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10006)-SUM(J8:J10006)</f>
-        <v>23570</v>
+        <f>SUM(I8:I10007)-SUM(J8:J10007)</f>
+        <v>18990</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -786,22 +956,22 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="22">
-        <f>Son!J4+Lang!J4+Thuy!J4</f>
-        <v>42083.333333333336</v>
+      <c r="N8" s="21">
+        <f>Son!Q5+Lang!J4+Thuy!J4</f>
+        <v>44000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -814,22 +984,22 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="22">
-        <f>Son!K4+Lang!K4+Thuy!K4</f>
-        <v>11236.666666666668</v>
+      <c r="N9" s="21">
+        <f>Son!R5+Lang!K4+Thuy!K4</f>
+        <v>11900</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -842,13 +1012,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -870,13 +1040,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -891,13 +1061,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -912,13 +1082,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -933,13 +1103,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -954,13 +1124,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -975,11 +1145,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -994,11 +1164,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1013,13 +1183,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1034,13 +1204,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1055,20 +1225,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1080,13 +1250,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1101,13 +1271,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1122,13 +1292,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1143,11 +1313,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1162,13 +1332,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1183,13 +1353,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1204,13 +1374,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1225,13 +1395,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1246,11 +1416,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1262,13 +1432,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1284,20 +1454,20 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <f t="shared" ref="A32:A101" si="0">A31+1</f>
+        <f t="shared" ref="A32:A102" si="0">A31+1</f>
         <v>25</v>
       </c>
       <c r="B32" s="6">
@@ -1306,13 +1476,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1328,13 +1498,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1350,13 +1520,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1372,11 +1542,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1392,13 +1562,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1414,13 +1584,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1436,13 +1606,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1458,13 +1628,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1480,13 +1650,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1502,13 +1672,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1524,13 +1694,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1546,13 +1716,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1568,13 +1738,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1590,13 +1760,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1612,11 +1782,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1632,13 +1802,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1654,13 +1824,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1676,11 +1846,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1696,13 +1866,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1718,13 +1888,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1740,13 +1910,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1762,13 +1932,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1784,13 +1954,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1803,13 +1973,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1825,20 +1995,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="30"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -1848,13 +2018,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -1867,13 +2037,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -1889,13 +2059,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -1911,13 +2081,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -1933,13 +2103,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -1955,13 +2125,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -1977,13 +2147,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -1999,13 +2169,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2021,13 +2191,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2043,13 +2213,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2065,32 +2235,32 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23">
         <v>27.3</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="23">
         <v>30.2</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2106,13 +2276,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2128,13 +2298,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2148,16 +2318,16 @@
       <c r="B71" s="14">
         <v>30.3</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>3.3</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2170,54 +2340,54 @@
       <c r="B72" s="14">
         <v>31.3</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>4.3</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26">
         <v>31.3</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="26">
         <v>4.3</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="27">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26">
         <v>31.3</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="26">
         <v>4.3</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2233,16 +2403,16 @@
       <c r="B75" s="5">
         <v>1.4</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>5.3</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2255,16 +2425,16 @@
       <c r="B76" s="5">
         <v>2.4</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>6.3</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2274,19 +2444,19 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>3.4</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>7.3</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2296,19 +2466,19 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2318,19 +2488,19 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>5.4</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2340,1279 +2510,1349 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>6.4</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>10.3</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B81" s="20">
         <v>7.4</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="20">
         <v>11.3</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>8.4</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="20">
         <v>12.3</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B83" s="21">
+      <c r="B83" s="20">
         <v>9.4</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="20">
         <v>13.3</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>10.4</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>14.3</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>11.4</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="20">
         <v>15.3</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>12.4</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="20">
         <v>16.3</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="20">
         <v>13.4</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="20">
         <v>17.3</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>14.4</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="20">
         <v>18.3</v>
       </c>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D88" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B89" s="21">
+      <c r="B89" s="20">
         <v>15.4</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="20">
         <v>19.3</v>
       </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="20">
         <v>16.399999999999999</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="20">
         <v>20.3</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="1">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>17.399999999999999</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <v>21.3</v>
       </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
-        <f t="shared" si="0"/>
+        <f>A91+1</f>
         <v>79</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>18.399999999999999</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="20">
         <v>22.3</v>
       </c>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
-        <f t="shared" si="0"/>
+      <c r="D92" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="29">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C93" s="29">
+        <v>22.3</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="J93" s="1">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <f>A92+1</f>
         <v>80</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B94" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C94" s="20">
         <v>23.3</v>
       </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
+      <c r="D94" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B95" s="20">
         <v>20.399999999999999</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C95" s="20">
         <v>24.3</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B96" s="20">
         <v>21.4</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C96" s="20">
         <v>25.3</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="B96" s="21">
-        <v>22.4</v>
-      </c>
-      <c r="C96" s="21">
-        <v>26.3</v>
-      </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="B97" s="21">
-        <v>23.4</v>
-      </c>
-      <c r="C97" s="21">
-        <v>27.3</v>
-      </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
+        <v>83</v>
+      </c>
+      <c r="B97" s="20">
+        <v>22.4</v>
+      </c>
+      <c r="C97" s="20">
+        <v>26.3</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="B98" s="21">
-        <v>24.4</v>
-      </c>
-      <c r="C98" s="21">
-        <v>28.3</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="B98" s="20">
+        <v>23.4</v>
+      </c>
+      <c r="C98" s="20">
+        <v>27.3</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="B99" s="21">
-        <v>25.4</v>
-      </c>
-      <c r="C99" s="21">
-        <v>29.3</v>
-      </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="B99" s="20">
+        <v>24.4</v>
+      </c>
+      <c r="C99" s="20">
+        <v>28.3</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="B100" s="21">
-        <v>26.4</v>
-      </c>
-      <c r="C100" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="B100" s="20">
+        <v>25.4</v>
+      </c>
+      <c r="C100" s="20">
+        <v>29.3</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="B101" s="21">
-        <v>27.4</v>
+        <v>87</v>
+      </c>
+      <c r="B101" s="20">
+        <v>26.4</v>
       </c>
       <c r="C101" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
+        <v>1.4</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A133" si="1">A101+1</f>
-        <v>89</v>
-      </c>
-      <c r="B102" s="21">
-        <v>28.4</v>
-      </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B102" s="20">
+        <v>27.4</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B103" s="21">
-        <v>29.4</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
+        <f t="shared" ref="A103:A136" si="1">A102+1</f>
+        <v>89</v>
+      </c>
+      <c r="B103" s="20">
+        <v>28.4</v>
+      </c>
+      <c r="C103" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B104" s="21">
-        <v>30.4</v>
-      </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="B104" s="20">
+        <v>29.4</v>
+      </c>
+      <c r="C104" s="31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
+        <v>91</v>
+      </c>
+      <c r="B105" s="20">
+        <v>30.4</v>
+      </c>
+      <c r="C105" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C106" s="31">
+        <v>6.4</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
+        <v>93</v>
+      </c>
+      <c r="B107" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C107" s="31">
+        <v>7.4</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="B108" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="C108" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
+        <v>95</v>
+      </c>
+      <c r="B109" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="C109" s="31">
+        <v>9.4</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
+        <v>96</v>
+      </c>
+      <c r="B110" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="C110" s="31">
+        <v>10.4</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="B111" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="C111" s="31">
+        <v>11.4</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="B112" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="C112" s="31">
+        <v>12.4</v>
+      </c>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="B113" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="C113" s="31">
+        <v>13.4</v>
+      </c>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="B114" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="C114" s="31">
+        <v>14.4</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="B115" s="31">
+        <v>10.5</v>
+      </c>
+      <c r="C115" s="31">
+        <v>15.4</v>
+      </c>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
+        <v>102</v>
+      </c>
+      <c r="B116" s="31">
+        <v>11.5</v>
+      </c>
+      <c r="C116" s="31">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
+        <v>103</v>
+      </c>
+      <c r="B117" s="31">
+        <v>12.5</v>
+      </c>
+      <c r="C117" s="31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
+        <v>104</v>
+      </c>
+      <c r="B118" s="31">
+        <v>13.5</v>
+      </c>
+      <c r="C118" s="31">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
+        <v>105</v>
+      </c>
+      <c r="B119" s="31">
+        <v>14.5</v>
+      </c>
+      <c r="C119" s="31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
+        <v>106</v>
+      </c>
+      <c r="B120" s="31">
+        <v>15.5</v>
+      </c>
+      <c r="C120" s="31">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
+        <v>107</v>
+      </c>
+      <c r="B121" s="31">
+        <v>16.5</v>
+      </c>
+      <c r="C121" s="31">
+        <v>21.4</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="B122" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="C122" s="31">
+        <v>22.4</v>
+      </c>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
+        <v>109</v>
+      </c>
+      <c r="B123" s="31">
+        <v>18.5</v>
+      </c>
+      <c r="C123" s="31">
+        <v>23.4</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
+        <v>110</v>
+      </c>
+      <c r="B124" s="31">
+        <v>19.5</v>
+      </c>
+      <c r="C124" s="31">
+        <v>24.4</v>
+      </c>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="B125" s="31">
+        <v>20.5</v>
+      </c>
+      <c r="C125" s="31">
+        <v>25.4</v>
+      </c>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="B126" s="31">
+        <v>21.5</v>
+      </c>
+      <c r="C126" s="31">
+        <v>26.4</v>
+      </c>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
+        <v>113</v>
+      </c>
+      <c r="B127" s="31">
+        <v>22.5</v>
+      </c>
+      <c r="C127" s="31">
+        <v>27.4</v>
+      </c>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="B128" s="31">
+        <v>23.5</v>
+      </c>
+      <c r="C128" s="31">
+        <v>28.4</v>
+      </c>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="30"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="B129" s="31">
+        <v>24.5</v>
+      </c>
+      <c r="C129" s="31">
+        <v>29.4</v>
+      </c>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="B130" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="C130" s="31">
+        <v>30.4</v>
+      </c>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="B131" s="31">
+        <v>26.5</v>
+      </c>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="B132" s="31">
+        <v>27.5</v>
+      </c>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B133" s="31">
+        <v>28.5</v>
+      </c>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
+      <c r="B134" s="31">
+        <v>29.5</v>
+      </c>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
+      <c r="A135" s="30">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B135" s="31">
+        <v>30.5</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
+      <c r="A136" s="30">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B136" s="31">
+        <v>31.5</v>
+      </c>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="33"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="30"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="33"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="30"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="33"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="33"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="30"/>
-      <c r="H179" s="30"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="33"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
-      <c r="F180" s="30"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="30"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="33"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="33"/>
+    </row>
+    <row r="182" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
+  <mergeCells count="185">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -3633,6 +3873,171 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3641,1578 +4046,2255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:E64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B3" s="44">
         <v>50000</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="45">
         <v>14.2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="45">
         <v>18.100000000000001</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="E3" s="46"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="G3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="38">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J3" s="38">
+        <v>23.3</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="45">
         <v>50000</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E5" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <f>SUM(D5:D10000)</f>
-        <v>29500</v>
-      </c>
-      <c r="I4">
-        <f>SUM(E6:E10000)</f>
-        <v>1080</v>
-      </c>
-      <c r="J4" s="9">
-        <f>(H4/100)*(10000/120)</f>
-        <v>24583.333333333332</v>
-      </c>
-      <c r="K4" s="9">
-        <f>H4-J4+I4</f>
-        <v>5996.6666666666679</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="32">
+        <v>50000</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="57">
+        <f>SUM(D6:D10005)</f>
+        <v>30000</v>
+      </c>
+      <c r="P5" s="58">
+        <f>SUM(E7:E10005)</f>
+        <v>1120</v>
+      </c>
+      <c r="Q5" s="57">
+        <f>(O5/100)*(10000/120)</f>
+        <v>25000</v>
+      </c>
+      <c r="R5" s="57">
+        <f>O5-Q5+P5</f>
+        <v>6120</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="G6" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <f>Sheet1!B94</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I6">
+        <f>Sheet1!C94</f>
+        <v>23.3</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="N6" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H5">
-        <f>H4/500</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="O6" s="58">
+        <f>O5/500</f>
+        <v>60</v>
+      </c>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="49">
         <v>14.2</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="49">
         <v>18.100000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="50"/>
+      <c r="G7" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <f>Sheet1!B95</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I7">
+        <f>Sheet1!C95</f>
+        <v>24.3</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="58">
+        <f>+SUM(J6:J10000)</f>
+        <v>500</v>
+      </c>
+      <c r="P7" s="58">
+        <f>+SUM(K6:K10000)</f>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="57">
+        <f>(O7/100)*(10000/120)</f>
+        <v>416.66666666666663</v>
+      </c>
+      <c r="R7" s="57">
+        <f>O7-Q7+P7</f>
+        <v>103.33333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="49">
         <v>15.2</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="49">
         <v>19.100000000000001</v>
       </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="G8" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <f>Sheet1!B96</f>
+        <v>21.4</v>
+      </c>
+      <c r="I8">
+        <f>Sheet1!C96</f>
+        <v>25.3</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="58">
+        <f>O7/500</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="49">
         <v>16.2</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="49">
         <v>20.100000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" s="50"/>
+      <c r="G9" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f>Sheet1!B97</f>
+        <v>22.4</v>
+      </c>
+      <c r="I9">
+        <f>Sheet1!C97</f>
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="49">
         <v>17.2</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="49">
         <v>21.1</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" s="50"/>
+      <c r="G10" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <f>Sheet1!B98</f>
+        <v>23.4</v>
+      </c>
+      <c r="I10">
+        <f>Sheet1!C98</f>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="49">
         <v>18.2</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="49">
         <v>22.1</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" s="50"/>
+      <c r="G11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f>Sheet1!B99</f>
+        <v>24.4</v>
+      </c>
+      <c r="I11">
+        <f>Sheet1!C99</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="49">
         <v>19.2</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="49">
         <v>23.1</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" s="50"/>
+      <c r="G12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <f>Sheet1!B100</f>
+        <v>25.4</v>
+      </c>
+      <c r="I12">
+        <f>Sheet1!C100</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="49">
         <v>20.2</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="49">
         <v>24.1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="G13" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <f>Sheet1!B101</f>
+        <v>26.4</v>
+      </c>
+      <c r="I13">
+        <f>Sheet1!C101</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="49">
         <v>21.2</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="49">
         <v>25.1</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E14" s="50"/>
+      <c r="G14" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <f>Sheet1!B102</f>
+        <v>27.4</v>
+      </c>
+      <c r="I14">
+        <f>Sheet1!C102</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="49">
         <v>22.2</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="49">
         <v>26.1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="G15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f>Sheet1!B103</f>
+        <v>28.4</v>
+      </c>
+      <c r="I15">
+        <f>Sheet1!C103</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="49">
         <v>23.2</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="49">
         <v>27.1</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" s="50"/>
+      <c r="G16" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <f>Sheet1!B104</f>
+        <v>29.4</v>
+      </c>
+      <c r="I16">
+        <f>Sheet1!C104</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="49">
         <v>24.2</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="49">
         <v>28.1</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" s="49">
+        <v>0</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="G17" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <f>Sheet1!B105</f>
+        <v>30.4</v>
+      </c>
+      <c r="I17">
+        <f>Sheet1!C105</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="49">
         <v>25.2</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="49">
         <v>29.1</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E18" s="50"/>
+      <c r="G18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f>Sheet1!B106</f>
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <f>Sheet1!C106</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="49">
         <v>26.2</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="49">
         <v>1.2</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="G19" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <f>Sheet1!B107</f>
+        <v>2.5</v>
+      </c>
+      <c r="I19">
+        <f>Sheet1!C107</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="49">
         <v>27.2</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E20" s="50"/>
+      <c r="G20" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <f>Sheet1!B108</f>
+        <v>3.5</v>
+      </c>
+      <c r="I20">
+        <f>Sheet1!C108</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="49">
         <v>28.2</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="49">
         <v>3.2</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E21" s="50"/>
+      <c r="G21" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <f>Sheet1!B109</f>
+        <v>4.5</v>
+      </c>
+      <c r="I21">
+        <f>Sheet1!C109</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="49">
         <v>1.3</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="49">
         <v>4.2</v>
       </c>
-      <c r="D21">
+      <c r="D22" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E22" s="50"/>
+      <c r="G22" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <f>Sheet1!B110</f>
+        <v>5.5</v>
+      </c>
+      <c r="I22">
+        <f>Sheet1!C110</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="49">
         <v>5.2</v>
       </c>
-      <c r="D22">
+      <c r="D23" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E23" s="50"/>
+      <c r="G23" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <f>Sheet1!B111</f>
+        <v>6.5</v>
+      </c>
+      <c r="I23">
+        <f>Sheet1!C111</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="49">
         <v>3.3</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="49">
         <v>6.2</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E24" s="50"/>
+      <c r="G24" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <f>Sheet1!B112</f>
+        <v>7.5</v>
+      </c>
+      <c r="I24">
+        <f>Sheet1!C112</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="49">
         <v>4.3</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="49">
         <v>7.2</v>
       </c>
-      <c r="D24">
+      <c r="D25" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E25" s="50"/>
+      <c r="G25" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f>Sheet1!B113</f>
+        <v>8.5</v>
+      </c>
+      <c r="I25">
+        <f>Sheet1!C113</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="49">
         <v>5.3</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="49">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E26" s="50"/>
+      <c r="G26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <f>Sheet1!B114</f>
+        <v>9.5</v>
+      </c>
+      <c r="I26">
+        <f>Sheet1!C114</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="49">
         <v>6.3</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="49">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D26">
+      <c r="D27" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E27" s="50"/>
+      <c r="G27" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <f>Sheet1!B115</f>
+        <v>10.5</v>
+      </c>
+      <c r="I27">
+        <f>Sheet1!C115</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="49">
         <v>7.3</v>
       </c>
-      <c r="C27">
+      <c r="C28" s="49">
         <v>10.199999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D28" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E28" s="50"/>
+      <c r="G28" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <f>Sheet1!B116</f>
+        <v>11.5</v>
+      </c>
+      <c r="I28">
+        <f>Sheet1!C116</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="49">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="49">
         <v>11.2</v>
       </c>
-      <c r="D28">
+      <c r="D29" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E29" s="50"/>
+      <c r="G29" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <f>Sheet1!B117</f>
+        <v>12.5</v>
+      </c>
+      <c r="I29">
+        <f>Sheet1!C117</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="49">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C29">
+      <c r="C30" s="49">
         <v>12.2</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" s="49">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="G30" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30">
+        <f>Sheet1!B118</f>
+        <v>13.5</v>
+      </c>
+      <c r="I30">
+        <f>Sheet1!C118</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="49">
         <v>10.3</v>
       </c>
-      <c r="C30">
+      <c r="C31" s="49">
         <v>13.2</v>
       </c>
-      <c r="D30">
+      <c r="D31" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E31" s="50"/>
+      <c r="G31" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <f>Sheet1!B119</f>
+        <v>14.5</v>
+      </c>
+      <c r="I31">
+        <f>Sheet1!C119</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="49">
         <v>11.3</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="49">
         <v>14.2</v>
       </c>
-      <c r="D31">
+      <c r="D32" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E32" s="50"/>
+      <c r="G32" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <f>Sheet1!B120</f>
+        <v>15.5</v>
+      </c>
+      <c r="I32">
+        <f>Sheet1!C120</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="49">
         <v>12.3</v>
       </c>
-      <c r="C32">
+      <c r="C33" s="49">
         <v>15.2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" s="49">
+        <v>0</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="G33" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <f>Sheet1!B121</f>
+        <v>16.5</v>
+      </c>
+      <c r="I33">
+        <f>Sheet1!C121</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="49">
         <v>13.3</v>
       </c>
-      <c r="C33">
+      <c r="C34" s="49">
         <v>16.2</v>
       </c>
-      <c r="D33">
+      <c r="D34" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E34" s="50"/>
+      <c r="G34" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <f>Sheet1!B122</f>
+        <v>17.5</v>
+      </c>
+      <c r="I34">
+        <f>Sheet1!C122</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="49">
         <v>14.3</v>
       </c>
-      <c r="C34">
+      <c r="C35" s="49">
         <v>17.2</v>
       </c>
-      <c r="D34">
+      <c r="D35" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E35" s="50"/>
+      <c r="G35" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <f>Sheet1!B123</f>
+        <v>18.5</v>
+      </c>
+      <c r="I35">
+        <f>Sheet1!C123</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="49">
         <v>15.3</v>
       </c>
-      <c r="C35">
+      <c r="C36" s="49">
         <v>18.2</v>
       </c>
-      <c r="D35">
+      <c r="D36" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E36" s="50"/>
+      <c r="G36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <f>Sheet1!B124</f>
+        <v>19.5</v>
+      </c>
+      <c r="I36">
+        <f>Sheet1!C124</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="49">
         <v>16.3</v>
       </c>
-      <c r="C36">
+      <c r="C37" s="49">
         <v>19.2</v>
       </c>
-      <c r="D36">
+      <c r="D37" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E37" s="50"/>
+      <c r="G37" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37">
+        <f>Sheet1!B125</f>
+        <v>20.5</v>
+      </c>
+      <c r="I37">
+        <f>Sheet1!C125</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="49">
         <v>17.3</v>
       </c>
-      <c r="C37">
+      <c r="C38" s="49">
         <v>20.2</v>
       </c>
-      <c r="D37">
+      <c r="D38" s="49">
         <v>500</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E38" s="50"/>
+      <c r="G38" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <f>Sheet1!B126</f>
+        <v>21.5</v>
+      </c>
+      <c r="I38">
+        <f>Sheet1!C126</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="49">
         <v>18.3</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="49">
         <v>21.2</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="49">
         <v>500</v>
       </c>
-      <c r="E38">
+      <c r="E39" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="G39" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <f>Sheet1!B127</f>
+        <v>22.5</v>
+      </c>
+      <c r="I39">
+        <f>Sheet1!C127</f>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="49">
         <v>19.3</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="49">
         <v>22.2</v>
       </c>
-      <c r="D39">
+      <c r="D40" s="49">
         <v>500</v>
       </c>
-      <c r="E39">
+      <c r="E40" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="G40" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <f>Sheet1!B128</f>
+        <v>23.5</v>
+      </c>
+      <c r="I40">
+        <f>Sheet1!C128</f>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="49">
         <v>20.3</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="49">
         <v>23.2</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="49">
         <v>500</v>
       </c>
-      <c r="E40">
+      <c r="E41" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="G41" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41">
+        <f>Sheet1!B129</f>
+        <v>24.5</v>
+      </c>
+      <c r="I41">
+        <f>Sheet1!C129</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="49">
         <v>21.3</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="49">
         <v>24.2</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="49">
         <v>500</v>
       </c>
-      <c r="E41">
+      <c r="E42" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="G42" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42">
+        <f>Sheet1!B130</f>
+        <v>25.5</v>
+      </c>
+      <c r="I42">
+        <f>Sheet1!C130</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="49">
         <v>22.3</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="49">
         <f>Sheet1!C62</f>
         <v>25.2</v>
       </c>
-      <c r="D42">
+      <c r="D43" s="49">
         <v>500</v>
       </c>
-      <c r="E42">
+      <c r="E43" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="G43" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <f>Sheet1!B131</f>
+        <v>26.5</v>
+      </c>
+      <c r="I43">
+        <f>Sheet1!C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="49">
         <v>23.3</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="49">
         <f>Sheet1!C63</f>
         <v>26.2</v>
       </c>
-      <c r="D43">
+      <c r="D44" s="49">
         <v>500</v>
       </c>
-      <c r="E43">
+      <c r="E44" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="G44" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44">
+        <f>Sheet1!B132</f>
+        <v>27.5</v>
+      </c>
+      <c r="I44">
+        <f>Sheet1!C132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="49">
         <v>24.3</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="49">
         <f>Sheet1!C64</f>
         <v>27.2</v>
       </c>
-      <c r="D44">
+      <c r="D45" s="49">
         <v>500</v>
       </c>
-      <c r="E44">
+      <c r="E45" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="G45" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <f>Sheet1!B133</f>
+        <v>28.5</v>
+      </c>
+      <c r="I45">
+        <f>Sheet1!C133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="49">
         <v>25.3</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="49">
         <f>Sheet1!C65</f>
         <v>28.2</v>
       </c>
-      <c r="D45">
+      <c r="D46" s="49">
         <v>500</v>
       </c>
-      <c r="E45">
+      <c r="E46" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="G46" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <f>Sheet1!B134</f>
+        <v>29.5</v>
+      </c>
+      <c r="I46">
+        <f>Sheet1!C134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="49">
         <v>26.3</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="49">
         <f>Sheet1!C66</f>
         <v>29.2</v>
       </c>
-      <c r="D46">
+      <c r="D47" s="49">
         <v>500</v>
       </c>
-      <c r="E46">
+      <c r="E47" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="G47" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47">
+        <f>Sheet1!B135</f>
+        <v>30.5</v>
+      </c>
+      <c r="I47">
+        <f>Sheet1!C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="49">
         <v>27.3</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="49">
         <f>Sheet1!C67</f>
         <v>30.2</v>
       </c>
-      <c r="D47">
+      <c r="D48" s="49">
         <v>500</v>
       </c>
-      <c r="E47">
+      <c r="E48" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="G48" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48">
+        <f>Sheet1!B136</f>
+        <v>31.5</v>
+      </c>
+      <c r="I48">
+        <f>Sheet1!C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="49">
         <f>Sheet1!B69</f>
         <v>28.3</v>
       </c>
-      <c r="C48">
+      <c r="C49" s="49">
         <f>Sheet1!C69</f>
         <v>1.3</v>
       </c>
-      <c r="D48">
+      <c r="D49" s="49">
         <v>500</v>
       </c>
-      <c r="E48">
+      <c r="E49" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="G49" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <f>Sheet1!B137</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>Sheet1!C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="49">
         <f>Sheet1!B70</f>
         <v>29.3</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="49">
         <f>Sheet1!C70</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D49">
+      <c r="D50" s="49">
         <v>500</v>
       </c>
-      <c r="E49">
+      <c r="E50" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="G50" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <f>Sheet1!B138</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>Sheet1!C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="49">
         <f>Sheet1!B71</f>
         <v>30.3</v>
       </c>
-      <c r="C50">
+      <c r="C51" s="49">
         <f>Sheet1!C71</f>
         <v>3.3</v>
       </c>
-      <c r="D50">
+      <c r="D51" s="49">
         <v>500</v>
       </c>
-      <c r="E50">
+      <c r="E51" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="G51" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <f>Sheet1!B139</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>Sheet1!C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="49">
         <f>Sheet1!B72</f>
         <v>31.3</v>
       </c>
-      <c r="C51">
+      <c r="C52" s="49">
         <f>Sheet1!C72</f>
         <v>4.3</v>
       </c>
-      <c r="D51">
+      <c r="D52" s="49">
         <v>500</v>
       </c>
-      <c r="E51">
+      <c r="E52" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="G52" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <f>Sheet1!B140</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>Sheet1!C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="49">
         <f>Sheet1!B75</f>
         <v>1.4</v>
       </c>
-      <c r="C52">
+      <c r="C53" s="49">
         <f>Sheet1!C75</f>
         <v>5.3</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D53" s="49">
+        <v>0</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <f>Sheet1!B141</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>Sheet1!C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="49">
         <f>Sheet1!B76</f>
         <v>2.4</v>
       </c>
-      <c r="C53">
+      <c r="C54" s="49">
         <f>Sheet1!C76</f>
         <v>6.3</v>
       </c>
-      <c r="D53">
+      <c r="D54" s="49">
         <v>1000</v>
       </c>
-      <c r="E53">
+      <c r="E54" s="50">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="G54" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <f>Sheet1!B142</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>Sheet1!C142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="49">
         <f>Sheet1!B77</f>
         <v>3.4</v>
       </c>
-      <c r="C54">
+      <c r="C55" s="49">
         <f>Sheet1!C77</f>
         <v>7.3</v>
       </c>
-      <c r="D54">
+      <c r="D55" s="49">
         <v>500</v>
       </c>
-      <c r="E54">
+      <c r="E55" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="G55" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55">
+        <f>Sheet1!B143</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>Sheet1!C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="49">
         <f>Sheet1!B78</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="49">
         <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D55">
+      <c r="D56" s="49">
         <v>500</v>
       </c>
-      <c r="E55">
+      <c r="E56" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="G56" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56">
+        <f>Sheet1!B144</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>Sheet1!C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B56">
+      <c r="B57" s="49">
         <f>Sheet1!B79</f>
         <v>5.4</v>
       </c>
-      <c r="C56">
+      <c r="C57" s="49">
         <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="D56">
+      <c r="D57" s="49">
         <v>500</v>
       </c>
-      <c r="E56">
+      <c r="E57" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G57" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <f>Sheet1!B145</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>Sheet1!C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B57">
+      <c r="B58" s="49">
         <f>Sheet1!B80</f>
         <v>6.4</v>
       </c>
-      <c r="C57">
+      <c r="C58" s="49">
         <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
-      <c r="D57">
+      <c r="D58" s="49">
         <v>500</v>
       </c>
-      <c r="E57">
+      <c r="E58" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="G58" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <f>Sheet1!B146</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>Sheet1!C146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="49">
         <f>Sheet1!B81</f>
         <v>7.4</v>
       </c>
-      <c r="C58">
+      <c r="C59" s="49">
         <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
-      <c r="D58">
+      <c r="D59" s="49">
         <v>500</v>
       </c>
-      <c r="E58">
+      <c r="E59" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="G59" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59">
+        <f>Sheet1!B147</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>Sheet1!C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="49">
         <f>Sheet1!B82</f>
         <v>8.4</v>
       </c>
-      <c r="C59">
+      <c r="C60" s="49">
         <f>Sheet1!C82</f>
         <v>12.3</v>
       </c>
-      <c r="D59">
+      <c r="D60" s="49">
         <v>500</v>
       </c>
-      <c r="E59">
+      <c r="E60" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="G60" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <f>Sheet1!B148</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>Sheet1!C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="49">
         <f>Sheet1!B83</f>
         <v>9.4</v>
       </c>
-      <c r="C60">
+      <c r="C61" s="49">
         <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
-      <c r="D60">
+      <c r="D61" s="49">
         <v>500</v>
       </c>
-      <c r="E60">
+      <c r="E61" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="G61" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61">
+        <f>Sheet1!B149</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>Sheet1!C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="49">
         <f>Sheet1!B84</f>
         <v>10.4</v>
       </c>
-      <c r="C61">
+      <c r="C62" s="49">
         <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
-      <c r="D61">
+      <c r="D62" s="49">
         <v>500</v>
       </c>
-      <c r="E61">
+      <c r="E62" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="G62" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62">
+        <f>Sheet1!B150</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>Sheet1!C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="49">
         <f>Sheet1!B85</f>
         <v>11.4</v>
       </c>
-      <c r="C62">
+      <c r="C63" s="49">
         <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
-      <c r="D62">
+      <c r="D63" s="49">
         <v>500</v>
       </c>
-      <c r="E62">
+      <c r="E63" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="G63" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <f>Sheet1!B151</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>Sheet1!C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="49">
         <f>Sheet1!B86</f>
         <v>12.4</v>
       </c>
-      <c r="C63">
+      <c r="C64" s="49">
         <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
-      <c r="D63">
+      <c r="D64" s="49">
         <v>500</v>
       </c>
-      <c r="E63">
+      <c r="E64" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="G64" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64">
+        <f>Sheet1!B152</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>Sheet1!C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="49">
         <f>Sheet1!B87</f>
         <v>13.4</v>
       </c>
-      <c r="C64">
+      <c r="C65" s="49">
         <f>Sheet1!C87</f>
         <v>17.3</v>
       </c>
-      <c r="D64">
+      <c r="D65" s="49">
         <v>500</v>
       </c>
-      <c r="E64">
+      <c r="E65" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="G65" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65">
+        <f>Sheet1!B153</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>Sheet1!C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B65">
+      <c r="B66" s="49">
         <f>Sheet1!B88</f>
         <v>14.4</v>
       </c>
-      <c r="C65">
+      <c r="C66" s="49">
         <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" s="49">
+        <v>500</v>
+      </c>
+      <c r="E66" s="50">
+        <v>40</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66">
+        <f>Sheet1!B154</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>Sheet1!C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B66">
+      <c r="B67" s="49">
         <f>Sheet1!B89</f>
         <v>15.4</v>
       </c>
-      <c r="C66">
+      <c r="C67" s="49">
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" s="48"/>
+      <c r="E67" s="52"/>
+      <c r="G67" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67">
+        <f>Sheet1!B155</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>Sheet1!C155</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="32"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
+      <c r="B68" s="49">
         <f>Sheet1!B90</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="C67">
+      <c r="C68" s="49">
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D68" s="48"/>
+      <c r="E68" s="52"/>
+      <c r="G68" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68">
+        <f>Sheet1!B156</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>Sheet1!C156</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="32"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="32"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B68">
+      <c r="B69" s="49">
         <f>Sheet1!B91</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="C68">
+      <c r="C69" s="49">
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D69" s="48"/>
+      <c r="E69" s="52"/>
+      <c r="G69" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69">
+        <f>Sheet1!B157</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>Sheet1!C157</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B69">
+      <c r="B70" s="54">
         <f>Sheet1!B92</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="C69">
+      <c r="C70" s="54">
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="G70" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70">
+        <f>Sheet1!B158</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>Sheet1!C158</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="G71" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <f>Sheet1!B159</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>Sheet1!C159</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="32"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="32"/>
+      <c r="G72" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72">
+        <f>Sheet1!B160</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>Sheet1!C160</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="32"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="G73" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73">
+        <f>Sheet1!B161</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>Sheet1!C161</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="32"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="G74" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74">
+        <f>Sheet1!B162</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>Sheet1!C162</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="32"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G75" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75">
+        <f>Sheet1!B163</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>Sheet1!C163</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G76" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B70">
-        <f>Sheet1!B93</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C70">
-        <f>Sheet1!C93</f>
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="H76">
+        <f>Sheet1!B164</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>Sheet1!C164</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G77" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B71">
-        <f>Sheet1!B94</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C71">
-        <f>Sheet1!C94</f>
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="H77">
+        <f>Sheet1!B165</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>Sheet1!C165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G78" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B72">
-        <f>Sheet1!B95</f>
-        <v>21.4</v>
-      </c>
-      <c r="C72">
-        <f>Sheet1!C95</f>
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="H78">
+        <f>Sheet1!B166</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>Sheet1!C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G79" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B73">
-        <f>Sheet1!B96</f>
-        <v>22.4</v>
-      </c>
-      <c r="C73">
-        <f>Sheet1!C96</f>
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H79">
+        <f>Sheet1!B167</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>Sheet1!C167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G80" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B74">
-        <f>Sheet1!B97</f>
-        <v>23.4</v>
-      </c>
-      <c r="C74">
-        <f>Sheet1!C97</f>
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="H80">
+        <f>Sheet1!B168</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>Sheet1!C168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B75">
-        <f>Sheet1!B98</f>
-        <v>24.4</v>
-      </c>
-      <c r="C75">
-        <f>Sheet1!C98</f>
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="H81">
+        <f>Sheet1!B169</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>Sheet1!C169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B76">
-        <f>Sheet1!B99</f>
-        <v>25.4</v>
-      </c>
-      <c r="C76">
-        <f>Sheet1!C99</f>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="H82">
+        <f>Sheet1!B170</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>Sheet1!C170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B77">
-        <f>Sheet1!B100</f>
-        <v>26.4</v>
-      </c>
-      <c r="C77">
-        <f>Sheet1!C100</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78">
-        <f>Sheet1!B101</f>
-        <v>27.4</v>
-      </c>
-      <c r="C78">
-        <f>Sheet1!C101</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79">
-        <f>Sheet1!B102</f>
-        <v>28.4</v>
-      </c>
-      <c r="C79">
-        <f>Sheet1!C102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80">
-        <f>Sheet1!B103</f>
-        <v>29.4</v>
-      </c>
-      <c r="C80">
-        <f>Sheet1!C103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B81">
-        <f>Sheet1!B104</f>
-        <v>30.4</v>
-      </c>
-      <c r="C81">
-        <f>Sheet1!C104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82">
-        <f>Sheet1!B105</f>
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <f>Sheet1!C105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83">
-        <f>Sheet1!B106</f>
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <f>Sheet1!C106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84">
-        <f>Sheet1!B107</f>
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <f>Sheet1!C107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85">
-        <f>Sheet1!B108</f>
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <f>Sheet1!C108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <f>Sheet1!B109</f>
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <f>Sheet1!C109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87">
-        <f>Sheet1!B110</f>
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <f>Sheet1!C110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88">
-        <f>Sheet1!B111</f>
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <f>Sheet1!C111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89">
-        <f>Sheet1!B112</f>
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <f>Sheet1!C112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90">
-        <f>Sheet1!B113</f>
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <f>Sheet1!C113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91">
-        <f>Sheet1!B114</f>
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <f>Sheet1!C114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92">
-        <f>Sheet1!B115</f>
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <f>Sheet1!C115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93">
-        <f>Sheet1!B116</f>
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <f>Sheet1!C116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94">
-        <f>Sheet1!B117</f>
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <f>Sheet1!C117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95">
-        <f>Sheet1!B118</f>
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <f>Sheet1!C118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96">
-        <f>Sheet1!B119</f>
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <f>Sheet1!C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97">
-        <f>Sheet1!B120</f>
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <f>Sheet1!C120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98">
-        <f>Sheet1!B121</f>
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <f>Sheet1!C121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99">
-        <f>Sheet1!B122</f>
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <f>Sheet1!C122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100">
-        <f>Sheet1!B123</f>
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <f>Sheet1!C123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101">
-        <f>Sheet1!B124</f>
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <f>Sheet1!C124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102">
-        <f>Sheet1!B125</f>
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <f>Sheet1!C125</f>
+      <c r="H83">
+        <f>Sheet1!B171</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>Sheet1!C171</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
+  <mergeCells count="6">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D67:E70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5220,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E78"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5268,17 +6350,17 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="9"/>
@@ -5316,19 +6398,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>14000</v>
+        <v>15200</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>1040</v>
+        <v>1220</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>11666.666666666666</v>
+        <v>12666.666666666666</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>3373.3333333333339</v>
+        <v>3753.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5345,7 +6427,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -6605,6 +7687,12 @@
         <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -6618,8 +7706,14 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -6631,8 +7725,14 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>400</v>
+      </c>
+      <c r="E81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6644,8 +7744,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -6657,174 +7763,186 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>200</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
       <c r="B84">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B94</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C84">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C94</f>
         <v>23.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>200</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
       <c r="B85">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B95</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C85">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C95</f>
         <v>24.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
       <c r="B86">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B96</f>
         <v>21.4</v>
       </c>
       <c r="C86">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C96</f>
         <v>25.3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
       <c r="B87">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B97</f>
         <v>22.4</v>
       </c>
       <c r="C87">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C97</f>
         <v>26.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
       <c r="B88">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B98</f>
         <v>23.4</v>
       </c>
       <c r="C88">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C98</f>
         <v>27.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
       <c r="B89">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B99</f>
         <v>24.4</v>
       </c>
       <c r="C89">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C99</f>
         <v>28.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
       <c r="B90">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B100</f>
         <v>25.4</v>
       </c>
       <c r="C90">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C100</f>
         <v>29.3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
       <c r="B91">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B101</f>
         <v>26.4</v>
       </c>
       <c r="C91">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C101</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
       <c r="B92">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B102</f>
         <v>27.4</v>
       </c>
       <c r="C92">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C102</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
       <c r="B93">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B103</f>
         <v>28.4</v>
       </c>
       <c r="C93">
-        <f>Sheet1!C102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C103</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
       <c r="B94">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B104</f>
         <v>29.4</v>
       </c>
       <c r="C94">
-        <f>Sheet1!C103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C104</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
       <c r="B95">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B105</f>
         <v>30.4</v>
       </c>
       <c r="C95">
-        <f>Sheet1!C104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C105</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96">
-        <f>Sheet1!B105</f>
-        <v>0</v>
+        <f>Sheet1!B106</f>
+        <v>1.5</v>
       </c>
       <c r="C96">
-        <f>Sheet1!C105</f>
-        <v>0</v>
+        <f>Sheet1!C106</f>
+        <v>6.4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6832,12 +7950,12 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <f>Sheet1!B106</f>
-        <v>0</v>
+        <f>Sheet1!B107</f>
+        <v>2.5</v>
       </c>
       <c r="C97">
-        <f>Sheet1!C106</f>
-        <v>0</v>
+        <f>Sheet1!C107</f>
+        <v>7.4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6845,12 +7963,12 @@
         <v>28</v>
       </c>
       <c r="B98">
-        <f>Sheet1!B107</f>
-        <v>0</v>
+        <f>Sheet1!B108</f>
+        <v>3.5</v>
       </c>
       <c r="C98">
-        <f>Sheet1!C107</f>
-        <v>0</v>
+        <f>Sheet1!C108</f>
+        <v>8.4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,12 +7976,12 @@
         <v>29</v>
       </c>
       <c r="B99">
-        <f>Sheet1!B108</f>
-        <v>0</v>
+        <f>Sheet1!B109</f>
+        <v>4.5</v>
       </c>
       <c r="C99">
-        <f>Sheet1!C108</f>
-        <v>0</v>
+        <f>Sheet1!C109</f>
+        <v>9.4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6871,12 +7989,12 @@
         <v>30</v>
       </c>
       <c r="B100">
-        <f>Sheet1!B109</f>
-        <v>0</v>
+        <f>Sheet1!B110</f>
+        <v>5.5</v>
       </c>
       <c r="C100">
-        <f>Sheet1!C109</f>
-        <v>0</v>
+        <f>Sheet1!C110</f>
+        <v>10.4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,12 +8002,12 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <f>Sheet1!B110</f>
-        <v>0</v>
+        <f>Sheet1!B111</f>
+        <v>6.5</v>
       </c>
       <c r="C101">
-        <f>Sheet1!C110</f>
-        <v>0</v>
+        <f>Sheet1!C111</f>
+        <v>11.4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,12 +8015,12 @@
         <v>32</v>
       </c>
       <c r="B102">
-        <f>Sheet1!B111</f>
-        <v>0</v>
+        <f>Sheet1!B112</f>
+        <v>7.5</v>
       </c>
       <c r="C102">
-        <f>Sheet1!C111</f>
-        <v>0</v>
+        <f>Sheet1!C112</f>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
@@ -6917,8 +8035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6966,10 +8084,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
@@ -7014,19 +8132,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>7000</v>
+        <v>7600</v>
       </c>
       <c r="I4">
         <f>SUM(E5:E10000)</f>
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>5833.333333333333</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>1866.666666666667</v>
+        <v>2026.666666666667</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -7043,7 +8161,7 @@
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8382,6 +9500,15 @@
         <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -8395,8 +9522,17 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -8408,8 +9544,17 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -8421,8 +9566,17 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -8434,174 +9588,192 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
       <c r="B84">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B94</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C84">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C94</f>
         <v>23.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
       <c r="B85">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B95</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C85">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C95</f>
         <v>24.3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
       <c r="B86">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B96</f>
         <v>21.4</v>
       </c>
       <c r="C86">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C96</f>
         <v>25.3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>31</v>
       </c>
       <c r="B87">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B97</f>
         <v>22.4</v>
       </c>
       <c r="C87">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C97</f>
         <v>26.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
       <c r="B88">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B98</f>
         <v>23.4</v>
       </c>
       <c r="C88">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C98</f>
         <v>27.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
       <c r="B89">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B99</f>
         <v>24.4</v>
       </c>
       <c r="C89">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C99</f>
         <v>28.3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>27</v>
       </c>
       <c r="B90">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B100</f>
         <v>25.4</v>
       </c>
       <c r="C90">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C100</f>
         <v>29.3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
       <c r="B91">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B101</f>
         <v>26.4</v>
       </c>
       <c r="C91">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C101</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>29</v>
       </c>
       <c r="B92">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B102</f>
         <v>27.4</v>
       </c>
       <c r="C92">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C102</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
       <c r="B93">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B103</f>
         <v>28.4</v>
       </c>
       <c r="C93">
-        <f>Sheet1!C102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C103</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>31</v>
       </c>
       <c r="B94">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B104</f>
         <v>29.4</v>
       </c>
       <c r="C94">
-        <f>Sheet1!C103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C104</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
       <c r="B95">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B105</f>
         <v>30.4</v>
       </c>
       <c r="C95">
-        <f>Sheet1!C104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Sheet1!C105</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96">
-        <f>Sheet1!B105</f>
-        <v>0</v>
+        <f>Sheet1!B106</f>
+        <v>1.5</v>
       </c>
       <c r="C96">
-        <f>Sheet1!C105</f>
-        <v>0</v>
+        <f>Sheet1!C106</f>
+        <v>6.4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8609,12 +9781,12 @@
         <v>27</v>
       </c>
       <c r="B97">
-        <f>Sheet1!B106</f>
-        <v>0</v>
+        <f>Sheet1!B107</f>
+        <v>2.5</v>
       </c>
       <c r="C97">
-        <f>Sheet1!C106</f>
-        <v>0</v>
+        <f>Sheet1!C107</f>
+        <v>7.4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -8622,12 +9794,12 @@
         <v>28</v>
       </c>
       <c r="B98">
-        <f>Sheet1!B107</f>
-        <v>0</v>
+        <f>Sheet1!B108</f>
+        <v>3.5</v>
       </c>
       <c r="C98">
-        <f>Sheet1!C107</f>
-        <v>0</v>
+        <f>Sheet1!C108</f>
+        <v>8.4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,12 +9807,12 @@
         <v>29</v>
       </c>
       <c r="B99">
-        <f>Sheet1!B108</f>
-        <v>0</v>
+        <f>Sheet1!B109</f>
+        <v>4.5</v>
       </c>
       <c r="C99">
-        <f>Sheet1!C108</f>
-        <v>0</v>
+        <f>Sheet1!C109</f>
+        <v>9.4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -8648,12 +9820,12 @@
         <v>30</v>
       </c>
       <c r="B100">
-        <f>Sheet1!B109</f>
-        <v>0</v>
+        <f>Sheet1!B110</f>
+        <v>5.5</v>
       </c>
       <c r="C100">
-        <f>Sheet1!C109</f>
-        <v>0</v>
+        <f>Sheet1!C110</f>
+        <v>10.4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -8661,12 +9833,12 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <f>Sheet1!B110</f>
-        <v>0</v>
+        <f>Sheet1!B111</f>
+        <v>6.5</v>
       </c>
       <c r="C101">
-        <f>Sheet1!C110</f>
-        <v>0</v>
+        <f>Sheet1!C111</f>
+        <v>11.4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -8674,12 +9846,12 @@
         <v>32</v>
       </c>
       <c r="B102">
-        <f>Sheet1!B111</f>
-        <v>0</v>
+        <f>Sheet1!B112</f>
+        <v>7.5</v>
       </c>
       <c r="C102">
-        <f>Sheet1!C111</f>
-        <v>0</v>
+        <f>Sheet1!C112</f>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
@@ -8694,8 +9866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8704,26 +9876,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
+      <c r="A1" s="27"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="12">
         <v>50000</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>31.3</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>4.3</v>
       </c>
     </row>
@@ -8731,22 +9903,22 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>50000</v>
       </c>
     </row>
@@ -8913,7 +10085,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -8926,7 +10098,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -8939,7 +10111,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -8952,7 +10124,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8964,8 +10136,11 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8978,7 +10153,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8991,134 +10166,134 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <f>Sheet1!B93</f>
+        <f>Sheet1!B94</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C23">
-        <f>Sheet1!C93</f>
+        <f>Sheet1!C94</f>
         <v>23.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <f>Sheet1!B94</f>
+        <f>Sheet1!B95</f>
         <v>20.399999999999999</v>
       </c>
       <c r="C24">
-        <f>Sheet1!C94</f>
+        <f>Sheet1!C95</f>
         <v>24.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <f>Sheet1!B95</f>
+        <f>Sheet1!B96</f>
         <v>21.4</v>
       </c>
       <c r="C25">
-        <f>Sheet1!C95</f>
+        <f>Sheet1!C96</f>
         <v>25.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <f>Sheet1!B96</f>
+        <f>Sheet1!B97</f>
         <v>22.4</v>
       </c>
       <c r="C26">
-        <f>Sheet1!C96</f>
+        <f>Sheet1!C97</f>
         <v>26.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <f>Sheet1!B97</f>
+        <f>Sheet1!B98</f>
         <v>23.4</v>
       </c>
       <c r="C27">
-        <f>Sheet1!C97</f>
+        <f>Sheet1!C98</f>
         <v>27.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <f>Sheet1!B98</f>
+        <f>Sheet1!B99</f>
         <v>24.4</v>
       </c>
       <c r="C28">
-        <f>Sheet1!C98</f>
+        <f>Sheet1!C99</f>
         <v>28.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <f>Sheet1!B99</f>
+        <f>Sheet1!B100</f>
         <v>25.4</v>
       </c>
       <c r="C29">
-        <f>Sheet1!C99</f>
+        <f>Sheet1!C100</f>
         <v>29.3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <f>Sheet1!B100</f>
+        <f>Sheet1!B101</f>
         <v>26.4</v>
       </c>
       <c r="C30">
-        <f>Sheet1!C100</f>
+        <f>Sheet1!C101</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <f>Sheet1!B101</f>
+        <f>Sheet1!B102</f>
         <v>27.4</v>
       </c>
       <c r="C31">
-        <f>Sheet1!C101</f>
+        <f>Sheet1!C102</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <f>Sheet1!B102</f>
+        <f>Sheet1!B103</f>
         <v>28.4</v>
       </c>
       <c r="C32">
-        <f>Sheet1!C102</f>
-        <v>0</v>
+        <f>Sheet1!C103</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9126,12 +10301,12 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f>Sheet1!B103</f>
+        <f>Sheet1!B104</f>
         <v>29.4</v>
       </c>
       <c r="C33">
-        <f>Sheet1!C103</f>
-        <v>0</v>
+        <f>Sheet1!C104</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,12 +10314,12 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>Sheet1!B104</f>
+        <f>Sheet1!B105</f>
         <v>30.4</v>
       </c>
       <c r="C34">
-        <f>Sheet1!C104</f>
-        <v>0</v>
+        <f>Sheet1!C105</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9152,12 +10327,12 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <f>Sheet1!B105</f>
-        <v>0</v>
+        <f>Sheet1!B106</f>
+        <v>1.5</v>
       </c>
       <c r="C35">
-        <f>Sheet1!C105</f>
-        <v>0</v>
+        <f>Sheet1!C106</f>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9165,12 +10340,12 @@
         <v>27</v>
       </c>
       <c r="B36">
-        <f>Sheet1!B106</f>
-        <v>0</v>
+        <f>Sheet1!B107</f>
+        <v>2.5</v>
       </c>
       <c r="C36">
-        <f>Sheet1!C106</f>
-        <v>0</v>
+        <f>Sheet1!C107</f>
+        <v>7.4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9178,12 +10353,12 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <f>Sheet1!B107</f>
-        <v>0</v>
+        <f>Sheet1!B108</f>
+        <v>3.5</v>
       </c>
       <c r="C37">
-        <f>Sheet1!C107</f>
-        <v>0</v>
+        <f>Sheet1!C108</f>
+        <v>8.4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9191,12 +10366,12 @@
         <v>29</v>
       </c>
       <c r="B38">
-        <f>Sheet1!B108</f>
-        <v>0</v>
+        <f>Sheet1!B109</f>
+        <v>4.5</v>
       </c>
       <c r="C38">
-        <f>Sheet1!C108</f>
-        <v>0</v>
+        <f>Sheet1!C109</f>
+        <v>9.4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9204,12 +10379,12 @@
         <v>30</v>
       </c>
       <c r="B39">
-        <f>Sheet1!B109</f>
-        <v>0</v>
+        <f>Sheet1!B110</f>
+        <v>5.5</v>
       </c>
       <c r="C39">
-        <f>Sheet1!C109</f>
-        <v>0</v>
+        <f>Sheet1!C110</f>
+        <v>10.4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,12 +10392,12 @@
         <v>31</v>
       </c>
       <c r="B40">
-        <f>Sheet1!B110</f>
-        <v>0</v>
+        <f>Sheet1!B111</f>
+        <v>6.5</v>
       </c>
       <c r="C40">
-        <f>Sheet1!C110</f>
-        <v>0</v>
+        <f>Sheet1!C111</f>
+        <v>11.4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9230,12 +10405,12 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <f>Sheet1!B111</f>
-        <v>0</v>
+        <f>Sheet1!B112</f>
+        <v>7.5</v>
       </c>
       <c r="C41">
-        <f>Sheet1!C111</f>
-        <v>0</v>
+        <f>Sheet1!C112</f>
+        <v>12.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9243,12 +10418,12 @@
         <v>26</v>
       </c>
       <c r="B42">
-        <f>Sheet1!B112</f>
-        <v>0</v>
+        <f>Sheet1!B113</f>
+        <v>8.5</v>
       </c>
       <c r="C42">
-        <f>Sheet1!C112</f>
-        <v>0</v>
+        <f>Sheet1!C113</f>
+        <v>13.4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9256,12 +10431,12 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <f>Sheet1!B113</f>
-        <v>0</v>
+        <f>Sheet1!B114</f>
+        <v>9.5</v>
       </c>
       <c r="C43">
-        <f>Sheet1!C113</f>
-        <v>0</v>
+        <f>Sheet1!C114</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9269,12 +10444,12 @@
         <v>28</v>
       </c>
       <c r="B44">
-        <f>Sheet1!B114</f>
-        <v>0</v>
+        <f>Sheet1!B115</f>
+        <v>10.5</v>
       </c>
       <c r="C44">
-        <f>Sheet1!C114</f>
-        <v>0</v>
+        <f>Sheet1!C115</f>
+        <v>15.4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,12 +10457,12 @@
         <v>29</v>
       </c>
       <c r="B45">
-        <f>Sheet1!B115</f>
-        <v>0</v>
+        <f>Sheet1!B116</f>
+        <v>11.5</v>
       </c>
       <c r="C45">
-        <f>Sheet1!C115</f>
-        <v>0</v>
+        <f>Sheet1!C116</f>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9295,12 +10470,12 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <f>Sheet1!B116</f>
-        <v>0</v>
+        <f>Sheet1!B117</f>
+        <v>12.5</v>
       </c>
       <c r="C46">
-        <f>Sheet1!C116</f>
-        <v>0</v>
+        <f>Sheet1!C117</f>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9308,12 +10483,12 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <f>Sheet1!B117</f>
-        <v>0</v>
+        <f>Sheet1!B118</f>
+        <v>13.5</v>
       </c>
       <c r="C47">
-        <f>Sheet1!C117</f>
-        <v>0</v>
+        <f>Sheet1!C118</f>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9321,12 +10496,12 @@
         <v>32</v>
       </c>
       <c r="B48">
-        <f>Sheet1!B118</f>
-        <v>0</v>
+        <f>Sheet1!B119</f>
+        <v>14.5</v>
       </c>
       <c r="C48">
-        <f>Sheet1!C118</f>
-        <v>0</v>
+        <f>Sheet1!C119</f>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9334,12 +10509,12 @@
         <v>26</v>
       </c>
       <c r="B49">
-        <f>Sheet1!B119</f>
-        <v>0</v>
+        <f>Sheet1!B120</f>
+        <v>15.5</v>
       </c>
       <c r="C49">
-        <f>Sheet1!C119</f>
-        <v>0</v>
+        <f>Sheet1!C120</f>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9347,12 +10522,12 @@
         <v>27</v>
       </c>
       <c r="B50">
-        <f>Sheet1!B120</f>
-        <v>0</v>
+        <f>Sheet1!B121</f>
+        <v>16.5</v>
       </c>
       <c r="C50">
-        <f>Sheet1!C120</f>
-        <v>0</v>
+        <f>Sheet1!C121</f>
+        <v>21.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,12 +10535,12 @@
         <v>28</v>
       </c>
       <c r="B51">
-        <f>Sheet1!B121</f>
-        <v>0</v>
+        <f>Sheet1!B122</f>
+        <v>17.5</v>
       </c>
       <c r="C51">
-        <f>Sheet1!C121</f>
-        <v>0</v>
+        <f>Sheet1!C122</f>
+        <v>22.4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9373,12 +10548,12 @@
         <v>29</v>
       </c>
       <c r="B52">
-        <f>Sheet1!B122</f>
-        <v>0</v>
+        <f>Sheet1!B123</f>
+        <v>18.5</v>
       </c>
       <c r="C52">
-        <f>Sheet1!C122</f>
-        <v>0</v>
+        <f>Sheet1!C123</f>
+        <v>23.4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9386,12 +10561,12 @@
         <v>30</v>
       </c>
       <c r="B53">
-        <f>Sheet1!B123</f>
-        <v>0</v>
+        <f>Sheet1!B124</f>
+        <v>19.5</v>
       </c>
       <c r="C53">
-        <f>Sheet1!C123</f>
-        <v>0</v>
+        <f>Sheet1!C124</f>
+        <v>24.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9399,12 +10574,12 @@
         <v>31</v>
       </c>
       <c r="B54">
-        <f>Sheet1!B124</f>
-        <v>0</v>
+        <f>Sheet1!B125</f>
+        <v>20.5</v>
       </c>
       <c r="C54">
-        <f>Sheet1!C124</f>
-        <v>0</v>
+        <f>Sheet1!C125</f>
+        <v>25.4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,12 +10587,12 @@
         <v>32</v>
       </c>
       <c r="B55">
-        <f>Sheet1!B125</f>
-        <v>0</v>
+        <f>Sheet1!B126</f>
+        <v>21.5</v>
       </c>
       <c r="C55">
-        <f>Sheet1!C125</f>
-        <v>0</v>
+        <f>Sheet1!C126</f>
+        <v>26.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9425,12 +10600,12 @@
         <v>26</v>
       </c>
       <c r="B56">
-        <f>Sheet1!B126</f>
-        <v>0</v>
+        <f>Sheet1!B127</f>
+        <v>22.5</v>
       </c>
       <c r="C56">
-        <f>Sheet1!C126</f>
-        <v>0</v>
+        <f>Sheet1!C127</f>
+        <v>27.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9438,12 +10613,12 @@
         <v>27</v>
       </c>
       <c r="B57">
-        <f>Sheet1!B127</f>
-        <v>0</v>
+        <f>Sheet1!B128</f>
+        <v>23.5</v>
       </c>
       <c r="C57">
-        <f>Sheet1!C127</f>
-        <v>0</v>
+        <f>Sheet1!C128</f>
+        <v>28.4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9451,12 +10626,12 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <f>Sheet1!B128</f>
-        <v>0</v>
+        <f>Sheet1!B129</f>
+        <v>24.5</v>
       </c>
       <c r="C58">
-        <f>Sheet1!C128</f>
-        <v>0</v>
+        <f>Sheet1!C129</f>
+        <v>29.4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9464,12 +10639,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <f>Sheet1!B129</f>
-        <v>0</v>
+        <f>Sheet1!B130</f>
+        <v>25.5</v>
       </c>
       <c r="C59">
-        <f>Sheet1!C129</f>
-        <v>0</v>
+        <f>Sheet1!C130</f>
+        <v>30.4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9477,11 +10652,11 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <f>Sheet1!B130</f>
-        <v>0</v>
+        <f>Sheet1!B131</f>
+        <v>26.5</v>
       </c>
       <c r="C60">
-        <f>Sheet1!C130</f>
+        <f>Sheet1!C131</f>
         <v>0</v>
       </c>
     </row>
@@ -9490,11 +10665,11 @@
         <v>31</v>
       </c>
       <c r="B61">
-        <f>Sheet1!B131</f>
-        <v>0</v>
+        <f>Sheet1!B132</f>
+        <v>27.5</v>
       </c>
       <c r="C61">
-        <f>Sheet1!C131</f>
+        <f>Sheet1!C132</f>
         <v>0</v>
       </c>
     </row>
@@ -9503,11 +10678,11 @@
         <v>32</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B132</f>
-        <v>0</v>
+        <f>Sheet1!B133</f>
+        <v>28.5</v>
       </c>
       <c r="C62">
-        <f>Sheet1!C132</f>
+        <f>Sheet1!C133</f>
         <v>0</v>
       </c>
     </row>
@@ -9516,11 +10691,11 @@
         <v>26</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B133</f>
-        <v>0</v>
+        <f>Sheet1!B134</f>
+        <v>29.5</v>
       </c>
       <c r="C63">
-        <f>Sheet1!C133</f>
+        <f>Sheet1!C134</f>
         <v>0</v>
       </c>
     </row>
@@ -9529,11 +10704,11 @@
         <v>27</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B134</f>
-        <v>0</v>
+        <f>Sheet1!B135</f>
+        <v>30.5</v>
       </c>
       <c r="C64">
-        <f>Sheet1!C134</f>
+        <f>Sheet1!C135</f>
         <v>0</v>
       </c>
     </row>
@@ -9542,11 +10717,11 @@
         <v>28</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B135</f>
-        <v>0</v>
+        <f>Sheet1!B136</f>
+        <v>31.5</v>
       </c>
       <c r="C65">
-        <f>Sheet1!C135</f>
+        <f>Sheet1!C136</f>
         <v>0</v>
       </c>
     </row>
@@ -9555,11 +10730,11 @@
         <v>29</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B136</f>
+        <f>Sheet1!B137</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>Sheet1!C136</f>
+        <f>Sheet1!C137</f>
         <v>0</v>
       </c>
     </row>
@@ -9568,11 +10743,11 @@
         <v>30</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B137</f>
+        <f>Sheet1!B138</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f>Sheet1!C137</f>
+        <f>Sheet1!C138</f>
         <v>0</v>
       </c>
     </row>
@@ -9581,11 +10756,11 @@
         <v>31</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B138</f>
+        <f>Sheet1!B139</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>Sheet1!C138</f>
+        <f>Sheet1!C139</f>
         <v>0</v>
       </c>
     </row>
@@ -9594,11 +10769,11 @@
         <v>32</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B139</f>
+        <f>Sheet1!B140</f>
         <v>0</v>
       </c>
       <c r="C69">
-        <f>Sheet1!C139</f>
+        <f>Sheet1!C140</f>
         <v>0</v>
       </c>
     </row>
@@ -9607,11 +10782,11 @@
         <v>26</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B140</f>
+        <f>Sheet1!B141</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>Sheet1!C140</f>
+        <f>Sheet1!C141</f>
         <v>0</v>
       </c>
     </row>
@@ -9620,11 +10795,11 @@
         <v>27</v>
       </c>
       <c r="B71">
-        <f>Sheet1!B141</f>
+        <f>Sheet1!B142</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f>Sheet1!C141</f>
+        <f>Sheet1!C142</f>
         <v>0</v>
       </c>
     </row>
@@ -9633,11 +10808,11 @@
         <v>28</v>
       </c>
       <c r="B72">
-        <f>Sheet1!B142</f>
+        <f>Sheet1!B143</f>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>Sheet1!C142</f>
+        <f>Sheet1!C143</f>
         <v>0</v>
       </c>
     </row>
@@ -9646,11 +10821,11 @@
         <v>29</v>
       </c>
       <c r="B73">
-        <f>Sheet1!B143</f>
+        <f>Sheet1!B144</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f>Sheet1!C143</f>
+        <f>Sheet1!C144</f>
         <v>0</v>
       </c>
     </row>
@@ -9659,11 +10834,11 @@
         <v>30</v>
       </c>
       <c r="B74">
-        <f>Sheet1!B144</f>
+        <f>Sheet1!B145</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f>Sheet1!C144</f>
+        <f>Sheet1!C145</f>
         <v>0</v>
       </c>
     </row>
@@ -9672,11 +10847,11 @@
         <v>31</v>
       </c>
       <c r="B75">
-        <f>Sheet1!B145</f>
+        <f>Sheet1!B146</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>Sheet1!C145</f>
+        <f>Sheet1!C146</f>
         <v>0</v>
       </c>
     </row>
@@ -9685,11 +10860,11 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f>Sheet1!B146</f>
+        <f>Sheet1!B147</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>Sheet1!C146</f>
+        <f>Sheet1!C147</f>
         <v>0</v>
       </c>
     </row>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="67">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -204,9 +204,6 @@
     <t>So ngay</t>
   </si>
   <si>
-    <t>so nagy</t>
-  </si>
-  <si>
     <t>Thu (Láng+Thúy+Sơn+KT)</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>Ky 2:</t>
+  </si>
+  <si>
+    <t>so ngay</t>
+  </si>
+  <si>
+    <t>Gop</t>
+  </si>
+  <si>
+    <t>Dung</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -374,12 +380,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -465,18 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,29 +564,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -814,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D134" sqref="D134:H134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +920,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="33"/>
+      <c r="G1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -869,25 +956,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -911,39 +998,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>56760</v>
+        <v>60250</v>
       </c>
       <c r="N6" s="1">
-        <f>Son!O5+Lang!H4+Thuy!H4+1800</f>
-        <v>54600</v>
+        <f>Son!O3+Lang!H4+Thuy!H4+1800</f>
+        <v>55900</v>
       </c>
       <c r="O6" s="1">
-        <f>Lang!I4+Thuy!I4+180</f>
-        <v>2160</v>
+        <f>Lang!I4+Thuy!I4+180+Son!P3</f>
+        <v>4350</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="54">
         <v>70000</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10007)-SUM(J8:J10007)</f>
-        <v>18990</v>
+        <v>55380</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -956,13 +1043,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -971,7 +1058,7 @@
       </c>
       <c r="N8" s="21">
         <f>Son!Q5+Lang!J4+Thuy!J4</f>
-        <v>44000</v>
+        <v>44249.999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -984,13 +1071,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -999,7 +1086,7 @@
       </c>
       <c r="N9" s="21">
         <f>Son!R5+Lang!K4+Thuy!K4</f>
-        <v>11900</v>
+        <v>12980.000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1012,13 +1099,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1040,13 +1127,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1061,13 +1148,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1082,13 +1169,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1103,13 +1190,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1124,13 +1211,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1145,11 +1232,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1164,11 +1251,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1183,13 +1270,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1204,13 +1291,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1225,20 +1312,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="33"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1250,13 +1337,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1271,13 +1358,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1292,13 +1379,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1313,11 +1400,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1332,13 +1419,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1353,13 +1440,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1374,13 +1461,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1395,13 +1482,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1416,11 +1503,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1432,13 +1519,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1454,13 +1541,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1476,13 +1563,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1498,13 +1585,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1520,13 +1607,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1542,11 +1629,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1562,13 +1649,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1584,13 +1671,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1606,13 +1693,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1628,13 +1715,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1650,13 +1737,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1672,13 +1759,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1694,13 +1781,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1716,13 +1803,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1738,13 +1825,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1760,13 +1847,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1782,11 +1869,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1802,13 +1889,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1824,13 +1911,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1846,11 +1933,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1866,13 +1953,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -1888,13 +1975,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -1910,13 +1997,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -1932,13 +2019,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -1954,13 +2041,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -1973,13 +2060,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -1995,20 +2082,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="K56" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="33"/>
+      <c r="L56" s="52"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2018,13 +2105,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2037,13 +2124,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2059,13 +2146,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2081,13 +2168,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2103,13 +2190,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2125,13 +2212,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2147,13 +2234,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2169,13 +2256,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2191,13 +2278,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2213,13 +2300,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2235,13 +2322,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2254,13 +2341,13 @@
       <c r="C68" s="23">
         <v>30.2</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2276,13 +2363,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2298,13 +2385,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2321,13 +2408,13 @@
       <c r="C71" s="20">
         <v>3.3</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2343,13 +2430,13 @@
       <c r="C72" s="20">
         <v>4.3</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2362,13 +2449,13 @@
       <c r="C73" s="26">
         <v>4.3</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2381,13 +2468,13 @@
       <c r="C74" s="26">
         <v>4.3</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2406,13 +2493,13 @@
       <c r="C75" s="20">
         <v>5.3</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2428,13 +2515,13 @@
       <c r="C76" s="20">
         <v>6.3</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2450,13 +2537,13 @@
       <c r="C77" s="20">
         <v>7.3</v>
       </c>
-      <c r="D77" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
+      <c r="D77" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2472,13 +2559,13 @@
       <c r="C78" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2494,13 +2581,13 @@
       <c r="C79" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2516,13 +2603,13 @@
       <c r="C80" s="20">
         <v>10.3</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2538,13 +2625,13 @@
       <c r="C81" s="20">
         <v>11.3</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2560,13 +2647,13 @@
       <c r="C82" s="20">
         <v>12.3</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2582,13 +2669,13 @@
       <c r="C83" s="20">
         <v>13.3</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2604,13 +2691,13 @@
       <c r="C84" s="20">
         <v>14.3</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2626,13 +2713,13 @@
       <c r="C85" s="20">
         <v>15.3</v>
       </c>
-      <c r="D85" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
+      <c r="D85" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2648,13 +2735,13 @@
       <c r="C86" s="20">
         <v>16.3</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2671,13 +2758,13 @@
       <c r="C87" s="20">
         <v>17.3</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2693,13 +2780,13 @@
       <c r="C88" s="20">
         <v>18.3</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2715,13 +2802,13 @@
       <c r="C89" s="20">
         <v>19.3</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
       <c r="I89" s="1">
         <v>680</v>
       </c>
@@ -2737,13 +2824,13 @@
       <c r="C90" s="20">
         <v>20.3</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
+      <c r="D90" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2759,13 +2846,13 @@
       <c r="C91" s="20">
         <v>21.3</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2781,13 +2868,13 @@
       <c r="C92" s="20">
         <v>22.3</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -2800,13 +2887,13 @@
       <c r="C93" s="29">
         <v>22.3</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -2822,13 +2909,13 @@
       <c r="C94" s="20">
         <v>23.3</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -2844,11 +2931,17 @@
       <c r="C95" s="20">
         <v>24.3</v>
       </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
+      <c r="D95" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="1">
+        <f>890+35500</f>
+        <v>36390</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
@@ -2861,11 +2954,11 @@
       <c r="C96" s="20">
         <v>25.3</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
@@ -2878,11 +2971,11 @@
       <c r="C97" s="20">
         <v>26.3</v>
       </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
@@ -2895,11 +2988,11 @@
       <c r="C98" s="20">
         <v>27.3</v>
       </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
@@ -2912,11 +3005,11 @@
       <c r="C99" s="20">
         <v>28.3</v>
       </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
@@ -2929,11 +3022,11 @@
       <c r="C100" s="20">
         <v>29.3</v>
       </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
@@ -2946,11 +3039,11 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
@@ -2963,11 +3056,11 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
@@ -2980,11 +3073,11 @@
       <c r="C103" s="31">
         <v>3.4</v>
       </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
@@ -2997,11 +3090,11 @@
       <c r="C104" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
@@ -3014,11 +3107,11 @@
       <c r="C105" s="31">
         <v>5.4</v>
       </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
@@ -3031,11 +3124,11 @@
       <c r="C106" s="31">
         <v>6.4</v>
       </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
@@ -3048,11 +3141,11 @@
       <c r="C107" s="31">
         <v>7.4</v>
       </c>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
@@ -3065,11 +3158,11 @@
       <c r="C108" s="31">
         <v>8.4</v>
       </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3082,11 +3175,11 @@
       <c r="C109" s="31">
         <v>9.4</v>
       </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
@@ -3099,11 +3192,11 @@
       <c r="C110" s="31">
         <v>10.4</v>
       </c>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
@@ -3116,11 +3209,11 @@
       <c r="C111" s="31">
         <v>11.4</v>
       </c>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
@@ -3133,11 +3226,11 @@
       <c r="C112" s="31">
         <v>12.4</v>
       </c>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
@@ -3150,11 +3243,11 @@
       <c r="C113" s="31">
         <v>13.4</v>
       </c>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
@@ -3167,11 +3260,11 @@
       <c r="C114" s="31">
         <v>14.4</v>
       </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
@@ -3184,11 +3277,11 @@
       <c r="C115" s="31">
         <v>15.4</v>
       </c>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
@@ -3201,11 +3294,11 @@
       <c r="C116" s="31">
         <v>16.399999999999999</v>
       </c>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
@@ -3218,11 +3311,11 @@
       <c r="C117" s="31">
         <v>17.399999999999999</v>
       </c>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
@@ -3235,11 +3328,11 @@
       <c r="C118" s="31">
         <v>18.399999999999999</v>
       </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
@@ -3252,11 +3345,11 @@
       <c r="C119" s="31">
         <v>19.399999999999999</v>
       </c>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
@@ -3269,11 +3362,11 @@
       <c r="C120" s="31">
         <v>20.399999999999999</v>
       </c>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
@@ -3286,11 +3379,11 @@
       <c r="C121" s="31">
         <v>21.4</v>
       </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
@@ -3303,11 +3396,11 @@
       <c r="C122" s="31">
         <v>22.4</v>
       </c>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
@@ -3320,11 +3413,11 @@
       <c r="C123" s="31">
         <v>23.4</v>
       </c>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
@@ -3337,11 +3430,11 @@
       <c r="C124" s="31">
         <v>24.4</v>
       </c>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3354,11 +3447,11 @@
       <c r="C125" s="31">
         <v>25.4</v>
       </c>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
@@ -3371,11 +3464,11 @@
       <c r="C126" s="31">
         <v>26.4</v>
       </c>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
@@ -3388,11 +3481,11 @@
       <c r="C127" s="31">
         <v>27.4</v>
       </c>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
@@ -3405,11 +3498,11 @@
       <c r="C128" s="31">
         <v>28.4</v>
       </c>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
@@ -3422,11 +3515,11 @@
       <c r="C129" s="31">
         <v>29.4</v>
       </c>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
@@ -3439,11 +3532,11 @@
       <c r="C130" s="31">
         <v>30.4</v>
       </c>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
@@ -3453,11 +3546,11 @@
       <c r="B131" s="31">
         <v>26.5</v>
       </c>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
@@ -3467,11 +3560,11 @@
       <c r="B132" s="31">
         <v>27.5</v>
       </c>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
@@ -3481,11 +3574,11 @@
       <c r="B133" s="31">
         <v>28.5</v>
       </c>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
@@ -3495,11 +3588,11 @@
       <c r="B134" s="31">
         <v>29.5</v>
       </c>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
@@ -3509,11 +3602,11 @@
       <c r="B135" s="31">
         <v>30.5</v>
       </c>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
@@ -3523,497 +3616,336 @@
       <c r="B136" s="31">
         <v>31.5</v>
       </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="52"/>
+      <c r="H160" s="52"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="52"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="52"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="52"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="52"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="52"/>
+      <c r="F175" s="52"/>
+      <c r="G175" s="52"/>
+      <c r="H175" s="52"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="52"/>
+      <c r="H176" s="52"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="52"/>
+      <c r="F177" s="52"/>
+      <c r="G177" s="52"/>
+      <c r="H177" s="52"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="52"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="52"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="52"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="52"/>
+      <c r="H179" s="52"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="52"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
+      <c r="H180" s="52"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
+      <c r="D182" s="52"/>
+      <c r="E182" s="52"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="52"/>
+      <c r="H182" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D180:H180"/>
@@ -4038,6 +3970,167 @@
     <mergeCell ref="D163:H163"/>
     <mergeCell ref="D164:H164"/>
     <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4046,10 +4139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,104 +4156,79 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="N2" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="40">
         <v>50000</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="41">
         <v>14.2</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="41">
         <v>18.100000000000001</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="12">
-        <v>50000</v>
-      </c>
-      <c r="I3" s="38">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="J3" s="38">
-        <v>23.3</v>
-      </c>
-      <c r="K3" s="32"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="N3" s="63">
+        <f>O5+O7+P5+P7</f>
+        <v>32160</v>
+      </c>
+      <c r="O3" s="64">
+        <f>O5+O7</f>
+        <v>31000</v>
+      </c>
+      <c r="P3" s="65">
+        <f>P5+P7</f>
+        <v>1160</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="49" t="s">
         <v>49</v>
       </c>
       <c r="S4" s="9"/>
@@ -4170,51 +4238,38 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="41">
         <v>50000</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="42" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="32">
-        <v>50000</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>62</v>
-      </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
-      <c r="N5" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="57">
-        <f>SUM(D6:D10005)</f>
+      <c r="N5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="49">
+        <f>SUM(D6:D66)</f>
         <v>30000</v>
       </c>
-      <c r="P5" s="58">
-        <f>SUM(E7:E10005)</f>
+      <c r="P5" s="50">
+        <f>SUM(E6:E66)</f>
         <v>1120</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="49">
         <f>(O5/100)*(10000/120)</f>
         <v>25000</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="49">
         <f>O5-Q5+P5</f>
         <v>6120</v>
       </c>
@@ -4225,1753 +4280,1065 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="G6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <f>Sheet1!B94</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I6">
-        <f>Sheet1!C94</f>
-        <v>23.3</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="N6" s="57" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="N6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="50">
         <f>O5/500</f>
         <v>60</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="44">
         <v>14.2</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="44">
         <v>18.100000000000001</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="44">
         <v>500</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="45"/>
+      <c r="N7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="50">
+        <f>+SUM(D75:D1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="P7" s="50">
+        <f>+SUM(E75:E1000)</f>
+        <v>40</v>
+      </c>
+      <c r="Q7" s="49">
+        <f>(O7/100)*(10000/120)</f>
+        <v>833.33333333333326</v>
+      </c>
+      <c r="R7" s="49">
+        <f>O7-Q7+P7</f>
+        <v>206.66666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="44">
+        <v>15.2</v>
+      </c>
+      <c r="C8" s="44">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="N8" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="50">
+        <f>O7/500</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H7">
-        <f>Sheet1!B95</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I7">
-        <f>Sheet1!C95</f>
-        <v>24.3</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="58">
-        <f>+SUM(J6:J10000)</f>
+      <c r="B9" s="44">
+        <v>16.2</v>
+      </c>
+      <c r="C9" s="44">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D9" s="44">
         <v>500</v>
       </c>
-      <c r="P7" s="58">
-        <f>+SUM(K6:K10000)</f>
-        <v>20</v>
-      </c>
-      <c r="Q7" s="57">
-        <f>(O7/100)*(10000/120)</f>
-        <v>416.66666666666663</v>
-      </c>
-      <c r="R7" s="57">
-        <f>O7-Q7+P7</f>
-        <v>103.33333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="44">
+        <v>17.2</v>
+      </c>
+      <c r="C10" s="44">
+        <v>21.1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="44">
+        <v>18.2</v>
+      </c>
+      <c r="C11" s="44">
+        <v>22.1</v>
+      </c>
+      <c r="D11" s="44">
+        <v>500</v>
+      </c>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="44">
+        <v>19.2</v>
+      </c>
+      <c r="C12" s="44">
+        <v>23.1</v>
+      </c>
+      <c r="D12" s="44">
+        <v>500</v>
+      </c>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="44">
+        <v>20.2</v>
+      </c>
+      <c r="C13" s="44">
+        <v>24.1</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="44">
+        <v>21.2</v>
+      </c>
+      <c r="C14" s="44">
+        <v>25.1</v>
+      </c>
+      <c r="D14" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B15" s="44">
+        <v>22.2</v>
+      </c>
+      <c r="C15" s="44">
+        <v>26.1</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="44">
+        <v>23.2</v>
+      </c>
+      <c r="C16" s="44">
+        <v>27.1</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="44">
+        <v>24.2</v>
+      </c>
+      <c r="C17" s="44">
+        <v>28.1</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="44">
+        <v>25.2</v>
+      </c>
+      <c r="C18" s="44">
+        <v>29.1</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="44">
+        <v>26.2</v>
+      </c>
+      <c r="C19" s="44">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="44">
+        <v>27.2</v>
+      </c>
+      <c r="C20" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20" s="44">
+        <v>500</v>
+      </c>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="44">
+        <v>28.2</v>
+      </c>
+      <c r="C21" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="C22" s="44">
+        <v>4.2</v>
+      </c>
+      <c r="D22" s="44">
+        <v>500</v>
+      </c>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C23" s="44">
+        <v>5.2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>500</v>
+      </c>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="C24" s="44">
+        <v>6.2</v>
+      </c>
+      <c r="D24" s="44">
+        <v>500</v>
+      </c>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="44">
+        <v>4.3</v>
+      </c>
+      <c r="C25" s="44">
+        <v>7.2</v>
+      </c>
+      <c r="D25" s="44">
+        <v>500</v>
+      </c>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="44">
+        <v>5.3</v>
+      </c>
+      <c r="C26" s="44">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D26" s="44">
+        <v>500</v>
+      </c>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44">
+        <v>6.3</v>
+      </c>
+      <c r="C27" s="44">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D27" s="44">
+        <v>500</v>
+      </c>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44">
+        <v>7.3</v>
+      </c>
+      <c r="C28" s="44">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D28" s="44">
+        <v>500</v>
+      </c>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C29" s="44">
+        <v>11.2</v>
+      </c>
+      <c r="D29" s="44">
+        <v>500</v>
+      </c>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C30" s="44">
+        <v>12.2</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0</v>
+      </c>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44">
+        <v>10.3</v>
+      </c>
+      <c r="C31" s="44">
+        <v>13.2</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="44">
+        <v>11.3</v>
+      </c>
+      <c r="C32" s="44">
+        <v>14.2</v>
+      </c>
+      <c r="D32" s="44">
+        <v>500</v>
+      </c>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="44">
+        <v>12.3</v>
+      </c>
+      <c r="C33" s="44">
         <v>15.2</v>
       </c>
-      <c r="C8" s="49">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="G8" s="47" t="s">
+      <c r="D33" s="44">
+        <v>0</v>
+      </c>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="44">
+        <v>13.3</v>
+      </c>
+      <c r="C34" s="44">
+        <v>16.2</v>
+      </c>
+      <c r="D34" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="44">
+        <v>14.3</v>
+      </c>
+      <c r="C35" s="44">
+        <v>17.2</v>
+      </c>
+      <c r="D35" s="44">
+        <v>500</v>
+      </c>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="44">
+        <v>15.3</v>
+      </c>
+      <c r="C36" s="44">
+        <v>18.2</v>
+      </c>
+      <c r="D36" s="44">
+        <v>500</v>
+      </c>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="44">
+        <v>16.3</v>
+      </c>
+      <c r="C37" s="44">
+        <v>19.2</v>
+      </c>
+      <c r="D37" s="44">
+        <v>500</v>
+      </c>
+      <c r="E37" s="45"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H8">
-        <f>Sheet1!B96</f>
-        <v>21.4</v>
-      </c>
-      <c r="I8">
-        <f>Sheet1!C96</f>
-        <v>25.3</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="58">
-        <f>O7/500</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="49">
-        <v>16.2</v>
-      </c>
-      <c r="C9" s="49">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D9" s="49">
+      <c r="B38" s="44">
+        <v>17.3</v>
+      </c>
+      <c r="C38" s="44">
+        <v>20.2</v>
+      </c>
+      <c r="D38" s="44">
         <v>500</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="G9" s="47" t="s">
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H9">
-        <f>Sheet1!B97</f>
-        <v>22.4</v>
-      </c>
-      <c r="I9">
-        <f>Sheet1!C97</f>
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="49">
-        <v>17.2</v>
-      </c>
-      <c r="C10" s="49">
-        <v>21.1</v>
-      </c>
-      <c r="D10" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="G10" s="47" t="s">
+      <c r="B39" s="44">
+        <v>18.3</v>
+      </c>
+      <c r="C39" s="44">
+        <v>21.2</v>
+      </c>
+      <c r="D39" s="44">
+        <v>500</v>
+      </c>
+      <c r="E39" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H10">
-        <f>Sheet1!B98</f>
-        <v>23.4</v>
-      </c>
-      <c r="I10">
-        <f>Sheet1!C98</f>
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="49">
-        <v>18.2</v>
-      </c>
-      <c r="C11" s="49">
-        <v>22.1</v>
-      </c>
-      <c r="D11" s="49">
+      <c r="B40" s="44">
+        <v>19.3</v>
+      </c>
+      <c r="C40" s="44">
+        <v>22.2</v>
+      </c>
+      <c r="D40" s="44">
         <v>500</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="G11" s="47" t="s">
+      <c r="E40" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H11">
-        <f>Sheet1!B99</f>
-        <v>24.4</v>
-      </c>
-      <c r="I11">
-        <f>Sheet1!C99</f>
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="49">
-        <v>19.2</v>
-      </c>
-      <c r="C12" s="49">
-        <v>23.1</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="B41" s="44">
+        <v>20.3</v>
+      </c>
+      <c r="C41" s="44">
+        <v>23.2</v>
+      </c>
+      <c r="D41" s="44">
         <v>500</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="G12" s="47" t="s">
+      <c r="E41" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H12">
-        <f>Sheet1!B100</f>
-        <v>25.4</v>
-      </c>
-      <c r="I12">
-        <f>Sheet1!C100</f>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="49">
-        <v>20.2</v>
-      </c>
-      <c r="C13" s="49">
-        <v>24.1</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="G13" s="47" t="s">
+      <c r="B42" s="44">
+        <v>21.3</v>
+      </c>
+      <c r="C42" s="44">
+        <v>24.2</v>
+      </c>
+      <c r="D42" s="44">
+        <v>500</v>
+      </c>
+      <c r="E42" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H13">
-        <f>Sheet1!B101</f>
-        <v>26.4</v>
-      </c>
-      <c r="I13">
-        <f>Sheet1!C101</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="49">
-        <v>21.2</v>
-      </c>
-      <c r="C14" s="49">
-        <v>25.1</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="G14" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14">
-        <f>Sheet1!B102</f>
-        <v>27.4</v>
-      </c>
-      <c r="I14">
-        <f>Sheet1!C102</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="49">
-        <v>22.2</v>
-      </c>
-      <c r="C15" s="49">
-        <v>26.1</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="G15" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <f>Sheet1!B103</f>
-        <v>28.4</v>
-      </c>
-      <c r="I15">
-        <f>Sheet1!C103</f>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="49">
-        <v>23.2</v>
-      </c>
-      <c r="C16" s="49">
-        <v>27.1</v>
-      </c>
-      <c r="D16" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="G16" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16">
-        <f>Sheet1!B104</f>
-        <v>29.4</v>
-      </c>
-      <c r="I16">
-        <f>Sheet1!C104</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="49">
-        <v>24.2</v>
-      </c>
-      <c r="C17" s="49">
-        <v>28.1</v>
-      </c>
-      <c r="D17" s="49">
-        <v>0</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="G17" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17">
-        <f>Sheet1!B105</f>
-        <v>30.4</v>
-      </c>
-      <c r="I17">
-        <f>Sheet1!C105</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="49">
-        <v>25.2</v>
-      </c>
-      <c r="C18" s="49">
-        <v>29.1</v>
-      </c>
-      <c r="D18" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="G18" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <f>Sheet1!B106</f>
-        <v>1.5</v>
-      </c>
-      <c r="I18">
-        <f>Sheet1!C106</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="49">
-        <v>26.2</v>
-      </c>
-      <c r="C19" s="49">
-        <v>1.2</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="G19" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19">
-        <f>Sheet1!B107</f>
-        <v>2.5</v>
-      </c>
-      <c r="I19">
-        <f>Sheet1!C107</f>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="49">
-        <v>27.2</v>
-      </c>
-      <c r="C20" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D20" s="49">
-        <v>500</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="G20" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20">
-        <f>Sheet1!B108</f>
-        <v>3.5</v>
-      </c>
-      <c r="I20">
-        <f>Sheet1!C108</f>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="49">
-        <v>28.2</v>
-      </c>
-      <c r="C21" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="D21" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="G21" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21">
-        <f>Sheet1!B109</f>
-        <v>4.5</v>
-      </c>
-      <c r="I21">
-        <f>Sheet1!C109</f>
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="49">
-        <v>1.3</v>
-      </c>
-      <c r="C22" s="49">
-        <v>4.2</v>
-      </c>
-      <c r="D22" s="49">
-        <v>500</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="G22" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <f>Sheet1!B110</f>
-        <v>5.5</v>
-      </c>
-      <c r="I22">
-        <f>Sheet1!C110</f>
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="49">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C23" s="49">
-        <v>5.2</v>
-      </c>
-      <c r="D23" s="49">
-        <v>500</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="G23" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23">
-        <f>Sheet1!B111</f>
-        <v>6.5</v>
-      </c>
-      <c r="I23">
-        <f>Sheet1!C111</f>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="49">
-        <v>3.3</v>
-      </c>
-      <c r="C24" s="49">
-        <v>6.2</v>
-      </c>
-      <c r="D24" s="49">
-        <v>500</v>
-      </c>
-      <c r="E24" s="50"/>
-      <c r="G24" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24">
-        <f>Sheet1!B112</f>
-        <v>7.5</v>
-      </c>
-      <c r="I24">
-        <f>Sheet1!C112</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="49">
-        <v>4.3</v>
-      </c>
-      <c r="C25" s="49">
-        <v>7.2</v>
-      </c>
-      <c r="D25" s="49">
-        <v>500</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="G25" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25">
-        <f>Sheet1!B113</f>
-        <v>8.5</v>
-      </c>
-      <c r="I25">
-        <f>Sheet1!C113</f>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="49">
-        <v>5.3</v>
-      </c>
-      <c r="C26" s="49">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D26" s="49">
-        <v>500</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="G26" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26">
-        <f>Sheet1!B114</f>
-        <v>9.5</v>
-      </c>
-      <c r="I26">
-        <f>Sheet1!C114</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="49">
-        <v>6.3</v>
-      </c>
-      <c r="C27" s="49">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D27" s="49">
-        <v>500</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="G27" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27">
-        <f>Sheet1!B115</f>
-        <v>10.5</v>
-      </c>
-      <c r="I27">
-        <f>Sheet1!C115</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="49">
-        <v>7.3</v>
-      </c>
-      <c r="C28" s="49">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D28" s="49">
-        <v>500</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="G28" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28">
-        <f>Sheet1!B116</f>
-        <v>11.5</v>
-      </c>
-      <c r="I28">
-        <f>Sheet1!C116</f>
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="49">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C29" s="49">
-        <v>11.2</v>
-      </c>
-      <c r="D29" s="49">
-        <v>500</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="G29" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29">
-        <f>Sheet1!B117</f>
-        <v>12.5</v>
-      </c>
-      <c r="I29">
-        <f>Sheet1!C117</f>
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="49">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C30" s="49">
-        <v>12.2</v>
-      </c>
-      <c r="D30" s="49">
-        <v>0</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="G30" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30">
-        <f>Sheet1!B118</f>
-        <v>13.5</v>
-      </c>
-      <c r="I30">
-        <f>Sheet1!C118</f>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="49">
-        <v>10.3</v>
-      </c>
-      <c r="C31" s="49">
-        <v>13.2</v>
-      </c>
-      <c r="D31" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="G31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31">
-        <f>Sheet1!B119</f>
-        <v>14.5</v>
-      </c>
-      <c r="I31">
-        <f>Sheet1!C119</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="49">
-        <v>11.3</v>
-      </c>
-      <c r="C32" s="49">
-        <v>14.2</v>
-      </c>
-      <c r="D32" s="49">
-        <v>500</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="G32" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32">
-        <f>Sheet1!B120</f>
-        <v>15.5</v>
-      </c>
-      <c r="I32">
-        <f>Sheet1!C120</f>
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="49">
-        <v>12.3</v>
-      </c>
-      <c r="C33" s="49">
-        <v>15.2</v>
-      </c>
-      <c r="D33" s="49">
-        <v>0</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="G33" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33">
-        <f>Sheet1!B121</f>
-        <v>16.5</v>
-      </c>
-      <c r="I33">
-        <f>Sheet1!C121</f>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="49">
-        <v>13.3</v>
-      </c>
-      <c r="C34" s="49">
-        <v>16.2</v>
-      </c>
-      <c r="D34" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="G34" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34">
-        <f>Sheet1!B122</f>
-        <v>17.5</v>
-      </c>
-      <c r="I34">
-        <f>Sheet1!C122</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="49">
-        <v>14.3</v>
-      </c>
-      <c r="C35" s="49">
-        <v>17.2</v>
-      </c>
-      <c r="D35" s="49">
-        <v>500</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="G35" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35">
-        <f>Sheet1!B123</f>
-        <v>18.5</v>
-      </c>
-      <c r="I35">
-        <f>Sheet1!C123</f>
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="49">
-        <v>15.3</v>
-      </c>
-      <c r="C36" s="49">
-        <v>18.2</v>
-      </c>
-      <c r="D36" s="49">
-        <v>500</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="G36" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36">
-        <f>Sheet1!B124</f>
-        <v>19.5</v>
-      </c>
-      <c r="I36">
-        <f>Sheet1!C124</f>
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="49">
-        <v>16.3</v>
-      </c>
-      <c r="C37" s="49">
-        <v>19.2</v>
-      </c>
-      <c r="D37" s="49">
-        <v>500</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="G37" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37">
-        <f>Sheet1!B125</f>
-        <v>20.5</v>
-      </c>
-      <c r="I37">
-        <f>Sheet1!C125</f>
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="49">
-        <v>17.3</v>
-      </c>
-      <c r="C38" s="49">
-        <v>20.2</v>
-      </c>
-      <c r="D38" s="49">
-        <v>500</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="G38" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38">
-        <f>Sheet1!B126</f>
-        <v>21.5</v>
-      </c>
-      <c r="I38">
-        <f>Sheet1!C126</f>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="49">
-        <v>18.3</v>
-      </c>
-      <c r="C39" s="49">
-        <v>21.2</v>
-      </c>
-      <c r="D39" s="49">
-        <v>500</v>
-      </c>
-      <c r="E39" s="50">
-        <v>40</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39">
-        <f>Sheet1!B127</f>
-        <v>22.5</v>
-      </c>
-      <c r="I39">
-        <f>Sheet1!C127</f>
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="49">
-        <v>19.3</v>
-      </c>
-      <c r="C40" s="49">
-        <v>22.2</v>
-      </c>
-      <c r="D40" s="49">
-        <v>500</v>
-      </c>
-      <c r="E40" s="50">
-        <v>40</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40">
-        <f>Sheet1!B128</f>
-        <v>23.5</v>
-      </c>
-      <c r="I40">
-        <f>Sheet1!C128</f>
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="49">
-        <v>20.3</v>
-      </c>
-      <c r="C41" s="49">
-        <v>23.2</v>
-      </c>
-      <c r="D41" s="49">
-        <v>500</v>
-      </c>
-      <c r="E41" s="50">
-        <v>40</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41">
-        <f>Sheet1!B129</f>
-        <v>24.5</v>
-      </c>
-      <c r="I41">
-        <f>Sheet1!C129</f>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="49">
-        <v>21.3</v>
-      </c>
-      <c r="C42" s="49">
-        <v>24.2</v>
-      </c>
-      <c r="D42" s="49">
-        <v>500</v>
-      </c>
-      <c r="E42" s="50">
-        <v>40</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42">
-        <f>Sheet1!B130</f>
-        <v>25.5</v>
-      </c>
-      <c r="I42">
-        <f>Sheet1!C130</f>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="49">
+      <c r="B43" s="44">
         <v>22.3</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="44">
         <f>Sheet1!C62</f>
         <v>25.2</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="44">
         <v>500</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="45">
         <v>40</v>
       </c>
-      <c r="G43" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43">
-        <f>Sheet1!B131</f>
-        <v>26.5</v>
-      </c>
-      <c r="I43">
-        <f>Sheet1!C131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="44">
         <v>23.3</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="44">
         <f>Sheet1!C63</f>
         <v>26.2</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="44">
         <v>500</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="45">
         <v>40</v>
       </c>
-      <c r="G44" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44">
-        <f>Sheet1!B132</f>
-        <v>27.5</v>
-      </c>
-      <c r="I44">
-        <f>Sheet1!C132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="44">
         <v>24.3</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="44">
         <f>Sheet1!C64</f>
         <v>27.2</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="44">
         <v>500</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="45">
         <v>40</v>
       </c>
-      <c r="G45" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45">
-        <f>Sheet1!B133</f>
-        <v>28.5</v>
-      </c>
-      <c r="I45">
-        <f>Sheet1!C133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="44">
         <v>25.3</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="44">
         <f>Sheet1!C65</f>
         <v>28.2</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="44">
         <v>500</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="45">
         <v>40</v>
       </c>
-      <c r="G46" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46">
-        <f>Sheet1!B134</f>
-        <v>29.5</v>
-      </c>
-      <c r="I46">
-        <f>Sheet1!C134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="44">
         <v>26.3</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="44">
         <f>Sheet1!C66</f>
         <v>29.2</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="44">
         <v>500</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="45">
         <v>40</v>
       </c>
-      <c r="G47" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47">
-        <f>Sheet1!B135</f>
-        <v>30.5</v>
-      </c>
-      <c r="I47">
-        <f>Sheet1!C135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="44">
         <v>27.3</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="44">
         <f>Sheet1!C67</f>
         <v>30.2</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="44">
         <v>500</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="45">
         <v>40</v>
       </c>
-      <c r="G48" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48">
-        <f>Sheet1!B136</f>
-        <v>31.5</v>
-      </c>
-      <c r="I48">
-        <f>Sheet1!C136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="44">
         <f>Sheet1!B69</f>
         <v>28.3</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="44">
         <f>Sheet1!C69</f>
         <v>1.3</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="44">
         <v>500</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="45">
         <v>40</v>
       </c>
-      <c r="G49" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49">
-        <f>Sheet1!B137</f>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f>Sheet1!C137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="44">
         <f>Sheet1!B70</f>
         <v>29.3</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="44">
         <f>Sheet1!C70</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="44">
         <v>500</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="45">
         <v>40</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50">
-        <f>Sheet1!B138</f>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>Sheet1!C138</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="44">
         <f>Sheet1!B71</f>
         <v>30.3</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="44">
         <f>Sheet1!C71</f>
         <v>3.3</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="44">
         <v>500</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="45">
         <v>40</v>
       </c>
-      <c r="G51" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51">
-        <f>Sheet1!B139</f>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f>Sheet1!C139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="44">
         <f>Sheet1!B72</f>
         <v>31.3</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52" s="44">
         <f>Sheet1!C72</f>
         <v>4.3</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="44">
         <v>500</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="45">
         <v>40</v>
       </c>
-      <c r="G52" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52">
-        <f>Sheet1!B140</f>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f>Sheet1!C140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="44">
         <f>Sheet1!B75</f>
         <v>1.4</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="44">
         <f>Sheet1!C75</f>
         <v>5.3</v>
       </c>
-      <c r="D53" s="49">
-        <v>0</v>
-      </c>
-      <c r="E53" s="50">
-        <v>0</v>
-      </c>
-      <c r="G53" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53">
-        <f>Sheet1!B141</f>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f>Sheet1!C141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="D53" s="44">
+        <v>0</v>
+      </c>
+      <c r="E53" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="44">
         <f>Sheet1!B76</f>
         <v>2.4</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="44">
         <f>Sheet1!C76</f>
         <v>6.3</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="44">
         <v>1000</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="45">
         <v>80</v>
       </c>
-      <c r="G54" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54">
-        <f>Sheet1!B142</f>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f>Sheet1!C142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="44">
         <f>Sheet1!B77</f>
         <v>3.4</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="44">
         <f>Sheet1!C77</f>
         <v>7.3</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="44">
         <v>500</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="45">
         <v>40</v>
       </c>
-      <c r="G55" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55">
-        <f>Sheet1!B143</f>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f>Sheet1!C143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="44">
         <f>Sheet1!B78</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="44">
         <f>Sheet1!C78</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="44">
         <v>500</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="45">
         <v>40</v>
       </c>
-      <c r="G56" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56">
-        <f>Sheet1!B144</f>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f>Sheet1!C144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="44">
         <f>Sheet1!B79</f>
         <v>5.4</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="44">
         <f>Sheet1!C79</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="44">
         <v>500</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="45">
         <v>40</v>
       </c>
-      <c r="G57" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57">
-        <f>Sheet1!B145</f>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f>Sheet1!C145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="44">
         <f>Sheet1!B80</f>
         <v>6.4</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="44">
         <f>Sheet1!C80</f>
         <v>10.3</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="44">
         <v>500</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="45">
         <v>40</v>
       </c>
-      <c r="G58" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58">
-        <f>Sheet1!B146</f>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f>Sheet1!C146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="44">
         <f>Sheet1!B81</f>
         <v>7.4</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="44">
         <f>Sheet1!C81</f>
         <v>11.3</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="44">
         <v>500</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="45">
         <v>40</v>
       </c>
-      <c r="G59" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59">
-        <f>Sheet1!B147</f>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f>Sheet1!C147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="44">
         <f>Sheet1!B82</f>
         <v>8.4</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="44">
         <f>Sheet1!C82</f>
         <v>12.3</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="44">
         <v>500</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="45">
         <v>40</v>
       </c>
-      <c r="G60" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60">
-        <f>Sheet1!B148</f>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <f>Sheet1!C148</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="47" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="44">
         <f>Sheet1!B83</f>
         <v>9.4</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="44">
         <f>Sheet1!C83</f>
         <v>13.3</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="44">
         <v>500</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="45">
         <v>40</v>
       </c>
-      <c r="G61" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61">
-        <f>Sheet1!B149</f>
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <f>Sheet1!C149</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="44">
         <f>Sheet1!B84</f>
         <v>10.4</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="44">
         <f>Sheet1!C84</f>
         <v>14.3</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="44">
         <v>500</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="45">
         <v>40</v>
       </c>
-      <c r="G62" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62">
-        <f>Sheet1!B150</f>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f>Sheet1!C150</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="44">
         <f>Sheet1!B85</f>
         <v>11.4</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="44">
         <f>Sheet1!C85</f>
         <v>15.3</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="44">
         <v>500</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63" s="45">
         <v>40</v>
       </c>
-      <c r="G63" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63">
-        <f>Sheet1!B151</f>
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f>Sheet1!C151</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="47" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="44">
         <f>Sheet1!B86</f>
         <v>12.4</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="44">
         <f>Sheet1!C86</f>
         <v>16.3</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D64" s="44">
         <v>500</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="45">
         <v>40</v>
       </c>
-      <c r="G64" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64">
-        <f>Sheet1!B152</f>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f>Sheet1!C152</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="44">
         <f>Sheet1!B87</f>
         <v>13.4</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="44">
         <f>Sheet1!C87</f>
         <v>17.3</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="44">
         <v>500</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65" s="45">
         <v>40</v>
       </c>
-      <c r="G65" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65">
-        <f>Sheet1!B153</f>
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <f>Sheet1!C153</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="44">
         <f>Sheet1!B88</f>
         <v>14.4</v>
       </c>
-      <c r="C66" s="49">
+      <c r="C66" s="44">
         <f>Sheet1!C88</f>
         <v>18.3</v>
       </c>
-      <c r="D66" s="49">
+      <c r="D66" s="44">
         <v>500</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="45">
         <v>40</v>
       </c>
-      <c r="G66" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66">
-        <f>Sheet1!B154</f>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <f>Sheet1!C154</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="44">
         <f>Sheet1!B89</f>
         <v>15.4</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="44">
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="52"/>
-      <c r="G67" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67">
-        <f>Sheet1!B155</f>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f>Sheet1!C155</f>
-        <v>0</v>
-      </c>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
       <c r="N67" s="32"/>
       <c r="O67" s="10"/>
       <c r="P67" s="32"/>
@@ -5979,113 +5346,73 @@
       <c r="R67" s="32"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="44">
         <f>Sheet1!B90</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="44">
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="52"/>
-      <c r="G68" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68">
-        <f>Sheet1!B156</f>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f>Sheet1!C156</f>
-        <v>0</v>
-      </c>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
       <c r="N68" s="32"/>
       <c r="O68" s="12"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
       <c r="R68" s="32"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="44">
         <f>Sheet1!B91</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="44">
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="52"/>
-      <c r="G69" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69">
-        <f>Sheet1!B157</f>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f>Sheet1!C157</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
       <c r="Q69" s="32"/>
       <c r="R69" s="32"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="54">
+      <c r="B70" s="48">
         <f>Sheet1!B92</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="48">
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
-      <c r="G70" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70">
-        <f>Sheet1!B158</f>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f>Sheet1!C158</f>
-        <v>0</v>
-      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="58"/>
       <c r="O70" s="32"/>
       <c r="P70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="10"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="C71" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="E71" s="32"/>
-      <c r="G71" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71">
-        <f>Sheet1!B159</f>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f>Sheet1!C159</f>
-        <v>0</v>
-      </c>
       <c r="N71" s="32"/>
       <c r="O71" s="10"/>
       <c r="P71" s="32"/>
@@ -6093,22 +5420,19 @@
       <c r="R71" s="32"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
+      <c r="A72" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C72" s="34">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D72" s="34">
+        <v>22.3</v>
+      </c>
       <c r="E72" s="32"/>
-      <c r="G72" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72">
-        <f>Sheet1!B160</f>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f>Sheet1!C160</f>
-        <v>0</v>
-      </c>
       <c r="N72" s="32"/>
       <c r="O72" s="12"/>
       <c r="P72" s="32"/>
@@ -6116,20 +5440,18 @@
       <c r="R72" s="32"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="G73" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73">
-        <f>Sheet1!B161</f>
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f>Sheet1!C161</f>
-        <v>0</v>
+      <c r="A73" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="N73" s="32"/>
       <c r="O73" s="12"/>
@@ -6138,20 +5460,18 @@
       <c r="R73" s="32"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="G74" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74">
-        <f>Sheet1!B162</f>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f>Sheet1!C162</f>
-        <v>0</v>
+      <c r="A74" s="43"/>
+      <c r="B74" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="32">
+        <v>50000</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="N74" s="32"/>
       <c r="O74" s="12"/>
@@ -6160,33 +5480,45 @@
       <c r="R74" s="32"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G75" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75">
-        <f>Sheet1!B163</f>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f>Sheet1!C163</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
+      <c r="A75" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <f>Sheet1!B94</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C75">
+        <f>Sheet1!C94</f>
+        <v>23.3</v>
+      </c>
+      <c r="D75">
+        <v>500</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
       <c r="Q75" s="32"/>
       <c r="R75" s="32"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G76" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76">
-        <f>Sheet1!B164</f>
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f>Sheet1!C164</f>
-        <v>0</v>
+      <c r="A76" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76">
+        <f>Sheet1!B95</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C76">
+        <f>Sheet1!C95</f>
+        <v>24.3</v>
+      </c>
+      <c r="D76">
+        <v>500</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
       </c>
       <c r="O76" s="32"/>
       <c r="P76" s="32"/>
@@ -6194,104 +5526,1000 @@
       <c r="R76" s="32"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G77" s="47" t="s">
+      <c r="A77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77">
+        <f>Sheet1!B96</f>
+        <v>21.4</v>
+      </c>
+      <c r="C77">
+        <f>Sheet1!C96</f>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78">
+        <f>Sheet1!B97</f>
+        <v>22.4</v>
+      </c>
+      <c r="C78">
+        <f>Sheet1!C97</f>
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79">
+        <f>Sheet1!B98</f>
+        <v>23.4</v>
+      </c>
+      <c r="C79">
+        <f>Sheet1!C98</f>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <f>Sheet1!B99</f>
+        <v>24.4</v>
+      </c>
+      <c r="C80">
+        <f>Sheet1!C99</f>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <f>Sheet1!B100</f>
+        <v>25.4</v>
+      </c>
+      <c r="C81">
+        <f>Sheet1!C100</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <f>Sheet1!B101</f>
+        <v>26.4</v>
+      </c>
+      <c r="C82">
+        <f>Sheet1!C101</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H77">
+      <c r="B83">
+        <f>Sheet1!B102</f>
+        <v>27.4</v>
+      </c>
+      <c r="C83">
+        <f>Sheet1!C102</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <f>Sheet1!B103</f>
+        <v>28.4</v>
+      </c>
+      <c r="C84">
+        <f>Sheet1!C103</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <f>Sheet1!B104</f>
+        <v>29.4</v>
+      </c>
+      <c r="C85">
+        <f>Sheet1!C104</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86">
+        <f>Sheet1!B105</f>
+        <v>30.4</v>
+      </c>
+      <c r="C86">
+        <f>Sheet1!C105</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87">
+        <f>Sheet1!B106</f>
+        <v>1.5</v>
+      </c>
+      <c r="C87">
+        <f>Sheet1!C106</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88">
+        <f>Sheet1!B107</f>
+        <v>2.5</v>
+      </c>
+      <c r="C88">
+        <f>Sheet1!C107</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <f>Sheet1!B108</f>
+        <v>3.5</v>
+      </c>
+      <c r="C89">
+        <f>Sheet1!C108</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <f>Sheet1!B109</f>
+        <v>4.5</v>
+      </c>
+      <c r="C90">
+        <f>Sheet1!C109</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <f>Sheet1!B110</f>
+        <v>5.5</v>
+      </c>
+      <c r="C91">
+        <f>Sheet1!C110</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92">
+        <f>Sheet1!B111</f>
+        <v>6.5</v>
+      </c>
+      <c r="C92">
+        <f>Sheet1!C111</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93">
+        <f>Sheet1!B112</f>
+        <v>7.5</v>
+      </c>
+      <c r="C93">
+        <f>Sheet1!C112</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <f>Sheet1!B113</f>
+        <v>8.5</v>
+      </c>
+      <c r="C94">
+        <f>Sheet1!C113</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <f>Sheet1!B114</f>
+        <v>9.5</v>
+      </c>
+      <c r="C95">
+        <f>Sheet1!C114</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <f>Sheet1!B115</f>
+        <v>10.5</v>
+      </c>
+      <c r="C96">
+        <f>Sheet1!C115</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <f>Sheet1!B116</f>
+        <v>11.5</v>
+      </c>
+      <c r="C97">
+        <f>Sheet1!C116</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <f>Sheet1!B117</f>
+        <v>12.5</v>
+      </c>
+      <c r="C98">
+        <f>Sheet1!C117</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <f>Sheet1!B118</f>
+        <v>13.5</v>
+      </c>
+      <c r="C99">
+        <f>Sheet1!C118</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <f>Sheet1!B119</f>
+        <v>14.5</v>
+      </c>
+      <c r="C100">
+        <f>Sheet1!C119</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101">
+        <f>Sheet1!B120</f>
+        <v>15.5</v>
+      </c>
+      <c r="C101">
+        <f>Sheet1!C120</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102">
+        <f>Sheet1!B121</f>
+        <v>16.5</v>
+      </c>
+      <c r="C102">
+        <f>Sheet1!C121</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103">
+        <f>Sheet1!B122</f>
+        <v>17.5</v>
+      </c>
+      <c r="C103">
+        <f>Sheet1!C122</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104">
+        <f>Sheet1!B123</f>
+        <v>18.5</v>
+      </c>
+      <c r="C104">
+        <f>Sheet1!C123</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105">
+        <f>Sheet1!B124</f>
+        <v>19.5</v>
+      </c>
+      <c r="C105">
+        <f>Sheet1!C124</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106">
+        <f>Sheet1!B125</f>
+        <v>20.5</v>
+      </c>
+      <c r="C106">
+        <f>Sheet1!C125</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <f>Sheet1!B126</f>
+        <v>21.5</v>
+      </c>
+      <c r="C107">
+        <f>Sheet1!C126</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108">
+        <f>Sheet1!B127</f>
+        <v>22.5</v>
+      </c>
+      <c r="C108">
+        <f>Sheet1!C127</f>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109">
+        <f>Sheet1!B128</f>
+        <v>23.5</v>
+      </c>
+      <c r="C109">
+        <f>Sheet1!C128</f>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <f>Sheet1!B129</f>
+        <v>24.5</v>
+      </c>
+      <c r="C110">
+        <f>Sheet1!C129</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <f>Sheet1!B130</f>
+        <v>25.5</v>
+      </c>
+      <c r="C111">
+        <f>Sheet1!C130</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112">
+        <f>Sheet1!B131</f>
+        <v>26.5</v>
+      </c>
+      <c r="C112">
+        <f>Sheet1!C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113">
+        <f>Sheet1!B132</f>
+        <v>27.5</v>
+      </c>
+      <c r="C113">
+        <f>Sheet1!C132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114">
+        <f>Sheet1!B133</f>
+        <v>28.5</v>
+      </c>
+      <c r="C114">
+        <f>Sheet1!C133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115">
+        <f>Sheet1!B134</f>
+        <v>29.5</v>
+      </c>
+      <c r="C115">
+        <f>Sheet1!C134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <f>Sheet1!B135</f>
+        <v>30.5</v>
+      </c>
+      <c r="C116">
+        <f>Sheet1!C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117">
+        <f>Sheet1!B136</f>
+        <v>31.5</v>
+      </c>
+      <c r="C117">
+        <f>Sheet1!C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <f>Sheet1!B137</f>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f>Sheet1!C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119">
+        <f>Sheet1!B138</f>
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f>Sheet1!C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120">
+        <f>Sheet1!B139</f>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f>Sheet1!C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121">
+        <f>Sheet1!B140</f>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f>Sheet1!C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122">
+        <f>Sheet1!B141</f>
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f>Sheet1!C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123">
+        <f>Sheet1!B142</f>
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <f>Sheet1!C142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
+        <f>Sheet1!B143</f>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f>Sheet1!C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125">
+        <f>Sheet1!B144</f>
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <f>Sheet1!C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126">
+        <f>Sheet1!B145</f>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f>Sheet1!C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127">
+        <f>Sheet1!B146</f>
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <f>Sheet1!C146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128">
+        <f>Sheet1!B147</f>
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <f>Sheet1!C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129">
+        <f>Sheet1!B148</f>
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <f>Sheet1!C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130">
+        <f>Sheet1!B149</f>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f>Sheet1!C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131">
+        <f>Sheet1!B150</f>
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <f>Sheet1!C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <f>Sheet1!B151</f>
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <f>Sheet1!C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <f>Sheet1!B152</f>
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <f>Sheet1!C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134">
+        <f>Sheet1!B153</f>
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <f>Sheet1!C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135">
+        <f>Sheet1!B154</f>
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <f>Sheet1!C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136">
+        <f>Sheet1!B155</f>
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <f>Sheet1!C155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137">
+        <f>Sheet1!B156</f>
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <f>Sheet1!C156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138">
+        <f>Sheet1!B157</f>
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <f>Sheet1!C157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139">
+        <f>Sheet1!B158</f>
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <f>Sheet1!C158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140">
+        <f>Sheet1!B159</f>
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <f>Sheet1!C159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141">
+        <f>Sheet1!B160</f>
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <f>Sheet1!C160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142">
+        <f>Sheet1!B161</f>
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <f>Sheet1!C161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143">
+        <f>Sheet1!B162</f>
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <f>Sheet1!C162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144">
+        <f>Sheet1!B163</f>
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <f>Sheet1!C163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145">
+        <f>Sheet1!B164</f>
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <f>Sheet1!C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146">
         <f>Sheet1!B165</f>
         <v>0</v>
       </c>
-      <c r="I77">
+      <c r="C146">
         <f>Sheet1!C165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G78" s="47" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H78">
+      <c r="B147">
         <f>Sheet1!B166</f>
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="C147">
         <f>Sheet1!C166</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G79" s="47" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H79">
+      <c r="B148">
         <f>Sheet1!B167</f>
         <v>0</v>
       </c>
-      <c r="I79">
+      <c r="C148">
         <f>Sheet1!C167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G80" s="47" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H80">
+      <c r="B149">
         <f>Sheet1!B168</f>
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="C149">
         <f>Sheet1!C168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G81" s="47" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H81">
+      <c r="B150">
         <f>Sheet1!B169</f>
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="C150">
         <f>Sheet1!C169</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G82" s="47" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H82">
+      <c r="B151">
         <f>Sheet1!B170</f>
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="C151">
         <f>Sheet1!C170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G83" s="47" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H83">
+      <c r="B152">
         <f>Sheet1!B171</f>
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="C152">
         <f>Sheet1!C171</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D67:E70"/>
-    <mergeCell ref="B73:C73"/>
     <mergeCell ref="O75:P75"/>
     <mergeCell ref="O69:P69"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6302,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:E84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6350,10 +6578,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
@@ -6398,19 +6626,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="I4">
-        <f>SUM(E5:E10000)</f>
-        <v>1220</v>
+        <f>SUM(E5:E10000)+SUM(F5:F10000)</f>
+        <v>1250</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>12666.666666666666</v>
+        <v>12833.333333333332</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>3753.3333333333339</v>
+        <v>3816.6666666666679</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6427,7 +6655,7 @@
       </c>
       <c r="H5">
         <f>H4/200</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -7800,6 +8028,12 @@
       <c r="C85">
         <f>Sheet1!C95</f>
         <v>24.3</v>
+      </c>
+      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8035,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82:F84"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,10 +8318,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
@@ -8132,19 +8366,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9">
         <f>SUM(D5:D10000)</f>
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I4">
-        <f>SUM(E5:E10000)</f>
-        <v>760</v>
+        <f>SUM(E5:E10000)+SUM(F5:F10000)</f>
+        <v>1760</v>
       </c>
       <c r="J4" s="9">
         <f>(H4/100)*(10000/120)</f>
-        <v>6333.333333333333</v>
+        <v>6416.6666666666661</v>
       </c>
       <c r="K4" s="9">
         <f>H4-J4+I4</f>
-        <v>2026.666666666667</v>
+        <v>3043.3333333333339</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -8157,11 +8391,11 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <f>H4/100</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9631,6 +9865,15 @@
       <c r="C85">
         <f>Sheet1!C95</f>
         <v>24.3</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9864,10 +10107,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9875,7 +10118,7 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="10"/>
       <c r="C1" s="27" t="s">
@@ -9885,7 +10128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -9898,20 +10141,33 @@
       <c r="D2" s="27">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33">
+        <f>SUM(D5:D100)</f>
+        <v>51500</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
@@ -9922,7 +10178,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -9933,7 +10189,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -9946,7 +10202,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -9962,7 +10218,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -9975,7 +10231,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -9988,7 +10244,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -10001,7 +10257,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -10017,7 +10273,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -10030,7 +10286,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -10043,7 +10299,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -10056,7 +10312,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10072,7 +10328,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10190,6 +10446,9 @@
       <c r="C24">
         <f>Sheet1!C95</f>
         <v>24.3</v>
+      </c>
+      <c r="D24">
+        <v>35500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="70">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>Thu (Láng)</t>
+  </si>
+  <si>
+    <t>Rut von</t>
+  </si>
+  <si>
+    <t>67000+31300</t>
+  </si>
+  <si>
+    <t>72000+31300</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -625,7 +634,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,7 +646,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="73"/>
+      <c r="G1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -993,25 +1023,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73" t="s">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="73"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1035,39 +1065,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>65140</v>
+        <v>67660</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>60100</v>
+        <v>62100</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>5040</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="75">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80">
         <v>70000</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="73" t="s">
+      <c r="J7" s="80"/>
+      <c r="K7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="73"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10007)-SUM(J8:J10007)</f>
-        <v>60270</v>
+        <f>SUM(I8:I10011)-SUM(J8:J10011)</f>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1080,13 +1110,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1095,7 +1125,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>48583.333333333328</v>
+        <v>50249.999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1108,13 +1138,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1123,7 +1153,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>14576.66666666667</v>
+        <v>15430.000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1136,13 +1166,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1150,8 +1180,8 @@
         <v>52</v>
       </c>
       <c r="N10" s="1">
-        <f>117000+31300</f>
-        <v>148300</v>
+        <f>67000+31300</f>
+        <v>98300</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1164,13 +1194,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1185,13 +1215,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1206,13 +1236,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1227,13 +1257,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1248,13 +1278,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1269,16 +1299,16 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1288,16 +1318,16 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -1307,18 +1337,18 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -1328,18 +1358,18 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -1349,22 +1379,26 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="79"/>
+      <c r="Q20" s="1">
+        <f>7.4-4.8</f>
+        <v>2.6000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -1374,18 +1408,18 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -1395,18 +1429,18 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -1416,18 +1450,18 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -1437,16 +1471,16 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -1456,18 +1490,18 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1477,18 +1511,18 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -1498,18 +1532,18 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -1519,18 +1553,18 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -1540,13 +1574,13 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -1556,18 +1590,18 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f>A30+1</f>
         <v>24</v>
@@ -1578,18 +1612,18 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" ref="A32:A102" si="0">A31+1</f>
         <v>25</v>
@@ -1600,13 +1634,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1622,13 +1656,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1644,13 +1678,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1666,11 +1700,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1686,13 +1720,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1708,13 +1742,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1730,13 +1764,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1752,13 +1786,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1774,13 +1808,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1796,13 +1830,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1818,13 +1852,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1840,13 +1874,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1862,13 +1896,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1884,13 +1918,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1906,11 +1940,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1926,13 +1960,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1948,13 +1982,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -1970,11 +2004,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -1990,13 +2024,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2012,13 +2046,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2034,13 +2068,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2056,13 +2090,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2078,13 +2112,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2097,13 +2131,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2119,20 +2153,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="73" t="s">
+      <c r="D56" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="73" t="s">
+      <c r="K56" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="73"/>
+      <c r="L56" s="79"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2142,13 +2176,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2161,13 +2195,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2183,13 +2217,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2205,13 +2239,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2227,13 +2261,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2249,13 +2283,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2271,13 +2305,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2293,13 +2327,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2315,13 +2349,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="73" t="s">
+      <c r="D65" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2337,13 +2371,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2359,13 +2393,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="73" t="s">
+      <c r="D67" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2378,13 +2412,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2400,13 +2434,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="73" t="s">
+      <c r="D69" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2422,13 +2456,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="73" t="s">
+      <c r="D70" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2445,13 +2479,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="73" t="s">
+      <c r="D71" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2467,13 +2501,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2486,13 +2520,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="73" t="s">
+      <c r="D73" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2505,13 +2539,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="73" t="s">
+      <c r="D74" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2530,13 +2564,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="73" t="s">
+      <c r="D75" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2552,13 +2586,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="73" t="s">
+      <c r="D76" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2574,13 +2608,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2596,13 +2630,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="73" t="s">
+      <c r="D78" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2618,13 +2652,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="73" t="s">
+      <c r="D79" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2640,13 +2674,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="73" t="s">
+      <c r="D80" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2662,13 +2696,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2684,13 +2718,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="73" t="s">
+      <c r="D82" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2706,13 +2740,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2728,13 +2762,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2750,13 +2784,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2772,13 +2806,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="73" t="s">
+      <c r="D86" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2795,13 +2829,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="73" t="s">
+      <c r="D87" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2817,13 +2851,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="D88" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2839,14 +2873,15 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="73" t="s">
+      <c r="D89" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
       <c r="I89" s="1">
+        <f>540+140</f>
         <v>680</v>
       </c>
     </row>
@@ -2861,13 +2896,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="73" t="s">
+      <c r="D90" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2883,13 +2918,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="73" t="s">
+      <c r="D91" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2905,13 +2940,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="73" t="s">
+      <c r="D92" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -2924,13 +2959,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="73" t="s">
+      <c r="D93" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -2946,13 +2981,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="73" t="s">
+      <c r="D94" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -2968,13 +3003,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="73" t="s">
+      <c r="D95" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -2991,18 +3026,18 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3013,18 +3048,18 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
+      <c r="E97" s="79"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="79"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3035,18 +3070,18 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="73" t="s">
+      <c r="D98" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="79"/>
+      <c r="H98" s="79"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -3057,18 +3092,18 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="73" t="s">
+      <c r="D99" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -3079,18 +3114,19 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="73" t="s">
+      <c r="D100" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="79"/>
       <c r="I100" s="1">
+        <f>460+140</f>
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -3101,18 +3137,18 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="D101" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="79"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -3123,21 +3159,21 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="73" t="s">
+      <c r="D102" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" ref="A103:A136" si="1">A102+1</f>
+        <f t="shared" ref="A103:A140" si="1">A102+1</f>
         <v>89</v>
       </c>
       <c r="B103" s="19">
@@ -3146,19 +3182,19 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="73" t="s">
+      <c r="D103" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3169,19 +3205,19 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="73" t="s">
+      <c r="D104" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="79"/>
+      <c r="H104" s="79"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3192,13 +3228,18 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="73"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D105" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3209,13 +3250,16 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3226,13 +3270,18 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D107" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3243,13 +3292,13 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="79"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3260,942 +3309,861 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="73"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
-        <f t="shared" si="1"/>
+      <c r="D109" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
+      <c r="J109" s="1">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="72"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="J110" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K110" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="1">
+        <f>230+230+230+230+140+40</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <f>A109+1</f>
         <v>96</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B112" s="29">
         <v>5.5</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
-        <f t="shared" si="1"/>
+      <c r="D112" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="1">
+        <f>140+440</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <f>A112+1</f>
         <v>97</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B113" s="29">
         <v>6.5</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D111" s="73"/>
-      <c r="E111" s="73"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="73"/>
-      <c r="H111" s="73"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="11">
-        <f t="shared" si="1"/>
+      <c r="D113" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="79"/>
+      <c r="I113" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K113" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="77"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="79"/>
+      <c r="J114" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="77"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <f>A113+1</f>
         <v>98</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B116" s="29">
         <v>7.5</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="73"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="79"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B117" s="29">
         <v>8.5</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="11">
+      <c r="D117" s="79"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="79"/>
+      <c r="H117" s="79"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B118" s="29">
         <v>9.5</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="11">
+      <c r="D118" s="79"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="79"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B119" s="29">
         <v>10.5</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="73"/>
-      <c r="H115" s="73"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="79"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B116" s="29">
+      <c r="B120" s="29">
         <v>11.5</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="11">
+      <c r="D120" s="79"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="79"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B117" s="29">
+      <c r="B121" s="29">
         <v>12.5</v>
       </c>
-      <c r="C117" s="29">
+      <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="73"/>
-      <c r="H117" s="73"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="11">
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B122" s="29">
         <v>13.5</v>
       </c>
-      <c r="C118" s="29">
+      <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="73"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="11">
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="79"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B123" s="29">
         <v>14.5</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="11">
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B120" s="29">
+      <c r="B124" s="29">
         <v>15.5</v>
       </c>
-      <c r="C120" s="29">
+      <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="11">
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B121" s="29">
+      <c r="B125" s="29">
         <v>16.5</v>
       </c>
-      <c r="C121" s="29">
+      <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="73"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="11">
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B126" s="29">
         <v>17.5</v>
       </c>
-      <c r="C122" s="29">
+      <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="11">
+      <c r="D126" s="79"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="79"/>
+      <c r="H126" s="79"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B127" s="29">
         <v>18.5</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="11">
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="79"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B124" s="29">
+      <c r="B128" s="29">
         <v>19.5</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="11">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="B125" s="29">
-        <v>20.5</v>
-      </c>
-      <c r="C125" s="29">
-        <v>25.4</v>
-      </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="73"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="11">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B126" s="29">
-        <v>21.5</v>
-      </c>
-      <c r="C126" s="29">
-        <v>26.4</v>
-      </c>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
-      <c r="H126" s="73"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="11">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B127" s="29">
-        <v>22.5</v>
-      </c>
-      <c r="C127" s="29">
-        <v>27.4</v>
-      </c>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="11">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B128" s="29">
-        <v>23.5</v>
-      </c>
-      <c r="C128" s="29">
-        <v>28.4</v>
-      </c>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="73"/>
-      <c r="H128" s="73"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="79"/>
+      <c r="H128" s="79"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B129" s="29">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
       <c r="C129" s="29">
-        <v>29.4</v>
-      </c>
-      <c r="D129" s="73"/>
-      <c r="E129" s="73"/>
-      <c r="F129" s="73"/>
-      <c r="G129" s="73"/>
-      <c r="H129" s="73"/>
+        <v>25.4</v>
+      </c>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="79"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B130" s="29">
-        <v>25.5</v>
+        <v>21.5</v>
       </c>
       <c r="C130" s="29">
-        <v>30.4</v>
-      </c>
-      <c r="D130" s="73"/>
-      <c r="E130" s="73"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="73"/>
-      <c r="H130" s="73"/>
+        <v>26.4</v>
+      </c>
+      <c r="D130" s="79"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="79"/>
+      <c r="H130" s="79"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B131" s="29">
-        <v>26.5</v>
-      </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
-      <c r="H131" s="73"/>
+        <v>22.5</v>
+      </c>
+      <c r="C131" s="29">
+        <v>27.4</v>
+      </c>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="79"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B132" s="29">
-        <v>27.5</v>
-      </c>
-      <c r="D132" s="73"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="73"/>
-      <c r="H132" s="73"/>
+        <v>23.5</v>
+      </c>
+      <c r="C132" s="29">
+        <v>28.4</v>
+      </c>
+      <c r="D132" s="79"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="79"/>
+      <c r="H132" s="79"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B133" s="29">
-        <v>28.5</v>
-      </c>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
+        <v>24.5</v>
+      </c>
+      <c r="C133" s="29">
+        <v>29.4</v>
+      </c>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="79"/>
+      <c r="H133" s="79"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B134" s="29">
+        <v>25.5</v>
+      </c>
+      <c r="C134" s="29">
+        <v>30.4</v>
+      </c>
+      <c r="D134" s="79"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B135" s="29">
+        <v>26.5</v>
+      </c>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="79"/>
+      <c r="H135" s="79"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B136" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="D136" s="79"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="79"/>
+      <c r="H136" s="79"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B137" s="29">
+        <v>28.5</v>
+      </c>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B138" s="29">
         <v>29.5</v>
       </c>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="73"/>
-      <c r="H134" s="73"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="28">
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="79"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="28">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B135" s="29">
+      <c r="B139" s="29">
         <v>30.5</v>
       </c>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="73"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="28">
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="28">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B136" s="29">
+      <c r="B140" s="29">
         <v>31.5</v>
       </c>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="73"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="73"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D138" s="73"/>
-      <c r="E138" s="73"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="73"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
-      <c r="H139" s="73"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="73"/>
-      <c r="E140" s="73"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="73"/>
-      <c r="H140" s="73"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="79"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="73"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="79"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="73"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="73"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="73"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="79"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="73"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="73"/>
-      <c r="H144" s="73"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="73"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="73"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="79"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="73"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="79"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="73"/>
-      <c r="H147" s="73"/>
+      <c r="D147" s="79"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="79"/>
+      <c r="G147" s="79"/>
+      <c r="H147" s="79"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="73"/>
-      <c r="E148" s="73"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="73"/>
-      <c r="H148" s="73"/>
+      <c r="D148" s="79"/>
+      <c r="E148" s="79"/>
+      <c r="F148" s="79"/>
+      <c r="G148" s="79"/>
+      <c r="H148" s="79"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="73"/>
+      <c r="D149" s="79"/>
+      <c r="E149" s="79"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="79"/>
+      <c r="H149" s="79"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="73"/>
-      <c r="H150" s="73"/>
+      <c r="D150" s="79"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="79"/>
+      <c r="H150" s="79"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="73"/>
-      <c r="E151" s="73"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="73"/>
-      <c r="H151" s="73"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="73"/>
-      <c r="E152" s="73"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="73"/>
-      <c r="H152" s="73"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="79"/>
+      <c r="H152" s="79"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="73"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="73"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="73"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="79"/>
+      <c r="H154" s="79"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="73"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="73"/>
-      <c r="E156" s="73"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="73"/>
-      <c r="H156" s="73"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="73"/>
-      <c r="E157" s="73"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="73"/>
-      <c r="H157" s="73"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="73"/>
-      <c r="E158" s="73"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="73"/>
-      <c r="H158" s="73"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="73"/>
-      <c r="E160" s="73"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="73"/>
-      <c r="H160" s="73"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="79"/>
+      <c r="G160" s="79"/>
+      <c r="H160" s="79"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="73"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79"/>
+      <c r="F161" s="79"/>
+      <c r="G161" s="79"/>
+      <c r="H161" s="79"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="73"/>
-      <c r="E162" s="73"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="73"/>
-      <c r="H162" s="73"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="79"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="73"/>
-      <c r="E163" s="73"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
+      <c r="D163" s="79"/>
+      <c r="E163" s="79"/>
+      <c r="F163" s="79"/>
+      <c r="G163" s="79"/>
+      <c r="H163" s="79"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="73"/>
-      <c r="E164" s="73"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="73"/>
-      <c r="H164" s="73"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="79"/>
+      <c r="F164" s="79"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="79"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="79"/>
+      <c r="F165" s="79"/>
+      <c r="G165" s="79"/>
+      <c r="H165" s="79"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="73"/>
-      <c r="E166" s="73"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="73"/>
-      <c r="H166" s="73"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="79"/>
+      <c r="F166" s="79"/>
+      <c r="G166" s="79"/>
+      <c r="H166" s="79"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="73"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="79"/>
+      <c r="F167" s="79"/>
+      <c r="G167" s="79"/>
+      <c r="H167" s="79"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="73"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="73"/>
-      <c r="H168" s="73"/>
+      <c r="D168" s="79"/>
+      <c r="E168" s="79"/>
+      <c r="F168" s="79"/>
+      <c r="G168" s="79"/>
+      <c r="H168" s="79"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="73"/>
-      <c r="E169" s="73"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="73"/>
-      <c r="H169" s="73"/>
+      <c r="D169" s="79"/>
+      <c r="E169" s="79"/>
+      <c r="F169" s="79"/>
+      <c r="G169" s="79"/>
+      <c r="H169" s="79"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="73"/>
-      <c r="E170" s="73"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="73"/>
-      <c r="H170" s="73"/>
+      <c r="D170" s="79"/>
+      <c r="E170" s="79"/>
+      <c r="F170" s="79"/>
+      <c r="G170" s="79"/>
+      <c r="H170" s="79"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="73"/>
-      <c r="E171" s="73"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="73"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="79"/>
+      <c r="F171" s="79"/>
+      <c r="G171" s="79"/>
+      <c r="H171" s="79"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
+      <c r="D172" s="79"/>
+      <c r="E172" s="79"/>
+      <c r="F172" s="79"/>
+      <c r="G172" s="79"/>
+      <c r="H172" s="79"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="73"/>
+      <c r="D173" s="79"/>
+      <c r="E173" s="79"/>
+      <c r="F173" s="79"/>
+      <c r="G173" s="79"/>
+      <c r="H173" s="79"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="73"/>
-      <c r="E174" s="73"/>
-      <c r="F174" s="73"/>
-      <c r="G174" s="73"/>
-      <c r="H174" s="73"/>
+      <c r="D174" s="79"/>
+      <c r="E174" s="79"/>
+      <c r="F174" s="79"/>
+      <c r="G174" s="79"/>
+      <c r="H174" s="79"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="73"/>
-      <c r="E175" s="73"/>
-      <c r="F175" s="73"/>
-      <c r="G175" s="73"/>
-      <c r="H175" s="73"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="79"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="79"/>
+      <c r="H175" s="79"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="73"/>
-      <c r="E176" s="73"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="73"/>
-      <c r="H176" s="73"/>
+      <c r="D176" s="79"/>
+      <c r="E176" s="79"/>
+      <c r="F176" s="79"/>
+      <c r="G176" s="79"/>
+      <c r="H176" s="79"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="73"/>
+      <c r="D177" s="79"/>
+      <c r="E177" s="79"/>
+      <c r="F177" s="79"/>
+      <c r="G177" s="79"/>
+      <c r="H177" s="79"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="73"/>
-      <c r="E178" s="73"/>
-      <c r="F178" s="73"/>
-      <c r="G178" s="73"/>
-      <c r="H178" s="73"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="79"/>
+      <c r="F178" s="79"/>
+      <c r="G178" s="79"/>
+      <c r="H178" s="79"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="73"/>
-      <c r="E179" s="73"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="73"/>
-      <c r="H179" s="73"/>
+      <c r="D179" s="79"/>
+      <c r="E179" s="79"/>
+      <c r="F179" s="79"/>
+      <c r="G179" s="79"/>
+      <c r="H179" s="79"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="73"/>
-      <c r="E180" s="73"/>
-      <c r="F180" s="73"/>
-      <c r="G180" s="73"/>
-      <c r="H180" s="73"/>
+      <c r="D180" s="79"/>
+      <c r="E180" s="79"/>
+      <c r="F180" s="79"/>
+      <c r="G180" s="79"/>
+      <c r="H180" s="79"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="73"/>
-      <c r="E181" s="73"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="73"/>
-      <c r="H181" s="73"/>
+      <c r="D181" s="79"/>
+      <c r="E181" s="79"/>
+      <c r="F181" s="79"/>
+      <c r="G181" s="79"/>
+      <c r="H181" s="79"/>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="73"/>
-      <c r="E182" s="73"/>
-      <c r="F182" s="73"/>
-      <c r="G182" s="73"/>
-      <c r="H182" s="73"/>
+      <c r="D182" s="79"/>
+      <c r="E182" s="79"/>
+      <c r="F182" s="79"/>
+      <c r="G182" s="79"/>
+      <c r="H182" s="79"/>
+    </row>
+    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="79"/>
+      <c r="H183" s="79"/>
+    </row>
+    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D184" s="79"/>
+      <c r="E184" s="79"/>
+      <c r="F184" s="79"/>
+      <c r="G184" s="79"/>
+      <c r="H184" s="79"/>
+    </row>
+    <row r="185" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D185" s="79"/>
+      <c r="E185" s="79"/>
+      <c r="F185" s="79"/>
+      <c r="G185" s="79"/>
+      <c r="H185" s="79"/>
+    </row>
+    <row r="186" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D186" s="79"/>
+      <c r="E186" s="79"/>
+      <c r="F186" s="79"/>
+      <c r="G186" s="79"/>
+      <c r="H186" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
+  <mergeCells count="189">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -4216,6 +4184,175 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4226,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W152"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4307,10 +4444,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -5698,8 +5835,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="84"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -5722,8 +5859,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="77"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -5746,14 +5883,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="77"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="84"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="80"/>
-      <c r="P69" s="80"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -5769,8 +5906,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="86"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -5828,10 +5965,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="81"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -5894,8 +6031,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
+      <c r="O75" s="87"/>
+      <c r="P75" s="87"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -6217,11 +6354,11 @@
         <v>30</v>
       </c>
       <c r="B91" s="54">
-        <f>Sheet1!B110</f>
+        <f>Sheet1!B112</f>
         <v>5.5</v>
       </c>
       <c r="C91" s="54">
-        <f>Sheet1!C110</f>
+        <f>Sheet1!C112</f>
         <v>10.4</v>
       </c>
       <c r="D91" s="54"/>
@@ -6236,11 +6373,11 @@
         <v>31</v>
       </c>
       <c r="B92" s="54">
-        <f>Sheet1!B111</f>
+        <f>Sheet1!B113</f>
         <v>6.5</v>
       </c>
       <c r="C92" s="54">
-        <f>Sheet1!C111</f>
+        <f>Sheet1!C113</f>
         <v>11.4</v>
       </c>
       <c r="D92" s="54"/>
@@ -6255,11 +6392,11 @@
         <v>32</v>
       </c>
       <c r="B93" s="54">
-        <f>Sheet1!B112</f>
+        <f>Sheet1!B116</f>
         <v>7.5</v>
       </c>
       <c r="C93" s="54">
-        <f>Sheet1!C112</f>
+        <f>Sheet1!C116</f>
         <v>12.4</v>
       </c>
       <c r="D93" s="54"/>
@@ -6274,11 +6411,11 @@
         <v>26</v>
       </c>
       <c r="B94" s="54">
-        <f>Sheet1!B113</f>
+        <f>Sheet1!B117</f>
         <v>8.5</v>
       </c>
       <c r="C94" s="54">
-        <f>Sheet1!C113</f>
+        <f>Sheet1!C117</f>
         <v>13.4</v>
       </c>
       <c r="D94" s="54"/>
@@ -6293,11 +6430,11 @@
         <v>27</v>
       </c>
       <c r="B95" s="54">
-        <f>Sheet1!B114</f>
+        <f>Sheet1!B118</f>
         <v>9.5</v>
       </c>
       <c r="C95" s="54">
-        <f>Sheet1!C114</f>
+        <f>Sheet1!C118</f>
         <v>14.4</v>
       </c>
       <c r="D95" s="54"/>
@@ -6312,11 +6449,11 @@
         <v>28</v>
       </c>
       <c r="B96" s="54">
-        <f>Sheet1!B115</f>
+        <f>Sheet1!B119</f>
         <v>10.5</v>
       </c>
       <c r="C96" s="54">
-        <f>Sheet1!C115</f>
+        <f>Sheet1!C119</f>
         <v>15.4</v>
       </c>
       <c r="D96" s="54"/>
@@ -6331,11 +6468,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="54">
-        <f>Sheet1!B116</f>
+        <f>Sheet1!B120</f>
         <v>11.5</v>
       </c>
       <c r="C97" s="54">
-        <f>Sheet1!C116</f>
+        <f>Sheet1!C120</f>
         <v>16.399999999999999</v>
       </c>
       <c r="D97" s="54"/>
@@ -6350,11 +6487,11 @@
         <v>30</v>
       </c>
       <c r="B98" s="54">
-        <f>Sheet1!B117</f>
+        <f>Sheet1!B121</f>
         <v>12.5</v>
       </c>
       <c r="C98" s="54">
-        <f>Sheet1!C117</f>
+        <f>Sheet1!C121</f>
         <v>17.399999999999999</v>
       </c>
       <c r="D98" s="54"/>
@@ -6369,11 +6506,11 @@
         <v>31</v>
       </c>
       <c r="B99" s="54">
-        <f>Sheet1!B118</f>
+        <f>Sheet1!B122</f>
         <v>13.5</v>
       </c>
       <c r="C99" s="54">
-        <f>Sheet1!C118</f>
+        <f>Sheet1!C122</f>
         <v>18.399999999999999</v>
       </c>
       <c r="D99" s="54"/>
@@ -6388,11 +6525,11 @@
         <v>32</v>
       </c>
       <c r="B100" s="54">
-        <f>Sheet1!B119</f>
+        <f>Sheet1!B123</f>
         <v>14.5</v>
       </c>
       <c r="C100" s="54">
-        <f>Sheet1!C119</f>
+        <f>Sheet1!C123</f>
         <v>19.399999999999999</v>
       </c>
       <c r="D100" s="54"/>
@@ -6407,11 +6544,11 @@
         <v>26</v>
       </c>
       <c r="B101" s="54">
-        <f>Sheet1!B120</f>
+        <f>Sheet1!B124</f>
         <v>15.5</v>
       </c>
       <c r="C101" s="54">
-        <f>Sheet1!C120</f>
+        <f>Sheet1!C124</f>
         <v>20.399999999999999</v>
       </c>
       <c r="D101" s="54"/>
@@ -6426,11 +6563,11 @@
         <v>27</v>
       </c>
       <c r="B102" s="54">
-        <f>Sheet1!B121</f>
+        <f>Sheet1!B125</f>
         <v>16.5</v>
       </c>
       <c r="C102" s="54">
-        <f>Sheet1!C121</f>
+        <f>Sheet1!C125</f>
         <v>21.4</v>
       </c>
       <c r="D102" s="54"/>
@@ -6445,11 +6582,11 @@
         <v>28</v>
       </c>
       <c r="B103" s="54">
-        <f>Sheet1!B122</f>
+        <f>Sheet1!B126</f>
         <v>17.5</v>
       </c>
       <c r="C103" s="54">
-        <f>Sheet1!C122</f>
+        <f>Sheet1!C126</f>
         <v>22.4</v>
       </c>
       <c r="D103" s="54"/>
@@ -6464,11 +6601,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="54">
-        <f>Sheet1!B123</f>
+        <f>Sheet1!B127</f>
         <v>18.5</v>
       </c>
       <c r="C104" s="54">
-        <f>Sheet1!C123</f>
+        <f>Sheet1!C127</f>
         <v>23.4</v>
       </c>
       <c r="D104" s="54"/>
@@ -6483,11 +6620,11 @@
         <v>30</v>
       </c>
       <c r="B105" s="54">
-        <f>Sheet1!B124</f>
+        <f>Sheet1!B128</f>
         <v>19.5</v>
       </c>
       <c r="C105" s="54">
-        <f>Sheet1!C124</f>
+        <f>Sheet1!C128</f>
         <v>24.4</v>
       </c>
       <c r="D105" s="54"/>
@@ -6502,11 +6639,11 @@
         <v>31</v>
       </c>
       <c r="B106" s="54">
-        <f>Sheet1!B125</f>
+        <f>Sheet1!B129</f>
         <v>20.5</v>
       </c>
       <c r="C106" s="54">
-        <f>Sheet1!C125</f>
+        <f>Sheet1!C129</f>
         <v>25.4</v>
       </c>
       <c r="D106" s="54"/>
@@ -6521,11 +6658,11 @@
         <v>32</v>
       </c>
       <c r="B107" s="54">
-        <f>Sheet1!B126</f>
+        <f>Sheet1!B130</f>
         <v>21.5</v>
       </c>
       <c r="C107" s="54">
-        <f>Sheet1!C126</f>
+        <f>Sheet1!C130</f>
         <v>26.4</v>
       </c>
       <c r="D107" s="54"/>
@@ -6540,11 +6677,11 @@
         <v>26</v>
       </c>
       <c r="B108" s="54">
-        <f>Sheet1!B127</f>
+        <f>Sheet1!B131</f>
         <v>22.5</v>
       </c>
       <c r="C108" s="54">
-        <f>Sheet1!C127</f>
+        <f>Sheet1!C131</f>
         <v>27.4</v>
       </c>
       <c r="D108" s="54"/>
@@ -6559,11 +6696,11 @@
         <v>27</v>
       </c>
       <c r="B109" s="54">
-        <f>Sheet1!B128</f>
+        <f>Sheet1!B132</f>
         <v>23.5</v>
       </c>
       <c r="C109" s="54">
-        <f>Sheet1!C128</f>
+        <f>Sheet1!C132</f>
         <v>28.4</v>
       </c>
       <c r="D109" s="54"/>
@@ -6578,11 +6715,11 @@
         <v>28</v>
       </c>
       <c r="B110" s="54">
-        <f>Sheet1!B129</f>
+        <f>Sheet1!B133</f>
         <v>24.5</v>
       </c>
       <c r="C110" s="54">
-        <f>Sheet1!C129</f>
+        <f>Sheet1!C133</f>
         <v>29.4</v>
       </c>
       <c r="D110" s="54"/>
@@ -6597,11 +6734,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="54">
-        <f>Sheet1!B130</f>
+        <f>Sheet1!B134</f>
         <v>25.5</v>
       </c>
       <c r="C111" s="54">
-        <f>Sheet1!C130</f>
+        <f>Sheet1!C134</f>
         <v>30.4</v>
       </c>
       <c r="D111" s="54"/>
@@ -6616,11 +6753,11 @@
         <v>30</v>
       </c>
       <c r="B112" s="54">
-        <f>Sheet1!B131</f>
+        <f>Sheet1!B135</f>
         <v>26.5</v>
       </c>
       <c r="C112" s="54">
-        <f>Sheet1!C131</f>
+        <f>Sheet1!C135</f>
         <v>0</v>
       </c>
       <c r="D112" s="54"/>
@@ -6635,11 +6772,11 @@
         <v>31</v>
       </c>
       <c r="B113" s="54">
-        <f>Sheet1!B132</f>
+        <f>Sheet1!B136</f>
         <v>27.5</v>
       </c>
       <c r="C113" s="54">
-        <f>Sheet1!C132</f>
+        <f>Sheet1!C136</f>
         <v>0</v>
       </c>
       <c r="D113" s="54"/>
@@ -6654,11 +6791,11 @@
         <v>32</v>
       </c>
       <c r="B114" s="54">
-        <f>Sheet1!B133</f>
+        <f>Sheet1!B137</f>
         <v>28.5</v>
       </c>
       <c r="C114" s="54">
-        <f>Sheet1!C133</f>
+        <f>Sheet1!C137</f>
         <v>0</v>
       </c>
       <c r="D114" s="54"/>
@@ -6673,11 +6810,11 @@
         <v>26</v>
       </c>
       <c r="B115" s="54">
-        <f>Sheet1!B134</f>
+        <f>Sheet1!B138</f>
         <v>29.5</v>
       </c>
       <c r="C115" s="54">
-        <f>Sheet1!C134</f>
+        <f>Sheet1!C138</f>
         <v>0</v>
       </c>
       <c r="D115" s="54"/>
@@ -6692,11 +6829,11 @@
         <v>27</v>
       </c>
       <c r="B116" s="54">
-        <f>Sheet1!B135</f>
+        <f>Sheet1!B139</f>
         <v>30.5</v>
       </c>
       <c r="C116" s="54">
-        <f>Sheet1!C135</f>
+        <f>Sheet1!C139</f>
         <v>0</v>
       </c>
       <c r="D116" s="54"/>
@@ -6711,11 +6848,11 @@
         <v>28</v>
       </c>
       <c r="B117" s="54">
-        <f>Sheet1!B136</f>
+        <f>Sheet1!B140</f>
         <v>31.5</v>
       </c>
       <c r="C117" s="54">
-        <f>Sheet1!C136</f>
+        <f>Sheet1!C140</f>
         <v>0</v>
       </c>
       <c r="D117" s="54"/>
@@ -6730,11 +6867,11 @@
         <v>29</v>
       </c>
       <c r="B118" s="54">
-        <f>Sheet1!B137</f>
+        <f>Sheet1!B141</f>
         <v>0</v>
       </c>
       <c r="C118" s="54">
-        <f>Sheet1!C137</f>
+        <f>Sheet1!C141</f>
         <v>0</v>
       </c>
       <c r="D118" s="54"/>
@@ -6749,11 +6886,11 @@
         <v>30</v>
       </c>
       <c r="B119" s="54">
-        <f>Sheet1!B138</f>
+        <f>Sheet1!B142</f>
         <v>0</v>
       </c>
       <c r="C119" s="54">
-        <f>Sheet1!C138</f>
+        <f>Sheet1!C142</f>
         <v>0</v>
       </c>
       <c r="D119" s="54"/>
@@ -6768,11 +6905,11 @@
         <v>31</v>
       </c>
       <c r="B120" s="54">
-        <f>Sheet1!B139</f>
+        <f>Sheet1!B143</f>
         <v>0</v>
       </c>
       <c r="C120" s="54">
-        <f>Sheet1!C139</f>
+        <f>Sheet1!C143</f>
         <v>0</v>
       </c>
       <c r="D120" s="54"/>
@@ -6787,11 +6924,11 @@
         <v>32</v>
       </c>
       <c r="B121" s="54">
-        <f>Sheet1!B140</f>
+        <f>Sheet1!B144</f>
         <v>0</v>
       </c>
       <c r="C121" s="54">
-        <f>Sheet1!C140</f>
+        <f>Sheet1!C144</f>
         <v>0</v>
       </c>
       <c r="D121" s="54"/>
@@ -6806,11 +6943,11 @@
         <v>26</v>
       </c>
       <c r="B122" s="54">
-        <f>Sheet1!B141</f>
+        <f>Sheet1!B145</f>
         <v>0</v>
       </c>
       <c r="C122" s="54">
-        <f>Sheet1!C141</f>
+        <f>Sheet1!C145</f>
         <v>0</v>
       </c>
       <c r="D122" s="54"/>
@@ -6825,11 +6962,11 @@
         <v>27</v>
       </c>
       <c r="B123" s="54">
-        <f>Sheet1!B142</f>
+        <f>Sheet1!B146</f>
         <v>0</v>
       </c>
       <c r="C123" s="54">
-        <f>Sheet1!C142</f>
+        <f>Sheet1!C146</f>
         <v>0</v>
       </c>
       <c r="D123" s="54"/>
@@ -6844,11 +6981,11 @@
         <v>28</v>
       </c>
       <c r="B124" s="54">
-        <f>Sheet1!B143</f>
+        <f>Sheet1!B147</f>
         <v>0</v>
       </c>
       <c r="C124" s="54">
-        <f>Sheet1!C143</f>
+        <f>Sheet1!C147</f>
         <v>0</v>
       </c>
       <c r="D124" s="54"/>
@@ -6863,11 +7000,11 @@
         <v>29</v>
       </c>
       <c r="B125" s="54">
-        <f>Sheet1!B144</f>
+        <f>Sheet1!B148</f>
         <v>0</v>
       </c>
       <c r="C125" s="54">
-        <f>Sheet1!C144</f>
+        <f>Sheet1!C148</f>
         <v>0</v>
       </c>
       <c r="D125" s="54"/>
@@ -6882,11 +7019,11 @@
         <v>30</v>
       </c>
       <c r="B126" s="54">
-        <f>Sheet1!B145</f>
+        <f>Sheet1!B149</f>
         <v>0</v>
       </c>
       <c r="C126" s="54">
-        <f>Sheet1!C145</f>
+        <f>Sheet1!C149</f>
         <v>0</v>
       </c>
       <c r="D126" s="54"/>
@@ -6901,11 +7038,11 @@
         <v>31</v>
       </c>
       <c r="B127" s="54">
-        <f>Sheet1!B146</f>
+        <f>Sheet1!B150</f>
         <v>0</v>
       </c>
       <c r="C127" s="54">
-        <f>Sheet1!C146</f>
+        <f>Sheet1!C150</f>
         <v>0</v>
       </c>
       <c r="D127" s="54"/>
@@ -6920,11 +7057,11 @@
         <v>32</v>
       </c>
       <c r="B128" s="54">
-        <f>Sheet1!B147</f>
+        <f>Sheet1!B151</f>
         <v>0</v>
       </c>
       <c r="C128" s="54">
-        <f>Sheet1!C147</f>
+        <f>Sheet1!C151</f>
         <v>0</v>
       </c>
       <c r="D128" s="54"/>
@@ -6939,11 +7076,11 @@
         <v>26</v>
       </c>
       <c r="B129" s="54">
-        <f>Sheet1!B148</f>
+        <f>Sheet1!B152</f>
         <v>0</v>
       </c>
       <c r="C129" s="54">
-        <f>Sheet1!C148</f>
+        <f>Sheet1!C152</f>
         <v>0</v>
       </c>
       <c r="D129" s="54"/>
@@ -6958,11 +7095,11 @@
         <v>27</v>
       </c>
       <c r="B130" s="54">
-        <f>Sheet1!B149</f>
+        <f>Sheet1!B153</f>
         <v>0</v>
       </c>
       <c r="C130" s="54">
-        <f>Sheet1!C149</f>
+        <f>Sheet1!C153</f>
         <v>0</v>
       </c>
       <c r="D130" s="54"/>
@@ -6977,11 +7114,11 @@
         <v>28</v>
       </c>
       <c r="B131" s="54">
-        <f>Sheet1!B150</f>
+        <f>Sheet1!B154</f>
         <v>0</v>
       </c>
       <c r="C131" s="54">
-        <f>Sheet1!C150</f>
+        <f>Sheet1!C154</f>
         <v>0</v>
       </c>
       <c r="D131" s="54"/>
@@ -6996,11 +7133,11 @@
         <v>29</v>
       </c>
       <c r="B132" s="54">
-        <f>Sheet1!B151</f>
+        <f>Sheet1!B155</f>
         <v>0</v>
       </c>
       <c r="C132" s="54">
-        <f>Sheet1!C151</f>
+        <f>Sheet1!C155</f>
         <v>0</v>
       </c>
       <c r="D132" s="54"/>
@@ -7015,11 +7152,11 @@
         <v>30</v>
       </c>
       <c r="B133" s="54">
-        <f>Sheet1!B152</f>
+        <f>Sheet1!B156</f>
         <v>0</v>
       </c>
       <c r="C133" s="54">
-        <f>Sheet1!C152</f>
+        <f>Sheet1!C156</f>
         <v>0</v>
       </c>
       <c r="D133" s="54"/>
@@ -7034,11 +7171,11 @@
         <v>31</v>
       </c>
       <c r="B134" s="54">
-        <f>Sheet1!B153</f>
+        <f>Sheet1!B157</f>
         <v>0</v>
       </c>
       <c r="C134" s="54">
-        <f>Sheet1!C153</f>
+        <f>Sheet1!C157</f>
         <v>0</v>
       </c>
       <c r="D134" s="54"/>
@@ -7053,11 +7190,11 @@
         <v>32</v>
       </c>
       <c r="B135" s="54">
-        <f>Sheet1!B154</f>
+        <f>Sheet1!B158</f>
         <v>0</v>
       </c>
       <c r="C135" s="54">
-        <f>Sheet1!C154</f>
+        <f>Sheet1!C158</f>
         <v>0</v>
       </c>
       <c r="D135" s="54"/>
@@ -7072,11 +7209,11 @@
         <v>26</v>
       </c>
       <c r="B136" s="54">
-        <f>Sheet1!B155</f>
+        <f>Sheet1!B159</f>
         <v>0</v>
       </c>
       <c r="C136" s="54">
-        <f>Sheet1!C155</f>
+        <f>Sheet1!C159</f>
         <v>0</v>
       </c>
       <c r="D136" s="54"/>
@@ -7091,11 +7228,11 @@
         <v>27</v>
       </c>
       <c r="B137" s="54">
-        <f>Sheet1!B156</f>
+        <f>Sheet1!B160</f>
         <v>0</v>
       </c>
       <c r="C137" s="54">
-        <f>Sheet1!C156</f>
+        <f>Sheet1!C160</f>
         <v>0</v>
       </c>
       <c r="D137" s="54"/>
@@ -7110,11 +7247,11 @@
         <v>28</v>
       </c>
       <c r="B138" s="54">
-        <f>Sheet1!B157</f>
+        <f>Sheet1!B161</f>
         <v>0</v>
       </c>
       <c r="C138" s="54">
-        <f>Sheet1!C157</f>
+        <f>Sheet1!C161</f>
         <v>0</v>
       </c>
       <c r="D138" s="54"/>
@@ -7129,11 +7266,11 @@
         <v>29</v>
       </c>
       <c r="B139" s="54">
-        <f>Sheet1!B158</f>
+        <f>Sheet1!B162</f>
         <v>0</v>
       </c>
       <c r="C139" s="54">
-        <f>Sheet1!C158</f>
+        <f>Sheet1!C162</f>
         <v>0</v>
       </c>
       <c r="D139" s="54"/>
@@ -7148,11 +7285,11 @@
         <v>30</v>
       </c>
       <c r="B140" s="54">
-        <f>Sheet1!B159</f>
+        <f>Sheet1!B163</f>
         <v>0</v>
       </c>
       <c r="C140" s="54">
-        <f>Sheet1!C159</f>
+        <f>Sheet1!C163</f>
         <v>0</v>
       </c>
       <c r="D140" s="54"/>
@@ -7167,11 +7304,11 @@
         <v>31</v>
       </c>
       <c r="B141" s="54">
-        <f>Sheet1!B160</f>
+        <f>Sheet1!B164</f>
         <v>0</v>
       </c>
       <c r="C141" s="54">
-        <f>Sheet1!C160</f>
+        <f>Sheet1!C164</f>
         <v>0</v>
       </c>
       <c r="D141" s="54"/>
@@ -7186,11 +7323,11 @@
         <v>32</v>
       </c>
       <c r="B142" s="54">
-        <f>Sheet1!B161</f>
+        <f>Sheet1!B165</f>
         <v>0</v>
       </c>
       <c r="C142" s="54">
-        <f>Sheet1!C161</f>
+        <f>Sheet1!C165</f>
         <v>0</v>
       </c>
       <c r="D142" s="54"/>
@@ -7205,11 +7342,11 @@
         <v>26</v>
       </c>
       <c r="B143" s="54">
-        <f>Sheet1!B162</f>
+        <f>Sheet1!B166</f>
         <v>0</v>
       </c>
       <c r="C143" s="54">
-        <f>Sheet1!C162</f>
+        <f>Sheet1!C166</f>
         <v>0</v>
       </c>
       <c r="D143" s="54"/>
@@ -7224,11 +7361,11 @@
         <v>27</v>
       </c>
       <c r="B144" s="54">
-        <f>Sheet1!B163</f>
+        <f>Sheet1!B167</f>
         <v>0</v>
       </c>
       <c r="C144" s="54">
-        <f>Sheet1!C163</f>
+        <f>Sheet1!C167</f>
         <v>0</v>
       </c>
       <c r="D144" s="54"/>
@@ -7243,11 +7380,11 @@
         <v>28</v>
       </c>
       <c r="B145" s="54">
-        <f>Sheet1!B164</f>
+        <f>Sheet1!B168</f>
         <v>0</v>
       </c>
       <c r="C145" s="54">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C168</f>
         <v>0</v>
       </c>
       <c r="D145" s="54"/>
@@ -7262,11 +7399,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="54">
-        <f>Sheet1!B165</f>
+        <f>Sheet1!B169</f>
         <v>0</v>
       </c>
       <c r="C146" s="54">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C169</f>
         <v>0</v>
       </c>
       <c r="D146" s="54"/>
@@ -7281,11 +7418,11 @@
         <v>30</v>
       </c>
       <c r="B147" s="54">
-        <f>Sheet1!B166</f>
+        <f>Sheet1!B170</f>
         <v>0</v>
       </c>
       <c r="C147" s="54">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C170</f>
         <v>0</v>
       </c>
       <c r="D147" s="54"/>
@@ -7300,11 +7437,11 @@
         <v>31</v>
       </c>
       <c r="B148" s="54">
-        <f>Sheet1!B167</f>
+        <f>Sheet1!B171</f>
         <v>0</v>
       </c>
       <c r="C148" s="54">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C171</f>
         <v>0</v>
       </c>
       <c r="D148" s="54"/>
@@ -7319,11 +7456,11 @@
         <v>32</v>
       </c>
       <c r="B149" s="54">
-        <f>Sheet1!B168</f>
+        <f>Sheet1!B172</f>
         <v>0</v>
       </c>
       <c r="C149" s="54">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
       <c r="D149" s="54"/>
@@ -7338,11 +7475,11 @@
         <v>26</v>
       </c>
       <c r="B150" s="54">
-        <f>Sheet1!B169</f>
+        <f>Sheet1!B173</f>
         <v>0</v>
       </c>
       <c r="C150" s="54">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
       <c r="D150" s="54"/>
@@ -7357,11 +7494,11 @@
         <v>27</v>
       </c>
       <c r="B151" s="54">
-        <f>Sheet1!B170</f>
+        <f>Sheet1!B174</f>
         <v>0</v>
       </c>
       <c r="C151" s="54">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
       <c r="D151" s="54"/>
@@ -7376,11 +7513,11 @@
         <v>28</v>
       </c>
       <c r="B152" s="54">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B175</f>
         <v>0</v>
       </c>
       <c r="C152" s="54">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
       <c r="D152" s="54"/>
@@ -7405,10 +7542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P103"/>
+  <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:F95"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7470,10 +7607,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -7486,15 +7623,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>18720</v>
+        <v>20360</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>17200</v>
+        <v>18600</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>1520</v>
+        <v>1760</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -7562,10 +7699,13 @@
         <v>63</v>
       </c>
       <c r="I7" s="56">
-        <f>SUM($D$10:$D$131)</f>
-        <v>17200</v>
-      </c>
-      <c r="J7" s="56"/>
+        <f>SUM($D$10:$D$100)</f>
+        <v>18000</v>
+      </c>
+      <c r="J7" s="56">
+        <f>SUM($D$101:$D$191)</f>
+        <v>600</v>
+      </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
@@ -7587,9 +7727,12 @@
       </c>
       <c r="I8" s="56">
         <f>I7/200</f>
-        <v>86</v>
-      </c>
-      <c r="J8" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="J8" s="56">
+        <f>J7/200</f>
+        <v>3</v>
+      </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
       <c r="M8" s="56"/>
@@ -7611,9 +7754,12 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>1520</v>
-      </c>
-      <c r="J9" s="56"/>
+        <v>1700</v>
+      </c>
+      <c r="J9" s="56">
+        <f>SUM($F$101:$F$191)</f>
+        <v>60</v>
+      </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
@@ -7643,9 +7789,12 @@
       </c>
       <c r="I10" s="56">
         <f>(I7/100)*(10000/120)</f>
-        <v>14333.333333333332</v>
-      </c>
-      <c r="J10" s="56"/>
+        <v>15000</v>
+      </c>
+      <c r="J10" s="56">
+        <f>(J7/100)*(10000/120)</f>
+        <v>500</v>
+      </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
@@ -7675,9 +7824,12 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>4386.6666666666679</v>
-      </c>
-      <c r="J11" s="61"/>
+        <v>4700</v>
+      </c>
+      <c r="J11" s="61">
+        <f>J7-J10+J9</f>
+        <v>160</v>
+      </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
       <c r="M11" s="56"/>
@@ -9357,9 +9509,15 @@
         <f>Sheet1!C105</f>
         <v>5.4</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="70"/>
+      <c r="D96" s="56">
+        <v>0</v>
+      </c>
+      <c r="E96" s="56">
+        <v>0</v>
+      </c>
+      <c r="F96" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="58" t="s">
@@ -9373,9 +9531,15 @@
         <f>Sheet1!C106</f>
         <v>6.4</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="70"/>
+      <c r="D97" s="56">
+        <v>0</v>
+      </c>
+      <c r="E97" s="56">
+        <v>0</v>
+      </c>
+      <c r="F97" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="58" t="s">
@@ -9389,9 +9553,15 @@
         <f>Sheet1!C107</f>
         <v>7.4</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="70"/>
+      <c r="D98" s="56">
+        <v>0</v>
+      </c>
+      <c r="E98" s="56">
+        <v>0</v>
+      </c>
+      <c r="F98" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="58" t="s">
@@ -9405,9 +9575,15 @@
         <f>Sheet1!C108</f>
         <v>8.4</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="70"/>
+      <c r="D99" s="56">
+        <v>0</v>
+      </c>
+      <c r="E99" s="56">
+        <v>0</v>
+      </c>
+      <c r="F99" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="58" t="s">
@@ -9421,57 +9597,1254 @@
         <f>Sheet1!C109</f>
         <v>9.4</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="70"/>
+      <c r="D100" s="56">
+        <v>800</v>
+      </c>
+      <c r="E100" s="56">
+        <v>40</v>
+      </c>
+      <c r="F100" s="70">
+        <v>80</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B101" s="56">
-        <f>Sheet1!B110</f>
+        <f>Sheet1!B112</f>
         <v>5.5</v>
       </c>
       <c r="C101" s="56">
-        <f>Sheet1!C110</f>
+        <f>Sheet1!C112</f>
         <v>10.4</v>
       </c>
-      <c r="D101" s="56"/>
+      <c r="D101" s="56">
+        <v>400</v>
+      </c>
       <c r="E101" s="56"/>
-      <c r="F101" s="70"/>
+      <c r="F101" s="70">
+        <v>40</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B102" s="56">
-        <f>Sheet1!B111</f>
+        <f>Sheet1!B113</f>
         <v>6.5</v>
       </c>
       <c r="C102" s="56">
-        <f>Sheet1!C111</f>
+        <f>Sheet1!C113</f>
         <v>11.4</v>
       </c>
-      <c r="D102" s="56"/>
+      <c r="D102" s="56">
+        <v>200</v>
+      </c>
       <c r="E102" s="56"/>
-      <c r="F102" s="70"/>
+      <c r="F102" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B103" s="56">
-        <f>Sheet1!B112</f>
+        <f>Sheet1!B116</f>
         <v>7.5</v>
       </c>
       <c r="C103" s="56">
-        <f>Sheet1!C112</f>
+        <f>Sheet1!C116</f>
         <v>12.4</v>
       </c>
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="70"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="56">
+        <f>Sheet1!B117</f>
+        <v>8.5</v>
+      </c>
+      <c r="C104" s="56">
+        <f>Sheet1!C117</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="56">
+        <f>Sheet1!B118</f>
+        <v>9.5</v>
+      </c>
+      <c r="C105" s="56">
+        <f>Sheet1!C118</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="56">
+        <f>Sheet1!B119</f>
+        <v>10.5</v>
+      </c>
+      <c r="C106" s="56">
+        <f>Sheet1!C119</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="56">
+        <f>Sheet1!B120</f>
+        <v>11.5</v>
+      </c>
+      <c r="C107" s="56">
+        <f>Sheet1!C120</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="56">
+        <f>Sheet1!B121</f>
+        <v>12.5</v>
+      </c>
+      <c r="C108" s="56">
+        <f>Sheet1!C121</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="56">
+        <f>Sheet1!B122</f>
+        <v>13.5</v>
+      </c>
+      <c r="C109" s="56">
+        <f>Sheet1!C122</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="56">
+        <f>Sheet1!B123</f>
+        <v>14.5</v>
+      </c>
+      <c r="C110" s="56">
+        <f>Sheet1!C123</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="56">
+        <f>Sheet1!B124</f>
+        <v>15.5</v>
+      </c>
+      <c r="C111" s="56">
+        <f>Sheet1!C124</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="56">
+        <f>Sheet1!B125</f>
+        <v>16.5</v>
+      </c>
+      <c r="C112" s="56">
+        <f>Sheet1!C125</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="56">
+        <f>Sheet1!B126</f>
+        <v>17.5</v>
+      </c>
+      <c r="C113" s="56">
+        <f>Sheet1!C126</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="56">
+        <f>Sheet1!B127</f>
+        <v>18.5</v>
+      </c>
+      <c r="C114" s="56">
+        <f>Sheet1!C127</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="56">
+        <f>Sheet1!B128</f>
+        <v>19.5</v>
+      </c>
+      <c r="C115" s="56">
+        <f>Sheet1!C128</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="56">
+        <f>Sheet1!B129</f>
+        <v>20.5</v>
+      </c>
+      <c r="C116" s="56">
+        <f>Sheet1!C129</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="56">
+        <f>Sheet1!B130</f>
+        <v>21.5</v>
+      </c>
+      <c r="C117" s="56">
+        <f>Sheet1!C130</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="56">
+        <f>Sheet1!B131</f>
+        <v>22.5</v>
+      </c>
+      <c r="C118" s="56">
+        <f>Sheet1!C131</f>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="56">
+        <f>Sheet1!B132</f>
+        <v>23.5</v>
+      </c>
+      <c r="C119" s="56">
+        <f>Sheet1!C132</f>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="56">
+        <f>Sheet1!B133</f>
+        <v>24.5</v>
+      </c>
+      <c r="C120" s="56">
+        <f>Sheet1!C133</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="56">
+        <f>Sheet1!B134</f>
+        <v>25.5</v>
+      </c>
+      <c r="C121" s="56">
+        <f>Sheet1!C134</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="56">
+        <f>Sheet1!B135</f>
+        <v>26.5</v>
+      </c>
+      <c r="C122" s="56">
+        <f>Sheet1!C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="56">
+        <f>Sheet1!B136</f>
+        <v>27.5</v>
+      </c>
+      <c r="C123" s="56">
+        <f>Sheet1!C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="56">
+        <f>Sheet1!B137</f>
+        <v>28.5</v>
+      </c>
+      <c r="C124" s="56">
+        <f>Sheet1!C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="56">
+        <f>Sheet1!B138</f>
+        <v>29.5</v>
+      </c>
+      <c r="C125" s="56">
+        <f>Sheet1!C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="56">
+        <f>Sheet1!B139</f>
+        <v>30.5</v>
+      </c>
+      <c r="C126" s="56">
+        <f>Sheet1!C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="56">
+        <f>Sheet1!B140</f>
+        <v>31.5</v>
+      </c>
+      <c r="C127" s="56">
+        <f>Sheet1!C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="56">
+        <f>Sheet1!B141</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="56">
+        <f>Sheet1!C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="56">
+        <f>Sheet1!B142</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="56">
+        <f>Sheet1!C142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="56">
+        <f>Sheet1!B143</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="56">
+        <f>Sheet1!C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="56">
+        <f>Sheet1!B144</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="56">
+        <f>Sheet1!C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="56">
+        <f>Sheet1!B145</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="56">
+        <f>Sheet1!C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="56">
+        <f>Sheet1!B146</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="56">
+        <f>Sheet1!C146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="56">
+        <f>Sheet1!B147</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="56">
+        <f>Sheet1!C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="56">
+        <f>Sheet1!B148</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="56">
+        <f>Sheet1!C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="56">
+        <f>Sheet1!B149</f>
+        <v>0</v>
+      </c>
+      <c r="C136" s="56">
+        <f>Sheet1!C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="56">
+        <f>Sheet1!B150</f>
+        <v>0</v>
+      </c>
+      <c r="C137" s="56">
+        <f>Sheet1!C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="56">
+        <f>Sheet1!B151</f>
+        <v>0</v>
+      </c>
+      <c r="C138" s="56">
+        <f>Sheet1!C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="56">
+        <f>Sheet1!B152</f>
+        <v>0</v>
+      </c>
+      <c r="C139" s="56">
+        <f>Sheet1!C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" s="56">
+        <f>Sheet1!B153</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="56">
+        <f>Sheet1!C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="56">
+        <f>Sheet1!B154</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="56">
+        <f>Sheet1!C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="56">
+        <f>Sheet1!B155</f>
+        <v>0</v>
+      </c>
+      <c r="C142" s="56">
+        <f>Sheet1!C155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="56">
+        <f>Sheet1!B156</f>
+        <v>0</v>
+      </c>
+      <c r="C143" s="56">
+        <f>Sheet1!C156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="56">
+        <f>Sheet1!B157</f>
+        <v>0</v>
+      </c>
+      <c r="C144" s="56">
+        <f>Sheet1!C157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="56">
+        <f>Sheet1!B158</f>
+        <v>0</v>
+      </c>
+      <c r="C145" s="56">
+        <f>Sheet1!C158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="56">
+        <f>Sheet1!B159</f>
+        <v>0</v>
+      </c>
+      <c r="C146" s="56">
+        <f>Sheet1!C159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="56">
+        <f>Sheet1!B160</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="56">
+        <f>Sheet1!C160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="56">
+        <f>Sheet1!B161</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="56">
+        <f>Sheet1!C161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="56">
+        <f>Sheet1!B162</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="56">
+        <f>Sheet1!C162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="56">
+        <f>Sheet1!B163</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="56">
+        <f>Sheet1!C163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="56">
+        <f>Sheet1!B164</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="56">
+        <f>Sheet1!C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="56">
+        <f>Sheet1!B165</f>
+        <v>0</v>
+      </c>
+      <c r="C152" s="56">
+        <f>Sheet1!C165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" s="56">
+        <f>Sheet1!B166</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="56">
+        <f>Sheet1!C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="56">
+        <f>Sheet1!B167</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="56">
+        <f>Sheet1!C167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="56">
+        <f>Sheet1!B168</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="56">
+        <f>Sheet1!C168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="56">
+        <f>Sheet1!B169</f>
+        <v>0</v>
+      </c>
+      <c r="C156" s="56">
+        <f>Sheet1!C169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="56">
+        <f>Sheet1!B170</f>
+        <v>0</v>
+      </c>
+      <c r="C157" s="56">
+        <f>Sheet1!C170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="56">
+        <f>Sheet1!B171</f>
+        <v>0</v>
+      </c>
+      <c r="C158" s="56">
+        <f>Sheet1!C171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="56">
+        <f>Sheet1!B172</f>
+        <v>0</v>
+      </c>
+      <c r="C159" s="56">
+        <f>Sheet1!C172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="56">
+        <f>Sheet1!B173</f>
+        <v>0</v>
+      </c>
+      <c r="C160" s="56">
+        <f>Sheet1!C173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="56">
+        <f>Sheet1!B174</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="56">
+        <f>Sheet1!C174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" s="56">
+        <f>Sheet1!B175</f>
+        <v>0</v>
+      </c>
+      <c r="C162" s="56">
+        <f>Sheet1!C175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="56">
+        <f>Sheet1!B176</f>
+        <v>0</v>
+      </c>
+      <c r="C163" s="56">
+        <f>Sheet1!C176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="56">
+        <f>Sheet1!B177</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="56">
+        <f>Sheet1!C177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" s="56">
+        <f>Sheet1!B178</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="56">
+        <f>Sheet1!C178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="56">
+        <f>Sheet1!B179</f>
+        <v>0</v>
+      </c>
+      <c r="C166" s="56">
+        <f>Sheet1!C179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="56">
+        <f>Sheet1!B180</f>
+        <v>0</v>
+      </c>
+      <c r="C167" s="56">
+        <f>Sheet1!C180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="56">
+        <f>Sheet1!B181</f>
+        <v>0</v>
+      </c>
+      <c r="C168" s="56">
+        <f>Sheet1!C181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="56">
+        <f>Sheet1!B182</f>
+        <v>0</v>
+      </c>
+      <c r="C169" s="56">
+        <f>Sheet1!C182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="56">
+        <f>Sheet1!B183</f>
+        <v>0</v>
+      </c>
+      <c r="C170" s="56">
+        <f>Sheet1!C183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="56">
+        <f>Sheet1!B184</f>
+        <v>0</v>
+      </c>
+      <c r="C171" s="56">
+        <f>Sheet1!C184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="56">
+        <f>Sheet1!B185</f>
+        <v>0</v>
+      </c>
+      <c r="C172" s="56">
+        <f>Sheet1!C185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="56">
+        <f>Sheet1!B186</f>
+        <v>0</v>
+      </c>
+      <c r="C173" s="56">
+        <f>Sheet1!C186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" s="56">
+        <f>Sheet1!B187</f>
+        <v>0</v>
+      </c>
+      <c r="C174" s="56">
+        <f>Sheet1!C187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="56">
+        <f>Sheet1!B188</f>
+        <v>0</v>
+      </c>
+      <c r="C175" s="56">
+        <f>Sheet1!C188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="56">
+        <f>Sheet1!B189</f>
+        <v>0</v>
+      </c>
+      <c r="C176" s="56">
+        <f>Sheet1!C189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177" s="56">
+        <f>Sheet1!B190</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="56">
+        <f>Sheet1!C190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="56">
+        <f>Sheet1!B191</f>
+        <v>0</v>
+      </c>
+      <c r="C178" s="56">
+        <f>Sheet1!C191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="56">
+        <f>Sheet1!B192</f>
+        <v>0</v>
+      </c>
+      <c r="C179" s="56">
+        <f>Sheet1!C192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="56">
+        <f>Sheet1!B193</f>
+        <v>0</v>
+      </c>
+      <c r="C180" s="56">
+        <f>Sheet1!C193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" s="56">
+        <f>Sheet1!B194</f>
+        <v>0</v>
+      </c>
+      <c r="C181" s="56">
+        <f>Sheet1!C194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="56">
+        <f>Sheet1!B195</f>
+        <v>0</v>
+      </c>
+      <c r="C182" s="56">
+        <f>Sheet1!C195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="56">
+        <f>Sheet1!B196</f>
+        <v>0</v>
+      </c>
+      <c r="C183" s="56">
+        <f>Sheet1!C196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184" s="56">
+        <f>Sheet1!B197</f>
+        <v>0</v>
+      </c>
+      <c r="C184" s="56">
+        <f>Sheet1!C197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="56">
+        <f>Sheet1!B198</f>
+        <v>0</v>
+      </c>
+      <c r="C185" s="56">
+        <f>Sheet1!C198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="56">
+        <f>Sheet1!B199</f>
+        <v>0</v>
+      </c>
+      <c r="C186" s="56">
+        <f>Sheet1!C199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="56">
+        <f>Sheet1!B200</f>
+        <v>0</v>
+      </c>
+      <c r="C187" s="56">
+        <f>Sheet1!C200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="56">
+        <f>Sheet1!B201</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="56">
+        <f>Sheet1!C201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="56">
+        <f>Sheet1!B202</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="56">
+        <f>Sheet1!C202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" s="56">
+        <f>Sheet1!B203</f>
+        <v>0</v>
+      </c>
+      <c r="C190" s="56">
+        <f>Sheet1!C203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="56">
+        <f>Sheet1!B204</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="56">
+        <f>Sheet1!C204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="56">
+        <f>Sheet1!B205</f>
+        <v>0</v>
+      </c>
+      <c r="C192" s="56">
+        <f>Sheet1!C205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="56">
+        <f>Sheet1!B206</f>
+        <v>0</v>
+      </c>
+      <c r="C193" s="56">
+        <f>Sheet1!C206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="56">
+        <f>Sheet1!B207</f>
+        <v>0</v>
+      </c>
+      <c r="C194" s="56">
+        <f>Sheet1!C207</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9483,10 +10856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P103"/>
+  <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94:F95"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9537,15 +10910,15 @@
       <c r="G3" s="42"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>10720</v>
+        <v>11600</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>2120</v>
+        <v>2400</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -9553,10 +10926,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -9623,10 +10996,13 @@
         <v>63</v>
       </c>
       <c r="I6" s="56">
-        <f>SUM($D$10:$D$132)</f>
-        <v>8600</v>
-      </c>
-      <c r="J6" s="56"/>
+        <f>SUM($D$10:$D$99)</f>
+        <v>8900</v>
+      </c>
+      <c r="J6" s="56">
+        <f>SUM($D$100:$D$190)</f>
+        <v>300</v>
+      </c>
       <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -9644,9 +11020,12 @@
       </c>
       <c r="I7" s="56">
         <f>I6/100</f>
-        <v>86</v>
-      </c>
-      <c r="J7" s="56"/>
+        <v>89</v>
+      </c>
+      <c r="J7" s="56">
+        <f>J6/100</f>
+        <v>3</v>
+      </c>
       <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -9663,10 +11042,13 @@
         <v>64</v>
       </c>
       <c r="I8" s="56">
-        <f>SUM($E$10:$E$132)+SUM($F$10:$F$132)</f>
-        <v>2120</v>
-      </c>
-      <c r="J8" s="56"/>
+        <f>SUM($E$10:$E$99)+SUM($F$10:$F$99)</f>
+        <v>2280</v>
+      </c>
+      <c r="J8" s="56">
+        <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
+        <v>120</v>
+      </c>
       <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -9684,9 +11066,12 @@
       </c>
       <c r="I9" s="56">
         <f>(I6/100)*(10000/120)</f>
-        <v>7166.6666666666661</v>
-      </c>
-      <c r="J9" s="56"/>
+        <v>7416.6666666666661</v>
+      </c>
+      <c r="J9" s="56">
+        <f>(J6/100)*(10000/120)</f>
+        <v>250</v>
+      </c>
       <c r="K9" s="70"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -9712,9 +11097,12 @@
       </c>
       <c r="I10" s="61">
         <f>I6-I9+I8</f>
-        <v>3553.3333333333339</v>
-      </c>
-      <c r="J10" s="61"/>
+        <v>3763.3333333333339</v>
+      </c>
+      <c r="J10" s="61">
+        <f>J6-J9+J8</f>
+        <v>170</v>
+      </c>
       <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -11756,9 +13144,15 @@
         <f>Sheet1!C105</f>
         <v>5.4</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="70"/>
+      <c r="D96" s="56">
+        <v>100</v>
+      </c>
+      <c r="E96" s="56">
+        <v>10</v>
+      </c>
+      <c r="F96" s="70">
+        <v>30</v>
+      </c>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -11776,9 +13170,15 @@
         <f>Sheet1!C106</f>
         <v>6.4</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="70"/>
+      <c r="D97" s="56">
+        <v>0</v>
+      </c>
+      <c r="E97" s="56">
+        <v>0</v>
+      </c>
+      <c r="F97" s="70">
+        <v>0</v>
+      </c>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -11796,9 +13196,15 @@
         <f>Sheet1!C107</f>
         <v>7.4</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="70"/>
+      <c r="D98" s="56">
+        <v>200</v>
+      </c>
+      <c r="E98" s="56">
+        <v>20</v>
+      </c>
+      <c r="F98" s="70">
+        <v>60</v>
+      </c>
       <c r="G98" s="54"/>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -11816,9 +13222,15 @@
         <f>Sheet1!C108</f>
         <v>8.4</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="70"/>
+      <c r="D99" s="56">
+        <v>0</v>
+      </c>
+      <c r="E99" s="56">
+        <v>10</v>
+      </c>
+      <c r="F99" s="70">
+        <v>30</v>
+      </c>
       <c r="G99" s="54"/>
       <c r="H99" s="54"/>
       <c r="I99" s="54"/>
@@ -11836,9 +13248,15 @@
         <f>Sheet1!C109</f>
         <v>9.4</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="70"/>
+      <c r="D100" s="56">
+        <v>100</v>
+      </c>
+      <c r="E100" s="56">
+        <v>10</v>
+      </c>
+      <c r="F100" s="70">
+        <v>30</v>
+      </c>
       <c r="G100" s="54"/>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -11849,16 +13267,22 @@
         <v>30</v>
       </c>
       <c r="B101" s="56">
-        <f>Sheet1!B110</f>
+        <f>Sheet1!B112</f>
         <v>5.5</v>
       </c>
       <c r="C101" s="56">
-        <f>Sheet1!C110</f>
+        <f>Sheet1!C112</f>
         <v>10.4</v>
       </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="70"/>
+      <c r="D101" s="56">
+        <v>100</v>
+      </c>
+      <c r="E101" s="56">
+        <v>10</v>
+      </c>
+      <c r="F101" s="70">
+        <v>30</v>
+      </c>
       <c r="G101" s="54"/>
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
@@ -11869,16 +13293,22 @@
         <v>31</v>
       </c>
       <c r="B102" s="56">
-        <f>Sheet1!B111</f>
+        <f>Sheet1!B113</f>
         <v>6.5</v>
       </c>
       <c r="C102" s="56">
-        <f>Sheet1!C111</f>
+        <f>Sheet1!C113</f>
         <v>11.4</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="70"/>
+      <c r="D102" s="56">
+        <v>100</v>
+      </c>
+      <c r="E102" s="56">
+        <v>10</v>
+      </c>
+      <c r="F102" s="70">
+        <v>30</v>
+      </c>
       <c r="G102" s="54"/>
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
@@ -11889,20 +13319,1205 @@
         <v>32</v>
       </c>
       <c r="B103" s="56">
-        <f>Sheet1!B112</f>
+        <f>Sheet1!B116</f>
         <v>7.5</v>
       </c>
       <c r="C103" s="56">
-        <f>Sheet1!C112</f>
+        <f>Sheet1!C116</f>
         <v>12.4</v>
       </c>
-      <c r="D103" s="56"/>
+      <c r="D103" s="56">
+        <v>0</v>
+      </c>
       <c r="E103" s="56"/>
       <c r="F103" s="70"/>
       <c r="G103" s="54"/>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
       <c r="J103" s="54"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="56">
+        <f>Sheet1!B117</f>
+        <v>8.5</v>
+      </c>
+      <c r="C104" s="56">
+        <f>Sheet1!C117</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="56">
+        <f>Sheet1!B118</f>
+        <v>9.5</v>
+      </c>
+      <c r="C105" s="56">
+        <f>Sheet1!C118</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="56">
+        <f>Sheet1!B119</f>
+        <v>10.5</v>
+      </c>
+      <c r="C106" s="56">
+        <f>Sheet1!C119</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="56">
+        <f>Sheet1!B120</f>
+        <v>11.5</v>
+      </c>
+      <c r="C107" s="56">
+        <f>Sheet1!C120</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="56">
+        <f>Sheet1!B121</f>
+        <v>12.5</v>
+      </c>
+      <c r="C108" s="56">
+        <f>Sheet1!C121</f>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="56">
+        <f>Sheet1!B122</f>
+        <v>13.5</v>
+      </c>
+      <c r="C109" s="56">
+        <f>Sheet1!C122</f>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="56">
+        <f>Sheet1!B123</f>
+        <v>14.5</v>
+      </c>
+      <c r="C110" s="56">
+        <f>Sheet1!C123</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="56">
+        <f>Sheet1!B124</f>
+        <v>15.5</v>
+      </c>
+      <c r="C111" s="56">
+        <f>Sheet1!C124</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="56">
+        <f>Sheet1!B125</f>
+        <v>16.5</v>
+      </c>
+      <c r="C112" s="56">
+        <f>Sheet1!C125</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="56">
+        <f>Sheet1!B126</f>
+        <v>17.5</v>
+      </c>
+      <c r="C113" s="56">
+        <f>Sheet1!C126</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="56">
+        <f>Sheet1!B127</f>
+        <v>18.5</v>
+      </c>
+      <c r="C114" s="56">
+        <f>Sheet1!C127</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="56">
+        <f>Sheet1!B128</f>
+        <v>19.5</v>
+      </c>
+      <c r="C115" s="56">
+        <f>Sheet1!C128</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="56">
+        <f>Sheet1!B129</f>
+        <v>20.5</v>
+      </c>
+      <c r="C116" s="56">
+        <f>Sheet1!C129</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="56">
+        <f>Sheet1!B130</f>
+        <v>21.5</v>
+      </c>
+      <c r="C117" s="56">
+        <f>Sheet1!C130</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" s="56">
+        <f>Sheet1!B131</f>
+        <v>22.5</v>
+      </c>
+      <c r="C118" s="56">
+        <f>Sheet1!C131</f>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="56">
+        <f>Sheet1!B132</f>
+        <v>23.5</v>
+      </c>
+      <c r="C119" s="56">
+        <f>Sheet1!C132</f>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="56">
+        <f>Sheet1!B133</f>
+        <v>24.5</v>
+      </c>
+      <c r="C120" s="56">
+        <f>Sheet1!C133</f>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="56">
+        <f>Sheet1!B134</f>
+        <v>25.5</v>
+      </c>
+      <c r="C121" s="56">
+        <f>Sheet1!C134</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="56">
+        <f>Sheet1!B135</f>
+        <v>26.5</v>
+      </c>
+      <c r="C122" s="56">
+        <f>Sheet1!C135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="56">
+        <f>Sheet1!B136</f>
+        <v>27.5</v>
+      </c>
+      <c r="C123" s="56">
+        <f>Sheet1!C136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="56">
+        <f>Sheet1!B137</f>
+        <v>28.5</v>
+      </c>
+      <c r="C124" s="56">
+        <f>Sheet1!C137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="56">
+        <f>Sheet1!B138</f>
+        <v>29.5</v>
+      </c>
+      <c r="C125" s="56">
+        <f>Sheet1!C138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="56">
+        <f>Sheet1!B139</f>
+        <v>30.5</v>
+      </c>
+      <c r="C126" s="56">
+        <f>Sheet1!C139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="56">
+        <f>Sheet1!B140</f>
+        <v>31.5</v>
+      </c>
+      <c r="C127" s="56">
+        <f>Sheet1!C140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="56">
+        <f>Sheet1!B141</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="56">
+        <f>Sheet1!C141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="56">
+        <f>Sheet1!B142</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="56">
+        <f>Sheet1!C142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="56">
+        <f>Sheet1!B143</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="56">
+        <f>Sheet1!C143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="56">
+        <f>Sheet1!B144</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="56">
+        <f>Sheet1!C144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="56">
+        <f>Sheet1!B145</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="56">
+        <f>Sheet1!C145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="56">
+        <f>Sheet1!B146</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="56">
+        <f>Sheet1!C146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="56">
+        <f>Sheet1!B147</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="56">
+        <f>Sheet1!C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="56">
+        <f>Sheet1!B148</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="56">
+        <f>Sheet1!C148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="56">
+        <f>Sheet1!B149</f>
+        <v>0</v>
+      </c>
+      <c r="C136" s="56">
+        <f>Sheet1!C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="56">
+        <f>Sheet1!B150</f>
+        <v>0</v>
+      </c>
+      <c r="C137" s="56">
+        <f>Sheet1!C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="56">
+        <f>Sheet1!B151</f>
+        <v>0</v>
+      </c>
+      <c r="C138" s="56">
+        <f>Sheet1!C151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="56">
+        <f>Sheet1!B152</f>
+        <v>0</v>
+      </c>
+      <c r="C139" s="56">
+        <f>Sheet1!C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" s="56">
+        <f>Sheet1!B153</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="56">
+        <f>Sheet1!C153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="56">
+        <f>Sheet1!B154</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="56">
+        <f>Sheet1!C154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="56">
+        <f>Sheet1!B155</f>
+        <v>0</v>
+      </c>
+      <c r="C142" s="56">
+        <f>Sheet1!C155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="56">
+        <f>Sheet1!B156</f>
+        <v>0</v>
+      </c>
+      <c r="C143" s="56">
+        <f>Sheet1!C156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="56">
+        <f>Sheet1!B157</f>
+        <v>0</v>
+      </c>
+      <c r="C144" s="56">
+        <f>Sheet1!C157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="56">
+        <f>Sheet1!B158</f>
+        <v>0</v>
+      </c>
+      <c r="C145" s="56">
+        <f>Sheet1!C158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="56">
+        <f>Sheet1!B159</f>
+        <v>0</v>
+      </c>
+      <c r="C146" s="56">
+        <f>Sheet1!C159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="56">
+        <f>Sheet1!B160</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="56">
+        <f>Sheet1!C160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="56">
+        <f>Sheet1!B161</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="56">
+        <f>Sheet1!C161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="56">
+        <f>Sheet1!B162</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="56">
+        <f>Sheet1!C162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="56">
+        <f>Sheet1!B163</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="56">
+        <f>Sheet1!C163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="56">
+        <f>Sheet1!B164</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="56">
+        <f>Sheet1!C164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="56">
+        <f>Sheet1!B165</f>
+        <v>0</v>
+      </c>
+      <c r="C152" s="56">
+        <f>Sheet1!C165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" s="56">
+        <f>Sheet1!B166</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="56">
+        <f>Sheet1!C166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="56">
+        <f>Sheet1!B167</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="56">
+        <f>Sheet1!C167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="56">
+        <f>Sheet1!B168</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="56">
+        <f>Sheet1!C168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="56">
+        <f>Sheet1!B169</f>
+        <v>0</v>
+      </c>
+      <c r="C156" s="56">
+        <f>Sheet1!C169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="56">
+        <f>Sheet1!B170</f>
+        <v>0</v>
+      </c>
+      <c r="C157" s="56">
+        <f>Sheet1!C170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="56">
+        <f>Sheet1!B171</f>
+        <v>0</v>
+      </c>
+      <c r="C158" s="56">
+        <f>Sheet1!C171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="56">
+        <f>Sheet1!B172</f>
+        <v>0</v>
+      </c>
+      <c r="C159" s="56">
+        <f>Sheet1!C172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="56">
+        <f>Sheet1!B173</f>
+        <v>0</v>
+      </c>
+      <c r="C160" s="56">
+        <f>Sheet1!C173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="56">
+        <f>Sheet1!B174</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="56">
+        <f>Sheet1!C174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" s="56">
+        <f>Sheet1!B175</f>
+        <v>0</v>
+      </c>
+      <c r="C162" s="56">
+        <f>Sheet1!C175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="56">
+        <f>Sheet1!B176</f>
+        <v>0</v>
+      </c>
+      <c r="C163" s="56">
+        <f>Sheet1!C176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="56">
+        <f>Sheet1!B177</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="56">
+        <f>Sheet1!C177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" s="56">
+        <f>Sheet1!B178</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="56">
+        <f>Sheet1!C178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="56">
+        <f>Sheet1!B179</f>
+        <v>0</v>
+      </c>
+      <c r="C166" s="56">
+        <f>Sheet1!C179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="56">
+        <f>Sheet1!B180</f>
+        <v>0</v>
+      </c>
+      <c r="C167" s="56">
+        <f>Sheet1!C180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="56">
+        <f>Sheet1!B181</f>
+        <v>0</v>
+      </c>
+      <c r="C168" s="56">
+        <f>Sheet1!C181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="56">
+        <f>Sheet1!B182</f>
+        <v>0</v>
+      </c>
+      <c r="C169" s="56">
+        <f>Sheet1!C182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="56">
+        <f>Sheet1!B183</f>
+        <v>0</v>
+      </c>
+      <c r="C170" s="56">
+        <f>Sheet1!C183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="56">
+        <f>Sheet1!B184</f>
+        <v>0</v>
+      </c>
+      <c r="C171" s="56">
+        <f>Sheet1!C184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" s="56">
+        <f>Sheet1!B185</f>
+        <v>0</v>
+      </c>
+      <c r="C172" s="56">
+        <f>Sheet1!C185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="56">
+        <f>Sheet1!B186</f>
+        <v>0</v>
+      </c>
+      <c r="C173" s="56">
+        <f>Sheet1!C186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" s="56">
+        <f>Sheet1!B187</f>
+        <v>0</v>
+      </c>
+      <c r="C174" s="56">
+        <f>Sheet1!C187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="56">
+        <f>Sheet1!B188</f>
+        <v>0</v>
+      </c>
+      <c r="C175" s="56">
+        <f>Sheet1!C188</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="56">
+        <f>Sheet1!B189</f>
+        <v>0</v>
+      </c>
+      <c r="C176" s="56">
+        <f>Sheet1!C189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177" s="56">
+        <f>Sheet1!B190</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="56">
+        <f>Sheet1!C190</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="56">
+        <f>Sheet1!B191</f>
+        <v>0</v>
+      </c>
+      <c r="C178" s="56">
+        <f>Sheet1!C191</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="56">
+        <f>Sheet1!B192</f>
+        <v>0</v>
+      </c>
+      <c r="C179" s="56">
+        <f>Sheet1!C192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="56">
+        <f>Sheet1!B193</f>
+        <v>0</v>
+      </c>
+      <c r="C180" s="56">
+        <f>Sheet1!C193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" s="56">
+        <f>Sheet1!B194</f>
+        <v>0</v>
+      </c>
+      <c r="C181" s="56">
+        <f>Sheet1!C194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="56">
+        <f>Sheet1!B195</f>
+        <v>0</v>
+      </c>
+      <c r="C182" s="56">
+        <f>Sheet1!C195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="56">
+        <f>Sheet1!B196</f>
+        <v>0</v>
+      </c>
+      <c r="C183" s="56">
+        <f>Sheet1!C196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184" s="56">
+        <f>Sheet1!B197</f>
+        <v>0</v>
+      </c>
+      <c r="C184" s="56">
+        <f>Sheet1!C197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="56">
+        <f>Sheet1!B198</f>
+        <v>0</v>
+      </c>
+      <c r="C185" s="56">
+        <f>Sheet1!C198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="56">
+        <f>Sheet1!B199</f>
+        <v>0</v>
+      </c>
+      <c r="C186" s="56">
+        <f>Sheet1!C199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="56">
+        <f>Sheet1!B200</f>
+        <v>0</v>
+      </c>
+      <c r="C187" s="56">
+        <f>Sheet1!C200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="56">
+        <f>Sheet1!B201</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="56">
+        <f>Sheet1!C201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="56">
+        <f>Sheet1!B202</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="56">
+        <f>Sheet1!C202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" s="56">
+        <f>Sheet1!B203</f>
+        <v>0</v>
+      </c>
+      <c r="C190" s="56">
+        <f>Sheet1!C203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="56">
+        <f>Sheet1!B204</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="56">
+        <f>Sheet1!C204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="56">
+        <f>Sheet1!B205</f>
+        <v>0</v>
+      </c>
+      <c r="C192" s="56">
+        <f>Sheet1!C205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" s="56">
+        <f>Sheet1!B206</f>
+        <v>0</v>
+      </c>
+      <c r="C193" s="56">
+        <f>Sheet1!C206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B194" s="56">
+        <f>Sheet1!B207</f>
+        <v>0</v>
+      </c>
+      <c r="C194" s="56">
+        <f>Sheet1!C207</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11959,10 +14574,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="25" t="s">
         <v>34</v>
       </c>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Lang" sheetId="3" r:id="rId3"/>
     <sheet name="Thuy" sheetId="4" r:id="rId4"/>
     <sheet name="KT" sheetId="5" r:id="rId5"/>
+    <sheet name="BM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="76">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -237,7 +238,25 @@
     <t>67000+31300</t>
   </si>
   <si>
-    <t>72000+31300</t>
+    <t>72050+31300</t>
+  </si>
+  <si>
+    <t>Banh Mi</t>
+  </si>
+  <si>
+    <t>So tien</t>
+  </si>
+  <si>
+    <t>dvt: 1000</t>
+  </si>
+  <si>
+    <t>Tra Dung</t>
+  </si>
+  <si>
+    <t>Goc Dung</t>
+  </si>
+  <si>
+    <t>Lai Dung</t>
   </si>
 </sst>
 </file>
@@ -465,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,6 +674,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,6 +712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -968,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,13 +1014,13 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="79"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1028,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1019,34 +1047,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1065,42 +1093,46 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>67660</v>
+        <v>71700</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>62100</v>
+        <v>65300</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>5560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="79" t="s">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84">
         <v>70000</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="79"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10011)-SUM(J8:J10011)</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4220</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>SUM(BM!$B3:$B100)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1110,13 +1142,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1125,10 +1157,10 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>50249.999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>52916.666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1138,13 +1170,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1153,10 +1185,10 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>15430.000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16803.333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1166,13 +1198,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1180,11 +1212,11 @@
         <v>52</v>
       </c>
       <c r="N10" s="1">
-        <f>67000+31300</f>
-        <v>98300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f>72050+31300</f>
+        <v>103350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1194,18 +1226,18 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -1215,18 +1247,18 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1236,18 +1268,18 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -1257,18 +1289,18 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -1278,18 +1310,18 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -1299,16 +1331,16 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1318,16 +1350,16 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -1337,18 +1369,18 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -1358,18 +1390,18 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -1379,26 +1411,22 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="79" t="s">
+      <c r="K20" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="Q20" s="1">
-        <f>7.4-4.8</f>
-        <v>2.6000000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="83"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -1408,18 +1436,18 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -1429,18 +1457,18 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -1450,18 +1478,18 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -1471,16 +1499,16 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -1490,18 +1518,18 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1511,18 +1539,18 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -1532,18 +1560,18 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -1553,18 +1581,18 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -1574,13 +1602,13 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -1590,18 +1618,18 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f>A30+1</f>
         <v>24</v>
@@ -1612,18 +1640,18 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" ref="A32:A102" si="0">A31+1</f>
         <v>25</v>
@@ -1634,13 +1662,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1656,13 +1684,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1678,13 +1706,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1700,11 +1728,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1720,13 +1748,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1742,13 +1770,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1764,13 +1792,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1786,13 +1814,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1808,13 +1836,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1830,13 +1858,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1852,13 +1880,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1874,13 +1902,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1896,13 +1924,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1918,13 +1946,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1940,11 +1968,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1960,13 +1988,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -1982,13 +2010,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="79" t="s">
+      <c r="D48" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2004,11 +2032,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2024,13 +2052,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2046,13 +2074,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2068,13 +2096,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2090,13 +2118,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="79" t="s">
+      <c r="D53" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2112,13 +2140,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2131,13 +2159,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2153,20 +2181,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="79" t="s">
+      <c r="K56" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="79"/>
+      <c r="L56" s="83"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2176,13 +2204,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="79" t="s">
+      <c r="D57" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2195,13 +2223,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="79" t="s">
+      <c r="D58" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2217,13 +2245,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="79" t="s">
+      <c r="D59" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2239,13 +2267,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="79" t="s">
+      <c r="D60" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2261,13 +2289,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="79" t="s">
+      <c r="D61" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2283,13 +2311,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="79" t="s">
+      <c r="D62" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2305,13 +2333,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2327,13 +2355,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2349,13 +2377,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2371,13 +2399,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2393,13 +2421,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="79" t="s">
+      <c r="D67" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2412,13 +2440,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="79" t="s">
+      <c r="D68" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2434,13 +2462,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="79" t="s">
+      <c r="D69" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2456,13 +2484,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="79" t="s">
+      <c r="D70" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2479,13 +2507,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="79" t="s">
+      <c r="D71" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2501,13 +2529,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="79" t="s">
+      <c r="D72" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2520,13 +2548,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2539,13 +2567,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="79" t="s">
+      <c r="D74" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2564,13 +2592,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="79" t="s">
+      <c r="D75" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2586,13 +2614,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="79" t="s">
+      <c r="D76" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2608,13 +2636,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="79" t="s">
+      <c r="D77" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2630,13 +2658,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="79" t="s">
+      <c r="D78" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2652,13 +2680,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="79" t="s">
+      <c r="D79" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2674,13 +2702,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="79" t="s">
+      <c r="D80" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2696,13 +2724,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="79" t="s">
+      <c r="D81" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="79"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2718,13 +2746,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2740,13 +2768,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="79" t="s">
+      <c r="D83" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2762,13 +2790,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="79" t="s">
+      <c r="D84" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="79"/>
-      <c r="H84" s="79"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2784,13 +2812,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="D85" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2806,13 +2834,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="79" t="s">
+      <c r="D86" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="79"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2829,13 +2857,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="79" t="s">
+      <c r="D87" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="79"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2851,13 +2879,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="79" t="s">
+      <c r="D88" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2873,13 +2901,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="79" t="s">
+      <c r="D89" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="79"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
-      <c r="H89" s="79"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -2896,13 +2924,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="79" t="s">
+      <c r="D90" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2918,13 +2946,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="79" t="s">
+      <c r="D91" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79"/>
-      <c r="H91" s="79"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2940,13 +2968,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="79" t="s">
+      <c r="D92" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="79"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="79"/>
-      <c r="H92" s="79"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -2959,13 +2987,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="79" t="s">
+      <c r="D93" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
-      <c r="H93" s="79"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -2981,13 +3009,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="79" t="s">
+      <c r="D94" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="79"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3003,13 +3031,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="79" t="s">
+      <c r="D95" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="79"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="79"/>
-      <c r="H95" s="79"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3026,13 +3054,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="79" t="s">
+      <c r="D96" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="79"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3048,13 +3076,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="79" t="s">
+      <c r="D97" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="79"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="79"/>
-      <c r="H97" s="79"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3070,13 +3098,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="79" t="s">
+      <c r="D98" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3092,13 +3120,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="79" t="s">
+      <c r="D99" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3114,13 +3142,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="79" t="s">
+      <c r="D100" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="79"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3137,13 +3165,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="79" t="s">
+      <c r="D101" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="79"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3159,13 +3187,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="79" t="s">
+      <c r="D102" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="83"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3182,13 +3210,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="79" t="s">
+      <c r="D103" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="79"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3205,13 +3233,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="79" t="s">
+      <c r="D104" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="79"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="83"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3228,13 +3256,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="79" t="s">
+      <c r="D105" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="79"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3250,11 +3278,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="79"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3270,13 +3298,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="79" t="s">
+      <c r="D107" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="79"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3292,11 +3320,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="79"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="79"/>
-      <c r="H108" s="79"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3309,13 +3337,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="79" t="s">
+      <c r="D109" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3324,13 +3352,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="79" t="s">
+      <c r="D110" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3342,13 +3370,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="79" t="s">
+      <c r="D111" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3365,13 +3393,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="79" t="s">
+      <c r="D112" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3388,15 +3416,15 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="79" t="s">
+      <c r="D113" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="83"/>
       <c r="I113" s="1">
-        <v>5000</v>
+        <v>5050</v>
       </c>
       <c r="K113" s="77" t="s">
         <v>69</v>
@@ -3406,13 +3434,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="79" t="s">
+      <c r="D114" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="79"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
+      <c r="H114" s="83"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3421,13 +3449,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="79" t="s">
+      <c r="D115" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="79"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3444,11 +3472,17 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="79"/>
+      <c r="D116" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
+      <c r="I116" s="1">
+        <f t="shared" ref="I116:I118" si="2">220+140</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
@@ -3461,11 +3495,17 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="79"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="79"/>
+      <c r="D117" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+      <c r="I117" s="1">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
@@ -3478,11 +3518,17 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="79"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="79"/>
+      <c r="D118" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="1">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
@@ -3495,11 +3541,16 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="79"/>
+      <c r="D119" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
+      <c r="I119" s="1">
+        <v>220</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
@@ -3512,11 +3563,16 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="79"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="79"/>
+      <c r="D120" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="83"/>
+      <c r="I120" s="1">
+        <v>220</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
@@ -3529,11 +3585,17 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="79"/>
-      <c r="H121" s="79"/>
+      <c r="D121" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="1">
+        <f>140+140+140</f>
+        <v>420</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
@@ -3546,11 +3608,17 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
+      <c r="D122" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="83"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="83"/>
+      <c r="H122" s="83"/>
+      <c r="I122" s="1">
+        <f>220+220+140</f>
+        <v>580</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
@@ -3563,11 +3631,17 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
+      <c r="D123" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
+      <c r="I123" s="1">
+        <f>140+220</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
@@ -3580,11 +3654,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="83"/>
+      <c r="H124" s="83"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3597,11 +3671,16 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="79"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
+      <c r="D125" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
+      <c r="I125" s="1">
+        <v>150</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
@@ -3614,11 +3693,17 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
+      <c r="D126" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
+      <c r="H126" s="83"/>
+      <c r="I126" s="1">
+        <f>220*3+150</f>
+        <v>810</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
@@ -3631,11 +3716,11 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="79"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
@@ -3648,11 +3733,11 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="79"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="79"/>
+      <c r="D128" s="83"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83"/>
+      <c r="H128" s="83"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
@@ -3665,11 +3750,11 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="79"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83"/>
+      <c r="H129" s="83"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
@@ -3682,11 +3767,11 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
+      <c r="H130" s="83"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
@@ -3699,11 +3784,11 @@
       <c r="C131" s="29">
         <v>27.4</v>
       </c>
-      <c r="D131" s="79"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="79"/>
-      <c r="G131" s="79"/>
-      <c r="H131" s="79"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+      <c r="H131" s="83"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
@@ -3716,11 +3801,11 @@
       <c r="C132" s="29">
         <v>28.4</v>
       </c>
-      <c r="D132" s="79"/>
-      <c r="E132" s="79"/>
-      <c r="F132" s="79"/>
-      <c r="G132" s="79"/>
-      <c r="H132" s="79"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
@@ -3733,11 +3818,11 @@
       <c r="C133" s="29">
         <v>29.4</v>
       </c>
-      <c r="D133" s="79"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="79"/>
-      <c r="H133" s="79"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
@@ -3750,11 +3835,11 @@
       <c r="C134" s="29">
         <v>30.4</v>
       </c>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="79"/>
+      <c r="D134" s="83"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="83"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
@@ -3764,11 +3849,11 @@
       <c r="B135" s="29">
         <v>26.5</v>
       </c>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="79"/>
-      <c r="H135" s="79"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="83"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="83"/>
+      <c r="H135" s="83"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
@@ -3778,11 +3863,11 @@
       <c r="B136" s="29">
         <v>27.5</v>
       </c>
-      <c r="D136" s="79"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="79"/>
-      <c r="H136" s="79"/>
+      <c r="D136" s="83"/>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="83"/>
+      <c r="H136" s="83"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
@@ -3792,11 +3877,11 @@
       <c r="B137" s="29">
         <v>28.5</v>
       </c>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
+      <c r="D137" s="83"/>
+      <c r="E137" s="83"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="83"/>
+      <c r="H137" s="83"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
@@ -3806,11 +3891,11 @@
       <c r="B138" s="29">
         <v>29.5</v>
       </c>
-      <c r="D138" s="79"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
+      <c r="H138" s="83"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
@@ -3820,11 +3905,11 @@
       <c r="B139" s="29">
         <v>30.5</v>
       </c>
-      <c r="D139" s="79"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="83"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
@@ -3834,333 +3919,333 @@
       <c r="B140" s="29">
         <v>31.5</v>
       </c>
-      <c r="D140" s="79"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="79"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="83"/>
+      <c r="H140" s="83"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="79"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="79"/>
-      <c r="H141" s="79"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="83"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="79"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="79"/>
-      <c r="H142" s="79"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="83"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="79"/>
-      <c r="H143" s="79"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
+      <c r="H143" s="83"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="79"/>
-      <c r="E144" s="79"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="79"/>
+      <c r="D144" s="83"/>
+      <c r="E144" s="83"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="83"/>
+      <c r="H144" s="83"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="79"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="83"/>
+      <c r="H145" s="83"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="79"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="83"/>
+      <c r="H146" s="83"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="79"/>
-      <c r="H147" s="79"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="83"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="79"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="79"/>
-      <c r="G148" s="79"/>
-      <c r="H148" s="79"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="83"/>
+      <c r="H148" s="83"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="79"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="79"/>
-      <c r="H149" s="79"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="83"/>
+      <c r="H149" s="83"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="79"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="83"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="79"/>
-      <c r="H151" s="79"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="83"/>
+      <c r="H151" s="83"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="79"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="83"/>
+      <c r="G152" s="83"/>
+      <c r="H152" s="83"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="83"/>
+      <c r="H153" s="83"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
-      <c r="F154" s="79"/>
-      <c r="G154" s="79"/>
-      <c r="H154" s="79"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="83"/>
+      <c r="F154" s="83"/>
+      <c r="G154" s="83"/>
+      <c r="H154" s="83"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="79"/>
-      <c r="H155" s="79"/>
+      <c r="D155" s="83"/>
+      <c r="E155" s="83"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="83"/>
+      <c r="H155" s="83"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="83"/>
+      <c r="F157" s="83"/>
+      <c r="G157" s="83"/>
+      <c r="H157" s="83"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
+      <c r="H158" s="83"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="83"/>
+      <c r="G159" s="83"/>
+      <c r="H159" s="83"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="79"/>
-      <c r="E160" s="79"/>
-      <c r="F160" s="79"/>
-      <c r="G160" s="79"/>
-      <c r="H160" s="79"/>
+      <c r="D160" s="83"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83"/>
+      <c r="G160" s="83"/>
+      <c r="H160" s="83"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="79"/>
-      <c r="G161" s="79"/>
-      <c r="H161" s="79"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="83"/>
+      <c r="F161" s="83"/>
+      <c r="G161" s="83"/>
+      <c r="H161" s="83"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="79"/>
-      <c r="E162" s="79"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="79"/>
-      <c r="H162" s="79"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="83"/>
+      <c r="F162" s="83"/>
+      <c r="G162" s="83"/>
+      <c r="H162" s="83"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="79"/>
-      <c r="E163" s="79"/>
-      <c r="F163" s="79"/>
-      <c r="G163" s="79"/>
-      <c r="H163" s="79"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="83"/>
+      <c r="F163" s="83"/>
+      <c r="G163" s="83"/>
+      <c r="H163" s="83"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="79"/>
-      <c r="E164" s="79"/>
-      <c r="F164" s="79"/>
-      <c r="G164" s="79"/>
-      <c r="H164" s="79"/>
+      <c r="D164" s="83"/>
+      <c r="E164" s="83"/>
+      <c r="F164" s="83"/>
+      <c r="G164" s="83"/>
+      <c r="H164" s="83"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="79"/>
-      <c r="E165" s="79"/>
-      <c r="F165" s="79"/>
-      <c r="G165" s="79"/>
-      <c r="H165" s="79"/>
+      <c r="D165" s="83"/>
+      <c r="E165" s="83"/>
+      <c r="F165" s="83"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="83"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="79"/>
-      <c r="E166" s="79"/>
-      <c r="F166" s="79"/>
-      <c r="G166" s="79"/>
-      <c r="H166" s="79"/>
+      <c r="D166" s="83"/>
+      <c r="E166" s="83"/>
+      <c r="F166" s="83"/>
+      <c r="G166" s="83"/>
+      <c r="H166" s="83"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="79"/>
-      <c r="E167" s="79"/>
-      <c r="F167" s="79"/>
-      <c r="G167" s="79"/>
-      <c r="H167" s="79"/>
+      <c r="D167" s="83"/>
+      <c r="E167" s="83"/>
+      <c r="F167" s="83"/>
+      <c r="G167" s="83"/>
+      <c r="H167" s="83"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="79"/>
-      <c r="E168" s="79"/>
-      <c r="F168" s="79"/>
-      <c r="G168" s="79"/>
-      <c r="H168" s="79"/>
+      <c r="D168" s="83"/>
+      <c r="E168" s="83"/>
+      <c r="F168" s="83"/>
+      <c r="G168" s="83"/>
+      <c r="H168" s="83"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="79"/>
-      <c r="E169" s="79"/>
-      <c r="F169" s="79"/>
-      <c r="G169" s="79"/>
-      <c r="H169" s="79"/>
+      <c r="D169" s="83"/>
+      <c r="E169" s="83"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="83"/>
+      <c r="H169" s="83"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="79"/>
-      <c r="E170" s="79"/>
-      <c r="F170" s="79"/>
-      <c r="G170" s="79"/>
-      <c r="H170" s="79"/>
+      <c r="D170" s="83"/>
+      <c r="E170" s="83"/>
+      <c r="F170" s="83"/>
+      <c r="G170" s="83"/>
+      <c r="H170" s="83"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="79"/>
-      <c r="E171" s="79"/>
-      <c r="F171" s="79"/>
-      <c r="G171" s="79"/>
-      <c r="H171" s="79"/>
+      <c r="D171" s="83"/>
+      <c r="E171" s="83"/>
+      <c r="F171" s="83"/>
+      <c r="G171" s="83"/>
+      <c r="H171" s="83"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="79"/>
-      <c r="E172" s="79"/>
-      <c r="F172" s="79"/>
-      <c r="G172" s="79"/>
-      <c r="H172" s="79"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="83"/>
+      <c r="H172" s="83"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="79"/>
-      <c r="E173" s="79"/>
-      <c r="F173" s="79"/>
-      <c r="G173" s="79"/>
-      <c r="H173" s="79"/>
+      <c r="D173" s="83"/>
+      <c r="E173" s="83"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="83"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="79"/>
-      <c r="E174" s="79"/>
-      <c r="F174" s="79"/>
-      <c r="G174" s="79"/>
-      <c r="H174" s="79"/>
+      <c r="D174" s="83"/>
+      <c r="E174" s="83"/>
+      <c r="F174" s="83"/>
+      <c r="G174" s="83"/>
+      <c r="H174" s="83"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="79"/>
-      <c r="E175" s="79"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="79"/>
-      <c r="H175" s="79"/>
+      <c r="D175" s="83"/>
+      <c r="E175" s="83"/>
+      <c r="F175" s="83"/>
+      <c r="G175" s="83"/>
+      <c r="H175" s="83"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="79"/>
-      <c r="E176" s="79"/>
-      <c r="F176" s="79"/>
-      <c r="G176" s="79"/>
-      <c r="H176" s="79"/>
+      <c r="D176" s="83"/>
+      <c r="E176" s="83"/>
+      <c r="F176" s="83"/>
+      <c r="G176" s="83"/>
+      <c r="H176" s="83"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="79"/>
-      <c r="E177" s="79"/>
-      <c r="F177" s="79"/>
-      <c r="G177" s="79"/>
-      <c r="H177" s="79"/>
+      <c r="D177" s="83"/>
+      <c r="E177" s="83"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="83"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="79"/>
-      <c r="E178" s="79"/>
-      <c r="F178" s="79"/>
-      <c r="G178" s="79"/>
-      <c r="H178" s="79"/>
+      <c r="D178" s="83"/>
+      <c r="E178" s="83"/>
+      <c r="F178" s="83"/>
+      <c r="G178" s="83"/>
+      <c r="H178" s="83"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="79"/>
-      <c r="E179" s="79"/>
-      <c r="F179" s="79"/>
-      <c r="G179" s="79"/>
-      <c r="H179" s="79"/>
+      <c r="D179" s="83"/>
+      <c r="E179" s="83"/>
+      <c r="F179" s="83"/>
+      <c r="G179" s="83"/>
+      <c r="H179" s="83"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="79"/>
-      <c r="E180" s="79"/>
-      <c r="F180" s="79"/>
-      <c r="G180" s="79"/>
-      <c r="H180" s="79"/>
+      <c r="D180" s="83"/>
+      <c r="E180" s="83"/>
+      <c r="F180" s="83"/>
+      <c r="G180" s="83"/>
+      <c r="H180" s="83"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="79"/>
-      <c r="E181" s="79"/>
-      <c r="F181" s="79"/>
-      <c r="G181" s="79"/>
-      <c r="H181" s="79"/>
+      <c r="D181" s="83"/>
+      <c r="E181" s="83"/>
+      <c r="F181" s="83"/>
+      <c r="G181" s="83"/>
+      <c r="H181" s="83"/>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="79"/>
-      <c r="E182" s="79"/>
-      <c r="F182" s="79"/>
-      <c r="G182" s="79"/>
-      <c r="H182" s="79"/>
+      <c r="D182" s="83"/>
+      <c r="E182" s="83"/>
+      <c r="F182" s="83"/>
+      <c r="G182" s="83"/>
+      <c r="H182" s="83"/>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="79"/>
-      <c r="H183" s="79"/>
+      <c r="D183" s="83"/>
+      <c r="E183" s="83"/>
+      <c r="F183" s="83"/>
+      <c r="G183" s="83"/>
+      <c r="H183" s="83"/>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D184" s="79"/>
-      <c r="E184" s="79"/>
-      <c r="F184" s="79"/>
-      <c r="G184" s="79"/>
-      <c r="H184" s="79"/>
+      <c r="D184" s="83"/>
+      <c r="E184" s="83"/>
+      <c r="F184" s="83"/>
+      <c r="G184" s="83"/>
+      <c r="H184" s="83"/>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D185" s="79"/>
-      <c r="E185" s="79"/>
-      <c r="F185" s="79"/>
-      <c r="G185" s="79"/>
-      <c r="H185" s="79"/>
+      <c r="D185" s="83"/>
+      <c r="E185" s="83"/>
+      <c r="F185" s="83"/>
+      <c r="G185" s="83"/>
+      <c r="H185" s="83"/>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D186" s="79"/>
-      <c r="E186" s="79"/>
-      <c r="F186" s="79"/>
-      <c r="G186" s="79"/>
-      <c r="H186" s="79"/>
+      <c r="D186" s="83"/>
+      <c r="E186" s="83"/>
+      <c r="F186" s="83"/>
+      <c r="G186" s="83"/>
+      <c r="H186" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="189">
@@ -4363,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W152"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,10 +4529,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -5835,8 +5920,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="83"/>
-      <c r="E67" s="84"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="88"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -5859,8 +5944,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="83"/>
-      <c r="E68" s="84"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="88"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -5883,14 +5968,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="83"/>
-      <c r="E69" s="84"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="87"/>
-      <c r="P69" s="87"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -5906,8 +5991,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="86"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="90"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -5965,10 +6050,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="88"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -6031,8 +6116,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="87"/>
+      <c r="O75" s="91"/>
+      <c r="P75" s="91"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -7544,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7607,10 +7692,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -7623,15 +7708,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>20360</v>
+        <v>23000</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>18600</v>
+        <v>20800</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>1760</v>
+        <v>2200</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -7704,7 +7789,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -7731,7 +7816,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -7754,11 +7839,11 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>1700</v>
+        <v>1920</v>
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -7793,7 +7878,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>500</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -7824,11 +7909,11 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>4700</v>
+        <v>4920</v>
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>160</v>
+        <v>746.66666666666697</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -9659,9 +9744,13 @@
         <f>Sheet1!C116</f>
         <v>12.4</v>
       </c>
-      <c r="D103" s="56"/>
+      <c r="D103" s="56">
+        <v>200</v>
+      </c>
       <c r="E103" s="56"/>
-      <c r="F103" s="70"/>
+      <c r="F103" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="58" t="s">
@@ -9675,6 +9764,13 @@
         <f>Sheet1!C117</f>
         <v>13.4</v>
       </c>
+      <c r="D104" s="56">
+        <v>200</v>
+      </c>
+      <c r="E104" s="56"/>
+      <c r="F104" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="58" t="s">
@@ -9688,6 +9784,13 @@
         <f>Sheet1!C118</f>
         <v>14.4</v>
       </c>
+      <c r="D105" s="56">
+        <v>200</v>
+      </c>
+      <c r="E105" s="56"/>
+      <c r="F105" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="58" t="s">
@@ -9701,6 +9804,13 @@
         <f>Sheet1!C119</f>
         <v>15.4</v>
       </c>
+      <c r="D106" s="56">
+        <v>200</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
@@ -9714,6 +9824,13 @@
         <f>Sheet1!C120</f>
         <v>16.399999999999999</v>
       </c>
+      <c r="D107" s="56">
+        <v>200</v>
+      </c>
+      <c r="E107" s="56"/>
+      <c r="F107" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="58" t="s">
@@ -9727,6 +9844,12 @@
         <f>Sheet1!C121</f>
         <v>17.399999999999999</v>
       </c>
+      <c r="D108" s="54">
+        <v>0</v>
+      </c>
+      <c r="F108" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="58" t="s">
@@ -9740,6 +9863,12 @@
         <f>Sheet1!C122</f>
         <v>18.399999999999999</v>
       </c>
+      <c r="D109" s="54">
+        <v>400</v>
+      </c>
+      <c r="F109" s="70">
+        <v>40</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="58" t="s">
@@ -9753,6 +9882,12 @@
         <f>Sheet1!C123</f>
         <v>19.399999999999999</v>
       </c>
+      <c r="D110" s="54">
+        <v>200</v>
+      </c>
+      <c r="F110" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="58" t="s">
@@ -9766,6 +9901,12 @@
         <f>Sheet1!C124</f>
         <v>20.399999999999999</v>
       </c>
+      <c r="D111" s="54">
+        <v>0</v>
+      </c>
+      <c r="F111" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="58" t="s">
@@ -9779,8 +9920,14 @@
         <f>Sheet1!C125</f>
         <v>21.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="54">
+        <v>0</v>
+      </c>
+      <c r="F112" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>28</v>
       </c>
@@ -9792,8 +9939,14 @@
         <f>Sheet1!C126</f>
         <v>22.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="54">
+        <v>600</v>
+      </c>
+      <c r="F113" s="70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
         <v>29</v>
       </c>
@@ -9806,7 +9959,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
         <v>30</v>
       </c>
@@ -9819,7 +9972,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
         <v>31</v>
       </c>
@@ -9832,7 +9985,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="58" t="s">
         <v>32</v>
       </c>
@@ -9845,7 +9998,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="58" t="s">
         <v>26</v>
       </c>
@@ -9858,7 +10011,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="58" t="s">
         <v>27</v>
       </c>
@@ -9871,7 +10024,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="58" t="s">
         <v>28</v>
       </c>
@@ -9884,7 +10037,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="58" t="s">
         <v>29</v>
       </c>
@@ -9897,7 +10050,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="58" t="s">
         <v>30</v>
       </c>
@@ -9910,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="58" t="s">
         <v>31</v>
       </c>
@@ -9923,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="58" t="s">
         <v>32</v>
       </c>
@@ -9936,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="58" t="s">
         <v>26</v>
       </c>
@@ -9949,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="58" t="s">
         <v>27</v>
       </c>
@@ -9962,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="58" t="s">
         <v>28</v>
       </c>
@@ -9975,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="58" t="s">
         <v>29</v>
       </c>
@@ -10858,8 +11011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10867,6 +11020,7 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -10910,15 +11064,15 @@
       <c r="G3" s="42"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>11600</v>
+        <v>13000</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>9200</v>
+        <v>10200</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -10926,10 +11080,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -11001,7 +11155,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -11024,7 +11178,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -11039,7 +11193,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="54"/>
       <c r="H8" s="58" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I8" s="56">
         <f>SUM($E$10:$E$99)+SUM($F$10:$F$99)</f>
@@ -11047,7 +11201,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -11070,7 +11224,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>250</v>
+        <v>1083.3333333333333</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -11092,18 +11246,18 @@
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="54"/>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="56">
         <f>I6-I9+I8</f>
         <v>3763.3333333333339</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>170</v>
-      </c>
-      <c r="K10" s="52"/>
+        <v>736.66666666666674</v>
+      </c>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
@@ -11123,9 +11277,15 @@
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="93">
+        <f>SUM($G$112:$G$1000)</f>
+        <v>20</v>
+      </c>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
@@ -13327,10 +13487,14 @@
         <v>12.4</v>
       </c>
       <c r="D103" s="56">
-        <v>0</v>
-      </c>
-      <c r="E103" s="56"/>
-      <c r="F103" s="70"/>
+        <v>100</v>
+      </c>
+      <c r="E103" s="56">
+        <v>10</v>
+      </c>
+      <c r="F103" s="70">
+        <v>30</v>
+      </c>
       <c r="G103" s="54"/>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -13348,6 +13512,15 @@
         <f>Sheet1!C117</f>
         <v>13.4</v>
       </c>
+      <c r="D104" s="56">
+        <v>100</v>
+      </c>
+      <c r="E104" s="56">
+        <v>10</v>
+      </c>
+      <c r="F104" s="70">
+        <v>30</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="58" t="s">
@@ -13361,6 +13534,15 @@
         <f>Sheet1!C118</f>
         <v>14.4</v>
       </c>
+      <c r="D105" s="56">
+        <v>100</v>
+      </c>
+      <c r="E105" s="56">
+        <v>10</v>
+      </c>
+      <c r="F105" s="70">
+        <v>30</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="58" t="s">
@@ -13374,6 +13556,15 @@
         <f>Sheet1!C119</f>
         <v>15.4</v>
       </c>
+      <c r="D106" s="80">
+        <v>0</v>
+      </c>
+      <c r="E106" s="80">
+        <v>0</v>
+      </c>
+      <c r="F106" s="81">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
@@ -13387,6 +13578,15 @@
         <f>Sheet1!C120</f>
         <v>16.399999999999999</v>
       </c>
+      <c r="D107" s="80">
+        <v>0</v>
+      </c>
+      <c r="E107" s="80">
+        <v>0</v>
+      </c>
+      <c r="F107" s="81">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="58" t="s">
@@ -13400,6 +13600,15 @@
         <f>Sheet1!C121</f>
         <v>17.399999999999999</v>
       </c>
+      <c r="D108" s="80">
+        <v>300</v>
+      </c>
+      <c r="E108" s="80">
+        <v>30</v>
+      </c>
+      <c r="F108" s="81">
+        <v>90</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="58" t="s">
@@ -13413,6 +13622,15 @@
         <f>Sheet1!C122</f>
         <v>18.399999999999999</v>
       </c>
+      <c r="D109" s="80">
+        <v>100</v>
+      </c>
+      <c r="E109" s="80">
+        <v>10</v>
+      </c>
+      <c r="F109" s="81">
+        <v>30</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="58" t="s">
@@ -13426,6 +13644,15 @@
         <f>Sheet1!C123</f>
         <v>19.399999999999999</v>
       </c>
+      <c r="D110" s="80">
+        <v>100</v>
+      </c>
+      <c r="E110" s="80">
+        <v>10</v>
+      </c>
+      <c r="F110" s="81">
+        <v>30</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="58" t="s">
@@ -13439,6 +13666,18 @@
         <f>Sheet1!C124</f>
         <v>20.399999999999999</v>
       </c>
+      <c r="D111" s="80">
+        <v>0</v>
+      </c>
+      <c r="E111" s="80">
+        <v>0</v>
+      </c>
+      <c r="F111" s="81">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="58" t="s">
@@ -13452,8 +13691,20 @@
         <f>Sheet1!C125</f>
         <v>21.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D112" s="80">
+        <v>100</v>
+      </c>
+      <c r="E112" s="80">
+        <v>10</v>
+      </c>
+      <c r="F112" s="81">
+        <v>30</v>
+      </c>
+      <c r="G112" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>28</v>
       </c>
@@ -13465,8 +13716,20 @@
         <f>Sheet1!C126</f>
         <v>22.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D113" s="80">
+        <v>100</v>
+      </c>
+      <c r="E113" s="80">
+        <v>10</v>
+      </c>
+      <c r="F113" s="81">
+        <v>30</v>
+      </c>
+      <c r="G113" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
         <v>29</v>
       </c>
@@ -13479,7 +13742,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
         <v>30</v>
       </c>
@@ -13492,7 +13755,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
         <v>31</v>
       </c>
@@ -13505,7 +13768,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="58" t="s">
         <v>32</v>
       </c>
@@ -13518,7 +13781,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="58" t="s">
         <v>26</v>
       </c>
@@ -13531,7 +13794,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="58" t="s">
         <v>27</v>
       </c>
@@ -13544,7 +13807,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="58" t="s">
         <v>28</v>
       </c>
@@ -13557,7 +13820,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="58" t="s">
         <v>29</v>
       </c>
@@ -13570,7 +13833,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="58" t="s">
         <v>30</v>
       </c>
@@ -13583,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="58" t="s">
         <v>31</v>
       </c>
@@ -13596,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="58" t="s">
         <v>32</v>
       </c>
@@ -13609,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="58" t="s">
         <v>26</v>
       </c>
@@ -13622,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="58" t="s">
         <v>27</v>
       </c>
@@ -13635,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="58" t="s">
         <v>28</v>
       </c>
@@ -13648,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="58" t="s">
         <v>29</v>
       </c>
@@ -14574,10 +14837,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="25" t="s">
         <v>34</v>
       </c>
@@ -14879,4 +15142,47 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="82">
+        <v>42865</v>
+      </c>
+      <c r="B3" s="79">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="74">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -248,12 +248,6 @@
   </si>
   <si>
     <t>dvt: 1000</t>
-  </si>
-  <si>
-    <t>Tra Dung</t>
-  </si>
-  <si>
-    <t>Goc Dung</t>
   </si>
   <si>
     <t>Lai Dung</t>
@@ -682,16 +676,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,7 +707,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -996,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="83"/>
+      <c r="G1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -1055,21 +1049,21 @@
         <v>6</v>
       </c>
       <c r="C5" s="86"/>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1093,39 +1087,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>71700</v>
+        <v>72840</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>65300</v>
+        <v>66200</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>6400</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="87">
         <v>70000</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="83" t="s">
+      <c r="J7" s="87"/>
+      <c r="K7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10011)-SUM(J8:J10011)</f>
-        <v>4220</v>
+        <v>5280</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)</f>
@@ -1142,13 +1136,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1157,7 +1151,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>52916.666666666664</v>
+        <v>53666.666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1170,13 +1164,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1185,7 +1179,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>16803.333333333336</v>
+        <v>17193.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1198,13 +1192,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1226,13 +1220,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1247,13 +1241,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1268,13 +1262,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1289,13 +1283,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1310,13 +1304,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1331,11 +1325,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1350,11 +1344,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1369,13 +1363,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1390,13 +1384,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1411,20 +1405,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="83"/>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1436,13 +1430,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1457,13 +1451,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1478,13 +1472,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1499,11 +1493,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1518,13 +1512,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1539,13 +1533,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1560,13 +1554,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1581,13 +1575,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1602,11 +1596,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1618,13 +1612,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1640,13 +1634,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1662,13 +1656,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1684,13 +1678,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1706,13 +1700,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1728,11 +1722,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1748,13 +1742,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1770,13 +1764,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1792,13 +1786,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1814,13 +1808,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1836,13 +1830,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1858,13 +1852,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1880,13 +1874,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1902,13 +1896,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1924,13 +1918,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1946,13 +1940,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1968,11 +1962,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1988,13 +1982,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -2010,13 +2004,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2032,11 +2026,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2052,13 +2046,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2074,13 +2068,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2096,13 +2090,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2118,13 +2112,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2140,13 +2134,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2159,13 +2153,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2181,20 +2175,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="83" t="s">
+      <c r="K56" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="83"/>
+      <c r="L56" s="85"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2204,13 +2198,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2223,13 +2217,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2245,13 +2239,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2267,13 +2261,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2289,13 +2283,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="83" t="s">
+      <c r="D61" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2311,13 +2305,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="83" t="s">
+      <c r="D62" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2333,13 +2327,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="83" t="s">
+      <c r="D63" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2355,13 +2349,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2377,13 +2371,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="83" t="s">
+      <c r="D65" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2399,13 +2393,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="83" t="s">
+      <c r="D66" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2421,13 +2415,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="83" t="s">
+      <c r="D67" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2440,13 +2434,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="83" t="s">
+      <c r="D68" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2462,13 +2456,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2484,13 +2478,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2507,13 +2501,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="83" t="s">
+      <c r="D71" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2529,13 +2523,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2548,13 +2542,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="83" t="s">
+      <c r="D73" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2567,13 +2561,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2592,13 +2586,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="83" t="s">
+      <c r="D75" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2614,13 +2608,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="83" t="s">
+      <c r="D76" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2636,13 +2630,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="83" t="s">
+      <c r="D77" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2658,13 +2652,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="83" t="s">
+      <c r="D78" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2680,13 +2674,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="83" t="s">
+      <c r="D79" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2702,13 +2696,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="83" t="s">
+      <c r="D80" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2724,13 +2718,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="83" t="s">
+      <c r="D81" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2746,13 +2740,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="83" t="s">
+      <c r="D82" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2768,13 +2762,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="83" t="s">
+      <c r="D83" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2790,13 +2784,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="83" t="s">
+      <c r="D84" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2812,13 +2806,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="83" t="s">
+      <c r="D85" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2834,13 +2828,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="83" t="s">
+      <c r="D86" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2857,13 +2851,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="83" t="s">
+      <c r="D87" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2879,13 +2873,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="83" t="s">
+      <c r="D88" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2901,13 +2895,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="83" t="s">
+      <c r="D89" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -2924,13 +2918,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="83" t="s">
+      <c r="D90" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2946,13 +2940,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="83" t="s">
+      <c r="D91" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2968,13 +2962,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="83" t="s">
+      <c r="D92" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -2987,13 +2981,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="83" t="s">
+      <c r="D93" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -3009,13 +3003,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="83" t="s">
+      <c r="D94" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3031,13 +3025,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="83" t="s">
+      <c r="D95" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3054,13 +3048,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="83" t="s">
+      <c r="D96" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3076,13 +3070,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="83" t="s">
+      <c r="D97" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3098,13 +3092,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="83" t="s">
+      <c r="D98" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3120,13 +3114,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="83" t="s">
+      <c r="D99" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3142,13 +3136,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="83" t="s">
+      <c r="D100" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3165,13 +3159,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="83" t="s">
+      <c r="D101" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3187,13 +3181,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="83" t="s">
+      <c r="D102" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3210,13 +3204,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="83" t="s">
+      <c r="D103" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3233,13 +3227,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="83" t="s">
+      <c r="D104" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="83"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3256,13 +3250,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="83" t="s">
+      <c r="D105" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3278,11 +3272,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3298,13 +3292,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="83" t="s">
+      <c r="D107" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3320,11 +3314,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3337,13 +3331,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="83" t="s">
+      <c r="D109" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3352,13 +3346,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="83" t="s">
+      <c r="D110" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3370,13 +3364,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="83" t="s">
+      <c r="D111" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3393,13 +3387,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="83" t="s">
+      <c r="D112" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3416,13 +3410,13 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="83" t="s">
+      <c r="D113" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
       <c r="I113" s="1">
         <v>5050</v>
       </c>
@@ -3434,13 +3428,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="83" t="s">
+      <c r="D114" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3449,13 +3443,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="83" t="s">
+      <c r="D115" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3472,13 +3466,13 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="83" t="s">
+      <c r="D116" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
       <c r="I116" s="1">
         <f t="shared" ref="I116:I118" si="2">220+140</f>
         <v>360</v>
@@ -3495,13 +3489,13 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="83" t="s">
+      <c r="D117" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
       <c r="I117" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3518,13 +3512,13 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="83" t="s">
+      <c r="D118" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="83"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
       <c r="I118" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3541,13 +3535,13 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="83" t="s">
+      <c r="D119" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85"/>
       <c r="I119" s="1">
         <v>220</v>
       </c>
@@ -3563,13 +3557,13 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="83" t="s">
+      <c r="D120" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
       <c r="I120" s="1">
         <v>220</v>
       </c>
@@ -3585,13 +3579,13 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="83" t="s">
+      <c r="D121" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
       <c r="I121" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -3608,13 +3602,13 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="83" t="s">
+      <c r="D122" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="83"/>
-      <c r="H122" s="83"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
       <c r="I122" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -3631,13 +3625,13 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="83" t="s">
+      <c r="D123" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
       <c r="I123" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -3654,11 +3648,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="83"/>
-      <c r="H124" s="83"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3671,13 +3665,13 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="83" t="s">
+      <c r="D125" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
       <c r="I125" s="1">
         <v>150</v>
       </c>
@@ -3693,13 +3687,13 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="83" t="s">
+      <c r="D126" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
       <c r="I126" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -3716,11 +3710,17 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="83"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="83"/>
-      <c r="H127" s="83"/>
+      <c r="D127" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="1">
+        <f>220+140+120</f>
+        <v>480</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
@@ -3733,13 +3733,19 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="83"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D128" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -3750,13 +3756,19 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="1">
+        <f>220</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -3767,13 +3779,13 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="83"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="83"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -3784,13 +3796,13 @@
       <c r="C131" s="29">
         <v>27.4</v>
       </c>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="83"/>
-      <c r="H131" s="83"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -3801,13 +3813,13 @@
       <c r="C132" s="29">
         <v>28.4</v>
       </c>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -3818,13 +3830,13 @@
       <c r="C133" s="29">
         <v>29.4</v>
       </c>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="85"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -3835,13 +3847,13 @@
       <c r="C134" s="29">
         <v>30.4</v>
       </c>
-      <c r="D134" s="83"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="83"/>
-      <c r="H134" s="83"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
+      <c r="F134" s="85"/>
+      <c r="G134" s="85"/>
+      <c r="H134" s="85"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -3849,13 +3861,13 @@
       <c r="B135" s="29">
         <v>26.5</v>
       </c>
-      <c r="D135" s="83"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="83"/>
-      <c r="H135" s="83"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="85"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -3863,13 +3875,13 @@
       <c r="B136" s="29">
         <v>27.5</v>
       </c>
-      <c r="D136" s="83"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="83"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D136" s="85"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="85"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -3877,13 +3889,13 @@
       <c r="B137" s="29">
         <v>28.5</v>
       </c>
-      <c r="D137" s="83"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="83"/>
-      <c r="H137" s="83"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -3891,13 +3903,13 @@
       <c r="B138" s="29">
         <v>29.5</v>
       </c>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="83"/>
-      <c r="H138" s="83"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -3905,13 +3917,13 @@
       <c r="B139" s="29">
         <v>30.5</v>
       </c>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83"/>
-      <c r="H139" s="83"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D139" s="85"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -3919,501 +3931,336 @@
       <c r="B140" s="29">
         <v>31.5</v>
       </c>
-      <c r="D140" s="83"/>
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="83"/>
-      <c r="H140" s="83"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="83"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D142" s="83"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="83"/>
-      <c r="H142" s="83"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83"/>
-      <c r="H143" s="83"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D144" s="83"/>
-      <c r="E144" s="83"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="83"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="83"/>
-      <c r="E145" s="83"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="83"/>
-      <c r="H145" s="83"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="83"/>
-      <c r="H146" s="83"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="83"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="83"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="83"/>
-      <c r="H152" s="83"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="83"/>
-      <c r="H153" s="83"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="83"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="83"/>
-      <c r="H154" s="83"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="83"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="83"/>
-      <c r="H155" s="83"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="83"/>
-      <c r="H159" s="83"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="83"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
-      <c r="G160" s="83"/>
-      <c r="H160" s="83"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="85"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="85"/>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="83"/>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="83"/>
-      <c r="H161" s="83"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="85"/>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="83"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="83"/>
-      <c r="H162" s="83"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="83"/>
-      <c r="E163" s="83"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="83"/>
-      <c r="H163" s="83"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="85"/>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="83"/>
-      <c r="E164" s="83"/>
-      <c r="F164" s="83"/>
-      <c r="G164" s="83"/>
-      <c r="H164" s="83"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="85"/>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="83"/>
-      <c r="E165" s="83"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="83"/>
-      <c r="H165" s="83"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="85"/>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="83"/>
-      <c r="E166" s="83"/>
-      <c r="F166" s="83"/>
-      <c r="G166" s="83"/>
-      <c r="H166" s="83"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="85"/>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="83"/>
-      <c r="E167" s="83"/>
-      <c r="F167" s="83"/>
-      <c r="G167" s="83"/>
-      <c r="H167" s="83"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="85"/>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="83"/>
-      <c r="E168" s="83"/>
-      <c r="F168" s="83"/>
-      <c r="G168" s="83"/>
-      <c r="H168" s="83"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="85"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="85"/>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="83"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="85"/>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="83"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="83"/>
-      <c r="G170" s="83"/>
-      <c r="H170" s="83"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="83"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="83"/>
-      <c r="H171" s="83"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="85"/>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="83"/>
-      <c r="G172" s="83"/>
-      <c r="H172" s="83"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="85"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="85"/>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="83"/>
-      <c r="H173" s="83"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="85"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="85"/>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="83"/>
-      <c r="E174" s="83"/>
-      <c r="F174" s="83"/>
-      <c r="G174" s="83"/>
-      <c r="H174" s="83"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
+      <c r="F174" s="85"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="85"/>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="83"/>
-      <c r="E175" s="83"/>
-      <c r="F175" s="83"/>
-      <c r="G175" s="83"/>
-      <c r="H175" s="83"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="85"/>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="83"/>
-      <c r="E176" s="83"/>
-      <c r="F176" s="83"/>
-      <c r="G176" s="83"/>
-      <c r="H176" s="83"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="85"/>
+      <c r="F176" s="85"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="85"/>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="83"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="83"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="83"/>
-      <c r="E178" s="83"/>
-      <c r="F178" s="83"/>
-      <c r="G178" s="83"/>
-      <c r="H178" s="83"/>
+      <c r="D178" s="85"/>
+      <c r="E178" s="85"/>
+      <c r="F178" s="85"/>
+      <c r="G178" s="85"/>
+      <c r="H178" s="85"/>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="83"/>
-      <c r="E179" s="83"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="83"/>
-      <c r="H179" s="83"/>
+      <c r="D179" s="85"/>
+      <c r="E179" s="85"/>
+      <c r="F179" s="85"/>
+      <c r="G179" s="85"/>
+      <c r="H179" s="85"/>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="83"/>
-      <c r="E180" s="83"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="83"/>
-      <c r="H180" s="83"/>
+      <c r="D180" s="85"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="85"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="85"/>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="83"/>
-      <c r="H181" s="83"/>
+      <c r="D181" s="85"/>
+      <c r="E181" s="85"/>
+      <c r="F181" s="85"/>
+      <c r="G181" s="85"/>
+      <c r="H181" s="85"/>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="83"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="83"/>
-      <c r="H182" s="83"/>
+      <c r="D182" s="85"/>
+      <c r="E182" s="85"/>
+      <c r="F182" s="85"/>
+      <c r="G182" s="85"/>
+      <c r="H182" s="85"/>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D183" s="83"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="83"/>
-      <c r="H183" s="83"/>
+      <c r="D183" s="85"/>
+      <c r="E183" s="85"/>
+      <c r="F183" s="85"/>
+      <c r="G183" s="85"/>
+      <c r="H183" s="85"/>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D184" s="83"/>
-      <c r="E184" s="83"/>
-      <c r="F184" s="83"/>
-      <c r="G184" s="83"/>
-      <c r="H184" s="83"/>
+      <c r="D184" s="85"/>
+      <c r="E184" s="85"/>
+      <c r="F184" s="85"/>
+      <c r="G184" s="85"/>
+      <c r="H184" s="85"/>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D185" s="83"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="83"/>
-      <c r="H185" s="83"/>
+      <c r="D185" s="85"/>
+      <c r="E185" s="85"/>
+      <c r="F185" s="85"/>
+      <c r="G185" s="85"/>
+      <c r="H185" s="85"/>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D186" s="83"/>
-      <c r="E186" s="83"/>
-      <c r="F186" s="83"/>
-      <c r="G186" s="83"/>
-      <c r="H186" s="83"/>
+      <c r="D186" s="85"/>
+      <c r="E186" s="85"/>
+      <c r="F186" s="85"/>
+      <c r="G186" s="85"/>
+      <c r="H186" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D184:H184"/>
@@ -4438,6 +4285,171 @@
     <mergeCell ref="D167:H167"/>
     <mergeCell ref="D168:H168"/>
     <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4449,7 +4461,7 @@
   <dimension ref="A1:W152"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,10 +4541,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -5920,8 +5932,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="89"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -5944,8 +5956,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="87"/>
-      <c r="E68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -5968,14 +5980,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="87"/>
-      <c r="E69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="91"/>
-      <c r="P69" s="91"/>
+      <c r="O69" s="92"/>
+      <c r="P69" s="92"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -5991,8 +6003,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="89"/>
-      <c r="E70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="91"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -6050,10 +6062,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="92"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -6116,8 +6128,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="91"/>
+      <c r="O75" s="92"/>
+      <c r="P75" s="92"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -7629,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7692,10 +7704,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -7708,15 +7720,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>23000</v>
+        <v>23720</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>20800</v>
+        <v>21400</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>2200</v>
+        <v>2320</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -7789,7 +7801,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -7816,7 +7828,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -7839,11 +7851,11 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -7878,7 +7890,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>2333.333333333333</v>
+        <v>2833.333333333333</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -7909,11 +7921,11 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>4920</v>
+        <v>4980</v>
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>746.66666666666697</v>
+        <v>906.66666666666697</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -9958,6 +9970,12 @@
         <f>Sheet1!C127</f>
         <v>23.4</v>
       </c>
+      <c r="D114" s="54">
+        <v>200</v>
+      </c>
+      <c r="F114" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
@@ -9971,6 +9989,12 @@
         <f>Sheet1!C128</f>
         <v>24.4</v>
       </c>
+      <c r="D115" s="54">
+        <v>200</v>
+      </c>
+      <c r="F115" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
@@ -9983,6 +10007,12 @@
       <c r="C116" s="56">
         <f>Sheet1!C129</f>
         <v>25.4</v>
+      </c>
+      <c r="D116" s="54">
+        <v>200</v>
+      </c>
+      <c r="F116" s="70">
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -11011,8 +11041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11064,15 +11094,15 @@
       <c r="G3" s="42"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>13000</v>
+        <v>13420</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>2800</v>
+        <v>2920</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -11080,10 +11110,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -11155,7 +11185,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -11178,7 +11208,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -11193,7 +11223,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="54"/>
       <c r="H8" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8" s="56">
         <f>SUM($E$10:$E$99)+SUM($F$10:$F$99)</f>
@@ -11201,7 +11231,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -11224,7 +11254,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>1083.3333333333333</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -11255,7 +11285,7 @@
       </c>
       <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>736.66666666666674</v>
+        <v>906.66666666666674</v>
       </c>
       <c r="K10" s="70"/>
     </row>
@@ -11277,14 +11307,9 @@
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="54"/>
-      <c r="H11" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="93">
-        <f>SUM($G$112:$G$1000)</f>
-        <v>20</v>
-      </c>
+      <c r="J11" s="83"/>
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -13675,9 +13700,6 @@
       <c r="F111" s="81">
         <v>0</v>
       </c>
-      <c r="G111" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="58" t="s">
@@ -13700,9 +13722,7 @@
       <c r="F112" s="81">
         <v>30</v>
       </c>
-      <c r="G112" s="80">
-        <v>10</v>
-      </c>
+      <c r="G112" s="80"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
@@ -13725,9 +13745,7 @@
       <c r="F113" s="81">
         <v>30</v>
       </c>
-      <c r="G113" s="80">
-        <v>10</v>
-      </c>
+      <c r="G113" s="80"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
@@ -13741,6 +13759,15 @@
         <f>Sheet1!C127</f>
         <v>23.4</v>
       </c>
+      <c r="D114" s="80">
+        <v>200</v>
+      </c>
+      <c r="E114" s="80">
+        <v>20</v>
+      </c>
+      <c r="F114" s="81">
+        <v>60</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
@@ -13754,6 +13781,15 @@
         <f>Sheet1!C128</f>
         <v>24.4</v>
       </c>
+      <c r="D115" s="80">
+        <v>100</v>
+      </c>
+      <c r="E115" s="80">
+        <v>10</v>
+      </c>
+      <c r="F115" s="81">
+        <v>30</v>
+      </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
@@ -13766,6 +13802,15 @@
       <c r="C116" s="56">
         <f>Sheet1!C129</f>
         <v>25.4</v>
+      </c>
+      <c r="D116" s="80">
+        <v>0</v>
+      </c>
+      <c r="E116" s="80">
+        <v>0</v>
+      </c>
+      <c r="F116" s="81">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -14837,10 +14882,10 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="25" t="s">
         <v>34</v>
       </c>

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="76">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Lai Dung</t>
+  </si>
+  <si>
+    <t>102050+31300</t>
+  </si>
+  <si>
+    <t>30000 (21/05/2017)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -677,7 +683,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -686,7 +701,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137:C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,15 +1028,15 @@
     <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="85"/>
+      <c r="G1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -1045,25 +1069,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85" t="s">
+      <c r="J5" s="90"/>
+      <c r="K5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="85"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1087,39 +1111,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>72840</v>
+        <v>74400</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>6640</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="87">
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91">
         <v>70000</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="85" t="s">
+      <c r="J7" s="91"/>
+      <c r="K7" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="85"/>
+      <c r="L7" s="90"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(I8:I10011)-SUM(J8:J10011)</f>
-        <v>5280</v>
+        <f>SUM(I8:I10013)-SUM(J8:J10013)</f>
+        <v>6760</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)</f>
@@ -1136,13 +1160,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1151,7 +1175,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>53666.666666666664</v>
+        <v>54666.666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1164,13 +1188,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1179,7 +1203,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>17193.333333333336</v>
+        <v>17753.333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1192,22 +1216,22 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="1">
-        <f>72050+31300</f>
-        <v>103350</v>
+      <c r="N10" s="87">
+        <f>102050+31300</f>
+        <v>133350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1220,13 +1244,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1241,13 +1265,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1262,13 +1286,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1283,13 +1307,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1304,13 +1328,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1325,11 +1349,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1344,11 +1368,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1363,13 +1387,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1384,13 +1408,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1405,20 +1429,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="85" t="s">
+      <c r="K20" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="85"/>
+      <c r="L20" s="90"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1430,13 +1454,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1451,13 +1475,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1472,13 +1496,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1493,11 +1517,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1512,13 +1536,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1533,13 +1557,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1554,13 +1578,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1575,13 +1599,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1596,11 +1620,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1612,13 +1636,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1634,13 +1658,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1656,13 +1680,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1678,13 +1702,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1700,13 +1724,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1722,11 +1746,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1742,13 +1766,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1764,13 +1788,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1786,13 +1810,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1808,13 +1832,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1830,13 +1854,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1852,13 +1876,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1874,13 +1898,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1896,13 +1920,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1918,13 +1942,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1940,13 +1964,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1962,11 +1986,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -1982,13 +2006,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -2004,13 +2028,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2026,11 +2050,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2046,13 +2070,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2068,13 +2092,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2090,13 +2114,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2112,13 +2136,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2134,13 +2158,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2153,13 +2177,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2175,20 +2199,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D56" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="85" t="s">
+      <c r="K56" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="85"/>
+      <c r="L56" s="90"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2198,13 +2222,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2217,13 +2241,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="85" t="s">
+      <c r="D58" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2239,13 +2263,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2261,13 +2285,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2283,13 +2307,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2305,13 +2329,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2327,13 +2351,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="D63" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2349,13 +2373,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2371,13 +2395,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2393,13 +2417,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="85" t="s">
+      <c r="D66" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2415,13 +2439,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2434,13 +2458,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2456,13 +2480,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2478,13 +2502,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="85" t="s">
+      <c r="D70" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2501,13 +2525,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2523,13 +2547,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2542,13 +2566,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2561,13 +2585,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="85" t="s">
+      <c r="D74" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2586,13 +2610,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="85" t="s">
+      <c r="D75" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2608,13 +2632,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="85" t="s">
+      <c r="D76" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="90"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2630,13 +2654,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2652,13 +2676,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2674,13 +2698,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2696,13 +2720,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2718,13 +2742,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2740,13 +2764,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2762,13 +2786,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="85" t="s">
+      <c r="D83" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2784,13 +2808,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="85" t="s">
+      <c r="D84" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="90"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2806,13 +2830,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="90"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2828,13 +2852,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="85" t="s">
+      <c r="D86" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="90"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2851,13 +2875,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="85" t="s">
+      <c r="D87" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="90"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2873,13 +2897,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="85" t="s">
+      <c r="D88" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2895,13 +2919,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="85" t="s">
+      <c r="D89" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -2918,13 +2942,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="85" t="s">
+      <c r="D90" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="90"/>
+      <c r="H90" s="90"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2940,13 +2964,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="85" t="s">
+      <c r="D91" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2962,13 +2986,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="85" t="s">
+      <c r="D92" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="90"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="90"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -2981,13 +3005,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="85" t="s">
+      <c r="D93" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="90"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -3003,13 +3027,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="85" t="s">
+      <c r="D94" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="90"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3025,13 +3049,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="85" t="s">
+      <c r="D95" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="90"/>
+      <c r="H95" s="90"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3048,13 +3072,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="85" t="s">
+      <c r="D96" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3070,13 +3094,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="85" t="s">
+      <c r="D97" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="90"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3092,13 +3116,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="85" t="s">
+      <c r="D98" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
+      <c r="E98" s="90"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="90"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3114,13 +3138,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="85" t="s">
+      <c r="D99" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
+      <c r="E99" s="90"/>
+      <c r="F99" s="90"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="90"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3136,13 +3160,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="85" t="s">
+      <c r="D100" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="90"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3159,13 +3183,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="85" t="s">
+      <c r="D101" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="90"/>
+      <c r="H101" s="90"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3181,13 +3205,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="85" t="s">
+      <c r="D102" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="90"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3195,7 +3219,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <f t="shared" ref="A103:A140" si="1">A102+1</f>
+        <f t="shared" ref="A103:A166" si="1">A102+1</f>
         <v>89</v>
       </c>
       <c r="B103" s="19">
@@ -3204,13 +3228,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="85" t="s">
+      <c r="D103" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="90"/>
+      <c r="H103" s="90"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3227,13 +3251,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="85" t="s">
+      <c r="D104" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="90"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3250,13 +3274,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="85" t="s">
+      <c r="D105" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="90"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3272,11 +3296,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3292,13 +3316,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="85" t="s">
+      <c r="D107" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="90"/>
+      <c r="G107" s="90"/>
+      <c r="H107" s="90"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3314,11 +3338,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="90"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
+      <c r="H108" s="90"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3331,13 +3355,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="85" t="s">
+      <c r="D109" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="90"/>
+      <c r="H109" s="90"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3346,13 +3370,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="90"/>
+      <c r="G110" s="90"/>
+      <c r="H110" s="90"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3364,13 +3388,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="85" t="s">
+      <c r="D111" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
+      <c r="H111" s="90"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3387,13 +3411,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="85" t="s">
+      <c r="D112" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="90"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3410,13 +3434,13 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="85" t="s">
+      <c r="D113" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="90"/>
       <c r="I113" s="1">
         <v>5050</v>
       </c>
@@ -3428,13 +3452,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="85" t="s">
+      <c r="D114" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="85"/>
+      <c r="E114" s="90"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="90"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3443,13 +3467,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="85" t="s">
+      <c r="D115" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
+      <c r="E115" s="90"/>
+      <c r="F115" s="90"/>
+      <c r="G115" s="90"/>
+      <c r="H115" s="90"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3466,13 +3490,13 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="85" t="s">
+      <c r="D116" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="90"/>
       <c r="I116" s="1">
         <f t="shared" ref="I116:I118" si="2">220+140</f>
         <v>360</v>
@@ -3489,13 +3513,13 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="85" t="s">
+      <c r="D117" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
+      <c r="H117" s="90"/>
       <c r="I117" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3512,13 +3536,13 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="85" t="s">
+      <c r="D118" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="90"/>
       <c r="I118" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3535,13 +3559,13 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="85" t="s">
+      <c r="D119" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="85"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="85"/>
-      <c r="H119" s="85"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
       <c r="I119" s="1">
         <v>220</v>
       </c>
@@ -3557,13 +3581,13 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="85" t="s">
+      <c r="D120" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
+      <c r="H120" s="90"/>
       <c r="I120" s="1">
         <v>220</v>
       </c>
@@ -3579,13 +3603,13 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="85" t="s">
+      <c r="D121" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="90"/>
+      <c r="H121" s="90"/>
       <c r="I121" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -3602,13 +3626,13 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="85" t="s">
+      <c r="D122" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
+      <c r="E122" s="90"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="90"/>
+      <c r="H122" s="90"/>
       <c r="I122" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -3625,13 +3649,13 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="85" t="s">
+      <c r="D123" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
       <c r="I123" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -3648,11 +3672,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
-      <c r="G124" s="85"/>
-      <c r="H124" s="85"/>
+      <c r="D124" s="90"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
+      <c r="H124" s="90"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3665,13 +3689,13 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="85" t="s">
+      <c r="D125" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="90"/>
+      <c r="H125" s="90"/>
       <c r="I125" s="1">
         <v>150</v>
       </c>
@@ -3687,13 +3711,13 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="85" t="s">
+      <c r="D126" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="85"/>
-      <c r="F126" s="85"/>
-      <c r="G126" s="85"/>
-      <c r="H126" s="85"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
+      <c r="H126" s="90"/>
       <c r="I126" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -3710,13 +3734,13 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="85" t="s">
+      <c r="D127" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="85"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="90"/>
+      <c r="H127" s="90"/>
       <c r="I127" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -3733,19 +3757,19 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="85" t="s">
+      <c r="D128" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
-      <c r="G128" s="85"/>
-      <c r="H128" s="85"/>
+      <c r="E128" s="90"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="90"/>
+      <c r="H128" s="90"/>
       <c r="I128" s="1">
         <f>220+140</f>
         <v>360</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -3756,19 +3780,19 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="85" t="s">
+      <c r="D129" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="85"/>
-      <c r="H129" s="85"/>
+      <c r="E129" s="90"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="90"/>
       <c r="I129" s="1">
         <f>220</f>
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -3779,657 +3803,978 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="85"/>
-      <c r="G130" s="85"/>
-      <c r="H130" s="85"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="11">
-        <f t="shared" si="1"/>
+      <c r="D130" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
+      <c r="H130" s="90"/>
+      <c r="I130" s="1">
+        <f>220+150</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="84"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
+      <c r="H131" s="90"/>
+      <c r="I131" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K131" s="84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="84"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="90"/>
+      <c r="J132" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <f>A130+1</f>
         <v>113</v>
       </c>
-      <c r="B131" s="29">
+      <c r="B133" s="29">
         <v>22.5</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C133" s="29">
         <v>27.4</v>
       </c>
-      <c r="D131" s="85"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="85"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="85"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="11">
-        <f t="shared" si="1"/>
+      <c r="D133" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="90"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="90"/>
+      <c r="H133" s="90"/>
+      <c r="I133" s="1">
+        <f>220+170</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <f>A133+1</f>
         <v>114</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B134" s="29">
         <v>23.5</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C134" s="29">
         <v>28.4</v>
       </c>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="85"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="11">
+      <c r="D134" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="90"/>
+      <c r="F134" s="90"/>
+      <c r="G134" s="90"/>
+      <c r="H134" s="90"/>
+      <c r="I134" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B135" s="29">
         <v>24.5</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C135" s="29">
         <v>29.4</v>
       </c>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="85"/>
-      <c r="G133" s="85"/>
-      <c r="H133" s="85"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="11">
+      <c r="D135" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="90"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="1">
+        <f>220+140</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B136" s="29">
         <v>25.5</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C136" s="29">
         <v>30.4</v>
       </c>
-      <c r="D134" s="85"/>
-      <c r="E134" s="85"/>
-      <c r="F134" s="85"/>
-      <c r="G134" s="85"/>
-      <c r="H134" s="85"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="11">
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="90"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B135" s="29">
+      <c r="B137" s="29">
         <v>26.5</v>
       </c>
-      <c r="D135" s="85"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="85"/>
-      <c r="H135" s="85"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
+      <c r="C137" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D137" s="90"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="90"/>
+      <c r="G137" s="90"/>
+      <c r="H137" s="90"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B136" s="29">
+      <c r="B138" s="29">
         <v>27.5</v>
       </c>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="85"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="11">
+      <c r="C138" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="90"/>
+      <c r="H138" s="90"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B137" s="29">
+      <c r="B139" s="29">
         <v>28.5</v>
       </c>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="85"/>
-      <c r="H137" s="85"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="11">
+      <c r="C139" s="89">
+        <v>3.5</v>
+      </c>
+      <c r="D139" s="90"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="90"/>
+      <c r="H139" s="90"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B138" s="29">
+      <c r="B140" s="29">
         <v>29.5</v>
       </c>
-      <c r="D138" s="85"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
-      <c r="G138" s="85"/>
-      <c r="H138" s="85"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="28">
+      <c r="C140" s="89">
+        <v>4.5</v>
+      </c>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="90"/>
+      <c r="H140" s="90"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="28">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B141" s="29">
         <v>30.5</v>
       </c>
-      <c r="D139" s="85"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85"/>
-      <c r="H139" s="85"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="28">
+      <c r="C141" s="89">
+        <v>5.5</v>
+      </c>
+      <c r="D141" s="90"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="90"/>
+      <c r="G141" s="90"/>
+      <c r="H141" s="90"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="28">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B142" s="29">
         <v>31.5</v>
       </c>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="85"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="85"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D142" s="85"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="85"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="85"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="85"/>
-    </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="85"/>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="85"/>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="85"/>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="85"/>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="85"/>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="85"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="85"/>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="85"/>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D153" s="85"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="85"/>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="85"/>
-      <c r="H154" s="85"/>
-    </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D155" s="85"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="85"/>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-    </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D157" s="85"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="85"/>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="85"/>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="85"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="85"/>
-      <c r="G160" s="85"/>
-      <c r="H160" s="85"/>
-    </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="85"/>
-    </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D162" s="85"/>
-      <c r="E162" s="85"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-    </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="85"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="85"/>
-    </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D164" s="85"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="85"/>
-    </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D165" s="85"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="85"/>
-    </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="85"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="85"/>
-      <c r="G166" s="85"/>
-      <c r="H166" s="85"/>
-    </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D167" s="85"/>
-      <c r="E167" s="85"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="85"/>
-    </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D168" s="85"/>
-      <c r="E168" s="85"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
-      <c r="H168" s="85"/>
-    </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D169" s="85"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="85"/>
-    </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D170" s="85"/>
-      <c r="E170" s="85"/>
-      <c r="F170" s="85"/>
-      <c r="G170" s="85"/>
-      <c r="H170" s="85"/>
-    </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D171" s="85"/>
-      <c r="E171" s="85"/>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="85"/>
-    </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="85"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="85"/>
-    </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D173" s="85"/>
-      <c r="E173" s="85"/>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="85"/>
-    </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D174" s="85"/>
-      <c r="E174" s="85"/>
-      <c r="F174" s="85"/>
-      <c r="G174" s="85"/>
-      <c r="H174" s="85"/>
-    </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D175" s="85"/>
-      <c r="E175" s="85"/>
-      <c r="F175" s="85"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="85"/>
-    </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D176" s="85"/>
-      <c r="E176" s="85"/>
-      <c r="F176" s="85"/>
-      <c r="G176" s="85"/>
-      <c r="H176" s="85"/>
-    </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-    </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D178" s="85"/>
-      <c r="E178" s="85"/>
-      <c r="F178" s="85"/>
-      <c r="G178" s="85"/>
-      <c r="H178" s="85"/>
-    </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D179" s="85"/>
-      <c r="E179" s="85"/>
-      <c r="F179" s="85"/>
-      <c r="G179" s="85"/>
-      <c r="H179" s="85"/>
-    </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D180" s="85"/>
-      <c r="E180" s="85"/>
-      <c r="F180" s="85"/>
-      <c r="G180" s="85"/>
-      <c r="H180" s="85"/>
-    </row>
-    <row r="181" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D181" s="85"/>
-      <c r="E181" s="85"/>
-      <c r="F181" s="85"/>
-      <c r="G181" s="85"/>
-      <c r="H181" s="85"/>
-    </row>
-    <row r="182" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D182" s="85"/>
-      <c r="E182" s="85"/>
-      <c r="F182" s="85"/>
-      <c r="G182" s="85"/>
-      <c r="H182" s="85"/>
-    </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D183" s="85"/>
-      <c r="E183" s="85"/>
-      <c r="F183" s="85"/>
-      <c r="G183" s="85"/>
-      <c r="H183" s="85"/>
-    </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D184" s="85"/>
-      <c r="E184" s="85"/>
-      <c r="F184" s="85"/>
-      <c r="G184" s="85"/>
-      <c r="H184" s="85"/>
-    </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D185" s="85"/>
-      <c r="E185" s="85"/>
-      <c r="F185" s="85"/>
-      <c r="G185" s="85"/>
-      <c r="H185" s="85"/>
-    </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D186" s="85"/>
-      <c r="E186" s="85"/>
-      <c r="F186" s="85"/>
-      <c r="G186" s="85"/>
-      <c r="H186" s="85"/>
+      <c r="C142" s="89">
+        <v>6.5</v>
+      </c>
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="90"/>
+      <c r="H142" s="90"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="88">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C143" s="89">
+        <v>7.5</v>
+      </c>
+      <c r="D143" s="90"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="90"/>
+      <c r="G143" s="90"/>
+      <c r="H143" s="90"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="88">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="C144" s="89">
+        <v>8.5</v>
+      </c>
+      <c r="D144" s="90"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="90"/>
+      <c r="H144" s="90"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="88">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B145" s="89">
+        <v>3.6</v>
+      </c>
+      <c r="C145" s="89">
+        <v>9.5</v>
+      </c>
+      <c r="D145" s="90"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="90"/>
+      <c r="G145" s="90"/>
+      <c r="H145" s="90"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="88">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B146" s="89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C146" s="89">
+        <v>10.5</v>
+      </c>
+      <c r="D146" s="90"/>
+      <c r="E146" s="90"/>
+      <c r="F146" s="90"/>
+      <c r="G146" s="90"/>
+      <c r="H146" s="90"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="88">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B147" s="89">
+        <v>5.6</v>
+      </c>
+      <c r="C147" s="89">
+        <v>11.5</v>
+      </c>
+      <c r="D147" s="90"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="90"/>
+      <c r="G147" s="90"/>
+      <c r="H147" s="90"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="88">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B148" s="89">
+        <v>6.6</v>
+      </c>
+      <c r="C148" s="89">
+        <v>12.5</v>
+      </c>
+      <c r="D148" s="90"/>
+      <c r="E148" s="90"/>
+      <c r="F148" s="90"/>
+      <c r="G148" s="90"/>
+      <c r="H148" s="90"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="88">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B149" s="89">
+        <v>7.6</v>
+      </c>
+      <c r="C149" s="89">
+        <v>13.5</v>
+      </c>
+      <c r="D149" s="90"/>
+      <c r="E149" s="90"/>
+      <c r="F149" s="90"/>
+      <c r="G149" s="90"/>
+      <c r="H149" s="90"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="88">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B150" s="89">
+        <v>8.6</v>
+      </c>
+      <c r="C150" s="89">
+        <v>14.5</v>
+      </c>
+      <c r="D150" s="90"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="90"/>
+      <c r="H150" s="90"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="88">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B151" s="89">
+        <v>9.6</v>
+      </c>
+      <c r="C151" s="89">
+        <v>15.5</v>
+      </c>
+      <c r="D151" s="90"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="90"/>
+      <c r="G151" s="90"/>
+      <c r="H151" s="90"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="88">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B152" s="89">
+        <v>10.6</v>
+      </c>
+      <c r="C152" s="89">
+        <v>16.5</v>
+      </c>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="90"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="88">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B153" s="89">
+        <v>11.6</v>
+      </c>
+      <c r="C153" s="89">
+        <v>17.5</v>
+      </c>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="88">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="B154" s="89">
+        <v>12.6</v>
+      </c>
+      <c r="C154" s="89">
+        <v>18.5</v>
+      </c>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="90"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="88">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="B155" s="89">
+        <v>13.6</v>
+      </c>
+      <c r="C155" s="89">
+        <v>19.5</v>
+      </c>
+      <c r="D155" s="90"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="90"/>
+      <c r="G155" s="90"/>
+      <c r="H155" s="90"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="88">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="B156" s="89">
+        <v>14.6</v>
+      </c>
+      <c r="C156" s="89">
+        <v>20.5</v>
+      </c>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
+      <c r="H156" s="90"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="88">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="B157" s="89">
+        <v>15.6</v>
+      </c>
+      <c r="C157" s="89">
+        <v>21.5</v>
+      </c>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="88">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B158" s="89">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C158" s="89">
+        <v>22.5</v>
+      </c>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="88">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="B159" s="89">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C159" s="89">
+        <v>23.5</v>
+      </c>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="90"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="88">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B160" s="89">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C160" s="89">
+        <v>24.5</v>
+      </c>
+      <c r="D160" s="90"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="90"/>
+      <c r="H160" s="90"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="88">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="B161" s="89">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C161" s="89">
+        <v>25.5</v>
+      </c>
+      <c r="D161" s="90"/>
+      <c r="E161" s="90"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="90"/>
+      <c r="H161" s="90"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="88">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="B162" s="89">
+        <v>20.6</v>
+      </c>
+      <c r="C162" s="89">
+        <v>26.5</v>
+      </c>
+      <c r="D162" s="90"/>
+      <c r="E162" s="90"/>
+      <c r="F162" s="90"/>
+      <c r="G162" s="90"/>
+      <c r="H162" s="90"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="88">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="B163" s="89">
+        <v>21.6</v>
+      </c>
+      <c r="C163" s="89">
+        <v>27.5</v>
+      </c>
+      <c r="D163" s="90"/>
+      <c r="E163" s="90"/>
+      <c r="F163" s="90"/>
+      <c r="G163" s="90"/>
+      <c r="H163" s="90"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="88">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="B164" s="89">
+        <v>22.6</v>
+      </c>
+      <c r="C164" s="89">
+        <v>28.5</v>
+      </c>
+      <c r="D164" s="90"/>
+      <c r="E164" s="90"/>
+      <c r="F164" s="90"/>
+      <c r="G164" s="90"/>
+      <c r="H164" s="90"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="88">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="B165" s="89">
+        <v>23.6</v>
+      </c>
+      <c r="C165" s="89">
+        <v>29.5</v>
+      </c>
+      <c r="D165" s="90"/>
+      <c r="E165" s="90"/>
+      <c r="F165" s="90"/>
+      <c r="G165" s="90"/>
+      <c r="H165" s="90"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="88">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="B166" s="89">
+        <v>24.6</v>
+      </c>
+      <c r="D166" s="90"/>
+      <c r="E166" s="90"/>
+      <c r="F166" s="90"/>
+      <c r="G166" s="90"/>
+      <c r="H166" s="90"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="88">
+        <f t="shared" ref="A167:A200" si="3">A166+1</f>
+        <v>147</v>
+      </c>
+      <c r="B167" s="89">
+        <v>25.6</v>
+      </c>
+      <c r="D167" s="90"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="90"/>
+      <c r="G167" s="90"/>
+      <c r="H167" s="90"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="88">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B168" s="89">
+        <v>26.6</v>
+      </c>
+      <c r="D168" s="90"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="90"/>
+      <c r="G168" s="90"/>
+      <c r="H168" s="90"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="88">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="B169" s="89">
+        <v>27.6</v>
+      </c>
+      <c r="D169" s="90"/>
+      <c r="E169" s="90"/>
+      <c r="F169" s="90"/>
+      <c r="G169" s="90"/>
+      <c r="H169" s="90"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="88">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="B170" s="89">
+        <v>28.6</v>
+      </c>
+      <c r="D170" s="90"/>
+      <c r="E170" s="90"/>
+      <c r="F170" s="90"/>
+      <c r="G170" s="90"/>
+      <c r="H170" s="90"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="88">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="B171" s="89">
+        <v>29.6</v>
+      </c>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="90"/>
+      <c r="G171" s="90"/>
+      <c r="H171" s="90"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="88">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="B172" s="89">
+        <v>30.6</v>
+      </c>
+      <c r="D172" s="90"/>
+      <c r="E172" s="90"/>
+      <c r="F172" s="90"/>
+      <c r="G172" s="90"/>
+      <c r="H172" s="90"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="88">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="D173" s="90"/>
+      <c r="E173" s="90"/>
+      <c r="F173" s="90"/>
+      <c r="G173" s="90"/>
+      <c r="H173" s="90"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="88">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="D174" s="90"/>
+      <c r="E174" s="90"/>
+      <c r="F174" s="90"/>
+      <c r="G174" s="90"/>
+      <c r="H174" s="90"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="88">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="90"/>
+      <c r="H175" s="90"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="88">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="D176" s="90"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="90"/>
+      <c r="G176" s="90"/>
+      <c r="H176" s="90"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="88">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="D177" s="90"/>
+      <c r="E177" s="90"/>
+      <c r="F177" s="90"/>
+      <c r="G177" s="90"/>
+      <c r="H177" s="90"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="88">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="D178" s="90"/>
+      <c r="E178" s="90"/>
+      <c r="F178" s="90"/>
+      <c r="G178" s="90"/>
+      <c r="H178" s="90"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="88">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="D179" s="90"/>
+      <c r="E179" s="90"/>
+      <c r="F179" s="90"/>
+      <c r="G179" s="90"/>
+      <c r="H179" s="90"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="88">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="D180" s="90"/>
+      <c r="E180" s="90"/>
+      <c r="F180" s="90"/>
+      <c r="G180" s="90"/>
+      <c r="H180" s="90"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="88">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="D181" s="90"/>
+      <c r="E181" s="90"/>
+      <c r="F181" s="90"/>
+      <c r="G181" s="90"/>
+      <c r="H181" s="90"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="88">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="D182" s="90"/>
+      <c r="E182" s="90"/>
+      <c r="F182" s="90"/>
+      <c r="G182" s="90"/>
+      <c r="H182" s="90"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="88">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="90"/>
+      <c r="G183" s="90"/>
+      <c r="H183" s="90"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="88">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="D184" s="90"/>
+      <c r="E184" s="90"/>
+      <c r="F184" s="90"/>
+      <c r="G184" s="90"/>
+      <c r="H184" s="90"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="88">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="D185" s="90"/>
+      <c r="E185" s="90"/>
+      <c r="F185" s="90"/>
+      <c r="G185" s="90"/>
+      <c r="H185" s="90"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="88">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="D186" s="90"/>
+      <c r="E186" s="90"/>
+      <c r="F186" s="90"/>
+      <c r="G186" s="90"/>
+      <c r="H186" s="90"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="88">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="D187" s="90"/>
+      <c r="E187" s="90"/>
+      <c r="F187" s="90"/>
+      <c r="G187" s="90"/>
+      <c r="H187" s="90"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="88">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="D188" s="90"/>
+      <c r="E188" s="90"/>
+      <c r="F188" s="90"/>
+      <c r="G188" s="90"/>
+      <c r="H188" s="90"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="88">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="88">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="88">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="88">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="88">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="88">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="88">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="88">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="88">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="88">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="88">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="88">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D184:H184"/>
-    <mergeCell ref="D185:H185"/>
-    <mergeCell ref="D186:H186"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D178:H178"/>
-    <mergeCell ref="D179:H179"/>
-    <mergeCell ref="D180:H180"/>
-    <mergeCell ref="D181:H181"/>
-    <mergeCell ref="D182:H182"/>
-    <mergeCell ref="D183:H183"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D174:H174"/>
-    <mergeCell ref="D175:H175"/>
-    <mergeCell ref="D176:H176"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D169:H169"/>
-    <mergeCell ref="D170:H170"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
+  <mergeCells count="191">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -4450,6 +4795,177 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D187:H187"/>
+    <mergeCell ref="D188:H188"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D180:H180"/>
+    <mergeCell ref="D181:H181"/>
+    <mergeCell ref="D182:H182"/>
+    <mergeCell ref="D183:H183"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D178:H178"/>
+    <mergeCell ref="D179:H179"/>
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D169:H169"/>
+    <mergeCell ref="D170:H170"/>
+    <mergeCell ref="D171:H171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4541,10 +5057,10 @@
       <c r="A4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -5932,8 +6448,8 @@
         <f>Sheet1!C89</f>
         <v>19.3</v>
       </c>
-      <c r="D67" s="88"/>
-      <c r="E67" s="89"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="95"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -5956,8 +6472,8 @@
         <f>Sheet1!C90</f>
         <v>20.3</v>
       </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="89"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="95"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
@@ -5980,14 +6496,14 @@
         <f>Sheet1!C91</f>
         <v>21.3</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="95"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
-      <c r="O69" s="92"/>
-      <c r="P69" s="92"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="98"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
     </row>
@@ -6003,8 +6519,8 @@
         <f>Sheet1!C92</f>
         <v>22.3</v>
       </c>
-      <c r="D70" s="90"/>
-      <c r="E70" s="91"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="97"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -6062,10 +6578,10 @@
       <c r="A73" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="93"/>
+      <c r="C73" s="99"/>
       <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
@@ -6128,8 +6644,8 @@
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
-      <c r="O75" s="92"/>
-      <c r="P75" s="92"/>
+      <c r="O75" s="98"/>
+      <c r="P75" s="98"/>
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
     </row>
@@ -6774,11 +7290,11 @@
         <v>26</v>
       </c>
       <c r="B108" s="54">
-        <f>Sheet1!B131</f>
+        <f>Sheet1!B133</f>
         <v>22.5</v>
       </c>
       <c r="C108" s="54">
-        <f>Sheet1!C131</f>
+        <f>Sheet1!C133</f>
         <v>27.4</v>
       </c>
       <c r="D108" s="54"/>
@@ -6793,11 +7309,11 @@
         <v>27</v>
       </c>
       <c r="B109" s="54">
-        <f>Sheet1!B132</f>
+        <f>Sheet1!B134</f>
         <v>23.5</v>
       </c>
       <c r="C109" s="54">
-        <f>Sheet1!C132</f>
+        <f>Sheet1!C134</f>
         <v>28.4</v>
       </c>
       <c r="D109" s="54"/>
@@ -6812,11 +7328,11 @@
         <v>28</v>
       </c>
       <c r="B110" s="54">
-        <f>Sheet1!B133</f>
+        <f>Sheet1!B135</f>
         <v>24.5</v>
       </c>
       <c r="C110" s="54">
-        <f>Sheet1!C133</f>
+        <f>Sheet1!C135</f>
         <v>29.4</v>
       </c>
       <c r="D110" s="54"/>
@@ -6831,11 +7347,11 @@
         <v>29</v>
       </c>
       <c r="B111" s="54">
-        <f>Sheet1!B134</f>
+        <f>Sheet1!B136</f>
         <v>25.5</v>
       </c>
       <c r="C111" s="54">
-        <f>Sheet1!C134</f>
+        <f>Sheet1!C136</f>
         <v>30.4</v>
       </c>
       <c r="D111" s="54"/>
@@ -6850,12 +7366,12 @@
         <v>30</v>
       </c>
       <c r="B112" s="54">
-        <f>Sheet1!B135</f>
+        <f>Sheet1!B137</f>
         <v>26.5</v>
       </c>
       <c r="C112" s="54">
-        <f>Sheet1!C135</f>
-        <v>0</v>
+        <f>Sheet1!C137</f>
+        <v>1.5</v>
       </c>
       <c r="D112" s="54"/>
       <c r="E112" s="54"/>
@@ -6869,12 +7385,12 @@
         <v>31</v>
       </c>
       <c r="B113" s="54">
-        <f>Sheet1!B136</f>
+        <f>Sheet1!B138</f>
         <v>27.5</v>
       </c>
       <c r="C113" s="54">
-        <f>Sheet1!C136</f>
-        <v>0</v>
+        <f>Sheet1!C138</f>
+        <v>2.5</v>
       </c>
       <c r="D113" s="54"/>
       <c r="E113" s="54"/>
@@ -6888,12 +7404,12 @@
         <v>32</v>
       </c>
       <c r="B114" s="54">
-        <f>Sheet1!B137</f>
+        <f>Sheet1!B139</f>
         <v>28.5</v>
       </c>
       <c r="C114" s="54">
-        <f>Sheet1!C137</f>
-        <v>0</v>
+        <f>Sheet1!C139</f>
+        <v>3.5</v>
       </c>
       <c r="D114" s="54"/>
       <c r="E114" s="54"/>
@@ -6907,12 +7423,12 @@
         <v>26</v>
       </c>
       <c r="B115" s="54">
-        <f>Sheet1!B138</f>
+        <f>Sheet1!B140</f>
         <v>29.5</v>
       </c>
       <c r="C115" s="54">
-        <f>Sheet1!C138</f>
-        <v>0</v>
+        <f>Sheet1!C140</f>
+        <v>4.5</v>
       </c>
       <c r="D115" s="54"/>
       <c r="E115" s="54"/>
@@ -6926,12 +7442,12 @@
         <v>27</v>
       </c>
       <c r="B116" s="54">
-        <f>Sheet1!B139</f>
+        <f>Sheet1!B141</f>
         <v>30.5</v>
       </c>
       <c r="C116" s="54">
-        <f>Sheet1!C139</f>
-        <v>0</v>
+        <f>Sheet1!C141</f>
+        <v>5.5</v>
       </c>
       <c r="D116" s="54"/>
       <c r="E116" s="54"/>
@@ -6945,12 +7461,12 @@
         <v>28</v>
       </c>
       <c r="B117" s="54">
-        <f>Sheet1!B140</f>
+        <f>Sheet1!B142</f>
         <v>31.5</v>
       </c>
       <c r="C117" s="54">
-        <f>Sheet1!C140</f>
-        <v>0</v>
+        <f>Sheet1!C142</f>
+        <v>6.5</v>
       </c>
       <c r="D117" s="54"/>
       <c r="E117" s="54"/>
@@ -6964,12 +7480,12 @@
         <v>29</v>
       </c>
       <c r="B118" s="54">
-        <f>Sheet1!B141</f>
-        <v>0</v>
+        <f>Sheet1!B143</f>
+        <v>1.6</v>
       </c>
       <c r="C118" s="54">
-        <f>Sheet1!C141</f>
-        <v>0</v>
+        <f>Sheet1!C143</f>
+        <v>7.5</v>
       </c>
       <c r="D118" s="54"/>
       <c r="E118" s="54"/>
@@ -6983,12 +7499,12 @@
         <v>30</v>
       </c>
       <c r="B119" s="54">
-        <f>Sheet1!B142</f>
-        <v>0</v>
+        <f>Sheet1!B144</f>
+        <v>2.6</v>
       </c>
       <c r="C119" s="54">
-        <f>Sheet1!C142</f>
-        <v>0</v>
+        <f>Sheet1!C144</f>
+        <v>8.5</v>
       </c>
       <c r="D119" s="54"/>
       <c r="E119" s="54"/>
@@ -7002,12 +7518,12 @@
         <v>31</v>
       </c>
       <c r="B120" s="54">
-        <f>Sheet1!B143</f>
-        <v>0</v>
+        <f>Sheet1!B145</f>
+        <v>3.6</v>
       </c>
       <c r="C120" s="54">
-        <f>Sheet1!C143</f>
-        <v>0</v>
+        <f>Sheet1!C145</f>
+        <v>9.5</v>
       </c>
       <c r="D120" s="54"/>
       <c r="E120" s="54"/>
@@ -7021,12 +7537,12 @@
         <v>32</v>
       </c>
       <c r="B121" s="54">
-        <f>Sheet1!B144</f>
-        <v>0</v>
+        <f>Sheet1!B146</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C121" s="54">
-        <f>Sheet1!C144</f>
-        <v>0</v>
+        <f>Sheet1!C146</f>
+        <v>10.5</v>
       </c>
       <c r="D121" s="54"/>
       <c r="E121" s="54"/>
@@ -7040,12 +7556,12 @@
         <v>26</v>
       </c>
       <c r="B122" s="54">
-        <f>Sheet1!B145</f>
-        <v>0</v>
+        <f>Sheet1!B147</f>
+        <v>5.6</v>
       </c>
       <c r="C122" s="54">
-        <f>Sheet1!C145</f>
-        <v>0</v>
+        <f>Sheet1!C147</f>
+        <v>11.5</v>
       </c>
       <c r="D122" s="54"/>
       <c r="E122" s="54"/>
@@ -7059,12 +7575,12 @@
         <v>27</v>
       </c>
       <c r="B123" s="54">
-        <f>Sheet1!B146</f>
-        <v>0</v>
+        <f>Sheet1!B148</f>
+        <v>6.6</v>
       </c>
       <c r="C123" s="54">
-        <f>Sheet1!C146</f>
-        <v>0</v>
+        <f>Sheet1!C148</f>
+        <v>12.5</v>
       </c>
       <c r="D123" s="54"/>
       <c r="E123" s="54"/>
@@ -7078,12 +7594,12 @@
         <v>28</v>
       </c>
       <c r="B124" s="54">
-        <f>Sheet1!B147</f>
-        <v>0</v>
+        <f>Sheet1!B149</f>
+        <v>7.6</v>
       </c>
       <c r="C124" s="54">
-        <f>Sheet1!C147</f>
-        <v>0</v>
+        <f>Sheet1!C149</f>
+        <v>13.5</v>
       </c>
       <c r="D124" s="54"/>
       <c r="E124" s="54"/>
@@ -7097,12 +7613,12 @@
         <v>29</v>
       </c>
       <c r="B125" s="54">
-        <f>Sheet1!B148</f>
-        <v>0</v>
+        <f>Sheet1!B150</f>
+        <v>8.6</v>
       </c>
       <c r="C125" s="54">
-        <f>Sheet1!C148</f>
-        <v>0</v>
+        <f>Sheet1!C150</f>
+        <v>14.5</v>
       </c>
       <c r="D125" s="54"/>
       <c r="E125" s="54"/>
@@ -7116,12 +7632,12 @@
         <v>30</v>
       </c>
       <c r="B126" s="54">
-        <f>Sheet1!B149</f>
-        <v>0</v>
+        <f>Sheet1!B151</f>
+        <v>9.6</v>
       </c>
       <c r="C126" s="54">
-        <f>Sheet1!C149</f>
-        <v>0</v>
+        <f>Sheet1!C151</f>
+        <v>15.5</v>
       </c>
       <c r="D126" s="54"/>
       <c r="E126" s="54"/>
@@ -7135,12 +7651,12 @@
         <v>31</v>
       </c>
       <c r="B127" s="54">
-        <f>Sheet1!B150</f>
-        <v>0</v>
+        <f>Sheet1!B152</f>
+        <v>10.6</v>
       </c>
       <c r="C127" s="54">
-        <f>Sheet1!C150</f>
-        <v>0</v>
+        <f>Sheet1!C152</f>
+        <v>16.5</v>
       </c>
       <c r="D127" s="54"/>
       <c r="E127" s="54"/>
@@ -7154,12 +7670,12 @@
         <v>32</v>
       </c>
       <c r="B128" s="54">
-        <f>Sheet1!B151</f>
-        <v>0</v>
+        <f>Sheet1!B153</f>
+        <v>11.6</v>
       </c>
       <c r="C128" s="54">
-        <f>Sheet1!C151</f>
-        <v>0</v>
+        <f>Sheet1!C153</f>
+        <v>17.5</v>
       </c>
       <c r="D128" s="54"/>
       <c r="E128" s="54"/>
@@ -7173,12 +7689,12 @@
         <v>26</v>
       </c>
       <c r="B129" s="54">
-        <f>Sheet1!B152</f>
-        <v>0</v>
+        <f>Sheet1!B154</f>
+        <v>12.6</v>
       </c>
       <c r="C129" s="54">
-        <f>Sheet1!C152</f>
-        <v>0</v>
+        <f>Sheet1!C154</f>
+        <v>18.5</v>
       </c>
       <c r="D129" s="54"/>
       <c r="E129" s="54"/>
@@ -7192,12 +7708,12 @@
         <v>27</v>
       </c>
       <c r="B130" s="54">
-        <f>Sheet1!B153</f>
-        <v>0</v>
+        <f>Sheet1!B155</f>
+        <v>13.6</v>
       </c>
       <c r="C130" s="54">
-        <f>Sheet1!C153</f>
-        <v>0</v>
+        <f>Sheet1!C155</f>
+        <v>19.5</v>
       </c>
       <c r="D130" s="54"/>
       <c r="E130" s="54"/>
@@ -7211,12 +7727,12 @@
         <v>28</v>
       </c>
       <c r="B131" s="54">
-        <f>Sheet1!B154</f>
-        <v>0</v>
+        <f>Sheet1!B156</f>
+        <v>14.6</v>
       </c>
       <c r="C131" s="54">
-        <f>Sheet1!C154</f>
-        <v>0</v>
+        <f>Sheet1!C156</f>
+        <v>20.5</v>
       </c>
       <c r="D131" s="54"/>
       <c r="E131" s="54"/>
@@ -7230,12 +7746,12 @@
         <v>29</v>
       </c>
       <c r="B132" s="54">
-        <f>Sheet1!B155</f>
-        <v>0</v>
+        <f>Sheet1!B157</f>
+        <v>15.6</v>
       </c>
       <c r="C132" s="54">
-        <f>Sheet1!C155</f>
-        <v>0</v>
+        <f>Sheet1!C157</f>
+        <v>21.5</v>
       </c>
       <c r="D132" s="54"/>
       <c r="E132" s="54"/>
@@ -7249,12 +7765,12 @@
         <v>30</v>
       </c>
       <c r="B133" s="54">
-        <f>Sheet1!B156</f>
-        <v>0</v>
+        <f>Sheet1!B158</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="C133" s="54">
-        <f>Sheet1!C156</f>
-        <v>0</v>
+        <f>Sheet1!C158</f>
+        <v>22.5</v>
       </c>
       <c r="D133" s="54"/>
       <c r="E133" s="54"/>
@@ -7268,12 +7784,12 @@
         <v>31</v>
       </c>
       <c r="B134" s="54">
-        <f>Sheet1!B157</f>
-        <v>0</v>
+        <f>Sheet1!B159</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="C134" s="54">
-        <f>Sheet1!C157</f>
-        <v>0</v>
+        <f>Sheet1!C159</f>
+        <v>23.5</v>
       </c>
       <c r="D134" s="54"/>
       <c r="E134" s="54"/>
@@ -7287,12 +7803,12 @@
         <v>32</v>
       </c>
       <c r="B135" s="54">
-        <f>Sheet1!B158</f>
-        <v>0</v>
+        <f>Sheet1!B160</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="C135" s="54">
-        <f>Sheet1!C158</f>
-        <v>0</v>
+        <f>Sheet1!C160</f>
+        <v>24.5</v>
       </c>
       <c r="D135" s="54"/>
       <c r="E135" s="54"/>
@@ -7306,12 +7822,12 @@
         <v>26</v>
       </c>
       <c r="B136" s="54">
-        <f>Sheet1!B159</f>
-        <v>0</v>
+        <f>Sheet1!B161</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="C136" s="54">
-        <f>Sheet1!C159</f>
-        <v>0</v>
+        <f>Sheet1!C161</f>
+        <v>25.5</v>
       </c>
       <c r="D136" s="54"/>
       <c r="E136" s="54"/>
@@ -7325,12 +7841,12 @@
         <v>27</v>
       </c>
       <c r="B137" s="54">
-        <f>Sheet1!B160</f>
-        <v>0</v>
+        <f>Sheet1!B162</f>
+        <v>20.6</v>
       </c>
       <c r="C137" s="54">
-        <f>Sheet1!C160</f>
-        <v>0</v>
+        <f>Sheet1!C162</f>
+        <v>26.5</v>
       </c>
       <c r="D137" s="54"/>
       <c r="E137" s="54"/>
@@ -7344,12 +7860,12 @@
         <v>28</v>
       </c>
       <c r="B138" s="54">
-        <f>Sheet1!B161</f>
-        <v>0</v>
+        <f>Sheet1!B163</f>
+        <v>21.6</v>
       </c>
       <c r="C138" s="54">
-        <f>Sheet1!C161</f>
-        <v>0</v>
+        <f>Sheet1!C163</f>
+        <v>27.5</v>
       </c>
       <c r="D138" s="54"/>
       <c r="E138" s="54"/>
@@ -7363,12 +7879,12 @@
         <v>29</v>
       </c>
       <c r="B139" s="54">
-        <f>Sheet1!B162</f>
-        <v>0</v>
+        <f>Sheet1!B164</f>
+        <v>22.6</v>
       </c>
       <c r="C139" s="54">
-        <f>Sheet1!C162</f>
-        <v>0</v>
+        <f>Sheet1!C164</f>
+        <v>28.5</v>
       </c>
       <c r="D139" s="54"/>
       <c r="E139" s="54"/>
@@ -7382,12 +7898,12 @@
         <v>30</v>
       </c>
       <c r="B140" s="54">
-        <f>Sheet1!B163</f>
-        <v>0</v>
+        <f>Sheet1!B165</f>
+        <v>23.6</v>
       </c>
       <c r="C140" s="54">
-        <f>Sheet1!C163</f>
-        <v>0</v>
+        <f>Sheet1!C165</f>
+        <v>29.5</v>
       </c>
       <c r="D140" s="54"/>
       <c r="E140" s="54"/>
@@ -7401,11 +7917,11 @@
         <v>31</v>
       </c>
       <c r="B141" s="54">
-        <f>Sheet1!B164</f>
-        <v>0</v>
+        <f>Sheet1!B166</f>
+        <v>24.6</v>
       </c>
       <c r="C141" s="54">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C166</f>
         <v>0</v>
       </c>
       <c r="D141" s="54"/>
@@ -7420,11 +7936,11 @@
         <v>32</v>
       </c>
       <c r="B142" s="54">
-        <f>Sheet1!B165</f>
-        <v>0</v>
+        <f>Sheet1!B167</f>
+        <v>25.6</v>
       </c>
       <c r="C142" s="54">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C167</f>
         <v>0</v>
       </c>
       <c r="D142" s="54"/>
@@ -7439,11 +7955,11 @@
         <v>26</v>
       </c>
       <c r="B143" s="54">
-        <f>Sheet1!B166</f>
-        <v>0</v>
+        <f>Sheet1!B168</f>
+        <v>26.6</v>
       </c>
       <c r="C143" s="54">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C168</f>
         <v>0</v>
       </c>
       <c r="D143" s="54"/>
@@ -7458,11 +7974,11 @@
         <v>27</v>
       </c>
       <c r="B144" s="54">
-        <f>Sheet1!B167</f>
-        <v>0</v>
+        <f>Sheet1!B169</f>
+        <v>27.6</v>
       </c>
       <c r="C144" s="54">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C169</f>
         <v>0</v>
       </c>
       <c r="D144" s="54"/>
@@ -7477,11 +7993,11 @@
         <v>28</v>
       </c>
       <c r="B145" s="54">
-        <f>Sheet1!B168</f>
-        <v>0</v>
+        <f>Sheet1!B170</f>
+        <v>28.6</v>
       </c>
       <c r="C145" s="54">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C170</f>
         <v>0</v>
       </c>
       <c r="D145" s="54"/>
@@ -7496,11 +8012,11 @@
         <v>29</v>
       </c>
       <c r="B146" s="54">
-        <f>Sheet1!B169</f>
-        <v>0</v>
+        <f>Sheet1!B171</f>
+        <v>29.6</v>
       </c>
       <c r="C146" s="54">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C171</f>
         <v>0</v>
       </c>
       <c r="D146" s="54"/>
@@ -7515,11 +8031,11 @@
         <v>30</v>
       </c>
       <c r="B147" s="54">
-        <f>Sheet1!B170</f>
-        <v>0</v>
+        <f>Sheet1!B172</f>
+        <v>30.6</v>
       </c>
       <c r="C147" s="54">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
       <c r="D147" s="54"/>
@@ -7534,11 +8050,11 @@
         <v>31</v>
       </c>
       <c r="B148" s="54">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B173</f>
         <v>0</v>
       </c>
       <c r="C148" s="54">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
       <c r="D148" s="54"/>
@@ -7553,11 +8069,11 @@
         <v>32</v>
       </c>
       <c r="B149" s="54">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B174</f>
         <v>0</v>
       </c>
       <c r="C149" s="54">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
       <c r="D149" s="54"/>
@@ -7572,11 +8088,11 @@
         <v>26</v>
       </c>
       <c r="B150" s="54">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B175</f>
         <v>0</v>
       </c>
       <c r="C150" s="54">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
       <c r="D150" s="54"/>
@@ -7591,11 +8107,11 @@
         <v>27</v>
       </c>
       <c r="B151" s="54">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B176</f>
         <v>0</v>
       </c>
       <c r="C151" s="54">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
       <c r="D151" s="54"/>
@@ -7610,11 +8126,11 @@
         <v>28</v>
       </c>
       <c r="B152" s="54">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B177</f>
         <v>0</v>
       </c>
       <c r="C152" s="54">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
       <c r="D152" s="54"/>
@@ -7641,8 +8157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118:F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7704,10 +8220,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -7720,15 +8236,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>23720</v>
+        <v>24680</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>2320</v>
+        <v>2480</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -7801,7 +8317,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -7828,7 +8344,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -7851,11 +8367,11 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>1980</v>
+        <v>2060</v>
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -7890,7 +8406,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>2833.333333333333</v>
+        <v>3500</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -7921,11 +8437,11 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>4980</v>
+        <v>5060</v>
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>906.66666666666697</v>
+        <v>1120</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -10027,18 +10543,30 @@
         <f>Sheet1!C130</f>
         <v>26.4</v>
       </c>
+      <c r="D117" s="54">
+        <v>200</v>
+      </c>
+      <c r="F117" s="70">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B118" s="56">
-        <f>Sheet1!B131</f>
+        <f>Sheet1!B133</f>
         <v>22.5</v>
       </c>
       <c r="C118" s="56">
-        <f>Sheet1!C131</f>
+        <f>Sheet1!C133</f>
         <v>27.4</v>
+      </c>
+      <c r="D118" s="54">
+        <v>200</v>
+      </c>
+      <c r="F118" s="70">
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -10046,12 +10574,18 @@
         <v>27</v>
       </c>
       <c r="B119" s="56">
-        <f>Sheet1!B132</f>
+        <f>Sheet1!B134</f>
         <v>23.5</v>
       </c>
       <c r="C119" s="56">
-        <f>Sheet1!C132</f>
+        <f>Sheet1!C134</f>
         <v>28.4</v>
+      </c>
+      <c r="D119" s="54">
+        <v>200</v>
+      </c>
+      <c r="F119" s="70">
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -10059,12 +10593,18 @@
         <v>28</v>
       </c>
       <c r="B120" s="56">
-        <f>Sheet1!B133</f>
+        <f>Sheet1!B135</f>
         <v>24.5</v>
       </c>
       <c r="C120" s="56">
-        <f>Sheet1!C133</f>
+        <f>Sheet1!C135</f>
         <v>29.4</v>
+      </c>
+      <c r="D120" s="54">
+        <v>200</v>
+      </c>
+      <c r="F120" s="70">
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -10072,11 +10612,11 @@
         <v>29</v>
       </c>
       <c r="B121" s="56">
-        <f>Sheet1!B134</f>
+        <f>Sheet1!B136</f>
         <v>25.5</v>
       </c>
       <c r="C121" s="56">
-        <f>Sheet1!C134</f>
+        <f>Sheet1!C136</f>
         <v>30.4</v>
       </c>
     </row>
@@ -10085,12 +10625,12 @@
         <v>30</v>
       </c>
       <c r="B122" s="56">
-        <f>Sheet1!B135</f>
+        <f>Sheet1!B137</f>
         <v>26.5</v>
       </c>
       <c r="C122" s="56">
-        <f>Sheet1!C135</f>
-        <v>0</v>
+        <f>Sheet1!C137</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -10098,12 +10638,12 @@
         <v>31</v>
       </c>
       <c r="B123" s="56">
-        <f>Sheet1!B136</f>
+        <f>Sheet1!B138</f>
         <v>27.5</v>
       </c>
       <c r="C123" s="56">
-        <f>Sheet1!C136</f>
-        <v>0</v>
+        <f>Sheet1!C138</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -10111,12 +10651,12 @@
         <v>32</v>
       </c>
       <c r="B124" s="56">
-        <f>Sheet1!B137</f>
+        <f>Sheet1!B139</f>
         <v>28.5</v>
       </c>
       <c r="C124" s="56">
-        <f>Sheet1!C137</f>
-        <v>0</v>
+        <f>Sheet1!C139</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -10124,12 +10664,12 @@
         <v>26</v>
       </c>
       <c r="B125" s="56">
-        <f>Sheet1!B138</f>
+        <f>Sheet1!B140</f>
         <v>29.5</v>
       </c>
       <c r="C125" s="56">
-        <f>Sheet1!C138</f>
-        <v>0</v>
+        <f>Sheet1!C140</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -10137,12 +10677,12 @@
         <v>27</v>
       </c>
       <c r="B126" s="56">
-        <f>Sheet1!B139</f>
+        <f>Sheet1!B141</f>
         <v>30.5</v>
       </c>
       <c r="C126" s="56">
-        <f>Sheet1!C139</f>
-        <v>0</v>
+        <f>Sheet1!C141</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -10150,12 +10690,12 @@
         <v>28</v>
       </c>
       <c r="B127" s="56">
-        <f>Sheet1!B140</f>
+        <f>Sheet1!B142</f>
         <v>31.5</v>
       </c>
       <c r="C127" s="56">
-        <f>Sheet1!C140</f>
-        <v>0</v>
+        <f>Sheet1!C142</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -10163,12 +10703,12 @@
         <v>29</v>
       </c>
       <c r="B128" s="56">
-        <f>Sheet1!B141</f>
-        <v>0</v>
+        <f>Sheet1!B143</f>
+        <v>1.6</v>
       </c>
       <c r="C128" s="56">
-        <f>Sheet1!C141</f>
-        <v>0</v>
+        <f>Sheet1!C143</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -10176,12 +10716,12 @@
         <v>30</v>
       </c>
       <c r="B129" s="56">
-        <f>Sheet1!B142</f>
-        <v>0</v>
+        <f>Sheet1!B144</f>
+        <v>2.6</v>
       </c>
       <c r="C129" s="56">
-        <f>Sheet1!C142</f>
-        <v>0</v>
+        <f>Sheet1!C144</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -10189,12 +10729,12 @@
         <v>31</v>
       </c>
       <c r="B130" s="56">
-        <f>Sheet1!B143</f>
-        <v>0</v>
+        <f>Sheet1!B145</f>
+        <v>3.6</v>
       </c>
       <c r="C130" s="56">
-        <f>Sheet1!C143</f>
-        <v>0</v>
+        <f>Sheet1!C145</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -10202,12 +10742,12 @@
         <v>32</v>
       </c>
       <c r="B131" s="56">
-        <f>Sheet1!B144</f>
-        <v>0</v>
+        <f>Sheet1!B146</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C131" s="56">
-        <f>Sheet1!C144</f>
-        <v>0</v>
+        <f>Sheet1!C146</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,12 +10755,12 @@
         <v>26</v>
       </c>
       <c r="B132" s="56">
-        <f>Sheet1!B145</f>
-        <v>0</v>
+        <f>Sheet1!B147</f>
+        <v>5.6</v>
       </c>
       <c r="C132" s="56">
-        <f>Sheet1!C145</f>
-        <v>0</v>
+        <f>Sheet1!C147</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,12 +10768,12 @@
         <v>27</v>
       </c>
       <c r="B133" s="56">
-        <f>Sheet1!B146</f>
-        <v>0</v>
+        <f>Sheet1!B148</f>
+        <v>6.6</v>
       </c>
       <c r="C133" s="56">
-        <f>Sheet1!C146</f>
-        <v>0</v>
+        <f>Sheet1!C148</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -10241,12 +10781,12 @@
         <v>28</v>
       </c>
       <c r="B134" s="56">
-        <f>Sheet1!B147</f>
-        <v>0</v>
+        <f>Sheet1!B149</f>
+        <v>7.6</v>
       </c>
       <c r="C134" s="56">
-        <f>Sheet1!C147</f>
-        <v>0</v>
+        <f>Sheet1!C149</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -10254,12 +10794,12 @@
         <v>29</v>
       </c>
       <c r="B135" s="56">
-        <f>Sheet1!B148</f>
-        <v>0</v>
+        <f>Sheet1!B150</f>
+        <v>8.6</v>
       </c>
       <c r="C135" s="56">
-        <f>Sheet1!C148</f>
-        <v>0</v>
+        <f>Sheet1!C150</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -10267,12 +10807,12 @@
         <v>30</v>
       </c>
       <c r="B136" s="56">
-        <f>Sheet1!B149</f>
-        <v>0</v>
+        <f>Sheet1!B151</f>
+        <v>9.6</v>
       </c>
       <c r="C136" s="56">
-        <f>Sheet1!C149</f>
-        <v>0</v>
+        <f>Sheet1!C151</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -10280,12 +10820,12 @@
         <v>31</v>
       </c>
       <c r="B137" s="56">
-        <f>Sheet1!B150</f>
-        <v>0</v>
+        <f>Sheet1!B152</f>
+        <v>10.6</v>
       </c>
       <c r="C137" s="56">
-        <f>Sheet1!C150</f>
-        <v>0</v>
+        <f>Sheet1!C152</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -10293,12 +10833,12 @@
         <v>32</v>
       </c>
       <c r="B138" s="56">
-        <f>Sheet1!B151</f>
-        <v>0</v>
+        <f>Sheet1!B153</f>
+        <v>11.6</v>
       </c>
       <c r="C138" s="56">
-        <f>Sheet1!C151</f>
-        <v>0</v>
+        <f>Sheet1!C153</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -10306,12 +10846,12 @@
         <v>26</v>
       </c>
       <c r="B139" s="56">
-        <f>Sheet1!B152</f>
-        <v>0</v>
+        <f>Sheet1!B154</f>
+        <v>12.6</v>
       </c>
       <c r="C139" s="56">
-        <f>Sheet1!C152</f>
-        <v>0</v>
+        <f>Sheet1!C154</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -10319,12 +10859,12 @@
         <v>27</v>
       </c>
       <c r="B140" s="56">
-        <f>Sheet1!B153</f>
-        <v>0</v>
+        <f>Sheet1!B155</f>
+        <v>13.6</v>
       </c>
       <c r="C140" s="56">
-        <f>Sheet1!C153</f>
-        <v>0</v>
+        <f>Sheet1!C155</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -10332,12 +10872,12 @@
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B154</f>
-        <v>0</v>
+        <f>Sheet1!B156</f>
+        <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C154</f>
-        <v>0</v>
+        <f>Sheet1!C156</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -10345,12 +10885,12 @@
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B155</f>
-        <v>0</v>
+        <f>Sheet1!B157</f>
+        <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C155</f>
-        <v>0</v>
+        <f>Sheet1!C157</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -10358,12 +10898,12 @@
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B156</f>
-        <v>0</v>
+        <f>Sheet1!B158</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C156</f>
-        <v>0</v>
+        <f>Sheet1!C158</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,12 +10911,12 @@
         <v>31</v>
       </c>
       <c r="B144" s="56">
-        <f>Sheet1!B157</f>
-        <v>0</v>
+        <f>Sheet1!B159</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="C144" s="56">
-        <f>Sheet1!C157</f>
-        <v>0</v>
+        <f>Sheet1!C159</f>
+        <v>23.5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -10384,12 +10924,12 @@
         <v>32</v>
       </c>
       <c r="B145" s="56">
-        <f>Sheet1!B158</f>
-        <v>0</v>
+        <f>Sheet1!B160</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="C145" s="56">
-        <f>Sheet1!C158</f>
-        <v>0</v>
+        <f>Sheet1!C160</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10397,12 +10937,12 @@
         <v>26</v>
       </c>
       <c r="B146" s="56">
-        <f>Sheet1!B159</f>
-        <v>0</v>
+        <f>Sheet1!B161</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="C146" s="56">
-        <f>Sheet1!C159</f>
-        <v>0</v>
+        <f>Sheet1!C161</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -10410,12 +10950,12 @@
         <v>27</v>
       </c>
       <c r="B147" s="56">
-        <f>Sheet1!B160</f>
-        <v>0</v>
+        <f>Sheet1!B162</f>
+        <v>20.6</v>
       </c>
       <c r="C147" s="56">
-        <f>Sheet1!C160</f>
-        <v>0</v>
+        <f>Sheet1!C162</f>
+        <v>26.5</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,12 +10963,12 @@
         <v>28</v>
       </c>
       <c r="B148" s="56">
-        <f>Sheet1!B161</f>
-        <v>0</v>
+        <f>Sheet1!B163</f>
+        <v>21.6</v>
       </c>
       <c r="C148" s="56">
-        <f>Sheet1!C161</f>
-        <v>0</v>
+        <f>Sheet1!C163</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10436,12 +10976,12 @@
         <v>29</v>
       </c>
       <c r="B149" s="56">
-        <f>Sheet1!B162</f>
-        <v>0</v>
+        <f>Sheet1!B164</f>
+        <v>22.6</v>
       </c>
       <c r="C149" s="56">
-        <f>Sheet1!C162</f>
-        <v>0</v>
+        <f>Sheet1!C164</f>
+        <v>28.5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -10449,12 +10989,12 @@
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B163</f>
-        <v>0</v>
+        <f>Sheet1!B165</f>
+        <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C163</f>
-        <v>0</v>
+        <f>Sheet1!C165</f>
+        <v>29.5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10462,11 +11002,11 @@
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B164</f>
-        <v>0</v>
+        <f>Sheet1!B166</f>
+        <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C166</f>
         <v>0</v>
       </c>
     </row>
@@ -10475,11 +11015,11 @@
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B165</f>
-        <v>0</v>
+        <f>Sheet1!B167</f>
+        <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C167</f>
         <v>0</v>
       </c>
     </row>
@@ -10488,11 +11028,11 @@
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B166</f>
-        <v>0</v>
+        <f>Sheet1!B168</f>
+        <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C168</f>
         <v>0</v>
       </c>
     </row>
@@ -10501,11 +11041,11 @@
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B167</f>
-        <v>0</v>
+        <f>Sheet1!B169</f>
+        <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C169</f>
         <v>0</v>
       </c>
     </row>
@@ -10514,11 +11054,11 @@
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B168</f>
-        <v>0</v>
+        <f>Sheet1!B170</f>
+        <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C170</f>
         <v>0</v>
       </c>
     </row>
@@ -10527,11 +11067,11 @@
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B169</f>
-        <v>0</v>
+        <f>Sheet1!B171</f>
+        <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C171</f>
         <v>0</v>
       </c>
     </row>
@@ -10540,11 +11080,11 @@
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B170</f>
-        <v>0</v>
+        <f>Sheet1!B172</f>
+        <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
     </row>
@@ -10553,11 +11093,11 @@
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B173</f>
         <v>0</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
     </row>
@@ -10566,11 +11106,11 @@
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B174</f>
         <v>0</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
     </row>
@@ -10579,11 +11119,11 @@
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B175</f>
         <v>0</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
     </row>
@@ -10592,11 +11132,11 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B176</f>
         <v>0</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
     </row>
@@ -10605,11 +11145,11 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B177</f>
         <v>0</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
     </row>
@@ -10618,11 +11158,11 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B178</f>
         <v>0</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C176</f>
+        <f>Sheet1!C178</f>
         <v>0</v>
       </c>
     </row>
@@ -10631,11 +11171,11 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B179</f>
         <v>0</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C177</f>
+        <f>Sheet1!C179</f>
         <v>0</v>
       </c>
     </row>
@@ -10644,11 +11184,11 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B180</f>
         <v>0</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C178</f>
+        <f>Sheet1!C180</f>
         <v>0</v>
       </c>
     </row>
@@ -10657,11 +11197,11 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B179</f>
+        <f>Sheet1!B181</f>
         <v>0</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C179</f>
+        <f>Sheet1!C181</f>
         <v>0</v>
       </c>
     </row>
@@ -10670,11 +11210,11 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B180</f>
+        <f>Sheet1!B182</f>
         <v>0</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C180</f>
+        <f>Sheet1!C182</f>
         <v>0</v>
       </c>
     </row>
@@ -10683,11 +11223,11 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B181</f>
+        <f>Sheet1!B183</f>
         <v>0</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C181</f>
+        <f>Sheet1!C183</f>
         <v>0</v>
       </c>
     </row>
@@ -10696,11 +11236,11 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B182</f>
+        <f>Sheet1!B184</f>
         <v>0</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C182</f>
+        <f>Sheet1!C184</f>
         <v>0</v>
       </c>
     </row>
@@ -10709,11 +11249,11 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B183</f>
+        <f>Sheet1!B185</f>
         <v>0</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C183</f>
+        <f>Sheet1!C185</f>
         <v>0</v>
       </c>
     </row>
@@ -10722,11 +11262,11 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B184</f>
+        <f>Sheet1!B186</f>
         <v>0</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C184</f>
+        <f>Sheet1!C186</f>
         <v>0</v>
       </c>
     </row>
@@ -10735,11 +11275,11 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B185</f>
+        <f>Sheet1!B187</f>
         <v>0</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C185</f>
+        <f>Sheet1!C187</f>
         <v>0</v>
       </c>
     </row>
@@ -10748,11 +11288,11 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B186</f>
+        <f>Sheet1!B188</f>
         <v>0</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C186</f>
+        <f>Sheet1!C188</f>
         <v>0</v>
       </c>
     </row>
@@ -10761,11 +11301,11 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B187</f>
+        <f>Sheet1!B189</f>
         <v>0</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C187</f>
+        <f>Sheet1!C189</f>
         <v>0</v>
       </c>
     </row>
@@ -10774,11 +11314,11 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B188</f>
+        <f>Sheet1!B190</f>
         <v>0</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C188</f>
+        <f>Sheet1!C190</f>
         <v>0</v>
       </c>
     </row>
@@ -10787,11 +11327,11 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B189</f>
+        <f>Sheet1!B191</f>
         <v>0</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C189</f>
+        <f>Sheet1!C191</f>
         <v>0</v>
       </c>
     </row>
@@ -10800,11 +11340,11 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B190</f>
+        <f>Sheet1!B192</f>
         <v>0</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C190</f>
+        <f>Sheet1!C192</f>
         <v>0</v>
       </c>
     </row>
@@ -10813,11 +11353,11 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B191</f>
+        <f>Sheet1!B193</f>
         <v>0</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C191</f>
+        <f>Sheet1!C193</f>
         <v>0</v>
       </c>
     </row>
@@ -10826,11 +11366,11 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B192</f>
+        <f>Sheet1!B194</f>
         <v>0</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C192</f>
+        <f>Sheet1!C194</f>
         <v>0</v>
       </c>
     </row>
@@ -10839,11 +11379,11 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B193</f>
+        <f>Sheet1!B195</f>
         <v>0</v>
       </c>
       <c r="C180" s="56">
-        <f>Sheet1!C193</f>
+        <f>Sheet1!C195</f>
         <v>0</v>
       </c>
     </row>
@@ -10852,11 +11392,11 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B194</f>
+        <f>Sheet1!B196</f>
         <v>0</v>
       </c>
       <c r="C181" s="56">
-        <f>Sheet1!C194</f>
+        <f>Sheet1!C196</f>
         <v>0</v>
       </c>
     </row>
@@ -10865,11 +11405,11 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B195</f>
+        <f>Sheet1!B197</f>
         <v>0</v>
       </c>
       <c r="C182" s="56">
-        <f>Sheet1!C195</f>
+        <f>Sheet1!C197</f>
         <v>0</v>
       </c>
     </row>
@@ -10878,11 +11418,11 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B196</f>
+        <f>Sheet1!B198</f>
         <v>0</v>
       </c>
       <c r="C183" s="56">
-        <f>Sheet1!C196</f>
+        <f>Sheet1!C198</f>
         <v>0</v>
       </c>
     </row>
@@ -10891,11 +11431,11 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B197</f>
+        <f>Sheet1!B199</f>
         <v>0</v>
       </c>
       <c r="C184" s="56">
-        <f>Sheet1!C197</f>
+        <f>Sheet1!C199</f>
         <v>0</v>
       </c>
     </row>
@@ -10904,11 +11444,11 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B198</f>
+        <f>Sheet1!B200</f>
         <v>0</v>
       </c>
       <c r="C185" s="56">
-        <f>Sheet1!C198</f>
+        <f>Sheet1!C200</f>
         <v>0</v>
       </c>
     </row>
@@ -10917,11 +11457,11 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B199</f>
+        <f>Sheet1!B201</f>
         <v>0</v>
       </c>
       <c r="C186" s="56">
-        <f>Sheet1!C199</f>
+        <f>Sheet1!C201</f>
         <v>0</v>
       </c>
     </row>
@@ -10930,11 +11470,11 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B200</f>
+        <f>Sheet1!B202</f>
         <v>0</v>
       </c>
       <c r="C187" s="56">
-        <f>Sheet1!C200</f>
+        <f>Sheet1!C202</f>
         <v>0</v>
       </c>
     </row>
@@ -10943,11 +11483,11 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B201</f>
+        <f>Sheet1!B203</f>
         <v>0</v>
       </c>
       <c r="C188" s="56">
-        <f>Sheet1!C201</f>
+        <f>Sheet1!C203</f>
         <v>0</v>
       </c>
     </row>
@@ -10956,11 +11496,11 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B202</f>
+        <f>Sheet1!B204</f>
         <v>0</v>
       </c>
       <c r="C189" s="56">
-        <f>Sheet1!C202</f>
+        <f>Sheet1!C204</f>
         <v>0</v>
       </c>
     </row>
@@ -10969,11 +11509,11 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B203</f>
+        <f>Sheet1!B205</f>
         <v>0</v>
       </c>
       <c r="C190" s="56">
-        <f>Sheet1!C203</f>
+        <f>Sheet1!C205</f>
         <v>0</v>
       </c>
     </row>
@@ -10982,11 +11522,11 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B204</f>
+        <f>Sheet1!B206</f>
         <v>0</v>
       </c>
       <c r="C191" s="56">
-        <f>Sheet1!C204</f>
+        <f>Sheet1!C206</f>
         <v>0</v>
       </c>
     </row>
@@ -10995,11 +11535,11 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B205</f>
+        <f>Sheet1!B207</f>
         <v>0</v>
       </c>
       <c r="C192" s="56">
-        <f>Sheet1!C205</f>
+        <f>Sheet1!C207</f>
         <v>0</v>
       </c>
     </row>
@@ -11008,11 +11548,11 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B206</f>
+        <f>Sheet1!B208</f>
         <v>0</v>
       </c>
       <c r="C193" s="56">
-        <f>Sheet1!C206</f>
+        <f>Sheet1!C208</f>
         <v>0</v>
       </c>
     </row>
@@ -11021,11 +11561,11 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B207</f>
+        <f>Sheet1!B209</f>
         <v>0</v>
       </c>
       <c r="C194" s="56">
-        <f>Sheet1!C207</f>
+        <f>Sheet1!C209</f>
         <v>0</v>
       </c>
     </row>
@@ -11041,8 +11581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11094,15 +11634,15 @@
       <c r="G3" s="42"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>13420</v>
+        <v>14020</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>2920</v>
+        <v>3120</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -11110,10 +11650,10 @@
       <c r="A4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="48" t="s">
         <v>34</v>
       </c>
@@ -11185,7 +11725,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -11208,7 +11748,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -11231,7 +11771,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>640</v>
+        <v>840</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -11254,7 +11794,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>1333.3333333333333</v>
+        <v>1666.6666666666665</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -11285,7 +11825,7 @@
       </c>
       <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>906.66666666666674</v>
+        <v>1173.3333333333335</v>
       </c>
       <c r="K10" s="70"/>
     </row>
@@ -13825,18 +14365,36 @@
         <f>Sheet1!C130</f>
         <v>26.4</v>
       </c>
+      <c r="D117" s="80">
+        <v>100</v>
+      </c>
+      <c r="E117" s="80">
+        <v>20</v>
+      </c>
+      <c r="F117" s="81">
+        <v>30</v>
+      </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B118" s="56">
-        <f>Sheet1!B131</f>
+        <f>Sheet1!B133</f>
         <v>22.5</v>
       </c>
       <c r="C118" s="56">
-        <f>Sheet1!C131</f>
+        <f>Sheet1!C133</f>
         <v>27.4</v>
+      </c>
+      <c r="D118" s="80">
+        <v>100</v>
+      </c>
+      <c r="E118" s="80">
+        <v>10</v>
+      </c>
+      <c r="F118" s="81">
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13844,12 +14402,21 @@
         <v>27</v>
       </c>
       <c r="B119" s="56">
-        <f>Sheet1!B132</f>
+        <f>Sheet1!B134</f>
         <v>23.5</v>
       </c>
       <c r="C119" s="56">
-        <f>Sheet1!C132</f>
+        <f>Sheet1!C134</f>
         <v>28.4</v>
+      </c>
+      <c r="D119" s="80">
+        <v>100</v>
+      </c>
+      <c r="E119" s="80">
+        <v>10</v>
+      </c>
+      <c r="F119" s="81">
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13857,12 +14424,21 @@
         <v>28</v>
       </c>
       <c r="B120" s="56">
-        <f>Sheet1!B133</f>
+        <f>Sheet1!B135</f>
         <v>24.5</v>
       </c>
       <c r="C120" s="56">
-        <f>Sheet1!C133</f>
+        <f>Sheet1!C135</f>
         <v>29.4</v>
+      </c>
+      <c r="D120" s="80">
+        <v>100</v>
+      </c>
+      <c r="E120" s="80">
+        <v>10</v>
+      </c>
+      <c r="F120" s="81">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13870,11 +14446,11 @@
         <v>29</v>
       </c>
       <c r="B121" s="56">
-        <f>Sheet1!B134</f>
+        <f>Sheet1!B136</f>
         <v>25.5</v>
       </c>
       <c r="C121" s="56">
-        <f>Sheet1!C134</f>
+        <f>Sheet1!C136</f>
         <v>30.4</v>
       </c>
     </row>
@@ -13883,12 +14459,12 @@
         <v>30</v>
       </c>
       <c r="B122" s="56">
-        <f>Sheet1!B135</f>
+        <f>Sheet1!B137</f>
         <v>26.5</v>
       </c>
       <c r="C122" s="56">
-        <f>Sheet1!C135</f>
-        <v>0</v>
+        <f>Sheet1!C137</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13896,12 +14472,12 @@
         <v>31</v>
       </c>
       <c r="B123" s="56">
-        <f>Sheet1!B136</f>
+        <f>Sheet1!B138</f>
         <v>27.5</v>
       </c>
       <c r="C123" s="56">
-        <f>Sheet1!C136</f>
-        <v>0</v>
+        <f>Sheet1!C138</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13909,12 +14485,12 @@
         <v>32</v>
       </c>
       <c r="B124" s="56">
-        <f>Sheet1!B137</f>
+        <f>Sheet1!B139</f>
         <v>28.5</v>
       </c>
       <c r="C124" s="56">
-        <f>Sheet1!C137</f>
-        <v>0</v>
+        <f>Sheet1!C139</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13922,12 +14498,12 @@
         <v>26</v>
       </c>
       <c r="B125" s="56">
-        <f>Sheet1!B138</f>
+        <f>Sheet1!B140</f>
         <v>29.5</v>
       </c>
       <c r="C125" s="56">
-        <f>Sheet1!C138</f>
-        <v>0</v>
+        <f>Sheet1!C140</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13935,12 +14511,12 @@
         <v>27</v>
       </c>
       <c r="B126" s="56">
-        <f>Sheet1!B139</f>
+        <f>Sheet1!B141</f>
         <v>30.5</v>
       </c>
       <c r="C126" s="56">
-        <f>Sheet1!C139</f>
-        <v>0</v>
+        <f>Sheet1!C141</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13948,12 +14524,12 @@
         <v>28</v>
       </c>
       <c r="B127" s="56">
-        <f>Sheet1!B140</f>
+        <f>Sheet1!B142</f>
         <v>31.5</v>
       </c>
       <c r="C127" s="56">
-        <f>Sheet1!C140</f>
-        <v>0</v>
+        <f>Sheet1!C142</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13961,12 +14537,12 @@
         <v>29</v>
       </c>
       <c r="B128" s="56">
-        <f>Sheet1!B141</f>
-        <v>0</v>
+        <f>Sheet1!B143</f>
+        <v>1.6</v>
       </c>
       <c r="C128" s="56">
-        <f>Sheet1!C141</f>
-        <v>0</v>
+        <f>Sheet1!C143</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -13974,12 +14550,12 @@
         <v>30</v>
       </c>
       <c r="B129" s="56">
-        <f>Sheet1!B142</f>
-        <v>0</v>
+        <f>Sheet1!B144</f>
+        <v>2.6</v>
       </c>
       <c r="C129" s="56">
-        <f>Sheet1!C142</f>
-        <v>0</v>
+        <f>Sheet1!C144</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -13987,12 +14563,12 @@
         <v>31</v>
       </c>
       <c r="B130" s="56">
-        <f>Sheet1!B143</f>
-        <v>0</v>
+        <f>Sheet1!B145</f>
+        <v>3.6</v>
       </c>
       <c r="C130" s="56">
-        <f>Sheet1!C143</f>
-        <v>0</v>
+        <f>Sheet1!C145</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14000,12 +14576,12 @@
         <v>32</v>
       </c>
       <c r="B131" s="56">
-        <f>Sheet1!B144</f>
-        <v>0</v>
+        <f>Sheet1!B146</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C131" s="56">
-        <f>Sheet1!C144</f>
-        <v>0</v>
+        <f>Sheet1!C146</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14013,12 +14589,12 @@
         <v>26</v>
       </c>
       <c r="B132" s="56">
-        <f>Sheet1!B145</f>
-        <v>0</v>
+        <f>Sheet1!B147</f>
+        <v>5.6</v>
       </c>
       <c r="C132" s="56">
-        <f>Sheet1!C145</f>
-        <v>0</v>
+        <f>Sheet1!C147</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14026,12 +14602,12 @@
         <v>27</v>
       </c>
       <c r="B133" s="56">
-        <f>Sheet1!B146</f>
-        <v>0</v>
+        <f>Sheet1!B148</f>
+        <v>6.6</v>
       </c>
       <c r="C133" s="56">
-        <f>Sheet1!C146</f>
-        <v>0</v>
+        <f>Sheet1!C148</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14039,12 +14615,12 @@
         <v>28</v>
       </c>
       <c r="B134" s="56">
-        <f>Sheet1!B147</f>
-        <v>0</v>
+        <f>Sheet1!B149</f>
+        <v>7.6</v>
       </c>
       <c r="C134" s="56">
-        <f>Sheet1!C147</f>
-        <v>0</v>
+        <f>Sheet1!C149</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14052,12 +14628,12 @@
         <v>29</v>
       </c>
       <c r="B135" s="56">
-        <f>Sheet1!B148</f>
-        <v>0</v>
+        <f>Sheet1!B150</f>
+        <v>8.6</v>
       </c>
       <c r="C135" s="56">
-        <f>Sheet1!C148</f>
-        <v>0</v>
+        <f>Sheet1!C150</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14065,12 +14641,12 @@
         <v>30</v>
       </c>
       <c r="B136" s="56">
-        <f>Sheet1!B149</f>
-        <v>0</v>
+        <f>Sheet1!B151</f>
+        <v>9.6</v>
       </c>
       <c r="C136" s="56">
-        <f>Sheet1!C149</f>
-        <v>0</v>
+        <f>Sheet1!C151</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14078,12 +14654,12 @@
         <v>31</v>
       </c>
       <c r="B137" s="56">
-        <f>Sheet1!B150</f>
-        <v>0</v>
+        <f>Sheet1!B152</f>
+        <v>10.6</v>
       </c>
       <c r="C137" s="56">
-        <f>Sheet1!C150</f>
-        <v>0</v>
+        <f>Sheet1!C152</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14091,12 +14667,12 @@
         <v>32</v>
       </c>
       <c r="B138" s="56">
-        <f>Sheet1!B151</f>
-        <v>0</v>
+        <f>Sheet1!B153</f>
+        <v>11.6</v>
       </c>
       <c r="C138" s="56">
-        <f>Sheet1!C151</f>
-        <v>0</v>
+        <f>Sheet1!C153</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14104,12 +14680,12 @@
         <v>26</v>
       </c>
       <c r="B139" s="56">
-        <f>Sheet1!B152</f>
-        <v>0</v>
+        <f>Sheet1!B154</f>
+        <v>12.6</v>
       </c>
       <c r="C139" s="56">
-        <f>Sheet1!C152</f>
-        <v>0</v>
+        <f>Sheet1!C154</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14117,12 +14693,12 @@
         <v>27</v>
       </c>
       <c r="B140" s="56">
-        <f>Sheet1!B153</f>
-        <v>0</v>
+        <f>Sheet1!B155</f>
+        <v>13.6</v>
       </c>
       <c r="C140" s="56">
-        <f>Sheet1!C153</f>
-        <v>0</v>
+        <f>Sheet1!C155</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14130,12 +14706,12 @@
         <v>28</v>
       </c>
       <c r="B141" s="56">
-        <f>Sheet1!B154</f>
-        <v>0</v>
+        <f>Sheet1!B156</f>
+        <v>14.6</v>
       </c>
       <c r="C141" s="56">
-        <f>Sheet1!C154</f>
-        <v>0</v>
+        <f>Sheet1!C156</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14143,12 +14719,12 @@
         <v>29</v>
       </c>
       <c r="B142" s="56">
-        <f>Sheet1!B155</f>
-        <v>0</v>
+        <f>Sheet1!B157</f>
+        <v>15.6</v>
       </c>
       <c r="C142" s="56">
-        <f>Sheet1!C155</f>
-        <v>0</v>
+        <f>Sheet1!C157</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14156,12 +14732,12 @@
         <v>30</v>
       </c>
       <c r="B143" s="56">
-        <f>Sheet1!B156</f>
-        <v>0</v>
+        <f>Sheet1!B158</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="C143" s="56">
-        <f>Sheet1!C156</f>
-        <v>0</v>
+        <f>Sheet1!C158</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14169,12 +14745,12 @@
         <v>31</v>
       </c>
       <c r="B144" s="56">
-        <f>Sheet1!B157</f>
-        <v>0</v>
+        <f>Sheet1!B159</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="C144" s="56">
-        <f>Sheet1!C157</f>
-        <v>0</v>
+        <f>Sheet1!C159</f>
+        <v>23.5</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14182,12 +14758,12 @@
         <v>32</v>
       </c>
       <c r="B145" s="56">
-        <f>Sheet1!B158</f>
-        <v>0</v>
+        <f>Sheet1!B160</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="C145" s="56">
-        <f>Sheet1!C158</f>
-        <v>0</v>
+        <f>Sheet1!C160</f>
+        <v>24.5</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14195,12 +14771,12 @@
         <v>26</v>
       </c>
       <c r="B146" s="56">
-        <f>Sheet1!B159</f>
-        <v>0</v>
+        <f>Sheet1!B161</f>
+        <v>19.600000000000001</v>
       </c>
       <c r="C146" s="56">
-        <f>Sheet1!C159</f>
-        <v>0</v>
+        <f>Sheet1!C161</f>
+        <v>25.5</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14208,12 +14784,12 @@
         <v>27</v>
       </c>
       <c r="B147" s="56">
-        <f>Sheet1!B160</f>
-        <v>0</v>
+        <f>Sheet1!B162</f>
+        <v>20.6</v>
       </c>
       <c r="C147" s="56">
-        <f>Sheet1!C160</f>
-        <v>0</v>
+        <f>Sheet1!C162</f>
+        <v>26.5</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14221,12 +14797,12 @@
         <v>28</v>
       </c>
       <c r="B148" s="56">
-        <f>Sheet1!B161</f>
-        <v>0</v>
+        <f>Sheet1!B163</f>
+        <v>21.6</v>
       </c>
       <c r="C148" s="56">
-        <f>Sheet1!C161</f>
-        <v>0</v>
+        <f>Sheet1!C163</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14234,12 +14810,12 @@
         <v>29</v>
       </c>
       <c r="B149" s="56">
-        <f>Sheet1!B162</f>
-        <v>0</v>
+        <f>Sheet1!B164</f>
+        <v>22.6</v>
       </c>
       <c r="C149" s="56">
-        <f>Sheet1!C162</f>
-        <v>0</v>
+        <f>Sheet1!C164</f>
+        <v>28.5</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14247,12 +14823,12 @@
         <v>30</v>
       </c>
       <c r="B150" s="56">
-        <f>Sheet1!B163</f>
-        <v>0</v>
+        <f>Sheet1!B165</f>
+        <v>23.6</v>
       </c>
       <c r="C150" s="56">
-        <f>Sheet1!C163</f>
-        <v>0</v>
+        <f>Sheet1!C165</f>
+        <v>29.5</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14260,11 +14836,11 @@
         <v>31</v>
       </c>
       <c r="B151" s="56">
-        <f>Sheet1!B164</f>
-        <v>0</v>
+        <f>Sheet1!B166</f>
+        <v>24.6</v>
       </c>
       <c r="C151" s="56">
-        <f>Sheet1!C164</f>
+        <f>Sheet1!C166</f>
         <v>0</v>
       </c>
     </row>
@@ -14273,11 +14849,11 @@
         <v>32</v>
       </c>
       <c r="B152" s="56">
-        <f>Sheet1!B165</f>
-        <v>0</v>
+        <f>Sheet1!B167</f>
+        <v>25.6</v>
       </c>
       <c r="C152" s="56">
-        <f>Sheet1!C165</f>
+        <f>Sheet1!C167</f>
         <v>0</v>
       </c>
     </row>
@@ -14286,11 +14862,11 @@
         <v>26</v>
       </c>
       <c r="B153" s="56">
-        <f>Sheet1!B166</f>
-        <v>0</v>
+        <f>Sheet1!B168</f>
+        <v>26.6</v>
       </c>
       <c r="C153" s="56">
-        <f>Sheet1!C166</f>
+        <f>Sheet1!C168</f>
         <v>0</v>
       </c>
     </row>
@@ -14299,11 +14875,11 @@
         <v>27</v>
       </c>
       <c r="B154" s="56">
-        <f>Sheet1!B167</f>
-        <v>0</v>
+        <f>Sheet1!B169</f>
+        <v>27.6</v>
       </c>
       <c r="C154" s="56">
-        <f>Sheet1!C167</f>
+        <f>Sheet1!C169</f>
         <v>0</v>
       </c>
     </row>
@@ -14312,11 +14888,11 @@
         <v>28</v>
       </c>
       <c r="B155" s="56">
-        <f>Sheet1!B168</f>
-        <v>0</v>
+        <f>Sheet1!B170</f>
+        <v>28.6</v>
       </c>
       <c r="C155" s="56">
-        <f>Sheet1!C168</f>
+        <f>Sheet1!C170</f>
         <v>0</v>
       </c>
     </row>
@@ -14325,11 +14901,11 @@
         <v>29</v>
       </c>
       <c r="B156" s="56">
-        <f>Sheet1!B169</f>
-        <v>0</v>
+        <f>Sheet1!B171</f>
+        <v>29.6</v>
       </c>
       <c r="C156" s="56">
-        <f>Sheet1!C169</f>
+        <f>Sheet1!C171</f>
         <v>0</v>
       </c>
     </row>
@@ -14338,11 +14914,11 @@
         <v>30</v>
       </c>
       <c r="B157" s="56">
-        <f>Sheet1!B170</f>
-        <v>0</v>
+        <f>Sheet1!B172</f>
+        <v>30.6</v>
       </c>
       <c r="C157" s="56">
-        <f>Sheet1!C170</f>
+        <f>Sheet1!C172</f>
         <v>0</v>
       </c>
     </row>
@@ -14351,11 +14927,11 @@
         <v>31</v>
       </c>
       <c r="B158" s="56">
-        <f>Sheet1!B171</f>
+        <f>Sheet1!B173</f>
         <v>0</v>
       </c>
       <c r="C158" s="56">
-        <f>Sheet1!C171</f>
+        <f>Sheet1!C173</f>
         <v>0</v>
       </c>
     </row>
@@ -14364,11 +14940,11 @@
         <v>32</v>
       </c>
       <c r="B159" s="56">
-        <f>Sheet1!B172</f>
+        <f>Sheet1!B174</f>
         <v>0</v>
       </c>
       <c r="C159" s="56">
-        <f>Sheet1!C172</f>
+        <f>Sheet1!C174</f>
         <v>0</v>
       </c>
     </row>
@@ -14377,11 +14953,11 @@
         <v>26</v>
       </c>
       <c r="B160" s="56">
-        <f>Sheet1!B173</f>
+        <f>Sheet1!B175</f>
         <v>0</v>
       </c>
       <c r="C160" s="56">
-        <f>Sheet1!C173</f>
+        <f>Sheet1!C175</f>
         <v>0</v>
       </c>
     </row>
@@ -14390,11 +14966,11 @@
         <v>27</v>
       </c>
       <c r="B161" s="56">
-        <f>Sheet1!B174</f>
+        <f>Sheet1!B176</f>
         <v>0</v>
       </c>
       <c r="C161" s="56">
-        <f>Sheet1!C174</f>
+        <f>Sheet1!C176</f>
         <v>0</v>
       </c>
     </row>
@@ -14403,11 +14979,11 @@
         <v>28</v>
       </c>
       <c r="B162" s="56">
-        <f>Sheet1!B175</f>
+        <f>Sheet1!B177</f>
         <v>0</v>
       </c>
       <c r="C162" s="56">
-        <f>Sheet1!C175</f>
+        <f>Sheet1!C177</f>
         <v>0</v>
       </c>
     </row>
@@ -14416,11 +14992,11 @@
         <v>29</v>
       </c>
       <c r="B163" s="56">
-        <f>Sheet1!B176</f>
+        <f>Sheet1!B178</f>
         <v>0</v>
       </c>
       <c r="C163" s="56">
-        <f>Sheet1!C176</f>
+        <f>Sheet1!C178</f>
         <v>0</v>
       </c>
     </row>
@@ -14429,11 +15005,11 @@
         <v>30</v>
       </c>
       <c r="B164" s="56">
-        <f>Sheet1!B177</f>
+        <f>Sheet1!B179</f>
         <v>0</v>
       </c>
       <c r="C164" s="56">
-        <f>Sheet1!C177</f>
+        <f>Sheet1!C179</f>
         <v>0</v>
       </c>
     </row>
@@ -14442,11 +15018,11 @@
         <v>31</v>
       </c>
       <c r="B165" s="56">
-        <f>Sheet1!B178</f>
+        <f>Sheet1!B180</f>
         <v>0</v>
       </c>
       <c r="C165" s="56">
-        <f>Sheet1!C178</f>
+        <f>Sheet1!C180</f>
         <v>0</v>
       </c>
     </row>
@@ -14455,11 +15031,11 @@
         <v>32</v>
       </c>
       <c r="B166" s="56">
-        <f>Sheet1!B179</f>
+        <f>Sheet1!B181</f>
         <v>0</v>
       </c>
       <c r="C166" s="56">
-        <f>Sheet1!C179</f>
+        <f>Sheet1!C181</f>
         <v>0</v>
       </c>
     </row>
@@ -14468,11 +15044,11 @@
         <v>26</v>
       </c>
       <c r="B167" s="56">
-        <f>Sheet1!B180</f>
+        <f>Sheet1!B182</f>
         <v>0</v>
       </c>
       <c r="C167" s="56">
-        <f>Sheet1!C180</f>
+        <f>Sheet1!C182</f>
         <v>0</v>
       </c>
     </row>
@@ -14481,11 +15057,11 @@
         <v>27</v>
       </c>
       <c r="B168" s="56">
-        <f>Sheet1!B181</f>
+        <f>Sheet1!B183</f>
         <v>0</v>
       </c>
       <c r="C168" s="56">
-        <f>Sheet1!C181</f>
+        <f>Sheet1!C183</f>
         <v>0</v>
       </c>
     </row>
@@ -14494,11 +15070,11 @@
         <v>28</v>
       </c>
       <c r="B169" s="56">
-        <f>Sheet1!B182</f>
+        <f>Sheet1!B184</f>
         <v>0</v>
       </c>
       <c r="C169" s="56">
-        <f>Sheet1!C182</f>
+        <f>Sheet1!C184</f>
         <v>0</v>
       </c>
     </row>
@@ -14507,11 +15083,11 @@
         <v>29</v>
       </c>
       <c r="B170" s="56">
-        <f>Sheet1!B183</f>
+        <f>Sheet1!B185</f>
         <v>0</v>
       </c>
       <c r="C170" s="56">
-        <f>Sheet1!C183</f>
+        <f>Sheet1!C185</f>
         <v>0</v>
       </c>
     </row>
@@ -14520,11 +15096,11 @@
         <v>30</v>
       </c>
       <c r="B171" s="56">
-        <f>Sheet1!B184</f>
+        <f>Sheet1!B186</f>
         <v>0</v>
       </c>
       <c r="C171" s="56">
-        <f>Sheet1!C184</f>
+        <f>Sheet1!C186</f>
         <v>0</v>
       </c>
     </row>
@@ -14533,11 +15109,11 @@
         <v>31</v>
       </c>
       <c r="B172" s="56">
-        <f>Sheet1!B185</f>
+        <f>Sheet1!B187</f>
         <v>0</v>
       </c>
       <c r="C172" s="56">
-        <f>Sheet1!C185</f>
+        <f>Sheet1!C187</f>
         <v>0</v>
       </c>
     </row>
@@ -14546,11 +15122,11 @@
         <v>32</v>
       </c>
       <c r="B173" s="56">
-        <f>Sheet1!B186</f>
+        <f>Sheet1!B188</f>
         <v>0</v>
       </c>
       <c r="C173" s="56">
-        <f>Sheet1!C186</f>
+        <f>Sheet1!C188</f>
         <v>0</v>
       </c>
     </row>
@@ -14559,11 +15135,11 @@
         <v>26</v>
       </c>
       <c r="B174" s="56">
-        <f>Sheet1!B187</f>
+        <f>Sheet1!B189</f>
         <v>0</v>
       </c>
       <c r="C174" s="56">
-        <f>Sheet1!C187</f>
+        <f>Sheet1!C189</f>
         <v>0</v>
       </c>
     </row>
@@ -14572,11 +15148,11 @@
         <v>27</v>
       </c>
       <c r="B175" s="56">
-        <f>Sheet1!B188</f>
+        <f>Sheet1!B190</f>
         <v>0</v>
       </c>
       <c r="C175" s="56">
-        <f>Sheet1!C188</f>
+        <f>Sheet1!C190</f>
         <v>0</v>
       </c>
     </row>
@@ -14585,11 +15161,11 @@
         <v>28</v>
       </c>
       <c r="B176" s="56">
-        <f>Sheet1!B189</f>
+        <f>Sheet1!B191</f>
         <v>0</v>
       </c>
       <c r="C176" s="56">
-        <f>Sheet1!C189</f>
+        <f>Sheet1!C191</f>
         <v>0</v>
       </c>
     </row>
@@ -14598,11 +15174,11 @@
         <v>29</v>
       </c>
       <c r="B177" s="56">
-        <f>Sheet1!B190</f>
+        <f>Sheet1!B192</f>
         <v>0</v>
       </c>
       <c r="C177" s="56">
-        <f>Sheet1!C190</f>
+        <f>Sheet1!C192</f>
         <v>0</v>
       </c>
     </row>
@@ -14611,11 +15187,11 @@
         <v>30</v>
       </c>
       <c r="B178" s="56">
-        <f>Sheet1!B191</f>
+        <f>Sheet1!B193</f>
         <v>0</v>
       </c>
       <c r="C178" s="56">
-        <f>Sheet1!C191</f>
+        <f>Sheet1!C193</f>
         <v>0</v>
       </c>
     </row>
@@ -14624,11 +15200,11 @@
         <v>31</v>
       </c>
       <c r="B179" s="56">
-        <f>Sheet1!B192</f>
+        <f>Sheet1!B194</f>
         <v>0</v>
       </c>
       <c r="C179" s="56">
-        <f>Sheet1!C192</f>
+        <f>Sheet1!C194</f>
         <v>0</v>
       </c>
     </row>
@@ -14637,11 +15213,11 @@
         <v>32</v>
       </c>
       <c r="B180" s="56">
-        <f>Sheet1!B193</f>
+        <f>Sheet1!B195</f>
         <v>0</v>
       </c>
       <c r="C180" s="56">
-        <f>Sheet1!C193</f>
+        <f>Sheet1!C195</f>
         <v>0</v>
       </c>
     </row>
@@ -14650,11 +15226,11 @@
         <v>26</v>
       </c>
       <c r="B181" s="56">
-        <f>Sheet1!B194</f>
+        <f>Sheet1!B196</f>
         <v>0</v>
       </c>
       <c r="C181" s="56">
-        <f>Sheet1!C194</f>
+        <f>Sheet1!C196</f>
         <v>0</v>
       </c>
     </row>
@@ -14663,11 +15239,11 @@
         <v>27</v>
       </c>
       <c r="B182" s="56">
-        <f>Sheet1!B195</f>
+        <f>Sheet1!B197</f>
         <v>0</v>
       </c>
       <c r="C182" s="56">
-        <f>Sheet1!C195</f>
+        <f>Sheet1!C197</f>
         <v>0</v>
       </c>
     </row>
@@ -14676,11 +15252,11 @@
         <v>28</v>
       </c>
       <c r="B183" s="56">
-        <f>Sheet1!B196</f>
+        <f>Sheet1!B198</f>
         <v>0</v>
       </c>
       <c r="C183" s="56">
-        <f>Sheet1!C196</f>
+        <f>Sheet1!C198</f>
         <v>0</v>
       </c>
     </row>
@@ -14689,11 +15265,11 @@
         <v>29</v>
       </c>
       <c r="B184" s="56">
-        <f>Sheet1!B197</f>
+        <f>Sheet1!B199</f>
         <v>0</v>
       </c>
       <c r="C184" s="56">
-        <f>Sheet1!C197</f>
+        <f>Sheet1!C199</f>
         <v>0</v>
       </c>
     </row>
@@ -14702,11 +15278,11 @@
         <v>30</v>
       </c>
       <c r="B185" s="56">
-        <f>Sheet1!B198</f>
+        <f>Sheet1!B200</f>
         <v>0</v>
       </c>
       <c r="C185" s="56">
-        <f>Sheet1!C198</f>
+        <f>Sheet1!C200</f>
         <v>0</v>
       </c>
     </row>
@@ -14715,11 +15291,11 @@
         <v>31</v>
       </c>
       <c r="B186" s="56">
-        <f>Sheet1!B199</f>
+        <f>Sheet1!B201</f>
         <v>0</v>
       </c>
       <c r="C186" s="56">
-        <f>Sheet1!C199</f>
+        <f>Sheet1!C201</f>
         <v>0</v>
       </c>
     </row>
@@ -14728,11 +15304,11 @@
         <v>32</v>
       </c>
       <c r="B187" s="56">
-        <f>Sheet1!B200</f>
+        <f>Sheet1!B202</f>
         <v>0</v>
       </c>
       <c r="C187" s="56">
-        <f>Sheet1!C200</f>
+        <f>Sheet1!C202</f>
         <v>0</v>
       </c>
     </row>
@@ -14741,11 +15317,11 @@
         <v>26</v>
       </c>
       <c r="B188" s="56">
-        <f>Sheet1!B201</f>
+        <f>Sheet1!B203</f>
         <v>0</v>
       </c>
       <c r="C188" s="56">
-        <f>Sheet1!C201</f>
+        <f>Sheet1!C203</f>
         <v>0</v>
       </c>
     </row>
@@ -14754,11 +15330,11 @@
         <v>27</v>
       </c>
       <c r="B189" s="56">
-        <f>Sheet1!B202</f>
+        <f>Sheet1!B204</f>
         <v>0</v>
       </c>
       <c r="C189" s="56">
-        <f>Sheet1!C202</f>
+        <f>Sheet1!C204</f>
         <v>0</v>
       </c>
     </row>
@@ -14767,11 +15343,11 @@
         <v>28</v>
       </c>
       <c r="B190" s="56">
-        <f>Sheet1!B203</f>
+        <f>Sheet1!B205</f>
         <v>0</v>
       </c>
       <c r="C190" s="56">
-        <f>Sheet1!C203</f>
+        <f>Sheet1!C205</f>
         <v>0</v>
       </c>
     </row>
@@ -14780,11 +15356,11 @@
         <v>29</v>
       </c>
       <c r="B191" s="56">
-        <f>Sheet1!B204</f>
+        <f>Sheet1!B206</f>
         <v>0</v>
       </c>
       <c r="C191" s="56">
-        <f>Sheet1!C204</f>
+        <f>Sheet1!C206</f>
         <v>0</v>
       </c>
     </row>
@@ -14793,11 +15369,11 @@
         <v>30</v>
       </c>
       <c r="B192" s="56">
-        <f>Sheet1!B205</f>
+        <f>Sheet1!B207</f>
         <v>0</v>
       </c>
       <c r="C192" s="56">
-        <f>Sheet1!C205</f>
+        <f>Sheet1!C207</f>
         <v>0</v>
       </c>
     </row>
@@ -14806,11 +15382,11 @@
         <v>31</v>
       </c>
       <c r="B193" s="56">
-        <f>Sheet1!B206</f>
+        <f>Sheet1!B208</f>
         <v>0</v>
       </c>
       <c r="C193" s="56">
-        <f>Sheet1!C206</f>
+        <f>Sheet1!C208</f>
         <v>0</v>
       </c>
     </row>
@@ -14819,11 +15395,11 @@
         <v>32</v>
       </c>
       <c r="B194" s="56">
-        <f>Sheet1!B207</f>
+        <f>Sheet1!B209</f>
         <v>0</v>
       </c>
       <c r="C194" s="56">
-        <f>Sheet1!C207</f>
+        <f>Sheet1!C209</f>
         <v>0</v>
       </c>
     </row>
@@ -14839,13 +15415,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -14882,11 +15459,14 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="86" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="31"/>
@@ -14906,6 +15486,9 @@
       </c>
       <c r="D4" s="25">
         <v>50000</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">

--- a/Số Cái.xlsx
+++ b/Số Cái.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="76">
   <si>
     <t>Sổ cái</t>
   </si>
@@ -701,16 +701,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137:C165"/>
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,10 +1033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="90"/>
+      <c r="G1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -1069,25 +1069,25 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,39 +1111,39 @@
       </c>
       <c r="M6" s="1">
         <f>SUM(N6:O6)</f>
-        <v>74400</v>
+        <v>74880</v>
       </c>
       <c r="N6" s="1">
         <f>Son!H3+Lang!I4+Thuy!I3+1800</f>
-        <v>67400</v>
+        <v>67800</v>
       </c>
       <c r="O6" s="1">
         <f>Son!I3+Lang!J4+Thuy!J3+180</f>
-        <v>7000</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91">
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="93">
         <v>70000</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="93"/>
+      <c r="K7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="1">
         <f>SUM(I8:I10013)-SUM(J8:J10013)</f>
-        <v>6760</v>
+        <v>7220</v>
       </c>
       <c r="Q7" s="1">
         <f>SUM(BM!$B3:$B100)</f>
@@ -1160,13 +1160,13 @@
       <c r="C8" s="5">
         <v>7.1</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="1">
         <v>320</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="N8" s="20">
         <f>SUM(Son!H9:Z9)+SUM(Lang!I10:Z10)+SUM(Thuy!I9:Z9)</f>
-        <v>54666.666666666657</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1188,13 +1188,13 @@
       <c r="C9" s="5">
         <v>8.1</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="1">
         <v>760</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="N9" s="20">
         <f>SUM(Son!H10:Z10)+SUM(Lang!I11:Z11)+SUM(Thuy!I10:Z10)</f>
-        <v>17753.333333333336</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1216,13 +1216,13 @@
       <c r="C10" s="5">
         <v>9.1</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="1">
         <v>110</v>
       </c>
@@ -1244,13 +1244,13 @@
       <c r="C11" s="5">
         <v>10.1</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="1">
         <v>970</v>
       </c>
@@ -1265,13 +1265,13 @@
       <c r="C12" s="5">
         <v>11.1</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="1">
         <v>330</v>
       </c>
@@ -1286,13 +1286,13 @@
       <c r="C13" s="5">
         <v>12.1</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="1">
         <v>330</v>
       </c>
@@ -1307,13 +1307,13 @@
       <c r="C14" s="5">
         <v>13.1</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="1">
         <v>1070</v>
       </c>
@@ -1328,13 +1328,13 @@
       <c r="C15" s="6">
         <v>13.1</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
       <c r="J15" s="1">
         <v>2820</v>
       </c>
@@ -1349,11 +1349,11 @@
       <c r="C16" s="5">
         <v>14.1</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -1368,11 +1368,11 @@
       <c r="C17" s="5">
         <v>15.1</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -1387,13 +1387,13 @@
       <c r="C18" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="1">
         <v>1080</v>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C19" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
       <c r="J19" s="1">
         <v>2000</v>
       </c>
@@ -1429,20 +1429,20 @@
       <c r="C20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="8">
         <v>22000</v>
       </c>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="91"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1454,13 +1454,13 @@
       <c r="C21" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
       <c r="J21" s="7">
         <v>22000</v>
       </c>
@@ -1475,13 +1475,13 @@
       <c r="C22" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="1">
         <v>530</v>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="C23" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="1">
         <v>820</v>
       </c>
@@ -1517,11 +1517,11 @@
       <c r="C24" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -1536,13 +1536,13 @@
       <c r="C25" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="1">
         <v>930</v>
       </c>
@@ -1557,13 +1557,13 @@
       <c r="C26" s="6">
         <v>21.1</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="1">
         <v>1530</v>
       </c>
@@ -1578,13 +1578,13 @@
       <c r="C27" s="6">
         <v>22.1</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="1">
         <v>820</v>
       </c>
@@ -1599,13 +1599,13 @@
       <c r="C28" s="6">
         <v>23.1</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="1">
         <v>610</v>
       </c>
@@ -1620,11 +1620,11 @@
       <c r="C29" s="6">
         <v>24.1</v>
       </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1636,13 +1636,13 @@
       <c r="C30" s="6">
         <v>25.1</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="1">
         <v>1850</v>
       </c>
@@ -1658,13 +1658,13 @@
       <c r="C31" s="6">
         <v>26.1</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="1">
         <v>320</v>
       </c>
@@ -1680,13 +1680,13 @@
       <c r="C32" s="6">
         <v>27.1</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="1">
         <v>1110</v>
       </c>
@@ -1702,13 +1702,13 @@
       <c r="C33" s="6">
         <v>28.1</v>
       </c>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="1">
         <v>530</v>
       </c>
@@ -1724,13 +1724,13 @@
       <c r="C34" s="6">
         <v>29.1</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="1">
         <v>1320</v>
       </c>
@@ -1746,11 +1746,11 @@
       <c r="C35" s="6">
         <v>1.2</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -1766,13 +1766,13 @@
       <c r="C36" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="1">
         <v>720</v>
       </c>
@@ -1788,13 +1788,13 @@
       <c r="C37" s="13">
         <v>3.2</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="1">
         <v>1740</v>
       </c>
@@ -1810,13 +1810,13 @@
       <c r="C38" s="14">
         <v>4.2</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="1">
         <v>820</v>
       </c>
@@ -1832,13 +1832,13 @@
       <c r="C39" s="14">
         <v>5.2</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="1">
         <v>820</v>
       </c>
@@ -1854,13 +1854,13 @@
       <c r="C40" s="14">
         <v>6.2</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="1">
         <v>820</v>
       </c>
@@ -1876,13 +1876,13 @@
       <c r="C41" s="14">
         <v>7.2</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="1">
         <v>820</v>
       </c>
@@ -1898,13 +1898,13 @@
       <c r="C42" s="14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
       <c r="I42" s="1">
         <v>820</v>
       </c>
@@ -1920,13 +1920,13 @@
       <c r="C43" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="1">
         <v>820</v>
       </c>
@@ -1942,13 +1942,13 @@
       <c r="C44" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="1">
         <v>820</v>
       </c>
@@ -1964,13 +1964,13 @@
       <c r="C45" s="14">
         <v>11.2</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
       <c r="I45" s="1">
         <v>820</v>
       </c>
@@ -1986,11 +1986,11 @@
       <c r="C46" s="14">
         <v>12.2</v>
       </c>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
       <c r="I46" s="1">
         <v>0</v>
       </c>
@@ -2006,13 +2006,13 @@
       <c r="C47" s="14">
         <v>13.2</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
       <c r="I47" s="1">
         <v>1640</v>
       </c>
@@ -2028,13 +2028,13 @@
       <c r="C48" s="14">
         <v>14.2</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
       <c r="I48" s="1">
         <v>820</v>
       </c>
@@ -2050,11 +2050,11 @@
       <c r="C49" s="14">
         <v>15.2</v>
       </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
       <c r="I49" s="1">
         <v>0</v>
       </c>
@@ -2070,13 +2070,13 @@
       <c r="C50" s="14">
         <v>16.2</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
       <c r="I50" s="1">
         <v>1640</v>
       </c>
@@ -2092,13 +2092,13 @@
       <c r="C51" s="14">
         <v>17.2</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
       <c r="I51" s="1">
         <v>610</v>
       </c>
@@ -2114,13 +2114,13 @@
       <c r="C52" s="14">
         <v>18.2</v>
       </c>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
       <c r="I52" s="1">
         <v>1030</v>
       </c>
@@ -2136,13 +2136,13 @@
       <c r="C53" s="14">
         <v>19.2</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
       <c r="I53" s="1">
         <v>820</v>
       </c>
@@ -2158,13 +2158,13 @@
       <c r="C54" s="14">
         <v>20.2</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
       <c r="J54" s="1">
         <v>20000</v>
       </c>
@@ -2177,13 +2177,13 @@
       <c r="C55" s="18">
         <v>20.2</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
       <c r="I55" s="1">
         <v>820</v>
       </c>
@@ -2199,20 +2199,20 @@
       <c r="C56" s="14">
         <v>21.2</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
       <c r="I56" s="1">
         <v>15000</v>
       </c>
-      <c r="K56" s="90" t="s">
+      <c r="K56" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="90"/>
+      <c r="L56" s="91"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -2222,13 +2222,13 @@
       <c r="C57" s="18">
         <v>21.2</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
       <c r="J57" s="1">
         <v>15000</v>
       </c>
@@ -2241,13 +2241,13 @@
       <c r="C58" s="18">
         <v>21.2</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
       <c r="I58" s="1">
         <v>860</v>
       </c>
@@ -2263,13 +2263,13 @@
       <c r="C59" s="14">
         <v>22.2</v>
       </c>
-      <c r="D59" s="90" t="s">
+      <c r="D59" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
       <c r="I59" s="1">
         <v>890</v>
       </c>
@@ -2285,13 +2285,13 @@
       <c r="C60" s="14">
         <v>23.2</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
       <c r="I60" s="1">
         <v>890</v>
       </c>
@@ -2307,13 +2307,13 @@
       <c r="C61" s="14">
         <v>24.2</v>
       </c>
-      <c r="D61" s="90" t="s">
+      <c r="D61" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
       <c r="I61" s="1">
         <v>750</v>
       </c>
@@ -2329,13 +2329,13 @@
       <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
       <c r="I62" s="1">
         <v>1030</v>
       </c>
@@ -2351,13 +2351,13 @@
       <c r="C63" s="14">
         <v>26.2</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
       <c r="I63" s="1">
         <v>890</v>
       </c>
@@ -2373,13 +2373,13 @@
       <c r="C64" s="14">
         <v>27.2</v>
       </c>
-      <c r="D64" s="90" t="s">
+      <c r="D64" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
       <c r="I64" s="1">
         <v>890</v>
       </c>
@@ -2395,13 +2395,13 @@
       <c r="C65" s="14">
         <v>28.2</v>
       </c>
-      <c r="D65" s="90" t="s">
+      <c r="D65" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
       <c r="I65" s="1">
         <v>890</v>
       </c>
@@ -2417,13 +2417,13 @@
       <c r="C66" s="14">
         <v>29.2</v>
       </c>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
       <c r="I66" s="1">
         <v>890</v>
       </c>
@@ -2439,13 +2439,13 @@
       <c r="C67" s="14">
         <v>30.2</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="1">
         <v>750</v>
       </c>
@@ -2458,13 +2458,13 @@
       <c r="C68" s="22">
         <v>30.2</v>
       </c>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
       <c r="J68" s="1">
         <v>10000</v>
       </c>
@@ -2480,13 +2480,13 @@
       <c r="C69" s="5">
         <v>1.3</v>
       </c>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
       <c r="I69" s="1">
         <v>770</v>
       </c>
@@ -2502,13 +2502,13 @@
       <c r="C70" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
       <c r="I70" s="1">
         <f>420+770</f>
         <v>1190</v>
@@ -2525,13 +2525,13 @@
       <c r="C71" s="19">
         <v>3.3</v>
       </c>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
       <c r="I71" s="1">
         <v>680</v>
       </c>
@@ -2547,13 +2547,13 @@
       <c r="C72" s="19">
         <v>4.3</v>
       </c>
-      <c r="D72" s="90" t="s">
+      <c r="D72" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
       <c r="I72" s="1">
         <v>1140</v>
       </c>
@@ -2566,13 +2566,13 @@
       <c r="C73" s="24">
         <v>4.3</v>
       </c>
-      <c r="D73" s="90" t="s">
+      <c r="D73" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
       <c r="J73" s="1">
         <v>50000</v>
       </c>
@@ -2585,13 +2585,13 @@
       <c r="C74" s="24">
         <v>4.3</v>
       </c>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
       <c r="I74" s="1">
         <v>41300</v>
       </c>
@@ -2610,13 +2610,13 @@
       <c r="C75" s="19">
         <v>5.3</v>
       </c>
-      <c r="D75" s="90" t="s">
+      <c r="D75" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
       <c r="I75" s="1">
         <v>140</v>
       </c>
@@ -2632,13 +2632,13 @@
       <c r="C76" s="19">
         <v>6.3</v>
       </c>
-      <c r="D76" s="90" t="s">
+      <c r="D76" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
       <c r="I76" s="1">
         <v>1680</v>
       </c>
@@ -2654,13 +2654,13 @@
       <c r="C77" s="19">
         <v>7.3</v>
       </c>
-      <c r="D77" s="90" t="s">
+      <c r="D77" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
       <c r="I77" s="1">
         <v>3910</v>
       </c>
@@ -2676,13 +2676,13 @@
       <c r="C78" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78" s="90" t="s">
+      <c r="D78" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
       <c r="I78" s="1">
         <v>910</v>
       </c>
@@ -2698,13 +2698,13 @@
       <c r="C79" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D79" s="90" t="s">
+      <c r="D79" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
       <c r="I79" s="1">
         <v>680</v>
       </c>
@@ -2720,13 +2720,13 @@
       <c r="C80" s="19">
         <v>10.3</v>
       </c>
-      <c r="D80" s="90" t="s">
+      <c r="D80" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
       <c r="I80" s="1">
         <v>910</v>
       </c>
@@ -2742,13 +2742,13 @@
       <c r="C81" s="19">
         <v>11.3</v>
       </c>
-      <c r="D81" s="90" t="s">
+      <c r="D81" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
       <c r="I81" s="1">
         <v>5150</v>
       </c>
@@ -2764,13 +2764,13 @@
       <c r="C82" s="19">
         <v>12.3</v>
       </c>
-      <c r="D82" s="90" t="s">
+      <c r="D82" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
       <c r="I82" s="1">
         <v>910</v>
       </c>
@@ -2786,13 +2786,13 @@
       <c r="C83" s="19">
         <v>13.3</v>
       </c>
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
       <c r="I83" s="1">
         <v>910</v>
       </c>
@@ -2808,13 +2808,13 @@
       <c r="C84" s="19">
         <v>14.3</v>
       </c>
-      <c r="D84" s="90" t="s">
+      <c r="D84" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
       <c r="I84" s="1">
         <v>680</v>
       </c>
@@ -2830,13 +2830,13 @@
       <c r="C85" s="19">
         <v>15.3</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
       <c r="I85" s="1">
         <v>5000</v>
       </c>
@@ -2852,13 +2852,13 @@
       <c r="C86" s="19">
         <v>16.3</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
       <c r="I86" s="1">
         <f>540+230+280</f>
         <v>1050</v>
@@ -2875,13 +2875,13 @@
       <c r="C87" s="19">
         <v>17.3</v>
       </c>
-      <c r="D87" s="90" t="s">
+      <c r="D87" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
       <c r="I87" s="1">
         <v>910</v>
       </c>
@@ -2897,13 +2897,13 @@
       <c r="C88" s="19">
         <v>18.3</v>
       </c>
-      <c r="D88" s="90" t="s">
+      <c r="D88" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
       <c r="I88" s="1">
         <v>910</v>
       </c>
@@ -2919,13 +2919,13 @@
       <c r="C89" s="19">
         <v>19.3</v>
       </c>
-      <c r="D89" s="90" t="s">
+      <c r="D89" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
       <c r="I89" s="1">
         <f>540+140</f>
         <v>680</v>
@@ -2942,13 +2942,13 @@
       <c r="C90" s="19">
         <v>20.3</v>
       </c>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
       <c r="I90" s="1">
         <v>5600</v>
       </c>
@@ -2964,13 +2964,13 @@
       <c r="C91" s="19">
         <v>21.3</v>
       </c>
-      <c r="D91" s="90" t="s">
+      <c r="D91" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
       <c r="I91" s="1">
         <v>370</v>
       </c>
@@ -2986,13 +2986,13 @@
       <c r="C92" s="19">
         <v>22.3</v>
       </c>
-      <c r="D92" s="90" t="s">
+      <c r="D92" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
       <c r="I92" s="1">
         <v>370</v>
       </c>
@@ -3005,13 +3005,13 @@
       <c r="C93" s="27">
         <v>22.3</v>
       </c>
-      <c r="D93" s="90" t="s">
+      <c r="D93" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="90"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="90"/>
-      <c r="H93" s="90"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="91"/>
       <c r="J93" s="1">
         <v>13400</v>
       </c>
@@ -3027,13 +3027,13 @@
       <c r="C94" s="19">
         <v>23.3</v>
       </c>
-      <c r="D94" s="90" t="s">
+      <c r="D94" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="90"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
       <c r="I94" s="1">
         <v>890</v>
       </c>
@@ -3049,13 +3049,13 @@
       <c r="C95" s="19">
         <v>24.3</v>
       </c>
-      <c r="D95" s="90" t="s">
+      <c r="D95" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
       <c r="I95" s="1">
         <f>890+35500</f>
         <v>36390</v>
@@ -3072,13 +3072,13 @@
       <c r="C96" s="19">
         <v>25.3</v>
       </c>
-      <c r="D96" s="90" t="s">
+      <c r="D96" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="90"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="90"/>
-      <c r="H96" s="90"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
       <c r="I96" s="1">
         <v>890</v>
       </c>
@@ -3094,13 +3094,13 @@
       <c r="C97" s="19">
         <v>26.3</v>
       </c>
-      <c r="D97" s="90" t="s">
+      <c r="D97" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="90"/>
-      <c r="H97" s="90"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
       <c r="I97" s="1">
         <v>890</v>
       </c>
@@ -3116,13 +3116,13 @@
       <c r="C98" s="19">
         <v>27.3</v>
       </c>
-      <c r="D98" s="90" t="s">
+      <c r="D98" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
       <c r="I98" s="1">
         <v>890</v>
       </c>
@@ -3138,13 +3138,13 @@
       <c r="C99" s="19">
         <v>28.3</v>
       </c>
-      <c r="D99" s="90" t="s">
+      <c r="D99" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
       <c r="I99" s="1">
         <v>140</v>
       </c>
@@ -3160,13 +3160,13 @@
       <c r="C100" s="19">
         <v>29.3</v>
       </c>
-      <c r="D100" s="90" t="s">
+      <c r="D100" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
-      <c r="H100" s="90"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
       <c r="I100" s="1">
         <f>460+140</f>
         <v>600</v>
@@ -3183,13 +3183,13 @@
       <c r="C101" s="5">
         <v>1.4</v>
       </c>
-      <c r="D101" s="90" t="s">
+      <c r="D101" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
       <c r="I101" s="1">
         <v>230</v>
       </c>
@@ -3205,13 +3205,13 @@
       <c r="C102" s="5">
         <v>2.4</v>
       </c>
-      <c r="D102" s="90" t="s">
+      <c r="D102" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
-      <c r="H102" s="90"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
       <c r="I102" s="1">
         <f>230+140+140</f>
         <v>510</v>
@@ -3228,13 +3228,13 @@
       <c r="C103" s="29">
         <v>3.4</v>
       </c>
-      <c r="D103" s="90" t="s">
+      <c r="D103" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
-      <c r="H103" s="90"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
       <c r="I103" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3251,13 +3251,13 @@
       <c r="C104" s="29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D104" s="90" t="s">
+      <c r="D104" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
       <c r="I104" s="1">
         <f>230+140</f>
         <v>370</v>
@@ -3274,13 +3274,13 @@
       <c r="C105" s="29">
         <v>5.4</v>
       </c>
-      <c r="D105" s="90" t="s">
+      <c r="D105" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="90"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
       <c r="I105" s="1">
         <v>140</v>
       </c>
@@ -3296,11 +3296,11 @@
       <c r="C106" s="29">
         <v>6.4</v>
       </c>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
       <c r="I106" s="1">
         <v>0</v>
       </c>
@@ -3316,13 +3316,13 @@
       <c r="C107" s="29">
         <v>7.4</v>
       </c>
-      <c r="D107" s="90" t="s">
+      <c r="D107" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="90"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="91"/>
       <c r="I107" s="1">
         <v>280</v>
       </c>
@@ -3338,11 +3338,11 @@
       <c r="C108" s="29">
         <v>8.4</v>
       </c>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
-      <c r="H108" s="90"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="91"/>
+      <c r="H108" s="91"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
@@ -3355,13 +3355,13 @@
       <c r="C109" s="29">
         <v>9.4</v>
       </c>
-      <c r="D109" s="90" t="s">
+      <c r="D109" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
+      <c r="E109" s="91"/>
+      <c r="F109" s="91"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="91"/>
       <c r="J109" s="1">
         <v>7400</v>
       </c>
@@ -3370,13 +3370,13 @@
       <c r="A110" s="72"/>
       <c r="B110" s="73"/>
       <c r="C110" s="73"/>
-      <c r="D110" s="90" t="s">
+      <c r="D110" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="91"/>
       <c r="J110" s="1">
         <v>50000</v>
       </c>
@@ -3388,13 +3388,13 @@
       <c r="A111" s="74"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
-      <c r="D111" s="90" t="s">
+      <c r="D111" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
-      <c r="H111" s="90"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="91"/>
       <c r="I111" s="1">
         <f>230+230+230+230+140+40</f>
         <v>1100</v>
@@ -3411,13 +3411,13 @@
       <c r="C112" s="29">
         <v>10.4</v>
       </c>
-      <c r="D112" s="90" t="s">
+      <c r="D112" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
-      <c r="H112" s="90"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="91"/>
       <c r="I112" s="1">
         <f>140+440</f>
         <v>580</v>
@@ -3434,13 +3434,13 @@
       <c r="C113" s="29">
         <v>11.4</v>
       </c>
-      <c r="D113" s="90" t="s">
+      <c r="D113" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="90"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="90"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="91"/>
       <c r="I113" s="1">
         <v>5050</v>
       </c>
@@ -3452,13 +3452,13 @@
       <c r="A114" s="77"/>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="90" t="s">
+      <c r="D114" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="90"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90"/>
-      <c r="H114" s="90"/>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+      <c r="G114" s="91"/>
+      <c r="H114" s="91"/>
       <c r="J114" s="1">
         <v>10000</v>
       </c>
@@ -3467,13 +3467,13 @@
       <c r="A115" s="77"/>
       <c r="B115" s="78"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="90" t="s">
+      <c r="D115" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="90"/>
-      <c r="F115" s="90"/>
-      <c r="G115" s="90"/>
-      <c r="H115" s="90"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="91"/>
       <c r="I115" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3490,13 +3490,13 @@
       <c r="C116" s="29">
         <v>12.4</v>
       </c>
-      <c r="D116" s="90" t="s">
+      <c r="D116" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="90"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="90"/>
-      <c r="H116" s="90"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="91"/>
       <c r="I116" s="1">
         <f t="shared" ref="I116:I118" si="2">220+140</f>
         <v>360</v>
@@ -3513,13 +3513,13 @@
       <c r="C117" s="29">
         <v>13.4</v>
       </c>
-      <c r="D117" s="90" t="s">
+      <c r="D117" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="90"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="90"/>
-      <c r="H117" s="90"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
       <c r="I117" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3536,13 +3536,13 @@
       <c r="C118" s="29">
         <v>14.4</v>
       </c>
-      <c r="D118" s="90" t="s">
+      <c r="D118" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="90"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="91"/>
+      <c r="H118" s="91"/>
       <c r="I118" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -3559,13 +3559,13 @@
       <c r="C119" s="29">
         <v>15.4</v>
       </c>
-      <c r="D119" s="90" t="s">
+      <c r="D119" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E119" s="90"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="90"/>
-      <c r="H119" s="90"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
       <c r="I119" s="1">
         <v>220</v>
       </c>
@@ -3581,13 +3581,13 @@
       <c r="C120" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="D120" s="90" t="s">
+      <c r="D120" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E120" s="90"/>
-      <c r="F120" s="90"/>
-      <c r="G120" s="90"/>
-      <c r="H120" s="90"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
+      <c r="H120" s="91"/>
       <c r="I120" s="1">
         <v>220</v>
       </c>
@@ -3603,13 +3603,13 @@
       <c r="C121" s="29">
         <v>17.399999999999999</v>
       </c>
-      <c r="D121" s="90" t="s">
+      <c r="D121" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="90"/>
-      <c r="H121" s="90"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
       <c r="I121" s="1">
         <f>140+140+140</f>
         <v>420</v>
@@ -3626,13 +3626,13 @@
       <c r="C122" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="D122" s="90" t="s">
+      <c r="D122" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="90"/>
-      <c r="H122" s="90"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+      <c r="G122" s="91"/>
+      <c r="H122" s="91"/>
       <c r="I122" s="1">
         <f>220+220+140</f>
         <v>580</v>
@@ -3649,13 +3649,13 @@
       <c r="C123" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="D123" s="90" t="s">
+      <c r="D123" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
-      <c r="H123" s="90"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
       <c r="I123" s="1">
         <f>140+220</f>
         <v>360</v>
@@ -3672,11 +3672,11 @@
       <c r="C124" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="D124" s="90"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
-      <c r="H124" s="90"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="91"/>
+      <c r="F124" s="91"/>
+      <c r="G124" s="91"/>
+      <c r="H124" s="91"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
@@ -3689,13 +3689,13 @@
       <c r="C125" s="29">
         <v>21.4</v>
       </c>
-      <c r="D125" s="90" t="s">
+      <c r="D125" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="90"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="90"/>
-      <c r="H125" s="90"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
       <c r="I125" s="1">
         <v>150</v>
       </c>
@@ -3711,13 +3711,13 @@
       <c r="C126" s="29">
         <v>22.4</v>
       </c>
-      <c r="D126" s="90" t="s">
+      <c r="D126" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="90"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="90"/>
-      <c r="H126" s="90"/>
+      <c r="E126" s="91"/>
+      <c r="F126" s="91"/>
+      <c r="G126" s="91"/>
+      <c r="H126" s="91"/>
       <c r="I126" s="1">
         <f>220*3+150</f>
         <v>810</v>
@@ -3734,13 +3734,13 @@
       <c r="C127" s="29">
         <v>23.4</v>
       </c>
-      <c r="D127" s="90" t="s">
+      <c r="D127" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E127" s="90"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="90"/>
-      <c r="H127" s="90"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="91"/>
+      <c r="G127" s="91"/>
+      <c r="H127" s="91"/>
       <c r="I127" s="1">
         <f>220+140+120</f>
         <v>480</v>
@@ -3757,13 +3757,13 @@
       <c r="C128" s="29">
         <v>24.4</v>
       </c>
-      <c r="D128" s="90" t="s">
+      <c r="D128" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E128" s="90"/>
-      <c r="F128" s="90"/>
-      <c r="G128" s="90"/>
-      <c r="H128" s="90"/>
+      <c r="E128" s="91"/>
+      <c r="F128" s="91"/>
+      <c r="G128" s="91"/>
+      <c r="H128" s="91"/>
       <c r="I128" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3780,13 +3780,13 @@
       <c r="C129" s="29">
         <v>25.4</v>
       </c>
-      <c r="D129" s="90" t="s">
+      <c r="D129" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E129" s="90"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="90"/>
-      <c r="H129" s="90"/>
+      <c r="E129" s="91"/>
+      <c r="F129" s="91"/>
+      <c r="G129" s="91"/>
+      <c r="H129" s="91"/>
       <c r="I129" s="1">
         <f>220</f>
         <v>220</v>
@@ -3803,13 +3803,13 @@
       <c r="C130" s="29">
         <v>26.4</v>
       </c>
-      <c r="D130" s="90" t="s">
+      <c r="D130" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="90"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
-      <c r="H130" s="90"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="91"/>
+      <c r="H130" s="91"/>
       <c r="I130" s="1">
         <f>220+150</f>
         <v>370</v>
@@ -3819,13 +3819,13 @@
       <c r="A131" s="84"/>
       <c r="B131" s="85"/>
       <c r="C131" s="85"/>
-      <c r="D131" s="90" t="s">
+      <c r="D131" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
-      <c r="H131" s="90"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
       <c r="I131" s="1">
         <v>30000</v>
       </c>
@@ -3837,13 +3837,13 @@
       <c r="A132" s="84"/>
       <c r="B132" s="85"/>
       <c r="C132" s="85"/>
-      <c r="D132" s="90" t="s">
+      <c r="D132" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="90"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="90"/>
-      <c r="H132" s="90"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="91"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
       <c r="J132" s="1">
         <v>30000</v>
       </c>
@@ -3859,13 +3859,13 @@
       <c r="C133" s="29">
         <v>27.4</v>
       </c>
-      <c r="D133" s="90" t="s">
+      <c r="D133" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E133" s="90"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="90"/>
-      <c r="H133" s="90"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="91"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
       <c r="I133" s="1">
         <f>220+170</f>
         <v>390</v>
@@ -3882,13 +3882,13 @@
       <c r="C134" s="29">
         <v>28.4</v>
       </c>
-      <c r="D134" s="90" t="s">
+      <c r="D134" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E134" s="90"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="90"/>
-      <c r="H134" s="90"/>
+      <c r="E134" s="91"/>
+      <c r="F134" s="91"/>
+      <c r="G134" s="91"/>
+      <c r="H134" s="91"/>
       <c r="I134" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3905,13 +3905,13 @@
       <c r="C135" s="29">
         <v>29.4</v>
       </c>
-      <c r="D135" s="90" t="s">
+      <c r="D135" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E135" s="90"/>
-      <c r="F135" s="90"/>
-      <c r="G135" s="90"/>
-      <c r="H135" s="90"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
+      <c r="H135" s="91"/>
       <c r="I135" s="1">
         <f>220+140</f>
         <v>360</v>
@@ -3928,11 +3928,17 @@
       <c r="C136" s="29">
         <v>30.4</v>
       </c>
-      <c r="D136" s="90"/>
-      <c r="E136" s="90"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="90"/>
+      <c r="D136" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="91"/>
+      <c r="F136" s="91"/>
+      <c r="G136" s="91"/>
+      <c r="H136" s="91"/>
+      <c r="I136" s="1">
+        <f>220+240</f>
+        <v>460</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
@@ -3945,11 +3951,11 @@
       <c r="C137" s="5">
         <v>1.5</v>
       </c>
-      <c r="D137" s="90"/>
-      <c r="E137" s="90"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="90"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="91"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
@@ -3962,11 +3968,11 @@
       <c r="C138" s="5">
         <v>2.5</v>
       </c>
-      <c r="D138" s="90"/>
-      <c r="E138" s="90"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="90"/>
-      <c r="H138" s="90"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="91"/>
+      <c r="G138" s="91"/>
+      <c r="H138" s="91"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
@@ -3979,11 +3985,11 @@
       <c r="C139" s="89">
         <v>3.5</v>
       </c>
-      <c r="D139" s="90"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="90"/>
-      <c r="H139" s="90"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="91"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="91"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
@@ -3996,11 +4002,11 @@
       <c r="C140" s="89">
         <v>4.5</v>
       </c>
-      <c r="D140" s="90"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="90"/>
-      <c r="H140" s="90"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="91"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="91"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
@@ -4013,11 +4019,11 @@
       <c r="C141" s="89">
         <v>5.5</v>
       </c>
-      <c r="D141" s="90"/>
-      <c r="E141" s="90"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
-      <c r="H141" s="90"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="91"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="28">
@@ -4030,11 +4036,11 @@
       <c r="C142" s="89">
         <v>6.5</v>
       </c>
-      <c r="D142" s="90"/>
-      <c r="E142" s="90"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="90"/>
-      <c r="H142" s="90"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="91"/>
+      <c r="G142" s="91"/>
+      <c r="H142" s="91"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="88">
@@ -4047,11 +4053,11 @@
       <c r="C143" s="89">
         <v>7.5</v>
       </c>
-      <c r="D143" s="90"/>
-      <c r="E143" s="90"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
-      <c r="H143" s="90"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="91"/>
+      <c r="G143" s="91"/>
+      <c r="H143" s="91"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="88">
@@ -4064,11 +4070,11 @@
       <c r="C144" s="89">
         <v>8.5</v>
       </c>
-      <c r="D144" s="90"/>
-      <c r="E144" s="90"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="90"/>
-      <c r="H144" s="90"/>
+      <c r="D144" s="91"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="91"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="91"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="88">
@@ -4081,11 +4087,11 @@
       <c r="C145" s="89">
         <v>9.5</v>
       </c>
-      <c r="D145" s="90"/>
-      <c r="E145" s="90"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="90"/>
-      <c r="H145" s="90"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="88">
@@ -4098,11 +4104,11 @@
       <c r="C146" s="89">
         <v>10.5</v>
       </c>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="90"/>
-      <c r="H146" s="90"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="91"/>
+      <c r="G146" s="91"/>
+      <c r="H146" s="91"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="88">
@@ -4115,11 +4121,11 @@
       <c r="C147" s="89">
         <v>11.5</v>
       </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="90"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="90"/>
-      <c r="H147" s="90"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="91"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="88">
@@ -4132,11 +4138,11 @@
       <c r="C148" s="89">
         <v>12.5</v>
       </c>
-      <c r="D148" s="90"/>
-      <c r="E148" s="90"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="90"/>
-      <c r="H148" s="90"/>
+      <c r="D148" s="91"/>
+      <c r="E148" s="91"/>
+      <c r="F148" s="91"/>
+      <c r="G148" s="91"/>
+      <c r="H148" s="91"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="88">
@@ -4149,11 +4155,11 @@
       <c r="C149" s="89">
         <v>13.5</v>
       </c>
-      <c r="D149" s="90"/>
-      <c r="E149" s="90"/>
-      <c r="F149" s="90"/>
-      <c r="G149" s="90"/>
-      <c r="H149" s="90"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="91"/>
+      <c r="F149" s="91"/>
+      <c r="G149" s="91"/>
+      <c r="H149" s="91"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="88">
@@ -4166,11 +4172,11 @@
       <c r="C150" s="89">
         <v>14.5</v>
       </c>
-      <c r="D150" s="90"/>
-      <c r="E150" s="90"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="90"/>
-      <c r="H150" s="90"/>
+      <c r="D150" s="91"/>
+      <c r="E150" s="91"/>
+      <c r="F150" s="91"/>
+      <c r="G150" s="91"/>
+      <c r="H150" s="91"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="88">
@@ -4183,11 +4189,11 @@
       <c r="C151" s="89">
         <v>15.5</v>
       </c>
-      <c r="D151" s="90"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="90"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="91"/>
+      <c r="H151" s="91"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="88">
@@ -4200,11 +4206,11 @@
       <c r="C152" s="89">
         <v>16.5</v>
       </c>
-      <c r="D152" s="90"/>
-      <c r="E152" s="90"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
-      <c r="H152" s="90"/>
+      <c r="D152" s="91"/>
+      <c r="E152" s="91"/>
+      <c r="F152" s="91"/>
+      <c r="G152" s="91"/>
+      <c r="H152" s="91"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="88">
@@ -4217,11 +4223,11 @@
       <c r="C153" s="89">
         <v>17.5</v>
       </c>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="91"/>
+      <c r="F153" s="91"/>
+      <c r="G153" s="91"/>
+      <c r="H153" s="91"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="88">
@@ -4234,11 +4240,11 @@
       <c r="C154" s="89">
         <v>18.5</v>
       </c>
-      <c r="D154" s="90"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
-      <c r="H154" s="90"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="91"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="91"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="88">
@@ -4251,11 +4257,11 @@
       <c r="C155" s="89">
         <v>19.5</v>
       </c>
-      <c r="D155" s="90"/>
-      <c r="E155" s="90"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
-      <c r="H155" s="90"/>
+      <c r="D155" s="91"/>
+      <c r="E155" s="91"/>
+      <c r="F155" s="91"/>
+      <c r="G155" s="91"/>
+      <c r="H155" s="91"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="88">
@@ -4268,11 +4274,11 @@
       <c r="C156" s="89">
         <v>20.5</v>
       </c>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="90"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="91"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="88">
@@ -4285,11 +4291,11 @@
       <c r="C157" s="89">
         <v>21.5</v>
       </c>
-      <c r="D157" s="90"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="90"/>
+      <c r="D157" s="91"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="91"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="88">
@@ -4302,11 +4308,11 @@
       <c r="C158" s="89">
         <v>22.5</v>
       </c>
-      <c r="D158" s="90"/>
-      <c r="E158" s="90"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="90"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="91"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="88">
@@ -4319,11 +4325,11 @@
       <c r="C159" s="89">
         <v>23.5</v>
       </c>
-      <c r="D159" s="90"/>
-      <c r="E159" s="90"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="90"/>
-      <c r="H159" s="90"/>
+      <c r="D159" s="91"/>
+      <c r="E159" s="91"/>
+      <c r="F159" s="91"/>
+      <c r="G159" s="91"/>
+      <c r="H159" s="91"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="88">
@@ -4336,11 +4342,11 @@
       <c r="C160" s="89">
         <v>24.5</v>
       </c>
-      <c r="D160" s="90"/>
-      <c r="E160" s="90"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="90"/>
-      <c r="H160" s="90"/>
+      <c r="D160" s="91"/>
+      <c r="E160" s="91"/>
+      <c r="F160" s="91"/>
+      <c r="G160" s="91"/>
+      <c r="H160" s="91"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="88">
@@ -4353,11 +4359,11 @@
       <c r="C161" s="89">
         <v>25.5</v>
       </c>
-      <c r="D161" s="90"/>
-      <c r="E161" s="90"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
-      <c r="H161" s="90"/>
+      <c r="D161" s="91"/>
+      <c r="E161" s="91"/>
+      <c r="F161" s="91"/>
+      <c r="G161" s="91"/>
+      <c r="H161" s="91"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="88">
@@ -4370,11 +4376,11 @@
       <c r="C162" s="89">
         <v>26.5</v>
       </c>
-      <c r="D162" s="90"/>
-      <c r="E162" s="90"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="90"/>
-      <c r="H162" s="90"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="91"/>
+      <c r="G162" s="91"/>
+      <c r="H162" s="91"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="88">
@@ -4387,11 +4393,11 @@
       <c r="C163" s="89">
         <v>27.5</v>
       </c>
-      <c r="D163" s="90"/>
-      <c r="E163" s="90"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="90"/>
-      <c r="H163" s="90"/>
+      <c r="D163" s="91"/>
+      <c r="E163" s="91"/>
+      <c r="F163" s="91"/>
+      <c r="G163" s="91"/>
+      <c r="H163" s="91"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="88">
@@ -4404,11 +4410,11 @@
       <c r="C164" s="89">
         <v>28.5</v>
       </c>
-      <c r="D164" s="90"/>
-      <c r="E164" s="90"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="90"/>
-      <c r="H164" s="90"/>
+      <c r="D164" s="91"/>
+      <c r="E164" s="91"/>
+      <c r="F164" s="91"/>
+      <c r="G164" s="91"/>
+      <c r="H164" s="91"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="88">
@@ -4421,11 +4427,11 @@
       <c r="C165" s="89">
         <v>29.5</v>
       </c>
-      <c r="D165" s="90"/>
-      <c r="E165" s="90"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="90"/>
-      <c r="H165" s="90"/>
+      <c r="D165" s="91"/>
+      <c r="E165" s="91"/>
+      <c r="F165" s="91"/>
+      <c r="G165" s="91"/>
+      <c r="H165" s="91"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="88">
@@ -4435,11 +4441,11 @@
       <c r="B166" s="89">
         <v>24.6</v>
       </c>
-      <c r="D166" s="90"/>
-      <c r="E166" s="90"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="90"/>
+      <c r="D166" s="91"/>
+      <c r="E166" s="91"/>
+      <c r="F166" s="91"/>
+      <c r="G166" s="91"/>
+      <c r="H166" s="91"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="88">
@@ -4449,11 +4455,11 @@
       <c r="B167" s="89">
         <v>25.6</v>
       </c>
-      <c r="D167" s="90"/>
-      <c r="E167" s="90"/>
-      <c r="F167" s="90"/>
-      <c r="G167" s="90"/>
-      <c r="H167" s="90"/>
+      <c r="D167" s="91"/>
+      <c r="E167" s="91"/>
+      <c r="F167" s="91"/>
+      <c r="G167" s="91"/>
+      <c r="H167" s="91"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="88">
@@ -4463,11 +4469,11 @@
       <c r="B168" s="89">
         <v>26.6</v>
       </c>
-      <c r="D168" s="90"/>
-      <c r="E168" s="90"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
-      <c r="H168" s="90"/>
+      <c r="D168" s="91"/>
+      <c r="E168" s="91"/>
+      <c r="F168" s="91"/>
+      <c r="G168" s="91"/>
+      <c r="H168" s="91"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="88">
@@ -4477,11 +4483,11 @@
       <c r="B169" s="89">
         <v>27.6</v>
       </c>
-      <c r="D169" s="90"/>
-      <c r="E169" s="90"/>
-      <c r="F169" s="90"/>
-      <c r="G169" s="90"/>
-      <c r="H169" s="90"/>
+      <c r="D169" s="91"/>
+      <c r="E169" s="91"/>
+      <c r="F169" s="91"/>
+      <c r="G169" s="91"/>
+      <c r="H169" s="91"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="88">
@@ -4491,11 +4497,11 @@
       <c r="B170" s="89">
         <v>28.6</v>
       </c>
-      <c r="D170" s="90"/>
-      <c r="E170" s="90"/>
-      <c r="F170" s="90"/>
-      <c r="G170" s="90"/>
-      <c r="H170" s="90"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="91"/>
+      <c r="F170" s="91"/>
+      <c r="G170" s="91"/>
+      <c r="H170" s="91"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="88">
@@ -4505,11 +4511,11 @@
       <c r="B171" s="89">
         <v>29.6</v>
       </c>
-      <c r="D171" s="90"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="90"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="91"/>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="88">
@@ -4519,187 +4525,187 @@
       <c r="B172" s="89">
         <v>30.6</v>
       </c>
-      <c r="D172" s="90"/>
-      <c r="E172" s="90"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="90"/>
-      <c r="H172" s="90"/>
+      <c r="D172" s="91"/>
+      <c r="E172" s="91"/>
+      <c r="F172" s="91"/>
+      <c r="G172" s="91"/>
+      <c r="H172" s="91"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="88">
         <f t="shared" si="3"/>
         <v>153</v>
       </c>
-      <c r="D173" s="90"/>
-      <c r="E173" s="90"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="90"/>
-      <c r="H173" s="90"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="91"/>
+      <c r="G173" s="91"/>
+      <c r="H173" s="91"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="88">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="D174" s="90"/>
-      <c r="E174" s="90"/>
-      <c r="F174" s="90"/>
-      <c r="G174" s="90"/>
-      <c r="H174" s="90"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="91"/>
+      <c r="G174" s="91"/>
+      <c r="H174" s="91"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="88">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="D175" s="90"/>
-      <c r="E175" s="90"/>
-      <c r="F175" s="90"/>
-      <c r="G175" s="90"/>
-      <c r="H175" s="90"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="88">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="D176" s="90"/>
-      <c r="E176" s="90"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="90"/>
-      <c r="H176" s="90"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="91"/>
+      <c r="F176" s="91"/>
+      <c r="G176" s="91"/>
+      <c r="H176" s="91"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="88">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="D177" s="90"/>
-      <c r="E177" s="90"/>
-      <c r="F177" s="90"/>
-      <c r="G177" s="90"/>
-      <c r="H177" s="90"/>
+      <c r="D177" s="91"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="88">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="D178" s="90"/>
-      <c r="E178" s="90"/>
-      <c r="F178" s="90"/>
-      <c r="G178" s="90"/>
-      <c r="H178" s="90"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="91"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="91"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="88">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="D179" s="90"/>
-      <c r="E179" s="90"/>
-      <c r="F179" s="90"/>
-      <c r="G179" s="90"/>
-      <c r="H179" s="90"/>
+      <c r="D179" s="91"/>
+      <c r="E179" s="91"/>
+      <c r="F179" s="91"/>
+      <c r="G179" s="91"/>
+      <c r="H179" s="91"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="88">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="D180" s="90"/>
-      <c r="E180" s="90"/>
-      <c r="F180" s="90"/>
-      <c r="G180" s="90"/>
-      <c r="H180" s="90"/>
+      <c r="D180" s="91"/>
+      <c r="E180" s="91"/>
+      <c r="F180" s="91"/>
+      <c r="G180" s="91"/>
+      <c r="H180" s="91"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="88">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="D181" s="90"/>
-      <c r="E181" s="90"/>
-      <c r="F181" s="90"/>
-      <c r="G181" s="90"/>
-      <c r="H181" s="90"/>
+      <c r="D181" s="91"/>
+      <c r="E181" s="91"/>
+      <c r="F181" s="91"/>
+      <c r="G181" s="91"/>
+      <c r="H181" s="91"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="88">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="D182" s="90"/>
-      <c r="E182" s="90"/>
-      <c r="F182" s="90"/>
-      <c r="G182" s="90"/>
-      <c r="H182" s="90"/>
+      <c r="D182" s="91"/>
+      <c r="E182" s="91"/>
+      <c r="F182" s="91"/>
+      <c r="G182" s="91"/>
+      <c r="H182" s="91"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="88">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="D183" s="90"/>
-      <c r="E183" s="90"/>
-      <c r="F183" s="90"/>
-      <c r="G183" s="90"/>
-      <c r="H183" s="90"/>
+      <c r="D183" s="91"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="91"/>
+      <c r="G183" s="91"/>
+      <c r="H183" s="91"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="88">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="D184" s="90"/>
-      <c r="E184" s="90"/>
-      <c r="F184" s="90"/>
-      <c r="G184" s="90"/>
-      <c r="H184" s="90"/>
+      <c r="D184" s="91"/>
+      <c r="E184" s="91"/>
+      <c r="F184" s="91"/>
+      <c r="G184" s="91"/>
+      <c r="H184" s="91"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="88">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="D185" s="90"/>
-      <c r="E185" s="90"/>
-      <c r="F185" s="90"/>
-      <c r="G185" s="90"/>
-      <c r="H185" s="90"/>
+      <c r="D185" s="91"/>
+      <c r="E185" s="91"/>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91"/>
+      <c r="H185" s="91"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="88">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="D186" s="90"/>
-      <c r="E186" s="90"/>
-      <c r="F186" s="90"/>
-      <c r="G186" s="90"/>
-      <c r="H186" s="90"/>
+      <c r="D186" s="91"/>
+      <c r="E186" s="91"/>
+      <c r="F186" s="91"/>
+      <c r="G186" s="91"/>
+      <c r="H186" s="91"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="88">
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
-      <c r="D187" s="90"/>
-      <c r="E187" s="90"/>
-      <c r="F187" s="90"/>
-      <c r="G187" s="90"/>
-      <c r="H187" s="90"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91"/>
+      <c r="F187" s="91"/>
+      <c r="G187" s="91"/>
+      <c r="H187" s="91"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="88">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="D188" s="90"/>
-      <c r="E188" s="90"/>
-      <c r="F188" s="90"/>
-      <c r="G188" s="90"/>
-      <c r="H188" s="90"/>
+      <c r="D188" s="91"/>
+      <c r="E188" s="91"/>
+      <c r="F188" s="91"/>
+      <c r="G188" s="91"/>
+      <c r="H188" s="91"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="88">
@@ -4775,173 +4781,6 @@
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D61:H61"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D87:H87"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="D101:H101"/>
-    <mergeCell ref="D89:H89"/>
-    <mergeCell ref="D90:H90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="D109:H109"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="D117:H117"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="D103:H103"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D107:H107"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D127:H127"/>
-    <mergeCell ref="D128:H128"/>
-    <mergeCell ref="D129:H129"/>
-    <mergeCell ref="D118:H118"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="D122:H122"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D141:H141"/>
-    <mergeCell ref="D142:H142"/>
-    <mergeCell ref="D143:H143"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D134:H134"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D131:H131"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D150:H150"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D152:H152"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D155:H155"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="D147:H147"/>
-    <mergeCell ref="D148:H148"/>
-    <mergeCell ref="D149:H149"/>
-    <mergeCell ref="D172:H172"/>
-    <mergeCell ref="D173:H173"/>
-    <mergeCell ref="D162:H162"/>
-    <mergeCell ref="D163:H163"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D165:H165"/>
-    <mergeCell ref="D166:H166"/>
-    <mergeCell ref="D167:H167"/>
-    <mergeCell ref="D156:H156"/>
-    <mergeCell ref="D157:H157"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D159:H159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="D161:H161"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="D186:H186"/>
@@ -4966,6 +4805,173 @@
     <mergeCell ref="D169:H169"/>
     <mergeCell ref="D170:H170"/>
     <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D173:H173"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D163:H163"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D166:H166"/>
+    <mergeCell ref="D167:H167"/>
+    <mergeCell ref="D156:H156"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D159:H159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D161:H161"/>
+    <mergeCell ref="D150:H150"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D155:H155"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D147:H147"/>
+    <mergeCell ref="D148:H148"/>
+    <mergeCell ref="D149:H149"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D134:H134"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D127:H127"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D121:H121"/>
+    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D108:H108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D107:H107"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D79:H79"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8157,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118:F120"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8236,15 +8242,15 @@
       <c r="G4" s="42"/>
       <c r="H4" s="50">
         <f>SUM(I4:J4)</f>
-        <v>24680</v>
+        <v>24920</v>
       </c>
       <c r="I4" s="51">
         <f>SUM(I7:AA7)</f>
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="J4" s="52">
         <f>SUM(I9:AA9)</f>
-        <v>2480</v>
+        <v>2520</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -8317,7 +8323,7 @@
       </c>
       <c r="J7" s="56">
         <f>SUM($D$101:$D$191)</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="56"/>
@@ -8344,7 +8350,7 @@
       </c>
       <c r="J8" s="56">
         <f>J7/200</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="56"/>
@@ -8367,11 +8373,11 @@
       </c>
       <c r="I9" s="56">
         <f>SUM($E$10:$E$131)+SUM($F$10:$F$131)</f>
-        <v>2060</v>
+        <v>2080</v>
       </c>
       <c r="J9" s="56">
         <f>SUM($F$101:$F$191)</f>
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="56"/>
@@ -8406,7 +8412,7 @@
       </c>
       <c r="J10" s="56">
         <f>(J7/100)*(10000/120)</f>
-        <v>3500</v>
+        <v>3666.6666666666665</v>
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="56"/>
@@ -8437,11 +8443,11 @@
       </c>
       <c r="I11" s="61">
         <f>I7-I10+I9</f>
-        <v>5060</v>
+        <v>5080</v>
       </c>
       <c r="J11" s="61">
         <f>J7-J10+J9</f>
-        <v>1120</v>
+        <v>1173.3333333333335</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="56"/>
@@ -10618,6 +10624,12 @@
       <c r="C121" s="56">
         <f>Sheet1!C136</f>
         <v>30.4</v>
+      </c>
+      <c r="D121" s="54">
+        <v>200</v>
+      </c>
+      <c r="F121" s="70">
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -11582,7 +11594,7 @@
   <dimension ref="A2:P194"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:F120"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11634,15 +11646,15 @@
       <c r="G3" s="42"/>
       <c r="H3" s="50">
         <f>SUM(I3:J3)</f>
-        <v>14020</v>
+        <v>14260</v>
       </c>
       <c r="I3" s="51">
         <f>SUM(I6:AA6)</f>
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="J3" s="52">
         <f>SUM(I8:AA8)</f>
-        <v>3120</v>
+        <v>3160</v>
       </c>
       <c r="K3" s="54"/>
     </row>
@@ -11725,7 +11737,7 @@
       </c>
       <c r="J6" s="56">
         <f>SUM($D$100:$D$190)</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K6" s="70"/>
     </row>
@@ -11748,7 +11760,7 @@
       </c>
       <c r="J7" s="56">
         <f>J6/100</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -11771,7 +11783,7 @@
       </c>
       <c r="J8" s="56">
         <f>SUM($E$100:$E$190)+SUM($F$100:$F$190)</f>
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="K8" s="70"/>
     </row>
@@ -11794,7 +11806,7 @@
       </c>
       <c r="J9" s="56">
         <f>(J6/100)*(10000/120)</f>
-        <v>1666.6666666666665</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="K9" s="70"/>
     </row>
@@ -11825,7 +11837,7 @@
       </c>
       <c r="J10" s="56">
         <f>J6-J9+J8</f>
-        <v>1173.3333333333335</v>
+        <v>1246.6666666666667</v>
       </c>
       <c r="K10" s="70"/>
     </row>
@@ -14452,6 +14464,15 @@
       <c r="C121" s="56">
         <f>Sheet1!C136</f>
         <v>30.4</v>
+      </c>
+      <c r="D121" s="80">
+        <v>200</v>
+      </c>
+      <c r="E121" s="80">
+        <v>10</v>
+      </c>
+      <c r="F121" s="81">
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
